--- a/spreadex.xlsx
+++ b/spreadex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E5E045-9BE4-41D6-B36F-CED391F75F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597C986D-D55D-48DC-8FCA-5CBE0BF79A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>24/11/2022 20:55</t>
   </si>
@@ -67,6 +67,33 @@
   </si>
   <si>
     <t>REALISED P&amp; L</t>
+  </si>
+  <si>
+    <t>27/11/2022 14:57</t>
+  </si>
+  <si>
+    <t>Belgium v Morocco</t>
+  </si>
+  <si>
+    <t>27/11/2022 11:32</t>
+  </si>
+  <si>
+    <t>TOURNAMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WC </t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>27/11/2022 17:57</t>
+  </si>
+  <si>
+    <t>Croatia v Canada</t>
+  </si>
+  <si>
+    <t>27/11/2022 15:01</t>
   </si>
 </sst>
 </file>
@@ -117,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -140,11 +167,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -159,12 +214,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2ACDE7-BC8B-432A-9773-10E95E9E94B1}">
-  <dimension ref="A2:H4"/>
+  <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -491,53 +556,58 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>-0.18</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="8">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="7">
         <v>-0.18</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="A4" s="2" t="s">
@@ -560,6 +630,104 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-0.09</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spreadex.xlsx
+++ b/spreadex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597C986D-D55D-48DC-8FCA-5CBE0BF79A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44B2E7E-A81E-457F-99A8-F373881D94BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>24/11/2022 20:55</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>27/11/2022 15:01</t>
+  </si>
+  <si>
+    <t>Bookings</t>
+  </si>
+  <si>
+    <t>Sunderland v Millwall</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Brazil v South Korea</t>
   </si>
 </sst>
 </file>
@@ -199,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -230,6 +242,9 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2ACDE7-BC8B-432A-9773-10E95E9E94B1}">
-  <dimension ref="A2:H10"/>
+  <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -729,6 +744,104 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A12" s="12">
+        <v>44632.602777777778</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E12" s="4">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-0.08</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A13" s="12">
+        <v>44632.436805555553</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E13" s="4">
+        <v>44</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A15" s="12">
+        <v>44693.870833333334</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A16" s="12">
+        <v>44693.76458333333</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/spreadex.xlsx
+++ b/spreadex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44B2E7E-A81E-457F-99A8-F373881D94BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C9BAC5-EF1D-4144-998D-8AEABA6CC44D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
   <si>
     <t>24/11/2022 20:55</t>
   </si>
@@ -66,9 +66,6 @@
     <t>PRICE</t>
   </si>
   <si>
-    <t>REALISED P&amp; L</t>
-  </si>
-  <si>
     <t>27/11/2022 14:57</t>
   </si>
   <si>
@@ -106,13 +103,37 @@
   </si>
   <si>
     <t>Brazil v South Korea</t>
+  </si>
+  <si>
+    <t>Tenerife v Alaves</t>
+  </si>
+  <si>
+    <t>FC Cartagena v Villarreal B</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
+    <t>Corners</t>
+  </si>
+  <si>
+    <t>Palermo v Como</t>
+  </si>
+  <si>
+    <t>Parma v Benevento</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>REALISED PandL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,22 +580,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2ACDE7-BC8B-432A-9773-10E95E9E94B1}">
-  <dimension ref="A2:H16"/>
+  <dimension ref="A2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -592,13 +616,13 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="10" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -621,10 +645,10 @@
         <v>-0.18</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -646,16 +670,16 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3">
         <v>-0.18</v>
@@ -670,18 +694,18 @@
         <v>-0.09</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5">
         <v>0.18</v>
@@ -695,16 +719,16 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3">
         <v>-0.18</v>
@@ -719,18 +743,18 @@
         <v>0.45</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="5">
         <v>0.18</v>
@@ -744,16 +768,16 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>44632.602777777778</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D12" s="3">
         <v>-0.02</v>
@@ -768,18 +792,18 @@
         <v>-0.08</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>44632.436805555553</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D13" s="5">
         <v>0.02</v>
@@ -793,8 +817,8 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>44693.870833333334</v>
       </c>
@@ -802,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3">
         <v>-0.18</v>
@@ -817,10 +841,10 @@
         <v>0.36</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>44693.76458333333</v>
       </c>
@@ -828,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="5">
         <v>0.18</v>
@@ -841,6 +865,229 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>44754.915277777778</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E18" s="4">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>44754.833333333336</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E19" s="4">
+        <v>57</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>44754.831250000003</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E21" s="4">
+        <v>40</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-0.17</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>44754.684027777781</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E22" s="4">
+        <v>57</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>44785.894444444442</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="3">
+        <v>-0.09</v>
+      </c>
+      <c r="E25" s="4">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="3">
+        <v>-0.25</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>44785.756249999999</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="E26" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>44785.5625</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3">
+        <v>-0.3</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>44785.427777777775</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spreadex.xlsx
+++ b/spreadex.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C9BAC5-EF1D-4144-998D-8AEABA6CC44D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AB1EDE-FEA4-4927-9685-23B388476F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="43">
   <si>
     <t>24/11/2022 20:55</t>
   </si>
@@ -127,6 +128,39 @@
   </si>
   <si>
     <t>REALISED PandL</t>
+  </si>
+  <si>
+    <t>Eibar v Oviedo</t>
+  </si>
+  <si>
+    <t>Goals x Corners</t>
+  </si>
+  <si>
+    <t>QPR v Burnley</t>
+  </si>
+  <si>
+    <t>Cagliari v Perugia</t>
+  </si>
+  <si>
+    <t>England v France</t>
+  </si>
+  <si>
+    <t>Shirt Numbers</t>
+  </si>
+  <si>
+    <t>Netherlands v Argentina</t>
+  </si>
+  <si>
+    <t>Croatia v Brazil</t>
+  </si>
+  <si>
+    <t>Total Goal Minutes</t>
+  </si>
+  <si>
+    <t>Wuhan Three Towns v Shandong Taishan</t>
+  </si>
+  <si>
+    <t>SUPER LEAGUE</t>
   </si>
 </sst>
 </file>
@@ -580,22 +614,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2ACDE7-BC8B-432A-9773-10E95E9E94B1}">
-  <dimension ref="A2:H29"/>
+  <dimension ref="A2:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1089,8 +1127,487 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>44816.879166666666</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E31" s="4">
+        <v>74</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>44816.759722222225</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E32" s="4">
+        <v>30</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>44816.702777777777</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E34" s="4">
+        <v>40</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <v>44816.595833333333</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E35" s="4">
+        <v>38</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>44816.559027777781</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E37" s="4">
+        <v>64</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="3">
+        <v>-0.89</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>44816.427777777775</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E38" s="4">
+        <v>153</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>44816.559027777781</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
+        <v>44816.379166666666</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E41" s="4">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <v>44846.876388888886</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E43" s="4">
+        <v>40</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <v>44846.8125</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E44" s="4">
+        <v>35</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>44877.806250000001</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E47" s="4">
+        <v>20</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
+        <v>-0.36</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>44877.713194444441</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E48" s="4">
+        <v>56</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>44877.621527777781</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E50" s="4">
+        <v>24</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>44877.445833333331</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E51" s="4">
+        <v>28.5</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
+        <v>44877.556250000001</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="E53" s="4">
+        <v>40</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="3">
+        <v>-0.85</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
+        <v>44877.465277777781</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E54" s="4">
+        <v>57</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="3"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829BCB3E-ADB5-497C-8636-01F5B5FDB73F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/spreadex.xlsx
+++ b/spreadex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AB1EDE-FEA4-4927-9685-23B388476F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FD1EE1-1857-420D-99AC-166E6045C7FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="64">
   <si>
     <t>24/11/2022 20:55</t>
   </si>
@@ -161,6 +161,69 @@
   </si>
   <si>
     <t>SUPER LEAGUE</t>
+  </si>
+  <si>
+    <t>18/12/2022 16:56</t>
+  </si>
+  <si>
+    <t>Argentina v France</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>18/12/2022 13:51</t>
+  </si>
+  <si>
+    <t>16/12/2022 21:42</t>
+  </si>
+  <si>
+    <t>Birmingham v Reading</t>
+  </si>
+  <si>
+    <t>16/12/2022 21:32</t>
+  </si>
+  <si>
+    <t>16/12/2022 19:21</t>
+  </si>
+  <si>
+    <t>16/12/2022 11:04</t>
+  </si>
+  <si>
+    <t>15/12/2022 21:56</t>
+  </si>
+  <si>
+    <t>Rangers v Hibernian</t>
+  </si>
+  <si>
+    <t>15/12/2022 10:48</t>
+  </si>
+  <si>
+    <t>14/12/2022 13:24</t>
+  </si>
+  <si>
+    <t>Guangzhou City v Shanghai Shenhua</t>
+  </si>
+  <si>
+    <t>14/12/2022 11:24</t>
+  </si>
+  <si>
+    <t>13/12/2022 20:55</t>
+  </si>
+  <si>
+    <t>Argentina v Croatia</t>
+  </si>
+  <si>
+    <t>13/12/2022 18:07</t>
+  </si>
+  <si>
+    <t>Alaves v Levante</t>
+  </si>
+  <si>
+    <t>Brescia v Parma</t>
+  </si>
+  <si>
+    <t>SC0</t>
   </si>
 </sst>
 </file>
@@ -266,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -296,9 +359,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,13 +691,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2ACDE7-BC8B-432A-9773-10E95E9E94B1}">
-  <dimension ref="A2:H58"/>
+  <dimension ref="A2:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L44" sqref="L44"/>
+      <selection pane="bottomRight" activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,8 +709,15 @@
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="15" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -656,7 +740,7 @@
       <c r="G2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -682,7 +766,7 @@
       <c r="G3" s="7">
         <v>-0.18</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -706,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -731,7 +815,7 @@
       <c r="G6" s="3">
         <v>-0.09</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -755,7 +839,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -780,7 +864,7 @@
       <c r="G9" s="5">
         <v>0.45</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -804,11 +888,11 @@
         <v>5</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>44632.602777777778</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -829,12 +913,12 @@
       <c r="G12" s="3">
         <v>-0.08</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>44632.436805555553</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -853,11 +937,11 @@
         <v>5</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>44693.870833333334</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -878,12 +962,12 @@
       <c r="G15" s="5">
         <v>0.36</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>44693.76458333333</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -902,11 +986,11 @@
         <v>5</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>44754.915277777778</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -927,12 +1011,12 @@
       <c r="G18" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>44754.833333333336</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -951,20 +1035,20 @@
         <v>5</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>44754.831250000003</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -985,12 +1069,12 @@
       <c r="G21" s="3">
         <v>-0.17</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>44754.684027777781</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1009,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -1019,10 +1103,10 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <v>44785.894444444442</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1043,12 +1127,12 @@
       <c r="G25" s="3">
         <v>-0.25</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
+      <c r="A26" s="11">
         <v>44785.756249999999</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1067,20 +1151,20 @@
         <v>5</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <v>44785.5625</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1101,12 +1185,12 @@
       <c r="G28" s="3">
         <v>-0.3</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
+      <c r="A29" s="11">
         <v>44785.427777777775</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1125,11 +1209,11 @@
         <v>5</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
+      <c r="A31" s="11">
         <v>44816.879166666666</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1150,12 +1234,12 @@
       <c r="G31" s="5">
         <v>0.44</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
+      <c r="A32" s="11">
         <v>44816.759722222225</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1174,20 +1258,20 @@
         <v>5</v>
       </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="5"/>
       <c r="E33" s="4"/>
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
+      <c r="A34" s="11">
         <v>44816.702777777777</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1208,12 +1292,12 @@
       <c r="G34" s="5">
         <v>0.02</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
+      <c r="A35" s="11">
         <v>44816.595833333333</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1232,20 +1316,20 @@
         <v>5</v>
       </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="2"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="2"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
+      <c r="A37" s="11">
         <v>44816.559027777781</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1266,12 +1350,12 @@
       <c r="G37" s="3">
         <v>-0.89</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
+      <c r="A38" s="11">
         <v>44816.427777777775</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1290,20 +1374,20 @@
         <v>5</v>
       </c>
       <c r="G38" s="3"/>
-      <c r="H38" s="2"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="5"/>
       <c r="E39" s="4"/>
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="2"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
+      <c r="A40" s="11">
         <v>44816.559027777781</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1324,12 +1408,12 @@
       <c r="G40" s="3">
         <v>-0.18</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
+      <c r="A41" s="11">
         <v>44816.379166666666</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1348,20 +1432,20 @@
         <v>5</v>
       </c>
       <c r="G41" s="3"/>
-      <c r="H41" s="2"/>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="5"/>
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="2"/>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
+      <c r="A43" s="11">
         <v>44846.876388888886</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1382,12 +1466,12 @@
       <c r="G43" s="5">
         <v>0.05</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
+      <c r="A44" s="11">
         <v>44846.8125</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1406,21 +1490,21 @@
         <v>5</v>
       </c>
       <c r="G44" s="3"/>
-      <c r="H44" s="2"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="5"/>
       <c r="E45" s="4"/>
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="2"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
+      <c r="A47" s="11">
         <v>44877.806250000001</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1441,12 +1525,12 @@
       <c r="G47" s="3">
         <v>-0.36</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
+      <c r="A48" s="11">
         <v>44877.713194444441</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -1465,20 +1549,20 @@
         <v>5</v>
       </c>
       <c r="G48" s="3"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
+      <c r="H48" s="16"/>
+    </row>
+    <row r="49" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
         <v>44877.621527777781</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1499,12 +1583,12 @@
       <c r="G50" s="3">
         <v>-0.05</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12">
+    <row r="51" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
         <v>44877.445833333331</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -1523,20 +1607,20 @@
         <v>5</v>
       </c>
       <c r="G51" s="3"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="5"/>
       <c r="E52" s="4"/>
       <c r="F52" s="2"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12">
+      <c r="H52" s="16"/>
+    </row>
+    <row r="53" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11">
         <v>44877.556250000001</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -1557,12 +1641,12 @@
       <c r="G53" s="3">
         <v>-0.85</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12">
+    <row r="54" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11">
         <v>44877.465277777781</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -1581,16 +1665,450 @@
         <v>5</v>
       </c>
       <c r="G54" s="3"/>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G57" s="3"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="16"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T55" s="2"/>
+    </row>
+    <row r="56" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="11">
+        <v>44907.699305555558</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E56" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T56" s="2"/>
+    </row>
+    <row r="57" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="11">
+        <v>44907.893750000003</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E57" s="4">
+        <v>2</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H57" s="16"/>
+      <c r="T57" s="2"/>
+    </row>
+    <row r="58" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="H58" s="14"/>
+      <c r="T58" s="2"/>
+    </row>
+    <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="11">
+        <v>44907.737500000003</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E59" s="4">
+        <v>63</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T59" s="2"/>
+    </row>
+    <row r="60" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="11">
+        <v>44907.910416666666</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E60" s="4">
+        <v>66</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="S60" s="3"/>
+      <c r="T60" s="2"/>
+    </row>
+    <row r="61" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T61" s="2"/>
+    </row>
+    <row r="62" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E62" s="4">
+        <v>40</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T62" s="2"/>
+    </row>
+    <row r="63" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E63" s="4">
+        <v>50</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T64" s="2"/>
+    </row>
+    <row r="65" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E65" s="4">
+        <v>2</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="3">
+        <v>-0.06</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E66" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="T66" s="2"/>
+    </row>
+    <row r="67" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M67" s="11"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E68" s="4">
+        <v>5</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M68" s="11"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="2"/>
+    </row>
+    <row r="69" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E69" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="2"/>
+    </row>
+    <row r="70" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M70" s="11"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+    </row>
+    <row r="71" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E71" s="4">
+        <v>44</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E72" s="4">
+        <v>18</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E74" s="4">
+        <v>42</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E75" s="4">
+        <v>29</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E77" s="4">
+        <v>27.5</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G77" s="3">
+        <v>-0.09</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E78" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spreadex.xlsx
+++ b/spreadex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FD1EE1-1857-420D-99AC-166E6045C7FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C760B4CF-A9AD-44AD-A2B7-C0652B8CB540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$153</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="145">
   <si>
     <t>24/11/2022 20:55</t>
   </si>
@@ -224,12 +227,258 @@
   </si>
   <si>
     <t>SC0</t>
+  </si>
+  <si>
+    <t>22/12/2022 21:53</t>
+  </si>
+  <si>
+    <t>Man City v Liverpool</t>
+  </si>
+  <si>
+    <t>22/12/2022 19:28</t>
+  </si>
+  <si>
+    <t>21/12/2022 21:56</t>
+  </si>
+  <si>
+    <t>Man Utd v Burnley</t>
+  </si>
+  <si>
+    <t>21/12/2022 21:43</t>
+  </si>
+  <si>
+    <t>Goal Rush</t>
+  </si>
+  <si>
+    <t>Celtic v Livingston</t>
+  </si>
+  <si>
+    <t>21/12/2022 19:30</t>
+  </si>
+  <si>
+    <t>21/12/2022 19:12</t>
+  </si>
+  <si>
+    <t>20/12/2022 21:59</t>
+  </si>
+  <si>
+    <t>Aberdeen v Rangers</t>
+  </si>
+  <si>
+    <t>20/12/2022 21:58</t>
+  </si>
+  <si>
+    <t>20/12/2022 21:19</t>
+  </si>
+  <si>
+    <t>MK Dons v Leicester</t>
+  </si>
+  <si>
+    <t>20/12/2022 19:44</t>
+  </si>
+  <si>
+    <t>20/12/2022 16:34</t>
+  </si>
+  <si>
+    <t>20/12/2022 16:23</t>
+  </si>
+  <si>
+    <t>19/12/2022 21:41</t>
+  </si>
+  <si>
+    <t>Leganes v Zaragoza</t>
+  </si>
+  <si>
+    <t>19/12/2022 21:39</t>
+  </si>
+  <si>
+    <t>Wigan v Sheff Utd</t>
+  </si>
+  <si>
+    <t>19/12/2022 19:56</t>
+  </si>
+  <si>
+    <t>FCSB v Botosani</t>
+  </si>
+  <si>
+    <t>19/12/2022 19:30</t>
+  </si>
+  <si>
+    <t>19/12/2022 17:46</t>
+  </si>
+  <si>
+    <t>19/12/2022 16:51</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>EFL</t>
+  </si>
+  <si>
+    <t>27/12/2022 21:53</t>
+  </si>
+  <si>
+    <t>Marcus Rashford SMM</t>
+  </si>
+  <si>
+    <t>Man Utd v Nottingham Forest</t>
+  </si>
+  <si>
+    <t>27/12/2022 19:48</t>
+  </si>
+  <si>
+    <t>27/12/2022 19:26</t>
+  </si>
+  <si>
+    <t>Chelsea v Bournemouth</t>
+  </si>
+  <si>
+    <t>27/12/2022 13:34</t>
+  </si>
+  <si>
+    <t>26/12/2022 21:49</t>
+  </si>
+  <si>
+    <t>Arsenal v West Ham</t>
+  </si>
+  <si>
+    <t>26/12/2022 19:26</t>
+  </si>
+  <si>
+    <t>Aston Villa v Liverpool</t>
+  </si>
+  <si>
+    <t>26/12/2022 17:46</t>
+  </si>
+  <si>
+    <t>26/12/2022 17:09</t>
+  </si>
+  <si>
+    <t>26/12/2022 16:54</t>
+  </si>
+  <si>
+    <t>Crystal Palace v Fulham</t>
+  </si>
+  <si>
+    <t>26/12/2022 15:57</t>
+  </si>
+  <si>
+    <t>Goals x Bookings</t>
+  </si>
+  <si>
+    <t>Southampton v Brighton</t>
+  </si>
+  <si>
+    <t>26/12/2022 14:29</t>
+  </si>
+  <si>
+    <t>26/12/2022 14:28</t>
+  </si>
+  <si>
+    <t>Club Brugge v Leuven</t>
+  </si>
+  <si>
+    <t>26/12/2022 14:11</t>
+  </si>
+  <si>
+    <t>26/12/2022 14:07</t>
+  </si>
+  <si>
+    <t>Brentford v Tottenham</t>
+  </si>
+  <si>
+    <t>26/12/2022 11:39</t>
+  </si>
+  <si>
+    <t>26/12/2022 11:32</t>
+  </si>
+  <si>
+    <t>25/12/2022 15:04</t>
+  </si>
+  <si>
+    <t>Gaziantep v Besiktas</t>
+  </si>
+  <si>
+    <t>25/12/2022 12:11</t>
+  </si>
+  <si>
+    <t>24/12/2022 14:33</t>
+  </si>
+  <si>
+    <t>St Mirren v Aberdeen</t>
+  </si>
+  <si>
+    <t>24/12/2022 13:58</t>
+  </si>
+  <si>
+    <t>Celtic v St Johnstone</t>
+  </si>
+  <si>
+    <t>24/12/2022 11:31</t>
+  </si>
+  <si>
+    <t>24/12/2022 10:58</t>
+  </si>
+  <si>
+    <t>23/12/2022 21:35</t>
+  </si>
+  <si>
+    <t>Partick v Inverness CT</t>
+  </si>
+  <si>
+    <t>23/12/2022 21:25</t>
+  </si>
+  <si>
+    <t>Gent v Standard Liege</t>
+  </si>
+  <si>
+    <t>23/12/2022 21:23</t>
+  </si>
+  <si>
+    <t>Ross County v Rangers</t>
+  </si>
+  <si>
+    <t>23/12/2022 19:22</t>
+  </si>
+  <si>
+    <t>RFC Seraing v Eupen</t>
+  </si>
+  <si>
+    <t>23/12/2022 19:17</t>
+  </si>
+  <si>
+    <t>23/12/2022 19:07</t>
+  </si>
+  <si>
+    <t>Antalyaspor v Ankaragucu</t>
+  </si>
+  <si>
+    <t>23/12/2022 18:56</t>
+  </si>
+  <si>
+    <t>23/12/2022 16:35</t>
+  </si>
+  <si>
+    <t>23/12/2022 15:29</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>E0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -329,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -376,6 +625,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,13 +946,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2ACDE7-BC8B-432A-9773-10E95E9E94B1}">
-  <dimension ref="A2:T78"/>
+  <dimension ref="A1:U152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L73" sqref="L73"/>
+      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,88 +969,114 @@
     <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
     <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>-0.18</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7">
+        <v>-0.18</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
         <v>-0.18</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="7">
-        <v>-0.18</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-0.09</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
@@ -803,48 +1084,48 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3">
         <v>-0.18</v>
       </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>-0.09</v>
-      </c>
-      <c r="H6" s="16" t="s">
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -852,48 +1133,48 @@
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3">
-        <v>-0.18</v>
+      <c r="D9" s="5">
+        <v>0.18</v>
       </c>
       <c r="E9" s="4">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>5</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>44632.602777777778</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E11" s="4">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-0.08</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
-        <v>44632.602777777778</v>
+        <v>44632.436805555553</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
@@ -901,48 +1182,48 @@
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="3">
-        <v>-0.02</v>
+      <c r="D12" s="5">
+        <v>0.02</v>
       </c>
       <c r="E12" s="4">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>-0.08</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>44632.436805555553</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="E13" s="4">
-        <v>44</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>5</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>44693.870833333334</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
-        <v>44693.870833333334</v>
+        <v>44693.76458333333</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
@@ -950,48 +1231,48 @@
       <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3">
-        <v>-0.18</v>
+      <c r="D15" s="5">
+        <v>0.18</v>
       </c>
       <c r="E15" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.36</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>44693.76458333333</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="E16" s="4">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>44754.915277777778</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E17" s="4">
+        <v>50</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
-        <v>44754.915277777778</v>
+        <v>44754.833333333336</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>20</v>
@@ -999,57 +1280,57 @@
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="3">
-        <v>-0.01</v>
+      <c r="D18" s="5">
+        <v>0.01</v>
       </c>
       <c r="E18" s="4">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>26</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>44754.833333333336</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="E19" s="4">
-        <v>57</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A19" s="11"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="3"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="16"/>
+      <c r="A20" s="11">
+        <v>44754.831250000003</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E20" s="4">
+        <v>40</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-0.17</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
-        <v>44754.831250000003</v>
+        <v>44754.684027777781</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -1057,57 +1338,57 @@
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="3">
-        <v>-0.01</v>
+      <c r="D21" s="5">
+        <v>0.01</v>
       </c>
       <c r="E21" s="4">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-0.17</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <v>44754.684027777781</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="E22" s="4">
-        <v>57</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="14"/>
+      <c r="A24" s="11">
+        <v>44785.894444444442</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="3">
+        <v>-0.09</v>
+      </c>
+      <c r="E24" s="4">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-0.25</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
-        <v>44785.894444444442</v>
+        <v>44785.756249999999</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>27</v>
@@ -1115,57 +1396,57 @@
       <c r="C25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="3">
-        <v>-0.09</v>
+      <c r="D25" s="5">
+        <v>0.09</v>
       </c>
       <c r="E25" s="4">
-        <v>7</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="3">
-        <v>-0.25</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>30</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
-        <v>44785.756249999999</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="E26" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A26" s="11"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="3"/>
       <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="16"/>
+      <c r="A27" s="11">
+        <v>44785.5625</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-0.3</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
-        <v>44785.5625</v>
+        <v>44785.427777777775</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1</v>
@@ -1173,48 +1454,48 @@
       <c r="C28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="3">
-        <v>-0.2</v>
+      <c r="D28" s="5">
+        <v>0.2</v>
       </c>
       <c r="E28" s="4">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="3">
-        <v>-0.3</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
-        <v>44785.427777777775</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>5</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>44816.879166666666</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E30" s="4">
+        <v>74</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
-        <v>44816.879166666666</v>
+        <v>44816.759722222225</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>37</v>
@@ -1222,57 +1503,57 @@
       <c r="C31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="3">
-        <v>-0.01</v>
+      <c r="D31" s="5">
+        <v>0.01</v>
       </c>
       <c r="E31" s="4">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0.44</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>16</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
-        <v>44816.759722222225</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="E32" s="4">
-        <v>30</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A32" s="11"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="3"/>
       <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="16"/>
+      <c r="A33" s="11">
+        <v>44816.702777777777</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E33" s="4">
+        <v>40</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
-        <v>44816.702777777777</v>
+        <v>44816.595833333333</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>20</v>
@@ -1280,57 +1561,57 @@
       <c r="C34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="3">
-        <v>-0.01</v>
+      <c r="D34" s="5">
+        <v>0.01</v>
       </c>
       <c r="E34" s="4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>16</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
-        <v>44816.595833333333</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="E35" s="4">
-        <v>38</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A35" s="11"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="2"/>
       <c r="G35" s="3"/>
       <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="16"/>
+      <c r="A36" s="11">
+        <v>44816.559027777781</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E36" s="4">
+        <v>64</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="3">
+        <v>-0.89</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
-        <v>44816.559027777781</v>
+        <v>44816.427777777775</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>40</v>
@@ -1338,57 +1619,57 @@
       <c r="C37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="3">
-        <v>-0.01</v>
+      <c r="D37" s="5">
+        <v>0.01</v>
       </c>
       <c r="E37" s="4">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37" s="3">
-        <v>-0.89</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>42</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
-        <v>44816.427777777775</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="E38" s="4">
-        <v>153</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A38" s="11"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="2"/>
       <c r="G38" s="3"/>
       <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="16"/>
+      <c r="A39" s="11">
+        <v>44816.559027777781</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
-        <v>44816.559027777781</v>
+        <v>44816.379166666666</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>1</v>
@@ -1396,57 +1677,57 @@
       <c r="C40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="3">
-        <v>-0.18</v>
+      <c r="D40" s="5">
+        <v>0.18</v>
       </c>
       <c r="E40" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" s="3">
-        <v>-0.18</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>42</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
-        <v>44816.379166666666</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="E41" s="4">
-        <v>3</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A41" s="11"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="2"/>
       <c r="G41" s="3"/>
       <c r="H41" s="16"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="16"/>
+      <c r="A42" s="11">
+        <v>44846.876388888886</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E42" s="4">
+        <v>40</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
-        <v>44846.876388888886</v>
+        <v>44846.8125</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>20</v>
@@ -1454,58 +1735,58 @@
       <c r="C43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>-0.01</v>
+      <c r="D43" s="5">
+        <v>0.01</v>
       </c>
       <c r="E43" s="4">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>16</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
-        <v>44846.8125</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="E44" s="4">
-        <v>35</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A44" s="11"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="2"/>
       <c r="G44" s="3"/>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="16"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
+        <v>44877.806250000001</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E46" s="4">
+        <v>20</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3">
+        <v>-0.36</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
-        <v>44877.806250000001</v>
+        <v>44877.713194444441</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>20</v>
@@ -1513,57 +1794,57 @@
       <c r="C47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="3">
-        <v>-0.01</v>
+      <c r="D47" s="5">
+        <v>0.01</v>
       </c>
       <c r="E47" s="4">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3">
-        <v>-0.36</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>26</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="16"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
-        <v>44877.713194444441</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="E48" s="4">
-        <v>56</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A48" s="11"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="2"/>
       <c r="G48" s="3"/>
       <c r="H48" s="16"/>
     </row>
     <row r="49" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="16"/>
+      <c r="A49" s="11">
+        <v>44877.621527777781</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E49" s="4">
+        <v>24</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="50" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
-        <v>44877.621527777781</v>
+        <v>44877.445833333331</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>33</v>
@@ -1571,57 +1852,57 @@
       <c r="C50" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="3">
-        <v>-0.01</v>
+      <c r="D50" s="5">
+        <v>0.01</v>
       </c>
       <c r="E50" s="4">
-        <v>24</v>
+        <v>28.5</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" s="3">
-        <v>-0.05</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>22</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11">
-        <v>44877.445833333331</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="E51" s="4">
-        <v>28.5</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A51" s="11"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="2"/>
       <c r="G51" s="3"/>
       <c r="H51" s="16"/>
     </row>
     <row r="52" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="16"/>
+      <c r="A52" s="11">
+        <v>44877.556250000001</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="E52" s="4">
+        <v>40</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
+        <v>-0.85</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="53" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
-        <v>44877.556250000001</v>
+        <v>44877.465277777781</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>20</v>
@@ -1629,58 +1910,56 @@
       <c r="C53" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D53" s="3">
-        <v>-0.05</v>
+      <c r="D53" s="5">
+        <v>0.05</v>
       </c>
       <c r="E53" s="4">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="3">
-        <v>-0.85</v>
-      </c>
-      <c r="H53" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="16"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+    </row>
+    <row r="54" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T54" s="2"/>
+    </row>
+    <row r="55" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11">
+        <v>44907.699305555558</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E55" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="11">
-        <v>44877.465277777781</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E54" s="4">
-        <v>57</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="16"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-    </row>
-    <row r="55" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T55" s="2"/>
     </row>
     <row r="56" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
-        <v>44907.699305555558</v>
+        <v>44907.893750000003</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>1</v>
@@ -1688,53 +1967,53 @@
       <c r="C56" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="5">
-        <v>0.18</v>
+      <c r="D56" s="3">
+        <v>-0.18</v>
       </c>
       <c r="E56" s="4">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>30</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G56" s="3">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H56" s="16"/>
       <c r="T56" s="2"/>
     </row>
     <row r="57" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11">
-        <v>44907.893750000003</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="3">
-        <v>-0.18</v>
-      </c>
-      <c r="E57" s="4">
-        <v>2</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="H57" s="16"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="14"/>
       <c r="T57" s="2"/>
     </row>
     <row r="58" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G58" s="1"/>
-      <c r="H58" s="14"/>
+      <c r="A58" s="11">
+        <v>44907.737500000003</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E58" s="4">
+        <v>63</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="T58" s="2"/>
     </row>
     <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
-        <v>44907.737500000003</v>
+        <v>44907.910416666666</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>20</v>
@@ -1742,51 +2021,54 @@
       <c r="C59" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="5">
-        <v>0.01</v>
+      <c r="D59" s="3">
+        <v>-0.01</v>
       </c>
       <c r="E59" s="4">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>26</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="S59" s="3"/>
       <c r="T59" s="2"/>
     </row>
     <row r="60" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="11">
-        <v>44907.910416666666</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="T60" s="2"/>
+    </row>
+    <row r="61" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="3">
+      <c r="C61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="3">
         <v>-0.01</v>
       </c>
-      <c r="E60" s="4">
-        <v>66</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G60" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="S60" s="3"/>
-      <c r="T60" s="2"/>
-    </row>
-    <row r="61" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="4">
+        <v>40</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="T61" s="2"/>
     </row>
     <row r="62" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>20</v>
@@ -1794,51 +2076,51 @@
       <c r="C62" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="3">
-        <v>-0.01</v>
+      <c r="D62" s="5">
+        <v>0.01</v>
       </c>
       <c r="E62" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>16</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G62" s="3"/>
       <c r="T62" s="2"/>
     </row>
     <row r="63" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D63" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="E63" s="4">
-        <v>50</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" s="3"/>
       <c r="T63" s="2"/>
     </row>
     <row r="64" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E64" s="4">
+        <v>2</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="3">
+        <v>-0.06</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>1</v>
@@ -1846,58 +2128,65 @@
       <c r="C65" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E65" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M66" s="11"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="2"/>
+    </row>
+    <row r="67" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="3">
         <v>-0.19</v>
       </c>
-      <c r="E65" s="4">
-        <v>2</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G65" s="3">
-        <v>-0.06</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="T65" s="2"/>
-    </row>
-    <row r="66" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D66" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="E66" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3"/>
-      <c r="T66" s="2"/>
-    </row>
-    <row r="67" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="4">
+        <v>5</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="M67" s="11"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="2"/>
-      <c r="S67" s="5"/>
+      <c r="S67" s="3"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>1</v>
@@ -1905,72 +2194,61 @@
       <c r="C68" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="3">
-        <v>-0.19</v>
+      <c r="D68" s="5">
+        <v>0.19</v>
       </c>
       <c r="E68" s="4">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G68" s="5">
-        <v>0.34</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>63</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G68" s="3"/>
       <c r="M68" s="11"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
-      <c r="P68" s="3"/>
+      <c r="P68" s="5"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="2"/>
       <c r="S68" s="3"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D69" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="E69" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G69" s="3"/>
+    <row r="69" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M69" s="11"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="2"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="2"/>
-    </row>
-    <row r="70" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M70" s="11"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-    </row>
-    <row r="71" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+    </row>
+    <row r="70" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E70" s="4">
+        <v>44</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>20</v>
@@ -1978,46 +2256,59 @@
       <c r="C71" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D71" s="5">
-        <v>0.01</v>
+      <c r="D71" s="3">
+        <v>-0.01</v>
       </c>
       <c r="E71" s="4">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H71" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G71" s="3">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+    </row>
+    <row r="73" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E73" s="4">
+        <v>42</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="H73" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="E72" s="4">
-        <v>18</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U73" s="2"/>
+    </row>
+    <row r="74" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>37</v>
@@ -2025,47 +2316,51 @@
       <c r="C74" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D74" s="3">
-        <v>-0.01</v>
+      <c r="D74" s="5">
+        <v>0.01</v>
       </c>
       <c r="E74" s="4">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="U74" s="2"/>
+    </row>
+    <row r="75" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U75" s="2"/>
+    </row>
+    <row r="76" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E76" s="4">
+        <v>27.5</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G74" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D75" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="E75" s="4">
-        <v>29</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="3">
+        <v>-0.09</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="U76" s="2"/>
+    </row>
+    <row r="77" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>33</v>
@@ -2073,42 +2368,1299 @@
       <c r="C77" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E77" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="M77" s="1"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="2"/>
+    </row>
+    <row r="78" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M78" s="1"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="2"/>
+    </row>
+    <row r="79" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E79" s="4">
+        <v>60</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="U79" s="2"/>
+    </row>
+    <row r="80" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="E80" s="4">
+        <v>70</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="2"/>
+    </row>
+    <row r="81" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="17"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+    </row>
+    <row r="82" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E82" s="4">
+        <v>3.05</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+    </row>
+    <row r="83" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3">
+        <v>-0.37</v>
+      </c>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+    </row>
+    <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+    </row>
+    <row r="85" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E85" s="4">
+        <v>42</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+    </row>
+    <row r="86" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E86" s="4">
+        <v>51</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G86" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+    </row>
+    <row r="87" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+    </row>
+    <row r="88" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E88" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+    </row>
+    <row r="89" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E89" s="4">
+        <v>3.65</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G89" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+    </row>
+    <row r="90" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T90" s="2"/>
+      <c r="U90" s="1"/>
+    </row>
+    <row r="91" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D91" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E91" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="2"/>
+    </row>
+    <row r="92" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D92" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E92" s="4">
+        <v>40</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H92" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="T92" s="2"/>
+    </row>
+    <row r="93" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T93" s="2"/>
+    </row>
+    <row r="94" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94" s="5">
         <v>0.01</v>
       </c>
-      <c r="E77" s="4">
-        <v>27.5</v>
-      </c>
-      <c r="F77" s="2" t="s">
+      <c r="E94" s="4">
+        <v>67</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="2"/>
+    </row>
+    <row r="95" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D95" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E95" s="4">
+        <v>135</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="H95" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="T95" s="2"/>
+    </row>
+    <row r="96" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T96" s="2"/>
+    </row>
+    <row r="97" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D97" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E97" s="4">
+        <v>53</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T97" s="2"/>
+    </row>
+    <row r="98" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E98" s="4">
+        <v>33</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" s="3">
+        <v>-0.4</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="T98" s="2"/>
+    </row>
+    <row r="99" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T99" s="2"/>
+    </row>
+    <row r="100" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E100" s="4">
+        <v>54</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="T100" s="2"/>
+    </row>
+    <row r="101" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E101" s="4">
+        <v>24</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-0.3</v>
+      </c>
+      <c r="T101" s="2"/>
+    </row>
+    <row r="102" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T102" s="2"/>
+    </row>
+    <row r="103" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D103" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E103" s="4">
+        <v>5</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G103" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="T103" s="2"/>
+    </row>
+    <row r="104" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D104" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E104" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" s="3"/>
+      <c r="T104" s="2"/>
+    </row>
+    <row r="105" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T105" s="2"/>
+    </row>
+    <row r="106" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D106" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E106" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T106" s="2"/>
+    </row>
+    <row r="107" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D107" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E107" s="4">
+        <v>2</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" s="3">
+        <v>-0.11</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="T107" s="2"/>
+    </row>
+    <row r="108" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S108" s="3"/>
+      <c r="T108" s="2"/>
+    </row>
+    <row r="109" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D109" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E109" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S109" s="3"/>
+      <c r="T109" s="2"/>
+    </row>
+    <row r="110" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D110" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E110" s="4">
+        <v>1</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G110" s="3">
+        <v>-0.32</v>
+      </c>
+      <c r="H110" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="T110" s="2"/>
+    </row>
+    <row r="111" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S111" s="3"/>
+      <c r="T111" s="2"/>
+    </row>
+    <row r="112" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D112" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E112" s="4">
+        <v>3</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="2"/>
+    </row>
+    <row r="113" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D113" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="E113" s="4">
+        <v>0</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G113" s="3">
+        <v>-1.5</v>
+      </c>
+      <c r="H113" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="T113" s="1"/>
+    </row>
+    <row r="114" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D115" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E115" s="4">
+        <v>137</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D116" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E116" s="4">
+        <v>30</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116" s="3">
+        <v>-1.07</v>
+      </c>
+      <c r="H116" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D118" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E118" s="4">
+        <v>28.5</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D119" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E119" s="4">
+        <v>42</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G119" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H119" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="S119" s="3"/>
+    </row>
+    <row r="120" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S120" s="3"/>
+    </row>
+    <row r="121" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D121" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E121" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D122" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E122" s="4">
+        <v>6.15</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G77" s="3">
-        <v>-0.09</v>
-      </c>
-      <c r="H77" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B78" s="2" t="s">
+      <c r="G122" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="H122" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="3"/>
+    </row>
+    <row r="124" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D124" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E124" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D125" s="3">
+        <v>-0.25</v>
+      </c>
+      <c r="E125" s="4">
+        <v>4</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G125" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H125" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="S125" s="3"/>
+    </row>
+    <row r="126" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D127" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E127" s="4">
+        <v>2</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G127" s="3">
+        <v>-0.23</v>
+      </c>
+      <c r="H127" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="S127" s="3"/>
+    </row>
+    <row r="128" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D128" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E128" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G128" s="3"/>
+      <c r="S128" s="3"/>
+    </row>
+    <row r="129" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D130" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E130" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D131" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E131" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G131" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H131" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D133" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E133" s="4">
+        <v>3.45</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D134" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E134" s="4">
+        <v>2</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G134" s="3">
+        <v>-0.26</v>
+      </c>
+      <c r="H134" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="S134" s="3"/>
+    </row>
+    <row r="135" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D136" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E136" s="4">
+        <v>101</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D137" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E137" s="4">
+        <v>76</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G137" s="3">
+        <v>-0.25</v>
+      </c>
+      <c r="H137" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D139" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E139" s="4">
+        <v>38</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D140" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E140" s="4">
+        <v>60</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G140" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="H140" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D142" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E142" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D143" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E143" s="4">
+        <v>4</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G143" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="H143" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D78" s="3">
+      <c r="C145" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D145" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E145" s="4">
+        <v>29.5</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D146" s="3">
         <v>-0.01</v>
       </c>
-      <c r="E78" s="4">
-        <v>18.5</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G78" s="3"/>
+      <c r="E146" s="4">
+        <v>45</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G146" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="H146" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D148" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E148" s="4">
+        <v>2</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G148" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="H148" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D149" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E149" s="4">
+        <v>3</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G149" s="3"/>
+    </row>
+    <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D151" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E151" s="4">
+        <v>19</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G151" s="3">
+        <v>-0.23</v>
+      </c>
+      <c r="H151" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D152" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E152" s="4">
+        <v>42</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G152" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spreadex.xlsx
+++ b/spreadex.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C760B4CF-A9AD-44AD-A2B7-C0652B8CB540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA414F6-33BC-4C99-97DD-F5FA93E371A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Total Goals" sheetId="4" r:id="rId2"/>
+    <sheet name="deposits" sheetId="2" r:id="rId3"/>
+    <sheet name="withdrawals" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$153</definedName>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="249">
   <si>
     <t>24/11/2022 20:55</t>
   </si>
@@ -470,6 +472,318 @@
   </si>
   <si>
     <t>E0</t>
+  </si>
+  <si>
+    <t>Deposits</t>
+  </si>
+  <si>
+    <t>28/12/2022</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>24/11/2022</t>
+  </si>
+  <si>
+    <t>Withdrawals</t>
+  </si>
+  <si>
+    <t>30/12/2022</t>
+  </si>
+  <si>
+    <t>Lens v Paris Saint-Germain</t>
+  </si>
+  <si>
+    <t>Nottingham Forest v Chelsea</t>
+  </si>
+  <si>
+    <t>Monaco v Brest</t>
+  </si>
+  <si>
+    <t>Angers v Lorient</t>
+  </si>
+  <si>
+    <t>Tottenham v Aston Villa</t>
+  </si>
+  <si>
+    <t>Blackburn v Cardiff</t>
+  </si>
+  <si>
+    <t>31/12/2022 19:26</t>
+  </si>
+  <si>
+    <t>Brighton v Arsenal</t>
+  </si>
+  <si>
+    <t>31/12/2022 17:05</t>
+  </si>
+  <si>
+    <t>31/12/2022 16:54</t>
+  </si>
+  <si>
+    <t>Goals x Shirts</t>
+  </si>
+  <si>
+    <t>Man City v Everton</t>
+  </si>
+  <si>
+    <t>31/12/2022 15:02</t>
+  </si>
+  <si>
+    <t>Barcelona v Espanyol</t>
+  </si>
+  <si>
+    <t>31/12/2022 14:23</t>
+  </si>
+  <si>
+    <t>Wolves v Man Utd</t>
+  </si>
+  <si>
+    <t>31/12/2022 14:08</t>
+  </si>
+  <si>
+    <t>31/12/2022 12:36</t>
+  </si>
+  <si>
+    <t>31/12/2022 12:34</t>
+  </si>
+  <si>
+    <t>31/12/2022 12:02</t>
+  </si>
+  <si>
+    <t>30/12/2022 22:26</t>
+  </si>
+  <si>
+    <t>Valladolid v Real Madrid</t>
+  </si>
+  <si>
+    <t>30/12/2022 21:55</t>
+  </si>
+  <si>
+    <t>Liverpool v Leicester</t>
+  </si>
+  <si>
+    <t>30/12/2022 21:42</t>
+  </si>
+  <si>
+    <t>West Ham v Brentford</t>
+  </si>
+  <si>
+    <t>30/12/2022 20:14</t>
+  </si>
+  <si>
+    <t>30/12/2022 20:10</t>
+  </si>
+  <si>
+    <t>Celta Vigo v Sevilla</t>
+  </si>
+  <si>
+    <t>30/12/2022 19:06</t>
+  </si>
+  <si>
+    <t>30/12/2022 17:54</t>
+  </si>
+  <si>
+    <t>Getafe v Mallorca</t>
+  </si>
+  <si>
+    <t>30/12/2022 17:33</t>
+  </si>
+  <si>
+    <t>30/12/2022 15:23</t>
+  </si>
+  <si>
+    <t>30/12/2022 11:32</t>
+  </si>
+  <si>
+    <t>29/12/2022 22:27</t>
+  </si>
+  <si>
+    <t>Atletico Madrid v Elche</t>
+  </si>
+  <si>
+    <t>29/12/2022 19:52</t>
+  </si>
+  <si>
+    <t>QPR v Luton</t>
+  </si>
+  <si>
+    <t>29/12/2022 19:01</t>
+  </si>
+  <si>
+    <t>29/12/2022 17:22</t>
+  </si>
+  <si>
+    <t>28/12/2022 22:01</t>
+  </si>
+  <si>
+    <t>Paris Saint-Germain v Strasbourg</t>
+  </si>
+  <si>
+    <t>28/12/2022 21:42</t>
+  </si>
+  <si>
+    <t>Hibernian v Celtic</t>
+  </si>
+  <si>
+    <t>28/12/2022 21:37</t>
+  </si>
+  <si>
+    <t>Rangers v Motherwell</t>
+  </si>
+  <si>
+    <t>28/12/2022 21:34</t>
+  </si>
+  <si>
+    <t>Leeds v Man City</t>
+  </si>
+  <si>
+    <t>28/12/2022 19:50</t>
+  </si>
+  <si>
+    <t>28/12/2022 19:41</t>
+  </si>
+  <si>
+    <t>28/12/2022 19:36</t>
+  </si>
+  <si>
+    <t>28/12/2022 15:53</t>
+  </si>
+  <si>
+    <t>AC Ajaccio v Angers</t>
+  </si>
+  <si>
+    <t>28/12/2022 15:51</t>
+  </si>
+  <si>
+    <t>Troyes v Nantes</t>
+  </si>
+  <si>
+    <t>28/12/2022 13:31</t>
+  </si>
+  <si>
+    <t>28/12/2022 13:23</t>
+  </si>
+  <si>
+    <t>28/12/2022 09:59</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>SP1</t>
+  </si>
+  <si>
+    <t>Rangers v Celtic</t>
+  </si>
+  <si>
+    <t>Match Performance</t>
+  </si>
+  <si>
+    <t>Leeds v West Ham</t>
+  </si>
+  <si>
+    <t>Crystal Palace v Tottenham</t>
+  </si>
+  <si>
+    <t>Inter Milan v Napoli</t>
+  </si>
+  <si>
+    <t>Cremonese v Juventus</t>
+  </si>
+  <si>
+    <t>Lecce v Lazio</t>
+  </si>
+  <si>
+    <t>Roma v Bologna</t>
+  </si>
+  <si>
+    <t>Spezia v Atalanta</t>
+  </si>
+  <si>
+    <t>Total Card Minutes</t>
+  </si>
+  <si>
+    <t>Sassuolo v Sampdoria</t>
+  </si>
+  <si>
+    <t>Salernitana v AC Milan</t>
+  </si>
+  <si>
+    <t>Man Utd v Bournemouth</t>
+  </si>
+  <si>
+    <t>Leicester v Fulham</t>
+  </si>
+  <si>
+    <t>Arsenal v Newcastle</t>
+  </si>
+  <si>
+    <t>Everton v Brighton</t>
+  </si>
+  <si>
+    <t>Antalyaspor v Fenerbahce</t>
+  </si>
+  <si>
+    <t>Brentford v Liverpool</t>
+  </si>
+  <si>
+    <t>PSV v Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Monza v Inter Milan</t>
+  </si>
+  <si>
+    <t>Corners Squared</t>
+  </si>
+  <si>
+    <t>Antwerp v Gent</t>
+  </si>
+  <si>
+    <t>Juventus v Udinese</t>
+  </si>
+  <si>
+    <t>Villarreal v Real Madrid</t>
+  </si>
+  <si>
+    <t>Fiorentina v Sassuolo</t>
+  </si>
+  <si>
+    <t>Valencia v Cadiz</t>
+  </si>
+  <si>
+    <t>Standard Liege v Sint-Truiden</t>
+  </si>
+  <si>
+    <t>Benfica v Portimonense</t>
+  </si>
+  <si>
+    <t>Twente v Emmen</t>
+  </si>
+  <si>
+    <t>Elche v Celta Vigo</t>
+  </si>
+  <si>
+    <t>Ponferradina v Villarreal B</t>
+  </si>
+  <si>
+    <t>Chelsea v Man City</t>
+  </si>
+  <si>
+    <t>Adana Demirspor v Istanbulspor</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>p1</t>
   </si>
 </sst>
 </file>
@@ -479,7 +793,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +821,11 @@
       <color rgb="FF168D99"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF999999"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="3">
@@ -578,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -631,6 +950,33 @@
     </xf>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -946,13 +1292,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2ACDE7-BC8B-432A-9773-10E95E9E94B1}">
-  <dimension ref="A1:U152"/>
+  <dimension ref="A1:V329"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B293" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="A325" activeCellId="2" sqref="A316:H317 A322:H323 A325:H326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,6 +1312,7 @@
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="15" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
     <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="35.5703125" bestFit="1" customWidth="1"/>
@@ -3520,7 +3867,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>104</v>
       </c>
@@ -3540,7 +3887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>100</v>
       </c>
@@ -3566,8 +3913,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>97</v>
       </c>
@@ -3593,7 +3940,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>99</v>
       </c>
@@ -3614,8 +3961,8 @@
       </c>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>93</v>
       </c>
@@ -3640,8 +3987,9 @@
       <c r="H151" s="15" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T151" s="2"/>
+    </row>
+    <row r="152" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>96</v>
       </c>
@@ -3661,6 +4009,2991 @@
         <v>5</v>
       </c>
       <c r="G152" s="3"/>
+      <c r="T152" s="2"/>
+    </row>
+    <row r="153" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T153" s="2"/>
+    </row>
+    <row r="154" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D154" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E154" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H154" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="T154" s="2"/>
+    </row>
+    <row r="155" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D155" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E155" s="4">
+        <v>4.75</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G155" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="T155" s="2"/>
+    </row>
+    <row r="156" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T156" s="2"/>
+    </row>
+    <row r="157" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D157" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E157" s="4">
+        <v>28.5</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H157" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="T157" s="2"/>
+    </row>
+    <row r="158" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D158" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E158" s="4">
+        <v>0</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G158" s="3">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="T158" s="2"/>
+    </row>
+    <row r="159" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T159" s="2"/>
+    </row>
+    <row r="160" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D160" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E160" s="4">
+        <v>10</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G160" s="3">
+        <v>-0.45</v>
+      </c>
+      <c r="H160" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="T160" s="2"/>
+    </row>
+    <row r="161" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D161" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E161" s="4">
+        <v>55</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G161" s="3"/>
+      <c r="T161" s="2"/>
+    </row>
+    <row r="162" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T162" s="2"/>
+    </row>
+    <row r="163" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D163" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E163" s="4">
+        <v>39</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H163" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="T163" s="2"/>
+    </row>
+    <row r="164" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D164" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="E164" s="4">
+        <v>42</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G164" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="T164" s="2"/>
+    </row>
+    <row r="165" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T165" s="2"/>
+    </row>
+    <row r="166" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D166" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E166" s="4">
+        <v>284</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H166" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="T166" s="2"/>
+    </row>
+    <row r="167" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D167" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E167" s="4">
+        <v>51</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G167" s="3">
+        <v>-2.33</v>
+      </c>
+      <c r="T167" s="2"/>
+    </row>
+    <row r="168" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T168" s="2"/>
+    </row>
+    <row r="169" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D169" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E169" s="4">
+        <v>81</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G169" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="H169" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="S169" s="3"/>
+      <c r="T169" s="2"/>
+    </row>
+    <row r="170" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D170" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E170" s="4">
+        <v>69</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G170" s="3"/>
+      <c r="T170" s="2"/>
+    </row>
+    <row r="171" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T171" s="2"/>
+    </row>
+    <row r="172" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D172" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E172" s="4">
+        <v>37</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H172" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T172" s="2"/>
+    </row>
+    <row r="173" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D173" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="E173" s="4">
+        <v>63</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G173" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="S173" s="3"/>
+      <c r="T173" s="2"/>
+    </row>
+    <row r="174" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T174" s="2"/>
+    </row>
+    <row r="175" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D175" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E175" s="4">
+        <v>2</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G175" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="H175" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="S175" s="3"/>
+      <c r="T175" s="2"/>
+    </row>
+    <row r="176" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D176" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E176" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G176" s="3"/>
+      <c r="S176" s="3"/>
+      <c r="T176" s="2"/>
+    </row>
+    <row r="177" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S177" s="3"/>
+      <c r="T177" s="2"/>
+    </row>
+    <row r="178" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D178" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E178" s="4">
+        <v>190</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H178" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="S178" s="3"/>
+      <c r="T178" s="2"/>
+    </row>
+    <row r="179" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D179" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E179" s="4">
+        <v>87</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G179" s="3">
+        <v>-1.03</v>
+      </c>
+      <c r="T179" s="2"/>
+    </row>
+    <row r="180" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T180" s="2"/>
+    </row>
+    <row r="181" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D181" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E181" s="4">
+        <v>110</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H181" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="T181" s="2"/>
+    </row>
+    <row r="182" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D182" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E182" s="4">
+        <v>20</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G182" s="3">
+        <v>-1.8</v>
+      </c>
+      <c r="S182" s="3"/>
+      <c r="T182" s="2"/>
+    </row>
+    <row r="183" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T183" s="2"/>
+    </row>
+    <row r="184" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D184" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E184" s="4">
+        <v>148</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H184" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="T184" s="2"/>
+    </row>
+    <row r="185" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D185" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E185" s="4">
+        <v>150</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G185" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="T185" s="2"/>
+    </row>
+    <row r="186" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T186" s="2"/>
+    </row>
+    <row r="187" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D187" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E187" s="4">
+        <v>27</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G187" s="3">
+        <v>-0.34</v>
+      </c>
+      <c r="H187" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="T187" s="2"/>
+    </row>
+    <row r="188" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D188" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E188" s="4">
+        <v>44</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T188" s="2"/>
+    </row>
+    <row r="189" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T189" s="2"/>
+    </row>
+    <row r="190" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D190" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E190" s="4">
+        <v>2</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G190" s="3">
+        <v>-0.23</v>
+      </c>
+      <c r="H190" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="T190" s="2"/>
+    </row>
+    <row r="191" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D191" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E191" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T191" s="2"/>
+    </row>
+    <row r="192" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T192" s="1"/>
+    </row>
+    <row r="193" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D193" s="3">
+        <v>-0.25</v>
+      </c>
+      <c r="E193" s="4">
+        <v>2</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G193" s="19">
+        <v>0</v>
+      </c>
+      <c r="H193" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D194" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E194" s="4">
+        <v>3.45</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G194" s="19"/>
+    </row>
+    <row r="195" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="196" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D196" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E196" s="4">
+        <v>290</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H196" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D197" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E197" s="4">
+        <v>71</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G197" s="3">
+        <v>-2.19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D199" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E199" s="4">
+        <v>52</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G199" s="3">
+        <v>-1.63</v>
+      </c>
+      <c r="H199" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D200" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E200" s="4">
+        <v>215</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="202" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D202" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E202" s="4">
+        <v>10</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G202" s="3">
+        <v>-0.42</v>
+      </c>
+      <c r="H202" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D203" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E203" s="4">
+        <v>52</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G203" s="3"/>
+    </row>
+    <row r="204" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="205" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D205" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E205" s="4">
+        <v>60</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G205" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H205" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D206" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E206" s="4">
+        <v>40</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G206" s="3"/>
+    </row>
+    <row r="207" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="208" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="11">
+        <v>44927.430555555555</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D208" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E208" s="4">
+        <v>46</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H208" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="11">
+        <v>44927.652083333334</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D209" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E209" s="4">
+        <v>71</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G209" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="211" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="11">
+        <v>44927.568749999999</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D211" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E211" s="4">
+        <v>61</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G211" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="H211" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="11">
+        <v>44927.477083333331</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D212" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E212" s="4">
+        <v>43</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G212" s="5"/>
+    </row>
+    <row r="213" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="214" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="11">
+        <v>44927.570138888892</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D214" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E214" s="4">
+        <v>48</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G214" s="3"/>
+      <c r="H214" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="11">
+        <v>44927.660416666666</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D215" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E215" s="4">
+        <v>48</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G215" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V216" s="2"/>
+    </row>
+    <row r="217" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="11">
+        <v>44927.664583333331</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D217" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E217" s="4">
+        <v>12</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G217" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="H217" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="V217" s="2"/>
+    </row>
+    <row r="218" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="11">
+        <v>44927.577777777777</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D218" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E218" s="4">
+        <v>31.5</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G218" s="3"/>
+      <c r="V218" s="1"/>
+    </row>
+    <row r="219" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="220" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="11">
+        <v>44927.76458333333</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D220" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E220" s="4">
+        <v>2</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G220" s="3">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="H220" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="11">
+        <v>44927.666666666664</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D221" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E221" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G221" s="3"/>
+    </row>
+    <row r="222" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="223" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="11">
+        <v>44927.904861111114</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D223" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E223" s="4">
+        <v>50</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G223" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="H223" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="11">
+        <v>44927.768750000003</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D224" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E224" s="4">
+        <v>41</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G224" s="3"/>
+    </row>
+    <row r="225" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="226" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="11">
+        <v>44958.447222222225</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D226" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E226" s="4">
+        <v>34</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="11">
+        <v>44958.602777777778</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D227" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E227" s="4">
+        <v>36</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G227" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="H227" s="1"/>
+    </row>
+    <row r="228" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="229" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="11">
+        <v>44958.572222222225</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D229" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E229" s="4">
+        <v>39</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G229" s="3">
+        <v>-0.23</v>
+      </c>
+      <c r="H229" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="1"/>
+      <c r="S229" s="1"/>
+      <c r="T229" s="1"/>
+      <c r="U229" s="1"/>
+    </row>
+    <row r="230" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="11">
+        <v>44958.447222222225</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D230" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E230" s="4">
+        <v>62</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G230" s="1"/>
+      <c r="U230" s="2"/>
+    </row>
+    <row r="231" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U231" s="2"/>
+    </row>
+    <row r="232" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="11">
+        <v>44958.810416666667</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D232" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E232" s="4">
+        <v>4</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G232" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H232" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="U232" s="2"/>
+    </row>
+    <row r="233" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="11">
+        <v>44958.604166666664</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D233" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E233" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G233" s="1"/>
+      <c r="U233" s="2"/>
+    </row>
+    <row r="234" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U234" s="2"/>
+    </row>
+    <row r="235" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="11">
+        <v>44986.411805555559</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D235" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E235" s="4">
+        <v>29</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H235" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="U235" s="2"/>
+    </row>
+    <row r="236" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="11">
+        <v>44986.90347222222</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D236" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E236" s="4">
+        <v>0</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G236" s="3">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="U236" s="2"/>
+    </row>
+    <row r="237" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U237" s="2"/>
+    </row>
+    <row r="238" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="11">
+        <v>44986.609722222223</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D238" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E238" s="4">
+        <v>92</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U238" s="2"/>
+    </row>
+    <row r="239" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="11">
+        <v>44986.902777777781</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D239" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E239" s="4">
+        <v>126</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G239" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="H239" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="U239" s="2"/>
+    </row>
+    <row r="240" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U240" s="2"/>
+    </row>
+    <row r="241" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="11">
+        <v>44986.797222222223</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D241" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E241" s="4">
+        <v>3</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G241" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="U241" s="2"/>
+    </row>
+    <row r="242" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="11">
+        <v>44986.670138888891</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D242" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E242" s="4">
+        <v>2.85</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G242" s="3"/>
+      <c r="U242" s="2"/>
+    </row>
+    <row r="243" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T243" s="3"/>
+      <c r="U243" s="2"/>
+    </row>
+    <row r="244" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="11">
+        <v>44986.803472222222</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D244" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E244" s="4">
+        <v>3.35</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G244" s="3"/>
+      <c r="H244" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="U244" s="2"/>
+    </row>
+    <row r="245" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="11">
+        <v>44986.910416666666</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D245" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E245" s="4">
+        <v>3</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G245" s="3">
+        <v>-0.06</v>
+      </c>
+      <c r="U245" s="2"/>
+    </row>
+    <row r="246" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U246" s="2"/>
+    </row>
+    <row r="247" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="11">
+        <v>44986.904861111114</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D247" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E247" s="4">
+        <v>9</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G247" s="3">
+        <v>-0.23</v>
+      </c>
+      <c r="H247" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="T247" s="3"/>
+      <c r="U247" s="2"/>
+    </row>
+    <row r="248" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="11">
+        <v>44986.804861111108</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D248" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E248" s="4">
+        <v>32</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G248" s="3"/>
+      <c r="U248" s="2"/>
+    </row>
+    <row r="249" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U249" s="2"/>
+    </row>
+    <row r="250" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="11">
+        <v>45017.435416666667</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D250" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E250" s="4">
+        <v>373</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H250" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="U250" s="2"/>
+    </row>
+    <row r="251" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="11">
+        <v>45017.5625</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D251" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E251" s="4">
+        <v>318</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G251" s="3">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="U251" s="2"/>
+    </row>
+    <row r="252" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U252" s="2"/>
+    </row>
+    <row r="253" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="11">
+        <v>45017.5625</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D253" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E253" s="4">
+        <v>3</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G253" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="H253" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="U253" s="2"/>
+    </row>
+    <row r="254" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="11">
+        <v>45017.352083333331</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D254" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E254" s="4">
+        <v>3.05</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G254" s="3"/>
+      <c r="H254" s="2"/>
+      <c r="U254" s="2"/>
+    </row>
+    <row r="255" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U255" s="2"/>
+    </row>
+    <row r="256" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="11">
+        <v>45017.5625</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D256" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E256" s="4">
+        <v>50</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G256" s="3">
+        <v>-0.04</v>
+      </c>
+      <c r="H256" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="T256" s="3"/>
+      <c r="U256" s="2"/>
+    </row>
+    <row r="257" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="11">
+        <v>45017.376388888886</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D257" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E257" s="4">
+        <v>54</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G257" s="3"/>
+      <c r="H257" s="2"/>
+      <c r="T257" s="3"/>
+      <c r="U257" s="2"/>
+    </row>
+    <row r="258" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U258" s="2"/>
+    </row>
+    <row r="259" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="11">
+        <v>45017.563888888886</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D259" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E259" s="4">
+        <v>3</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H259" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="U259" s="1"/>
+    </row>
+    <row r="260" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="11">
+        <v>45017.645833333336</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D260" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E260" s="4">
+        <v>4</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G260" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="262" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="11">
+        <v>45017.573611111111</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D262" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E262" s="4">
+        <v>91</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G262" s="3"/>
+      <c r="H262" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="11">
+        <v>45017.729861111111</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D263" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E263" s="4">
+        <v>91</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G263" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="265" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="11">
+        <v>45017.727083333331</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D265" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="E265" s="4">
+        <v>63</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G265" s="3">
+        <v>-3.1</v>
+      </c>
+      <c r="H265" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="11">
+        <v>45017.628472222219</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D266" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E266" s="4">
+        <v>94</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G266" s="3"/>
+    </row>
+    <row r="267" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="268" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="11">
+        <v>45017.810416666667</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D268" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="E268" s="4">
+        <v>88</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G268" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="H268" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="11">
+        <v>45017.729861111111</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D269" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E269" s="4">
+        <v>92</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G269" s="3"/>
+    </row>
+    <row r="270" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="271" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="11">
+        <v>45017.811111111114</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D271" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E271" s="4">
+        <v>91</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H271" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="11">
+        <v>45017.904166666667</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D272" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E272" s="4">
+        <v>117</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G272" s="5">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S273" s="3"/>
+    </row>
+    <row r="274" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="11">
+        <v>45017.815972222219</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D274" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E274" s="4">
+        <v>467</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H274" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="S274" s="3"/>
+    </row>
+    <row r="275" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="11">
+        <v>45017.902083333334</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D275" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E275" s="4">
+        <v>9</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G275" s="3">
+        <v>-4.58</v>
+      </c>
+    </row>
+    <row r="276" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="277" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="11">
+        <v>45017.904166666667</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D277" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E277" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G277" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H277" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="11">
+        <v>45017.817361111112</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D278" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E278" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G278" s="3"/>
+    </row>
+    <row r="279" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="280" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="11">
+        <v>45017.904166666667</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D280" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E280" s="4">
+        <v>117</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G280" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="H280" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K280" s="1"/>
+      <c r="L280" s="1"/>
+      <c r="M280" s="1"/>
+      <c r="N280" s="1"/>
+      <c r="O280" s="1"/>
+      <c r="P280" s="1"/>
+      <c r="Q280" s="1"/>
+      <c r="R280" s="1"/>
+    </row>
+    <row r="281" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="11">
+        <v>45017.811111111114</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D281" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E281" s="4">
+        <v>91</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R281" s="2"/>
+    </row>
+    <row r="282" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R282" s="2"/>
+    </row>
+    <row r="283" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="11">
+        <v>45047.676388888889</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D283" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E283" s="4">
+        <v>97</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H283" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="R283" s="2"/>
+    </row>
+    <row r="284" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="11">
+        <v>45047.911805555559</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D284" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="E284" s="4">
+        <v>40</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G284" s="3">
+        <v>-5.7</v>
+      </c>
+      <c r="R284" s="2"/>
+    </row>
+    <row r="285" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R285" s="2"/>
+    </row>
+    <row r="286" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="11">
+        <v>45047.76458333333</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D286" s="3">
+        <v>-0.36</v>
+      </c>
+      <c r="E286" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G286" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H286" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="R286" s="2"/>
+    </row>
+    <row r="287" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="11">
+        <v>45047.697222222225</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D287" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="E287" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G287" s="3"/>
+      <c r="R287" s="2"/>
+    </row>
+    <row r="288" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R288" s="2"/>
+    </row>
+    <row r="289" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="11">
+        <v>45078.6</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D289" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E289" s="4">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H289" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q289" s="3"/>
+      <c r="R289" s="2"/>
+    </row>
+    <row r="290" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="11">
+        <v>45078.70208333333</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D290" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E290" s="4">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G290" s="5">
+        <v>0</v>
+      </c>
+      <c r="R290" s="2"/>
+    </row>
+    <row r="291" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R291" s="2"/>
+    </row>
+    <row r="292" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="11">
+        <v>45078.693749999999</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D292" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E292" s="4">
+        <v>91</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G292" s="3"/>
+      <c r="H292" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="R292" s="2"/>
+    </row>
+    <row r="293" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="11">
+        <v>45078.808333333334</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D293" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E293" s="4">
+        <v>86</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G293" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="Q293" s="3"/>
+      <c r="R293" s="2"/>
+    </row>
+    <row r="294" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q294" s="3"/>
+      <c r="R294" s="2"/>
+    </row>
+    <row r="295" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="11">
+        <v>45078.712500000001</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D295" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E295" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H295" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="R295" s="2"/>
+    </row>
+    <row r="296" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="11">
+        <v>45078.87222222222</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D296" s="3">
+        <v>-0.25</v>
+      </c>
+      <c r="E296" s="4">
+        <v>2</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G296" s="19">
+        <v>0</v>
+      </c>
+      <c r="R296" s="2"/>
+    </row>
+    <row r="297" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R297" s="2"/>
+    </row>
+    <row r="298" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="11">
+        <v>45078.775694444441</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D298" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E298" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H298" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="R298" s="2"/>
+    </row>
+    <row r="299" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="11">
+        <v>45078.875694444447</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D299" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E299" s="4">
+        <v>1</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G299" s="3">
+        <v>-0.47</v>
+      </c>
+      <c r="R299" s="2"/>
+    </row>
+    <row r="300" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R300" s="2"/>
+    </row>
+    <row r="301" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="11">
+        <v>45078.813194444447</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D301" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E301" s="4">
+        <v>106</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H301" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q301" s="3"/>
+      <c r="R301" s="2"/>
+    </row>
+    <row r="302" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="11">
+        <v>45078.904861111114</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D302" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E302" s="4">
+        <v>121</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G302" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Q302" s="3"/>
+      <c r="R302" s="2"/>
+    </row>
+    <row r="303" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R303" s="2"/>
+    </row>
+    <row r="304" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="11">
+        <v>45078.81527777778</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D304" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E304" s="4">
+        <v>30</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H304" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q304" s="3"/>
+      <c r="R304" s="2"/>
+    </row>
+    <row r="305" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="11">
+        <v>45078.921527777777</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D305" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E305" s="4">
+        <v>4</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G305" s="3">
+        <v>-0.26</v>
+      </c>
+      <c r="Q305" s="3"/>
+      <c r="R305" s="2"/>
+    </row>
+    <row r="306" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R306" s="2"/>
+    </row>
+    <row r="307" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="11">
+        <v>45078.921527777777</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D307" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E307" s="4">
+        <v>110</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G307" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H307" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="R307" s="2"/>
+    </row>
+    <row r="308" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="11">
+        <v>45078.86041666667</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D308" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E308" s="4">
+        <v>80</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G308" s="3"/>
+      <c r="Q308" s="3"/>
+      <c r="R308" s="2"/>
+    </row>
+    <row r="309" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R309" s="2"/>
+    </row>
+    <row r="310" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="11">
+        <v>45108.554166666669</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D310" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E310" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H310" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="R310" s="2"/>
+    </row>
+    <row r="311" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="11">
+        <v>45108.663888888892</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D311" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E311" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G311" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="R311" s="2"/>
+    </row>
+    <row r="312" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q312" s="3"/>
+      <c r="R312" s="2"/>
+    </row>
+    <row r="313" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="11">
+        <v>45108.557638888888</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D313" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E313" s="4">
+        <v>95</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H313" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="R313" s="2"/>
+    </row>
+    <row r="314" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="11">
+        <v>45108.792361111111</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D314" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E314" s="4">
+        <v>60</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G314" s="3">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="316" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="11">
+        <v>45108.714583333334</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D316" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E316" s="4">
+        <v>3</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G316" s="5">
+        <v>0</v>
+      </c>
+      <c r="H316" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="11">
+        <v>45108.620833333334</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D317" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E317" s="4">
+        <v>3</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G317" s="3"/>
+    </row>
+    <row r="318" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="319" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="11">
+        <v>45108.749305555553</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D319" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E319" s="4">
+        <v>98</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H319" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="11">
+        <v>45108.905555555553</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D320" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E320" s="4">
+        <v>99</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G320" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="322" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="11">
+        <v>45108.75</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D322" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E322" s="4">
+        <v>3.05</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H322" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="323" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="11">
+        <v>45108.897916666669</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D323" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E323" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G323" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="324" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="325" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="11">
+        <v>45108.8125</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D325" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E325" s="4">
+        <v>3.35</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H325" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q325" s="3"/>
+    </row>
+    <row r="326" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="11">
+        <v>45108.90625</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D326" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E326" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G326" s="3">
+        <v>-0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q327" s="3"/>
+    </row>
+    <row r="328" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="11">
+        <v>45108.904861111114</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D328" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E328" s="4">
+        <v>81</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G328" s="3">
+        <v>-0.25</v>
+      </c>
+      <c r="H328" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="329" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="11">
+        <v>45108.822222222225</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D329" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E329" s="4">
+        <v>106</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G329" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3669,15 +7002,2315 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829BCB3E-ADB5-497C-8636-01F5B5FDB73F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69ADCCE-6045-4E48-9EC0-147CFF2E287E}">
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M131" sqref="M131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>-0.18</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7">
+        <v>-0.18</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-0.09</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>44693.870833333334</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>44693.76458333333</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>44785.5625</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-0.3</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>44785.427777777775</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>44816.559027777781</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>44816.379166666666</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>44907.893750000003</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>44907.699305555558</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-0.06</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-0.37</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E30" s="4">
+        <v>3.05</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="23"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3.65</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E33" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E35" s="4">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E36" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="3">
+        <v>-0.11</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3">
+        <v>-0.32</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3">
+        <v>-1.5</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="4">
+        <v>3</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="23"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E47" s="4">
+        <v>6.15</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E48" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="3">
+        <v>-0.25</v>
+      </c>
+      <c r="E50" s="4">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E53" s="4">
+        <v>2</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="3">
+        <v>-0.23</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E54" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E56" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E57" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E59" s="4">
+        <v>2</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3">
+        <v>-0.26</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E60" s="4">
+        <v>3.45</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="23"/>
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E62" s="4">
+        <v>4</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E63" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E66" s="4">
+        <v>2</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E67" s="4">
+        <v>3</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E69" s="4">
+        <v>4.75</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E70" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E72" s="4">
+        <v>2</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E73" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="15"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="15"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E75" s="4">
+        <v>2</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="3">
+        <v>-0.23</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E76" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="2"/>
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78" s="3">
+        <v>-0.25</v>
+      </c>
+      <c r="E78" s="4">
+        <v>2</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="19">
+        <v>0</v>
+      </c>
+      <c r="H78" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E79" s="4">
+        <v>3.45</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="19"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="11">
+        <v>44927.76458333333</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E81" s="4">
+        <v>2</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="11">
+        <v>44927.666666666664</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E82" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="11"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="11">
+        <v>44958.810416666667</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E84" s="4">
+        <v>4</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="11">
+        <v>44958.604166666664</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E85" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="11"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="11">
+        <v>44986.797222222223</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D87" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E87" s="4">
+        <v>3</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="11">
+        <v>44986.670138888891</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D88" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E88" s="4">
+        <v>2.85</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="3"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="11">
+        <v>44986.910416666666</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D91" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E91" s="4">
+        <v>3</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-0.06</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="11">
+        <v>44986.803472222222</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D92" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E92" s="4">
+        <v>3.35</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="11">
+        <v>45017.5625</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D94" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E94" s="4">
+        <v>3</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="H94" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="11">
+        <v>45017.352083333331</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D95" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E95" s="4">
+        <v>3.05</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="11"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="23"/>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="11">
+        <v>45017.645833333336</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D98" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E98" s="4">
+        <v>4</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="11">
+        <v>45017.563888888886</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D99" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E99" s="4">
+        <v>3</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="11">
+        <v>45017.904166666667</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D101" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E101" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G101" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="11">
+        <v>45017.817361111112</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D102" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E102" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3"/>
+      <c r="H102" s="15"/>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="11"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="15"/>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="11">
+        <v>45047.76458333333</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D104" s="3">
+        <v>-0.36</v>
+      </c>
+      <c r="E104" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G104" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H104" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="11">
+        <v>45047.697222222225</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D105" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="E105" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" s="3"/>
+      <c r="H105" s="15"/>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="11"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="15"/>
+    </row>
+    <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="11">
+        <v>45078.6</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D107" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E107" s="4">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="11">
+        <v>45078.70208333333</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D108" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E108" s="4">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G108" s="5">
+        <v>0</v>
+      </c>
+      <c r="H108" s="15"/>
+    </row>
+    <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="11"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="15"/>
+    </row>
+    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="11">
+        <v>45078.87222222222</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D110" s="3">
+        <v>-0.25</v>
+      </c>
+      <c r="E110" s="4">
+        <v>2</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G110" s="19">
+        <v>0</v>
+      </c>
+      <c r="H110" s="15"/>
+    </row>
+    <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="11">
+        <v>45078.712500000001</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D111" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E111" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="11">
+        <v>45078.875694444447</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D113" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E113" s="4">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G113" s="3">
+        <v>-0.47</v>
+      </c>
+      <c r="H113" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="11">
+        <v>45078.775694444441</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D114" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E114" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H114" s="15"/>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="11">
+        <v>45108.663888888892</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D116" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E116" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G116" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H116" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="11">
+        <v>45108.554166666669</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D117" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E117" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H117" s="15"/>
+    </row>
+    <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H118" s="15"/>
+    </row>
+    <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="11">
+        <v>45108.714583333334</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D119" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E119" s="4">
+        <v>3</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G119" s="5">
+        <v>0</v>
+      </c>
+      <c r="H119" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="11">
+        <v>45108.620833333334</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D120" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E120" s="4">
+        <v>3</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" s="3"/>
+      <c r="H120" s="15"/>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="11"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="15"/>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="11">
+        <v>45108.897916666669</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D122" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E122" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G122" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H122" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="11">
+        <v>45108.75</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D123" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E123" s="4">
+        <v>3.05</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H123" s="15"/>
+    </row>
+    <row r="124" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H124" s="15"/>
+    </row>
+    <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="11">
+        <v>45108.90625</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D125" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E125" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G125" s="3">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="H125" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="11">
+        <v>45108.8125</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D126" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E126" s="4">
+        <v>3.35</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H126" s="15"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H127" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829BCB3E-ADB5-497C-8636-01F5B5FDB73F}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>44986</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>45047</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>45139</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153E1AFE-D8C7-424B-A39A-BC84A93EB678}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/spreadex.xlsx
+++ b/spreadex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55FD879-B6F8-4E90-9380-9BCDF345080F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D065082-B26F-4048-9A4B-50B4C9346D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="802" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2962" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="543">
   <si>
     <t>24/11/2022 20:55</t>
   </si>
@@ -1580,6 +1580,99 @@
   </si>
   <si>
     <t>28/01/2023 17:19</t>
+  </si>
+  <si>
+    <t>Everton v Arsenal</t>
+  </si>
+  <si>
+    <t>Ankaragucu v Fatih Karagumruk</t>
+  </si>
+  <si>
+    <t>Jahn Regensburg v Arminia Bielefeld</t>
+  </si>
+  <si>
+    <t>Braunschweig v Heidenheim</t>
+  </si>
+  <si>
+    <t>Chelsea v Fulham</t>
+  </si>
+  <si>
+    <t>West Brom v Coventry</t>
+  </si>
+  <si>
+    <t>Queens Park v Ayr</t>
+  </si>
+  <si>
+    <t>Paderborn v Dusseldorf</t>
+  </si>
+  <si>
+    <t>Real Madrid v Valencia</t>
+  </si>
+  <si>
+    <t>Adana Demirspor v Fenerbahce</t>
+  </si>
+  <si>
+    <t>Konyaspor v Istanbulspor</t>
+  </si>
+  <si>
+    <t>Kayserispor v Basaksehir</t>
+  </si>
+  <si>
+    <t>Barcelona v Sevilla</t>
+  </si>
+  <si>
+    <t>Inter Milan v AC Milan</t>
+  </si>
+  <si>
+    <t>Tottenham v Man City</t>
+  </si>
+  <si>
+    <t>Porto v Vizela</t>
+  </si>
+  <si>
+    <t>Wolfsburg v Bayern Munich</t>
+  </si>
+  <si>
+    <t>Chaves v Maritimo</t>
+  </si>
+  <si>
+    <t>Stuttgart v Werder Bremen</t>
+  </si>
+  <si>
+    <t>Torino v Udinese</t>
+  </si>
+  <si>
+    <t>Mallorca v Real Madrid</t>
+  </si>
+  <si>
+    <t>St Johnstone v Celtic</t>
+  </si>
+  <si>
+    <t>Spezia v Napoli</t>
+  </si>
+  <si>
+    <t>Hansa Rostock v Hamburg</t>
+  </si>
+  <si>
+    <t>Istanbulspor v Alanyaspor</t>
+  </si>
+  <si>
+    <t>Sassuolo v Atalanta</t>
+  </si>
+  <si>
+    <t>Emmen v Vitesse Arnhem</t>
+  </si>
+  <si>
+    <t>Newcastle v West Ham</t>
+  </si>
+  <si>
+    <t>M'Gladbach v Schalke</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt v Hertha BSC</t>
+  </si>
+  <si>
+    <t>Dortmund v Freiburg</t>
   </si>
 </sst>
 </file>
@@ -2140,13 +2233,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2ACDE7-BC8B-432A-9773-10E95E9E94B1}">
-  <dimension ref="A1:V647"/>
+  <dimension ref="A1:V795"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B590" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B764" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J607" sqref="J607"/>
+      <selection pane="bottomRight" activeCell="I795" sqref="I795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12426,246 +12519,201 @@
       <c r="S585" s="1"/>
     </row>
     <row r="586" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K586" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="L586" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M586" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="N586" s="3">
+      <c r="S586" s="2"/>
+    </row>
+    <row r="587" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A587" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D587" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E587" s="4">
+        <v>19</v>
+      </c>
+      <c r="F587" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G587" s="3">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="S587" s="2"/>
+    </row>
+    <row r="588" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A588" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D588" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E588" s="4">
+        <v>75</v>
+      </c>
+      <c r="F588" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G588" s="1"/>
+      <c r="S588" s="2"/>
+    </row>
+    <row r="589" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G589" s="15"/>
+      <c r="S589" s="2"/>
+    </row>
+    <row r="590" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A590" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D590" s="3">
         <v>-0.19</v>
       </c>
-      <c r="O586" s="4">
-        <v>1</v>
-      </c>
-      <c r="P586" s="2"/>
-      <c r="Q586" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R586" s="3">
+      <c r="E590" s="4">
+        <v>2</v>
+      </c>
+      <c r="F590" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G590" s="3">
+        <v>-0.16</v>
+      </c>
+      <c r="S590" s="2"/>
+    </row>
+    <row r="591" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A591" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D591" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E591" s="4">
+        <v>2.85</v>
+      </c>
+      <c r="F591" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G591" s="3"/>
+      <c r="S591" s="2"/>
+    </row>
+    <row r="592" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G592" s="15"/>
+      <c r="S592" s="2"/>
+    </row>
+    <row r="593" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A593" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D593" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="E593" s="4">
+        <v>20</v>
+      </c>
+      <c r="F593" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G593" s="3">
+        <v>-1.4</v>
+      </c>
+      <c r="S593" s="2"/>
+    </row>
+    <row r="594" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A594" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D594" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E594" s="4">
+        <v>48</v>
+      </c>
+      <c r="F594" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G594" s="3"/>
+      <c r="S594" s="2"/>
+    </row>
+    <row r="595" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G595" s="15"/>
+      <c r="S595" s="2"/>
+    </row>
+    <row r="596" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A596" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D596" s="3">
         <v>-0.19</v>
       </c>
-      <c r="S586" s="2"/>
-    </row>
-    <row r="587" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K587" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="L587" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M587" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="N587" s="3">
-        <v>-0.19</v>
-      </c>
-      <c r="O587" s="4">
-        <v>2</v>
-      </c>
-      <c r="P587" s="2"/>
-      <c r="Q587" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R587" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="S587" s="2"/>
-    </row>
-    <row r="588" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K588" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="L588" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M588" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="N588" s="3">
-        <v>-0.19</v>
-      </c>
-      <c r="O588" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="P588" s="2"/>
-      <c r="Q588" s="2" t="s">
+      <c r="E596" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="F596" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R588" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="S588" s="2"/>
-    </row>
-    <row r="589" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K589" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="L589" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M589" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="N589" s="5">
+      <c r="G596" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="597" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A597" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D597" s="5">
         <v>0.19</v>
       </c>
-      <c r="O589" s="4">
-        <v>2</v>
-      </c>
-      <c r="P589" s="2"/>
-      <c r="Q589" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R589" s="3"/>
-      <c r="S589" s="2"/>
-    </row>
-    <row r="590" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K590" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="L590" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M590" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="N590" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="O590" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="P590" s="2"/>
-      <c r="Q590" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R590" s="3"/>
-      <c r="S590" s="2"/>
-    </row>
-    <row r="591" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K591" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="L591" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M591" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="N591" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="O591" s="4">
-        <v>1.65</v>
-      </c>
-      <c r="P591" s="2"/>
-      <c r="Q591" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R591" s="3"/>
-      <c r="S591" s="2"/>
-    </row>
-    <row r="592" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K592" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="L592" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M592" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="N592" s="3">
-        <v>-0.19</v>
-      </c>
-      <c r="O592" s="4">
-        <v>2</v>
-      </c>
-      <c r="P592" s="2"/>
-      <c r="Q592" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R592" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="S592" s="2"/>
-    </row>
-    <row r="593" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K593" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="L593" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M593" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="N593" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="O593" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="P593" s="2"/>
-      <c r="Q593" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R593" s="3"/>
-      <c r="S593" s="2"/>
-    </row>
-    <row r="594" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K594" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="L594" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M594" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="N594" s="3">
-        <v>-0.19</v>
-      </c>
-      <c r="O594" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="P594" s="2"/>
-      <c r="Q594" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R594" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="S594" s="2"/>
-    </row>
-    <row r="595" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K595" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="L595" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M595" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="N595" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="O595" s="4">
+      <c r="E597" s="4">
         <v>2.35</v>
       </c>
-      <c r="P595" s="2"/>
-      <c r="Q595" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R595" s="3"/>
-      <c r="S595" s="2"/>
-    </row>
-    <row r="597" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F597" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G597" s="3"/>
       <c r="K597" s="1"/>
       <c r="L597" s="1"/>
       <c r="M597" s="1"/>
@@ -12676,1205 +12724,3189 @@
       <c r="R597" s="1"/>
       <c r="S597" s="1"/>
     </row>
-    <row r="598" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K598" s="11">
-        <v>44928.873611111114</v>
-      </c>
-      <c r="L598" s="2" t="s">
+    <row r="598" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G598" s="15"/>
+      <c r="S598" s="2"/>
+    </row>
+    <row r="599" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A599" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D599" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E599" s="4">
+        <v>2</v>
+      </c>
+      <c r="F599" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G599" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="S599" s="2"/>
+    </row>
+    <row r="600" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A600" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D600" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E600" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F600" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G600" s="3"/>
+      <c r="S600" s="2"/>
+    </row>
+    <row r="601" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G601" s="15"/>
+      <c r="S601" s="2"/>
+    </row>
+    <row r="602" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A602" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D602" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E602" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="F602" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G602" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S602" s="2"/>
+    </row>
+    <row r="603" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A603" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C603" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D603" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E603" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="F603" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G603" s="3"/>
+      <c r="S603" s="2"/>
+    </row>
+    <row r="604" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G604" s="15"/>
+      <c r="S604" s="2"/>
+    </row>
+    <row r="605" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A605" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C605" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D605" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E605" s="4">
+        <v>1</v>
+      </c>
+      <c r="F605" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G605" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="S605" s="2"/>
+    </row>
+    <row r="606" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A606" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C606" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D606" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E606" s="4">
+        <v>2</v>
+      </c>
+      <c r="F606" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G606" s="3"/>
+      <c r="S606" s="2"/>
+    </row>
+    <row r="607" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G607" s="15"/>
+      <c r="S607" s="2"/>
+    </row>
+    <row r="608" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A608" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C608" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D608" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E608" s="4">
+        <v>2</v>
+      </c>
+      <c r="F608" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G608" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="S608" s="2"/>
+    </row>
+    <row r="609" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A609" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C609" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D609" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E609" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F609" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G609" s="3"/>
+      <c r="S609" s="2"/>
+    </row>
+    <row r="610" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G610" s="15"/>
+      <c r="S610" s="2"/>
+    </row>
+    <row r="611" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A611" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C611" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D611" s="3">
+        <v>-0.3</v>
+      </c>
+      <c r="E611" s="4">
+        <v>7</v>
+      </c>
+      <c r="F611" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G611" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="S611" s="2"/>
+    </row>
+    <row r="612" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A612" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C612" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D612" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E612" s="4">
+        <v>3</v>
+      </c>
+      <c r="F612" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G612" s="3"/>
+      <c r="S612" s="2"/>
+    </row>
+    <row r="613" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G613" s="15"/>
+      <c r="S613" s="2"/>
+    </row>
+    <row r="614" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A614" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C614" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D614" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E614" s="4">
+        <v>1</v>
+      </c>
+      <c r="F614" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G614" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="S614" s="2"/>
+    </row>
+    <row r="615" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A615" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C615" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D615" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E615" s="4">
+        <v>2</v>
+      </c>
+      <c r="F615" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G615" s="3"/>
+      <c r="S615" s="2"/>
+    </row>
+    <row r="616" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G616" s="15"/>
+      <c r="S616" s="2"/>
+    </row>
+    <row r="617" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A617" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B617" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="M598" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="N598" s="3">
+      <c r="C617" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D617" s="3">
         <v>-0.01</v>
       </c>
-      <c r="O598" s="4">
-        <v>36</v>
-      </c>
-      <c r="P598" s="2"/>
-      <c r="Q598" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R598" s="3">
-        <v>-0.7</v>
-      </c>
-      <c r="S598" s="2"/>
-    </row>
-    <row r="599" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K599" s="11">
-        <v>44928.87222222222</v>
-      </c>
-      <c r="L599" s="2" t="s">
+      <c r="E617" s="4">
+        <v>180</v>
+      </c>
+      <c r="F617" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G617" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="S617" s="2"/>
+    </row>
+    <row r="618" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A618" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B618" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="M599" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="N599" s="3">
-        <v>-0.05</v>
-      </c>
-      <c r="O599" s="4">
-        <v>25</v>
-      </c>
-      <c r="P599" s="2"/>
-      <c r="Q599" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R599" s="3">
-        <v>-4.25</v>
-      </c>
-      <c r="S599" s="2"/>
-    </row>
-    <row r="600" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K600" s="11">
-        <v>44928.820138888892</v>
-      </c>
-      <c r="L600" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M600" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="N600" s="3">
-        <v>-0.18</v>
-      </c>
-      <c r="O600" s="4">
+      <c r="C618" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D618" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E618" s="4">
+        <v>108</v>
+      </c>
+      <c r="F618" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G618" s="3"/>
+      <c r="S618" s="2"/>
+    </row>
+    <row r="619" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G619" s="15"/>
+      <c r="S619" s="2"/>
+    </row>
+    <row r="620" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A620" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C620" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D620" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E620" s="4">
+        <v>0</v>
+      </c>
+      <c r="F620" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G620" s="3">
+        <v>-0.53</v>
+      </c>
+      <c r="S620" s="2"/>
+    </row>
+    <row r="621" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A621" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C621" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D621" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E621" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="F621" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G621" s="3"/>
+      <c r="S621" s="2"/>
+    </row>
+    <row r="622" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G622" s="15"/>
+      <c r="S622" s="2"/>
+    </row>
+    <row r="623" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A623" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C623" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D623" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E623" s="4">
+        <v>81</v>
+      </c>
+      <c r="F623" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G623" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="S623" s="2"/>
+    </row>
+    <row r="624" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A624" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C624" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D624" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E624" s="4">
+        <v>78</v>
+      </c>
+      <c r="F624" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G624" s="3"/>
+      <c r="S624" s="2"/>
+    </row>
+    <row r="625" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G625" s="15"/>
+      <c r="S625" s="2"/>
+    </row>
+    <row r="626" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A626" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C626" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D626" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E626" s="4">
+        <v>16</v>
+      </c>
+      <c r="F626" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G626" s="3">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="S626" s="2"/>
+    </row>
+    <row r="627" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A627" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C627" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D627" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E627" s="4">
+        <v>126</v>
+      </c>
+      <c r="F627" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G627" s="15"/>
+      <c r="S627" s="2"/>
+    </row>
+    <row r="628" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G628" s="15"/>
+      <c r="S628" s="2"/>
+    </row>
+    <row r="629" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A629" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C629" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D629" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E629" s="4">
         <v>2</v>
       </c>
-      <c r="P600" s="2"/>
-      <c r="Q600" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R600" s="3">
-        <v>-0.18</v>
-      </c>
-      <c r="S600" s="2"/>
-    </row>
-    <row r="601" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K601" s="11">
-        <v>44928.797222222223</v>
-      </c>
-      <c r="L601" s="2" t="s">
+      <c r="F629" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G629" s="3">
+        <v>-0.17</v>
+      </c>
+      <c r="S629" s="2"/>
+    </row>
+    <row r="630" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A630" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C630" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D630" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E630" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="F630" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G630" s="3"/>
+      <c r="S630" s="2"/>
+    </row>
+    <row r="631" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G631" s="15"/>
+      <c r="S631" s="2"/>
+    </row>
+    <row r="632" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A632" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B632" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="M601" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="N601" s="5">
+      <c r="C632" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D632" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E632" s="4">
+        <v>165</v>
+      </c>
+      <c r="F632" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G632" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="S632" s="2"/>
+    </row>
+    <row r="633" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A633" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D633" s="5">
         <v>0.01</v>
       </c>
-      <c r="O601" s="4">
-        <v>106</v>
-      </c>
-      <c r="P601" s="2"/>
-      <c r="Q601" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R601" s="3"/>
-      <c r="S601" s="2"/>
-    </row>
-    <row r="602" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K602" s="11">
-        <v>44928.794444444444</v>
-      </c>
-      <c r="L602" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M602" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="N602" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="O602" s="4">
-        <v>110</v>
-      </c>
-      <c r="P602" s="2"/>
-      <c r="Q602" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R602" s="3"/>
-      <c r="S602" s="2"/>
-    </row>
-    <row r="603" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K603" s="11">
-        <v>44928.740972222222</v>
-      </c>
-      <c r="L603" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M603" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="N603" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="O603" s="4">
-        <v>3</v>
-      </c>
-      <c r="P603" s="2"/>
-      <c r="Q603" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R603" s="3"/>
-      <c r="S603" s="2"/>
-    </row>
-    <row r="604" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K604" s="11">
-        <v>44928.73333333333</v>
-      </c>
-      <c r="L604" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M604" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="N604" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="O604" s="4">
-        <v>274</v>
-      </c>
-      <c r="P604" s="2"/>
-      <c r="Q604" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R604" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="S604" s="2"/>
-    </row>
-    <row r="605" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K605" s="11">
-        <v>44928.71875</v>
-      </c>
-      <c r="L605" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M605" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="N605" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="O605" s="4">
-        <v>144</v>
-      </c>
-      <c r="P605" s="2"/>
-      <c r="Q605" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R605" s="3"/>
-      <c r="S605" s="2"/>
-    </row>
-    <row r="606" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K606" s="11">
-        <v>44928.668055555558</v>
-      </c>
-      <c r="L606" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M606" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="N606" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="O606" s="4">
-        <v>100</v>
-      </c>
-      <c r="P606" s="2"/>
-      <c r="Q606" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R606" s="3">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="S606" s="2"/>
-    </row>
-    <row r="607" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K607" s="11">
-        <v>44928.588194444441</v>
-      </c>
-      <c r="L607" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M607" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="N607" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="O607" s="4">
-        <v>107</v>
-      </c>
-      <c r="P607" s="2"/>
-      <c r="Q607" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R607" s="3"/>
-      <c r="S607" s="2"/>
-    </row>
-    <row r="608" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K608" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="L608" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M608" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="N608" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="O608" s="4">
-        <v>36</v>
-      </c>
-      <c r="P608" s="2"/>
-      <c r="Q608" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R608" s="3">
-        <v>-0.79</v>
-      </c>
-      <c r="S608" s="2"/>
-    </row>
-    <row r="609" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K609" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="L609" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M609" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="N609" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="O609" s="4">
-        <v>36</v>
-      </c>
-      <c r="P609" s="2"/>
-      <c r="Q609" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R609" s="3">
-        <v>-0.75</v>
-      </c>
-      <c r="S609" s="2"/>
-    </row>
-    <row r="610" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K610" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="L610" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M610" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="N610" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="O610" s="4">
-        <v>115</v>
-      </c>
-      <c r="P610" s="2"/>
-      <c r="Q610" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R610" s="3"/>
-      <c r="S610" s="2"/>
-    </row>
-    <row r="611" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K611" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="L611" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M611" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="N611" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="O611" s="4">
-        <v>111</v>
-      </c>
-      <c r="P611" s="2"/>
-      <c r="Q611" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R611" s="3"/>
-      <c r="S611" s="2"/>
-    </row>
-    <row r="612" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K612" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="L612" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M612" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="N612" s="3">
-        <v>-0.05</v>
-      </c>
-      <c r="O612" s="4">
-        <v>258</v>
-      </c>
-      <c r="P612" s="2"/>
-      <c r="Q612" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R612" s="5">
-        <v>6.2</v>
-      </c>
-      <c r="S612" s="2"/>
-    </row>
-    <row r="613" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K613" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="L613" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M613" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="N613" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="O613" s="4">
-        <v>134</v>
-      </c>
-      <c r="P613" s="2"/>
-      <c r="Q613" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R613" s="3"/>
-      <c r="S613" s="2"/>
-    </row>
-    <row r="614" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K614" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="L614" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M614" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="N614" s="3">
-        <v>-0.19</v>
-      </c>
-      <c r="O614" s="4">
-        <v>2</v>
-      </c>
-      <c r="P614" s="2"/>
-      <c r="Q614" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R614" s="3">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="S614" s="2"/>
-    </row>
-    <row r="615" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K615" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="L615" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M615" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="N615" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="O615" s="4">
-        <v>2.75</v>
-      </c>
-      <c r="P615" s="2"/>
-      <c r="Q615" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R615" s="3"/>
-      <c r="S615" s="2"/>
-    </row>
-    <row r="616" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K616" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="L616" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M616" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="N616" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="O616" s="4">
-        <v>16</v>
-      </c>
-      <c r="P616" s="2"/>
-      <c r="Q616" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R616" s="3">
-        <v>-0.49</v>
-      </c>
-      <c r="S616" s="2"/>
-    </row>
-    <row r="617" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K617" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="L617" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M617" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="N617" s="3">
-        <v>-0.19</v>
-      </c>
-      <c r="O617" s="4">
-        <v>1.65</v>
-      </c>
-      <c r="P617" s="2"/>
-      <c r="Q617" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R617" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="S617" s="2"/>
-    </row>
-    <row r="618" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K618" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="L618" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M618" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="N618" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="O618" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="P618" s="2"/>
-      <c r="Q618" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R618" s="3"/>
-      <c r="S618" s="2"/>
-    </row>
-    <row r="619" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K619" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="L619" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M619" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="N619" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="O619" s="4">
-        <v>65</v>
-      </c>
-      <c r="P619" s="2"/>
-      <c r="Q619" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R619" s="3"/>
-      <c r="S619" s="2"/>
-    </row>
-    <row r="620" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K620" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="L620" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M620" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="N620" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="O620" s="4">
-        <v>36</v>
-      </c>
-      <c r="P620" s="2"/>
-      <c r="Q620" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R620" s="3">
-        <v>-0.39</v>
-      </c>
-      <c r="S620" s="2"/>
-    </row>
-    <row r="621" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K621" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="L621" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M621" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="N621" s="3">
-        <v>-0.19</v>
-      </c>
-      <c r="O621" s="4">
-        <v>2</v>
-      </c>
-      <c r="P621" s="2"/>
-      <c r="Q621" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R621" s="3">
-        <v>-0.15</v>
-      </c>
-      <c r="S621" s="2"/>
-    </row>
-    <row r="622" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K622" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="L622" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M622" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="N622" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="O622" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="P622" s="2"/>
-      <c r="Q622" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R622" s="3"/>
-      <c r="S622" s="2"/>
-    </row>
-    <row r="623" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K623" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="L623" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M623" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="N623" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="O623" s="4">
-        <v>75</v>
-      </c>
-      <c r="P623" s="2"/>
-      <c r="Q623" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R623" s="3"/>
-      <c r="S623" s="2"/>
-    </row>
-    <row r="624" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K624" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="L624" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M624" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="N624" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="O624" s="4">
-        <v>142</v>
-      </c>
-      <c r="P624" s="2"/>
-      <c r="Q624" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R624" s="5">
-        <v>5.9</v>
-      </c>
-      <c r="S624" s="2"/>
-    </row>
-    <row r="625" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K625" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="L625" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M625" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="N625" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="O625" s="4">
-        <v>83</v>
-      </c>
-      <c r="P625" s="2"/>
-      <c r="Q625" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R625" s="3"/>
-      <c r="S625" s="2"/>
-    </row>
-    <row r="626" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K626" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="L626" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M626" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="N626" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="O626" s="4">
-        <v>16</v>
-      </c>
-      <c r="P626" s="2"/>
-      <c r="Q626" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R626" s="3">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="S626" s="2"/>
-    </row>
-    <row r="627" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K627" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="L627" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M627" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="N627" s="3">
-        <v>-0.19</v>
-      </c>
-      <c r="O627" s="4">
-        <v>2</v>
-      </c>
-      <c r="P627" s="2"/>
-      <c r="Q627" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R627" s="3">
-        <v>-0.17</v>
-      </c>
-      <c r="S627" s="2"/>
-    </row>
-    <row r="628" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K628" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="L628" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M628" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="N628" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="O628" s="4">
-        <v>81</v>
-      </c>
-      <c r="P628" s="2"/>
-      <c r="Q628" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R628" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="S628" s="2"/>
-    </row>
-    <row r="629" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K629" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="L629" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M629" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="N629" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="O629" s="4">
-        <v>165</v>
-      </c>
-      <c r="P629" s="2"/>
-      <c r="Q629" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R629" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="S629" s="2"/>
-    </row>
-    <row r="630" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K630" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="L630" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M630" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="N630" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="O630" s="4">
+      <c r="E633" s="4">
         <v>90</v>
       </c>
-      <c r="P630" s="2"/>
-      <c r="Q630" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R630" s="3"/>
-      <c r="S630" s="2"/>
-    </row>
-    <row r="631" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K631" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="L631" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M631" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="N631" s="3">
-        <v>-0.19</v>
-      </c>
-      <c r="O631" s="4">
-        <v>0</v>
-      </c>
-      <c r="P631" s="2"/>
-      <c r="Q631" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R631" s="3">
-        <v>-0.53</v>
-      </c>
-      <c r="S631" s="2"/>
-    </row>
-    <row r="632" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K632" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="L632" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M632" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="N632" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="O632" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="P632" s="2"/>
-      <c r="Q632" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R632" s="3"/>
-      <c r="S632" s="2"/>
-    </row>
-    <row r="633" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K633" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="L633" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M633" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="N633" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="O633" s="4">
-        <v>126</v>
-      </c>
-      <c r="P633" s="2"/>
-      <c r="Q633" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="F633" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G633" s="3"/>
       <c r="R633" s="3"/>
       <c r="S633" s="2"/>
     </row>
-    <row r="634" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K634" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="L634" s="2" t="s">
+    <row r="634" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G634" s="15"/>
+      <c r="S634" s="2"/>
+    </row>
+    <row r="635" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A635" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B635" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="M634" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="N634" s="5">
+      <c r="C635" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D635" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="E635" s="4">
+        <v>142</v>
+      </c>
+      <c r="F635" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G635" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="S635" s="2"/>
+    </row>
+    <row r="636" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A636" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C636" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D636" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E636" s="4">
+        <v>83</v>
+      </c>
+      <c r="F636" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G636" s="3"/>
+      <c r="S636" s="2"/>
+    </row>
+    <row r="637" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G637" s="15"/>
+      <c r="S637" s="2"/>
+    </row>
+    <row r="638" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A638" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C638" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D638" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E638" s="4">
+        <v>36</v>
+      </c>
+      <c r="F638" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G638" s="3">
+        <v>-0.39</v>
+      </c>
+      <c r="S638" s="2"/>
+    </row>
+    <row r="639" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A639" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C639" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D639" s="5">
         <v>0.01</v>
       </c>
-      <c r="O634" s="4">
-        <v>78</v>
-      </c>
-      <c r="P634" s="2"/>
-      <c r="Q634" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R634" s="3"/>
-      <c r="S634" s="2"/>
-    </row>
-    <row r="635" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K635" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="L635" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M635" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="N635" s="5">
+      <c r="E639" s="4">
+        <v>75</v>
+      </c>
+      <c r="F639" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G639" s="3"/>
+      <c r="S639" s="2"/>
+    </row>
+    <row r="640" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G640" s="15"/>
+      <c r="S640" s="2"/>
+    </row>
+    <row r="641" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A641" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C641" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D641" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E641" s="4">
+        <v>2</v>
+      </c>
+      <c r="F641" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G641" s="3">
+        <v>-0.15</v>
+      </c>
+      <c r="S641" s="2"/>
+    </row>
+    <row r="642" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A642" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D642" s="5">
         <v>0.19</v>
       </c>
-      <c r="O635" s="4">
+      <c r="E642" s="4">
         <v>2.8</v>
       </c>
-      <c r="P635" s="2"/>
-      <c r="Q635" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R635" s="3"/>
-      <c r="S635" s="2"/>
-    </row>
-    <row r="636" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K636" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="L636" s="2" t="s">
+      <c r="F642" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G642" s="3"/>
+      <c r="S642" s="2"/>
+    </row>
+    <row r="643" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G643" s="15"/>
+      <c r="S643" s="2"/>
+    </row>
+    <row r="644" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A644" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C644" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D644" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E644" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="F644" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G644" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="S644" s="2"/>
+    </row>
+    <row r="645" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A645" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C645" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D645" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E645" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="F645" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G645" s="3"/>
+      <c r="S645" s="2"/>
+    </row>
+    <row r="646" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G646" s="15"/>
+      <c r="S646" s="2"/>
+    </row>
+    <row r="647" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A647" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B647" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="M636" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="N636" s="3">
+      <c r="C647" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D647" s="3">
         <v>-0.01</v>
       </c>
-      <c r="O636" s="4">
-        <v>180</v>
-      </c>
-      <c r="P636" s="2"/>
-      <c r="Q636" s="2" t="s">
+      <c r="E647" s="4">
+        <v>16</v>
+      </c>
+      <c r="F647" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G647" s="3">
+        <v>-0.49</v>
+      </c>
+      <c r="S647" s="1"/>
+    </row>
+    <row r="648" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A648" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D648" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E648" s="4">
+        <v>65</v>
+      </c>
+      <c r="F648" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G648" s="3"/>
+    </row>
+    <row r="649" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G649" s="15"/>
+    </row>
+    <row r="650" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A650" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C650" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D650" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E650" s="4">
+        <v>2</v>
+      </c>
+      <c r="F650" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G650" s="3">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="651" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A651" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C651" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D651" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E651" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="F651" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G651" s="3"/>
+    </row>
+    <row r="652" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G652" s="15"/>
+    </row>
+    <row r="653" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A653" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C653" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D653" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="E653" s="4">
+        <v>258</v>
+      </c>
+      <c r="F653" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R636" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="S636" s="2"/>
-    </row>
-    <row r="637" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K637" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="L637" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M637" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="N637" s="3">
+      <c r="G653" s="5">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="654" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A654" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C654" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D654" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E654" s="4">
+        <v>134</v>
+      </c>
+      <c r="F654" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G654" s="3"/>
+    </row>
+    <row r="655" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G655" s="15"/>
+    </row>
+    <row r="656" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A656" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C656" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D656" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E656" s="4">
+        <v>36</v>
+      </c>
+      <c r="F656" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G656" s="3">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A657" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C657" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D657" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E657" s="4">
+        <v>111</v>
+      </c>
+      <c r="F657" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G657" s="3"/>
+    </row>
+    <row r="658" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G658" s="15"/>
+    </row>
+    <row r="659" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A659" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D659" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E659" s="4">
+        <v>36</v>
+      </c>
+      <c r="F659" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G659" s="3">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A660" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C660" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D660" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E660" s="4">
+        <v>115</v>
+      </c>
+      <c r="F660" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G660" s="3"/>
+    </row>
+    <row r="661" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G661" s="15"/>
+    </row>
+    <row r="662" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A662" s="11">
+        <v>44928.668055555558</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C662" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D662" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E662" s="4">
+        <v>100</v>
+      </c>
+      <c r="F662" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G662" s="3">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A663" s="11">
+        <v>44928.588194444441</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C663" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D663" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E663" s="4">
+        <v>107</v>
+      </c>
+      <c r="F663" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G663" s="3"/>
+    </row>
+    <row r="664" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G664" s="15"/>
+    </row>
+    <row r="665" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A665" s="11">
+        <v>44928.73333333333</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C665" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D665" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E665" s="4">
+        <v>274</v>
+      </c>
+      <c r="F665" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G665" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A666" s="11">
+        <v>44928.71875</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C666" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D666" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E666" s="4">
+        <v>144</v>
+      </c>
+      <c r="F666" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G666" s="3"/>
+    </row>
+    <row r="667" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G667" s="15"/>
+    </row>
+    <row r="668" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A668" s="11">
+        <v>44928.820138888892</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C668" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D668" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E668" s="4">
+        <v>2</v>
+      </c>
+      <c r="F668" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G668" s="3">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A669" s="11">
+        <v>44928.740972222222</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C669" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D669" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E669" s="4">
+        <v>3</v>
+      </c>
+      <c r="F669" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G669" s="3"/>
+    </row>
+    <row r="670" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G670" s="15"/>
+    </row>
+    <row r="671" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A671" s="11">
+        <v>44928.873611111114</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C671" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D671" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E671" s="4">
+        <v>36</v>
+      </c>
+      <c r="F671" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G671" s="3">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A672" s="11">
+        <v>44928.797222222223</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C672" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D672" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E672" s="4">
+        <v>106</v>
+      </c>
+      <c r="F672" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G672" s="3"/>
+    </row>
+    <row r="673" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G673" s="15"/>
+    </row>
+    <row r="674" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A674" s="11">
+        <v>44928.87222222222</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C674" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D674" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="E674" s="4">
+        <v>25</v>
+      </c>
+      <c r="F674" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G674" s="3">
+        <v>-4.25</v>
+      </c>
+    </row>
+    <row r="675" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A675" s="11">
+        <v>44928.794444444444</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C675" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D675" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E675" s="4">
+        <v>110</v>
+      </c>
+      <c r="F675" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G675" s="3"/>
+    </row>
+    <row r="676" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R676" s="1"/>
+    </row>
+    <row r="677" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A677" s="11">
+        <v>44959.669444444444</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C677" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D677" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E677" s="4">
+        <v>50</v>
+      </c>
+      <c r="F677" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G677" s="3">
+        <v>-0.25</v>
+      </c>
+      <c r="R677" s="2"/>
+    </row>
+    <row r="678" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A678" s="11">
+        <v>44959.586805555555</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C678" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D678" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E678" s="4">
+        <v>75</v>
+      </c>
+      <c r="F678" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R678" s="2"/>
+    </row>
+    <row r="679" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R679" s="2"/>
+    </row>
+    <row r="680" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A680" s="11">
+        <v>44959.668055555558</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C680" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D680" s="3">
         <v>-0.19</v>
       </c>
-      <c r="O637" s="4">
-        <v>1</v>
-      </c>
-      <c r="P637" s="2"/>
-      <c r="Q637" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R637" s="3">
+      <c r="E680" s="4">
+        <v>1</v>
+      </c>
+      <c r="F680" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G680" s="3">
+        <v>-0.22</v>
+      </c>
+      <c r="R680" s="2"/>
+    </row>
+    <row r="681" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A681" s="11">
+        <v>44959.592361111114</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C681" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D681" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E681" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="F681" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G681" s="3"/>
+      <c r="R681" s="2"/>
+    </row>
+    <row r="682" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q682" s="3"/>
+      <c r="R682" s="2"/>
+    </row>
+    <row r="683" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A683" s="11">
+        <v>44959.668055555558</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C683" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D683" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E683" s="4">
+        <v>81</v>
+      </c>
+      <c r="F683" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G683" s="3">
+        <v>-0.13</v>
+      </c>
+      <c r="R683" s="2"/>
+    </row>
+    <row r="684" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A684" s="11">
+        <v>44959.588194444441</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C684" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D684" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E684" s="4">
+        <v>94</v>
+      </c>
+      <c r="F684" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G684" s="3"/>
+      <c r="R684" s="2"/>
+    </row>
+    <row r="685" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R685" s="2"/>
+    </row>
+    <row r="686" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A686" s="11">
+        <v>44959.802777777775</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C686" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D686" s="3">
         <v>-0.19</v>
       </c>
-      <c r="S637" s="2"/>
-    </row>
-    <row r="638" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K638" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="L638" s="2" t="s">
+      <c r="E686" s="4">
+        <v>2</v>
+      </c>
+      <c r="F686" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G686" s="3">
+        <v>-0.26</v>
+      </c>
+      <c r="R686" s="2"/>
+    </row>
+    <row r="687" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A687" s="11">
+        <v>44959.724305555559</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C687" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D687" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E687" s="4">
+        <v>3.35</v>
+      </c>
+      <c r="F687" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G687" s="3"/>
+      <c r="R687" s="2"/>
+    </row>
+    <row r="688" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R688" s="2"/>
+    </row>
+    <row r="689" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A689" s="11">
+        <v>44959.870833333334</v>
+      </c>
+      <c r="B689" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="M638" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="N638" s="5">
+      <c r="C689" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D689" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E689" s="4">
+        <v>215</v>
+      </c>
+      <c r="F689" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G689" s="5">
+        <v>1.03</v>
+      </c>
+      <c r="R689" s="2"/>
+    </row>
+    <row r="690" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A690" s="11">
+        <v>44959.835416666669</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C690" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D690" s="5">
         <v>0.01</v>
       </c>
-      <c r="O638" s="4">
-        <v>108</v>
-      </c>
-      <c r="P638" s="2"/>
-      <c r="Q638" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R638" s="3"/>
-      <c r="S638" s="2"/>
-    </row>
-    <row r="639" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K639" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="L639" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M639" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="N639" s="3">
+      <c r="E690" s="4">
+        <v>112</v>
+      </c>
+      <c r="F690" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q690" s="3"/>
+      <c r="R690" s="2"/>
+    </row>
+    <row r="691" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R691" s="2"/>
+    </row>
+    <row r="692" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A692" s="11">
+        <v>44959.917361111111</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C692" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D692" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E692" s="4">
+        <v>2</v>
+      </c>
+      <c r="F692" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G692" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="R692" s="2"/>
+    </row>
+    <row r="693" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A693" s="11">
+        <v>44959.838194444441</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C693" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D693" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E693" s="4">
+        <v>3</v>
+      </c>
+      <c r="F693" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G693" s="3"/>
+      <c r="R693" s="2"/>
+    </row>
+    <row r="694" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R694" s="2"/>
+    </row>
+    <row r="695" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A695" s="11">
+        <v>44987.793055555558</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C695" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D695" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E695" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="F695" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G695" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="R695" s="2"/>
+    </row>
+    <row r="696" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A696" s="11">
+        <v>44987.738888888889</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C696" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D696" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E696" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F696" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G696" s="3"/>
+      <c r="R696" s="2"/>
+    </row>
+    <row r="697" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R697" s="2"/>
+    </row>
+    <row r="698" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A698" s="11">
+        <v>44987.807638888888</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C698" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D698" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E698" s="4">
+        <v>100</v>
+      </c>
+      <c r="F698" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G698" s="3">
+        <v>-0.39</v>
+      </c>
+      <c r="R698" s="2"/>
+    </row>
+    <row r="699" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A699" s="11">
+        <v>44987.732638888891</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C699" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D699" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E699" s="4">
+        <v>139</v>
+      </c>
+      <c r="F699" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G699" s="3"/>
+      <c r="R699" s="2"/>
+    </row>
+    <row r="700" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R700" s="2"/>
+    </row>
+    <row r="701" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A701" s="11">
+        <v>44987.886805555558</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C701" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D701" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E701" s="4">
+        <v>202</v>
+      </c>
+      <c r="F701" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G701" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="R701" s="2"/>
+    </row>
+    <row r="702" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A702" s="11">
+        <v>44987.82708333333</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C702" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D702" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E702" s="4">
+        <v>132</v>
+      </c>
+      <c r="F702" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R702" s="2"/>
+    </row>
+    <row r="703" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R703" s="2"/>
+    </row>
+    <row r="704" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A704" s="11">
+        <v>44987.895833333336</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C704" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D704" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E704" s="4">
+        <v>162</v>
+      </c>
+      <c r="F704" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G704" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="R704" s="2"/>
+    </row>
+    <row r="705" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A705" s="11">
+        <v>44987.837500000001</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C705" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D705" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E705" s="4">
+        <v>120</v>
+      </c>
+      <c r="F705" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R705" s="2"/>
+    </row>
+    <row r="706" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R706" s="2"/>
+    </row>
+    <row r="707" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A707" s="11">
+        <v>44987.896527777775</v>
+      </c>
+      <c r="B707" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C707" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D707" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E707" s="4">
+        <v>53</v>
+      </c>
+      <c r="F707" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G707" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A708" s="11">
+        <v>44987.845138888886</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C708" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D708" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E708" s="4">
+        <v>43</v>
+      </c>
+      <c r="F708" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G708" s="3"/>
+      <c r="K708" s="1"/>
+      <c r="L708" s="1"/>
+      <c r="M708" s="1"/>
+      <c r="N708" s="1"/>
+      <c r="O708" s="1"/>
+      <c r="P708" s="1"/>
+      <c r="Q708" s="1"/>
+      <c r="R708" s="1"/>
+    </row>
+    <row r="709" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R709" s="2"/>
+    </row>
+    <row r="710" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A710" s="11">
+        <v>44987.912499999999</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C710" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D710" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E710" s="4">
+        <v>64</v>
+      </c>
+      <c r="F710" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G710" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="R710" s="2"/>
+    </row>
+    <row r="711" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A711" s="11">
+        <v>44987.836805555555</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C711" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D711" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E711" s="4">
+        <v>114</v>
+      </c>
+      <c r="F711" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G711" s="3"/>
+      <c r="R711" s="2"/>
+    </row>
+    <row r="712" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R712" s="2"/>
+    </row>
+    <row r="713" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A713" s="11">
+        <v>45018.520833333336</v>
+      </c>
+      <c r="B713" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C713" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D713" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E713" s="4">
+        <v>2</v>
+      </c>
+      <c r="F713" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G713" s="3">
+        <v>-0.17</v>
+      </c>
+      <c r="R713" s="2"/>
+    </row>
+    <row r="714" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A714" s="11">
+        <v>45018.440972222219</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C714" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D714" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E714" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="F714" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R714" s="2"/>
+    </row>
+    <row r="715" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R715" s="2"/>
+    </row>
+    <row r="716" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A716" s="11">
+        <v>45018.582638888889</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C716" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D716" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E716" s="4">
+        <v>16</v>
+      </c>
+      <c r="F716" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G716" s="3">
+        <v>-0.78</v>
+      </c>
+      <c r="R716" s="2"/>
+    </row>
+    <row r="717" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A717" s="11">
+        <v>45018.510416666664</v>
+      </c>
+      <c r="B717" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C717" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D717" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E717" s="4">
+        <v>94</v>
+      </c>
+      <c r="F717" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R717" s="2"/>
+    </row>
+    <row r="718" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R718" s="2"/>
+    </row>
+    <row r="719" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A719" s="11">
+        <v>45018.591666666667</v>
+      </c>
+      <c r="B719" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C719" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D719" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E719" s="4">
+        <v>129</v>
+      </c>
+      <c r="F719" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G719" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="R719" s="2"/>
+    </row>
+    <row r="720" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A720" s="11">
+        <v>45018.518750000003</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C720" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D720" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E720" s="4">
+        <v>117</v>
+      </c>
+      <c r="F720" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G720" s="3"/>
+      <c r="R720" s="2"/>
+    </row>
+    <row r="721" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R721" s="2"/>
+    </row>
+    <row r="722" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A722" s="11">
+        <v>45018.602083333331</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C722" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D722" s="3">
         <v>-0.3</v>
       </c>
-      <c r="O639" s="4">
-        <v>7</v>
-      </c>
-      <c r="P639" s="2"/>
-      <c r="Q639" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R639" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="S639" s="2"/>
-    </row>
-    <row r="640" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K640" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="L640" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M640" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="N640" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="O640" s="4">
+      <c r="E722" s="4">
+        <v>1</v>
+      </c>
+      <c r="F722" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G722" s="3">
+        <v>-0.3</v>
+      </c>
+      <c r="R722" s="2"/>
+    </row>
+    <row r="723" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A723" s="11">
+        <v>45018.539583333331</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C723" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D723" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E723" s="4">
         <v>2</v>
       </c>
-      <c r="P640" s="2"/>
-      <c r="Q640" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R640" s="3"/>
-      <c r="S640" s="2"/>
-    </row>
-    <row r="641" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K641" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="L641" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M641" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="N641" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="O641" s="4">
-        <v>3</v>
-      </c>
-      <c r="P641" s="2"/>
-      <c r="Q641" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R641" s="3"/>
-      <c r="S641" s="2"/>
-    </row>
-    <row r="642" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K642" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="L642" s="2" t="s">
+      <c r="F723" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G723" s="3"/>
+      <c r="R723" s="2"/>
+    </row>
+    <row r="724" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R724" s="2"/>
+    </row>
+    <row r="725" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A725" s="11">
+        <v>45018.577777777777</v>
+      </c>
+      <c r="B725" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C725" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D725" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E725" s="4">
+        <v>81</v>
+      </c>
+      <c r="F725" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G725" s="3">
+        <v>-0.62</v>
+      </c>
+      <c r="R725" s="2"/>
+    </row>
+    <row r="726" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A726" s="11">
+        <v>45018.503472222219</v>
+      </c>
+      <c r="B726" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C726" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D726" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E726" s="4">
+        <v>112</v>
+      </c>
+      <c r="F726" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G726" s="3"/>
+      <c r="R726" s="2"/>
+    </row>
+    <row r="727" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R727" s="2"/>
+    </row>
+    <row r="728" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A728" s="11">
+        <v>45018.614583333336</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C728" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D728" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="E728" s="4">
+        <v>149</v>
+      </c>
+      <c r="F728" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G728" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R728" s="2"/>
+    </row>
+    <row r="729" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A729" s="11">
+        <v>45018.604861111111</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C729" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D729" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E729" s="4">
+        <v>99</v>
+      </c>
+      <c r="F729" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R729" s="2"/>
+    </row>
+    <row r="730" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R730" s="2"/>
+    </row>
+    <row r="731" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A731" s="11">
+        <v>45018.685416666667</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D731" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E731" s="4">
+        <v>3</v>
+      </c>
+      <c r="F731" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G731" s="5">
+        <v>0</v>
+      </c>
+      <c r="R731" s="2"/>
+    </row>
+    <row r="732" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A732" s="11">
+        <v>45018.606249999997</v>
+      </c>
+      <c r="B732" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C732" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D732" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E732" s="4">
+        <v>3</v>
+      </c>
+      <c r="F732" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R732" s="2"/>
+    </row>
+    <row r="733" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R733" s="2"/>
+    </row>
+    <row r="734" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A734" s="11">
+        <v>45018.685416666667</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C734" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D734" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="E734" s="4">
+        <v>64</v>
+      </c>
+      <c r="F734" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G734" s="3">
+        <v>-2.8</v>
+      </c>
+      <c r="R734" s="2"/>
+    </row>
+    <row r="735" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A735" s="11">
+        <v>45018.609722222223</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C735" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D735" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E735" s="4">
+        <v>92</v>
+      </c>
+      <c r="F735" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G735" s="3"/>
+      <c r="R735" s="2"/>
+    </row>
+    <row r="736" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R736" s="2"/>
+    </row>
+    <row r="737" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A737" s="11">
+        <v>45018.760416666664</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C737" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D737" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="E737" s="4">
+        <v>149</v>
+      </c>
+      <c r="F737" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G737" s="5">
+        <v>2</v>
+      </c>
+      <c r="R737" s="2"/>
+    </row>
+    <row r="738" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A738" s="11">
+        <v>45018.728472222225</v>
+      </c>
+      <c r="B738" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C738" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D738" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E738" s="4">
+        <v>109</v>
+      </c>
+      <c r="F738" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R738" s="2"/>
+    </row>
+    <row r="739" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R739" s="2"/>
+    </row>
+    <row r="740" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A740" s="11">
+        <v>45018.808333333334</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C740" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D740" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E740" s="4">
+        <v>36</v>
+      </c>
+      <c r="F740" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G740" s="3">
+        <v>-1.26</v>
+      </c>
+      <c r="R740" s="2"/>
+    </row>
+    <row r="741" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A741" s="11">
+        <v>45018.73333333333</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C741" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D741" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E741" s="4">
+        <v>99</v>
+      </c>
+      <c r="F741" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R741" s="2"/>
+    </row>
+    <row r="742" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R742" s="2"/>
+    </row>
+    <row r="743" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A743" s="11">
+        <v>45018.87222222222</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C743" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D743" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E743" s="4">
+        <v>100</v>
+      </c>
+      <c r="F743" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G743" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="R743" s="2"/>
+    </row>
+    <row r="744" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A744" s="11">
+        <v>45018.793749999997</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C744" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D744" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E744" s="4">
+        <v>110</v>
+      </c>
+      <c r="F744" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G744" s="3"/>
+      <c r="R744" s="2"/>
+    </row>
+    <row r="745" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R745" s="2"/>
+    </row>
+    <row r="746" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A746" s="11">
+        <v>45018.902083333334</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C746" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D746" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E746" s="4">
+        <v>81</v>
+      </c>
+      <c r="F746" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G746" s="3">
+        <v>-0.48</v>
+      </c>
+      <c r="R746" s="2"/>
+    </row>
+    <row r="747" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A747" s="11">
+        <v>45018.824999999997</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C747" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D747" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E747" s="4">
+        <v>105</v>
+      </c>
+      <c r="F747" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G747" s="3"/>
+      <c r="R747" s="2"/>
+    </row>
+    <row r="748" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R748" s="2"/>
+    </row>
+    <row r="749" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A749" s="11">
+        <v>45048.518055555556</v>
+      </c>
+      <c r="B749" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D749" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E749" s="4">
+        <v>3</v>
+      </c>
+      <c r="F749" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G749" s="5">
+        <v>0</v>
+      </c>
+      <c r="R749" s="2"/>
+    </row>
+    <row r="750" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A750" s="11">
+        <v>45048.431944444441</v>
+      </c>
+      <c r="B750" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D750" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E750" s="4">
+        <v>3</v>
+      </c>
+      <c r="F750" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R750" s="2"/>
+    </row>
+    <row r="751" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R751" s="2"/>
+    </row>
+    <row r="752" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A752" s="11">
+        <v>45048.511805555558</v>
+      </c>
+      <c r="B752" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D752" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E752" s="4">
+        <v>144</v>
+      </c>
+      <c r="F752" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G752" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="R752" s="2"/>
+    </row>
+    <row r="753" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A753" s="11">
+        <v>45048.481944444444</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D753" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E753" s="4">
+        <v>100</v>
+      </c>
+      <c r="F753" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R753" s="2"/>
+    </row>
+    <row r="754" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R754" s="2"/>
+    </row>
+    <row r="755" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A755" s="11">
+        <v>45048.53125</v>
+      </c>
+      <c r="B755" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D755" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="E755" s="4">
+        <v>119</v>
+      </c>
+      <c r="F755" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G755" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="R755" s="2"/>
+    </row>
+    <row r="756" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A756" s="11">
+        <v>45048.522916666669</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D756" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E756" s="4">
+        <v>112</v>
+      </c>
+      <c r="F756" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G756" s="3"/>
+      <c r="R756" s="2"/>
+    </row>
+    <row r="757" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R757" s="2"/>
+    </row>
+    <row r="758" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A758" s="11">
+        <v>45048.543749999997</v>
+      </c>
+      <c r="B758" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D758" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E758" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="F758" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G758" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R758" s="2"/>
+    </row>
+    <row r="759" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A759" s="11">
+        <v>45048.504166666666</v>
+      </c>
+      <c r="B759" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D759" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E759" s="4">
+        <v>2</v>
+      </c>
+      <c r="F759" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G759" s="3"/>
+    </row>
+    <row r="760" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="761" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A761" s="11">
+        <v>45048.580555555556</v>
+      </c>
+      <c r="B761" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D761" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E761" s="4">
+        <v>49</v>
+      </c>
+      <c r="F761" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G761" s="3">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="762" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A762" s="11">
+        <v>45048.50277777778</v>
+      </c>
+      <c r="B762" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C762" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D762" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E762" s="4">
+        <v>124</v>
+      </c>
+      <c r="F762" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G762" s="3"/>
+    </row>
+    <row r="763" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="764" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A764" s="11">
+        <v>45048.581250000003</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C764" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D764" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E764" s="4">
+        <v>107</v>
+      </c>
+      <c r="F764" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G764" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="Q764" s="3"/>
+    </row>
+    <row r="765" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A765" s="11">
+        <v>45048.543055555558</v>
+      </c>
+      <c r="B765" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C765" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D765" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E765" s="4">
+        <v>96</v>
+      </c>
+      <c r="F765" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G765" s="3"/>
+      <c r="Q765" s="3"/>
+    </row>
+    <row r="766" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q766" s="3"/>
+    </row>
+    <row r="767" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A767" s="11">
+        <v>45048.664583333331</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D767" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E767" s="4">
+        <v>121</v>
+      </c>
+      <c r="F767" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G767" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="768" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A768" s="11">
+        <v>45048.585416666669</v>
+      </c>
+      <c r="B768" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C768" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D768" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E768" s="4">
+        <v>105</v>
+      </c>
+      <c r="F768" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="769" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="770" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A770" s="11">
+        <v>45048.664583333331</v>
+      </c>
+      <c r="B770" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M642" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="N642" s="3">
+      <c r="C770" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D770" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E770" s="4">
+        <v>30</v>
+      </c>
+      <c r="F770" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G770" s="3">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="771" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A771" s="11">
+        <v>45048.594444444447</v>
+      </c>
+      <c r="B771" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C771" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D771" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E771" s="4">
+        <v>53</v>
+      </c>
+      <c r="F771" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="772" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="773" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A773" s="11">
+        <v>45048.636805555558</v>
+      </c>
+      <c r="B773" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C773" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D773" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E773" s="4">
+        <v>147</v>
+      </c>
+      <c r="F773" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G773" s="5">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="774" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A774" s="11">
+        <v>45048.605555555558</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D774" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E774" s="4">
+        <v>106</v>
+      </c>
+      <c r="F774" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="775" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="776" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A776" s="11">
+        <v>45048.734027777777</v>
+      </c>
+      <c r="B776" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C776" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D776" s="3">
         <v>-0.05</v>
       </c>
-      <c r="O642" s="4">
-        <v>20</v>
-      </c>
-      <c r="P642" s="2"/>
-      <c r="Q642" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R642" s="3">
-        <v>-1.4</v>
-      </c>
-      <c r="S642" s="2"/>
-    </row>
-    <row r="643" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K643" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="L643" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M643" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="N643" s="3">
-        <v>-0.19</v>
-      </c>
-      <c r="O643" s="4">
+      <c r="E776" s="4">
+        <v>81</v>
+      </c>
+      <c r="F776" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G776" s="3">
+        <v>-1.85</v>
+      </c>
+    </row>
+    <row r="777" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A777" s="11">
+        <v>45048.647916666669</v>
+      </c>
+      <c r="B777" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C777" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D777" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E777" s="4">
+        <v>118</v>
+      </c>
+      <c r="F777" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G777" s="3"/>
+      <c r="Q777" s="3"/>
+    </row>
+    <row r="778" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q778" s="3"/>
+    </row>
+    <row r="779" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A779" s="11">
+        <v>45048.68472222222</v>
+      </c>
+      <c r="B779" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C779" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D779" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E779" s="4">
         <v>2</v>
       </c>
-      <c r="P643" s="2"/>
-      <c r="Q643" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R643" s="3">
-        <v>-0.16</v>
-      </c>
-      <c r="S643" s="2"/>
-    </row>
-    <row r="644" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K644" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="L644" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M644" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="N644" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="O644" s="4">
-        <v>48</v>
-      </c>
-      <c r="P644" s="2"/>
-      <c r="Q644" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R644" s="3"/>
-      <c r="S644" s="2"/>
-    </row>
-    <row r="645" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K645" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="L645" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M645" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="N645" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="O645" s="4">
-        <v>2.85</v>
-      </c>
-      <c r="P645" s="2"/>
-      <c r="Q645" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R645" s="3"/>
-      <c r="S645" s="2"/>
-    </row>
-    <row r="646" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K646" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="L646" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M646" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="N646" s="3">
+      <c r="F779" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G779" s="3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A780" s="11">
+        <v>45048.616666666669</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C780" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D780" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E780" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F780" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G780" s="3"/>
+    </row>
+    <row r="781" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="782" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A782" s="11">
+        <v>45048.76666666667</v>
+      </c>
+      <c r="B782" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C782" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D782" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E782" s="4">
+        <v>1</v>
+      </c>
+      <c r="F782" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G782" s="3">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="783" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A783" s="11">
+        <v>45048.695833333331</v>
+      </c>
+      <c r="B783" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C783" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D783" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E783" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="F783" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G783" s="3"/>
+    </row>
+    <row r="784" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="785" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A785" s="11">
+        <v>45048.740277777775</v>
+      </c>
+      <c r="B785" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C785" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D785" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E785" s="4">
+        <v>139</v>
+      </c>
+      <c r="F785" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G785" s="5">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="786" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A786" s="11">
+        <v>45048.688194444447</v>
+      </c>
+      <c r="B786" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C786" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D786" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E786" s="4">
+        <v>118</v>
+      </c>
+      <c r="F786" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G786" s="3"/>
+      <c r="Q786" s="3"/>
+    </row>
+    <row r="787" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="788" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A788" s="11">
+        <v>45048.765972222223</v>
+      </c>
+      <c r="B788" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C788" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D788" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="E788" s="4">
+        <v>149</v>
+      </c>
+      <c r="F788" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G788" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="789" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A789" s="11">
+        <v>45048.751388888886</v>
+      </c>
+      <c r="B789" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C789" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D789" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E789" s="4">
+        <v>124</v>
+      </c>
+      <c r="F789" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G789" s="3"/>
+    </row>
+    <row r="790" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="791" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A791" s="11">
+        <v>45048.90347222222</v>
+      </c>
+      <c r="B791" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C791" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D791" s="3">
         <v>-0.01</v>
       </c>
-      <c r="O646" s="4">
-        <v>19</v>
-      </c>
-      <c r="P646" s="2"/>
-      <c r="Q646" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R646" s="3">
-        <v>-0.56000000000000005</v>
-      </c>
-      <c r="S646" s="2"/>
-    </row>
-    <row r="647" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K647" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="L647" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M647" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="N647" s="5">
+      <c r="E791" s="4">
+        <v>74</v>
+      </c>
+      <c r="F791" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G791" s="3">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="792" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A792" s="11">
+        <v>45048.818055555559</v>
+      </c>
+      <c r="B792" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C792" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D792" s="5">
         <v>0.01</v>
       </c>
-      <c r="O647" s="4">
-        <v>75</v>
-      </c>
-      <c r="P647" s="2"/>
-      <c r="Q647" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R647" s="1"/>
-      <c r="S647" s="1"/>
+      <c r="E792" s="4">
+        <v>98</v>
+      </c>
+      <c r="F792" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="793" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="794" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A794" s="11">
+        <v>45048.904861111114</v>
+      </c>
+      <c r="B794" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C794" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D794" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E794" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F794" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G794" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="795" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A795" s="11">
+        <v>45048.859722222223</v>
+      </c>
+      <c r="B795" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C795" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D795" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E795" s="4">
+        <v>2</v>
+      </c>
+      <c r="F795" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G795" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spreadex.xlsx
+++ b/spreadex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BCD331-4095-4A81-B518-D2887E67501F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78735124-B5E0-4EEA-BC53-F09CF2A4DB0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="802" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="761">
   <si>
     <t>24/11/2022 20:55</t>
   </si>
@@ -2144,6 +2144,189 @@
   </si>
   <si>
     <t>16/02/2023 17:42</t>
+  </si>
+  <si>
+    <t>24/02/2023 19:31</t>
+  </si>
+  <si>
+    <t>Mainz v M'Gladbach</t>
+  </si>
+  <si>
+    <t>24/02/2023 19:29</t>
+  </si>
+  <si>
+    <t>Karlsruhe v Jahn Regensburg</t>
+  </si>
+  <si>
+    <t>24/02/2023 19:11</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam v Utrecht</t>
+  </si>
+  <si>
+    <t>24/02/2023 17:35</t>
+  </si>
+  <si>
+    <t>24/02/2023 17:29</t>
+  </si>
+  <si>
+    <t>23/02/2023 21:53</t>
+  </si>
+  <si>
+    <t>Man Utd v Barcelona</t>
+  </si>
+  <si>
+    <t>23/02/2023 20:13</t>
+  </si>
+  <si>
+    <t>22/02/2023 21:58</t>
+  </si>
+  <si>
+    <t>Inter Milan v Porto</t>
+  </si>
+  <si>
+    <t>22/02/2023 21:53</t>
+  </si>
+  <si>
+    <t>RB Leipzig v Man City</t>
+  </si>
+  <si>
+    <t>22/02/2023 21:38</t>
+  </si>
+  <si>
+    <t>22/02/2023 20:33</t>
+  </si>
+  <si>
+    <t>22/02/2023 20:08</t>
+  </si>
+  <si>
+    <t>22/02/2023 20:01</t>
+  </si>
+  <si>
+    <t>Real Betis v Real Madrid</t>
+  </si>
+  <si>
+    <t>Liverpool v Man Utd</t>
+  </si>
+  <si>
+    <t>Leverkusen v Hertha BSC</t>
+  </si>
+  <si>
+    <t>Fiorentina v AC Milan</t>
+  </si>
+  <si>
+    <t>Boavista v Arouca</t>
+  </si>
+  <si>
+    <t>Napoli v Lazio</t>
+  </si>
+  <si>
+    <t>Dortmund v RB Leipzig</t>
+  </si>
+  <si>
+    <t>Magdeburg v Kaiserslautern</t>
+  </si>
+  <si>
+    <t>Alanyaspor v Basaksehir</t>
+  </si>
+  <si>
+    <t>Real Madrid v Barcelona</t>
+  </si>
+  <si>
+    <t>Liverpool v Wolves</t>
+  </si>
+  <si>
+    <t>27/02/2023 19:13</t>
+  </si>
+  <si>
+    <t>Sporting Lisbon v Estoril</t>
+  </si>
+  <si>
+    <t>27/02/2023 19:03</t>
+  </si>
+  <si>
+    <t>26/02/2023 21:37</t>
+  </si>
+  <si>
+    <t>Marseille v Paris Saint-Germain</t>
+  </si>
+  <si>
+    <t>26/02/2023 19:31</t>
+  </si>
+  <si>
+    <t>26/02/2023 14:21</t>
+  </si>
+  <si>
+    <t>Tottenham v Chelsea</t>
+  </si>
+  <si>
+    <t>26/02/2023 13:57</t>
+  </si>
+  <si>
+    <t>26/02/2023 13:02</t>
+  </si>
+  <si>
+    <t>Arminia Bielefeld v Heidenheim</t>
+  </si>
+  <si>
+    <t>26/02/2023 12:27</t>
+  </si>
+  <si>
+    <t>25/02/2023 19:28</t>
+  </si>
+  <si>
+    <t>Real Madrid v Atletico Madrid</t>
+  </si>
+  <si>
+    <t>25/02/2023 17:36</t>
+  </si>
+  <si>
+    <t>25/02/2023 15:45</t>
+  </si>
+  <si>
+    <t>Birmingham v Luton</t>
+  </si>
+  <si>
+    <t>25/02/2023 14:53</t>
+  </si>
+  <si>
+    <t>Espanyol v Mallorca</t>
+  </si>
+  <si>
+    <t>25/02/2023 14:39</t>
+  </si>
+  <si>
+    <t>Hoffenheim v Dortmund</t>
+  </si>
+  <si>
+    <t>25/02/2023 14:31</t>
+  </si>
+  <si>
+    <t>25/02/2023 13:54</t>
+  </si>
+  <si>
+    <t>Holstein Kiel v Paderborn</t>
+  </si>
+  <si>
+    <t>25/02/2023 13:17</t>
+  </si>
+  <si>
+    <t>25/02/2023 12:02</t>
+  </si>
+  <si>
+    <t>24/02/2023 21:58</t>
+  </si>
+  <si>
+    <t>Fulham v Wolves</t>
+  </si>
+  <si>
+    <t>24/02/2023 21:26</t>
+  </si>
+  <si>
+    <t>24/02/2023 21:07</t>
+  </si>
+  <si>
+    <t>24/02/2023 20:29</t>
   </si>
 </sst>
 </file>
@@ -2704,13 +2887,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2ACDE7-BC8B-432A-9773-10E95E9E94B1}">
-  <dimension ref="A1:V1083"/>
+  <dimension ref="A1:V1150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1075" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1099" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I1097" sqref="I1097"/>
+      <selection pane="bottomRight" activeCell="A1110" sqref="A1110:G1110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20792,7 +20975,7 @@
       <c r="G1071" s="3"/>
     </row>
     <row r="1072" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="1073" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1073" spans="1:19" ht="15.75" thickBot="1">
       <c r="A1073" s="2" t="s">
         <v>641</v>
       </c>
@@ -20815,7 +20998,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="1074" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1074" spans="1:19" ht="15.75" thickBot="1">
       <c r="A1074" s="2" t="s">
         <v>642</v>
       </c>
@@ -20836,8 +21019,8 @@
       </c>
       <c r="G1074" s="3"/>
     </row>
-    <row r="1075" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="1076" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1075" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="1076" spans="1:19" ht="15.75" thickBot="1">
       <c r="A1076" s="2" t="s">
         <v>636</v>
       </c>
@@ -20860,7 +21043,7 @@
         <v>-0.52</v>
       </c>
     </row>
-    <row r="1077" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1077" spans="1:19" ht="15.75" thickBot="1">
       <c r="A1077" s="2" t="s">
         <v>638</v>
       </c>
@@ -20881,8 +21064,8 @@
       </c>
       <c r="G1077" s="3"/>
     </row>
-    <row r="1078" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="1079" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1078" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="1079" spans="1:19" ht="15.75" thickBot="1">
       <c r="A1079" s="2" t="s">
         <v>633</v>
       </c>
@@ -20905,7 +21088,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="1080" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1080" spans="1:19" ht="15.75" thickBot="1">
       <c r="A1080" s="2" t="s">
         <v>635</v>
       </c>
@@ -20926,8 +21109,8 @@
       </c>
       <c r="G1080" s="3"/>
     </row>
-    <row r="1081" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="1082" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1081" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="1082" spans="1:19" ht="15.75" thickBot="1">
       <c r="A1082" s="2" t="s">
         <v>630</v>
       </c>
@@ -20950,7 +21133,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="1083" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1083" spans="1:19" ht="15.75" thickBot="1">
       <c r="A1083" s="2" t="s">
         <v>632</v>
       </c>
@@ -20970,6 +21153,1499 @@
         <v>5</v>
       </c>
       <c r="G1083" s="3"/>
+    </row>
+    <row r="1084" spans="1:19" ht="15.75" thickBot="1">
+      <c r="L1084" s="1"/>
+      <c r="M1084" s="1"/>
+      <c r="N1084" s="1"/>
+      <c r="O1084" s="1"/>
+      <c r="P1084" s="1"/>
+      <c r="Q1084" s="1"/>
+      <c r="R1084" s="1"/>
+      <c r="S1084" s="1"/>
+    </row>
+    <row r="1085" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1085" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B1085" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1085" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1085" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1085" s="4">
+        <v>69</v>
+      </c>
+      <c r="F1085" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1085" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="S1085" s="2"/>
+    </row>
+    <row r="1086" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1086" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B1086" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1086" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1086" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1086" s="4">
+        <v>43</v>
+      </c>
+      <c r="F1086" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1086" s="3"/>
+      <c r="S1086" s="2"/>
+    </row>
+    <row r="1087" spans="1:19" ht="15.75" thickBot="1">
+      <c r="S1087" s="2"/>
+    </row>
+    <row r="1088" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1088" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B1088" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1088" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1088" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1088" s="4">
+        <v>36</v>
+      </c>
+      <c r="F1088" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1088" s="3">
+        <v>-0.71</v>
+      </c>
+      <c r="S1088" s="2"/>
+    </row>
+    <row r="1089" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1089" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B1089" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1089" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1089" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1089" s="4">
+        <v>107</v>
+      </c>
+      <c r="F1089" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1089" s="3"/>
+      <c r="R1089" s="3"/>
+      <c r="S1089" s="2"/>
+    </row>
+    <row r="1090" spans="1:19" ht="15.75" thickBot="1">
+      <c r="S1090" s="2"/>
+    </row>
+    <row r="1091" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1091" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B1091" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1091" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1091" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E1091" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1091" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1091" s="3">
+        <v>-0.12</v>
+      </c>
+      <c r="S1091" s="2"/>
+    </row>
+    <row r="1092" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1092" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B1092" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1092" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1092" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E1092" s="4">
+        <v>2.65</v>
+      </c>
+      <c r="F1092" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1092" s="3"/>
+      <c r="S1092" s="2"/>
+    </row>
+    <row r="1093" spans="1:19" ht="15.75" thickBot="1">
+      <c r="S1093" s="2"/>
+    </row>
+    <row r="1094" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1094" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1094" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1094" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D1094" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1094" s="4">
+        <v>60</v>
+      </c>
+      <c r="F1094" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1094" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="S1094" s="2"/>
+    </row>
+    <row r="1095" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1095" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B1095" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1095" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D1095" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1095" s="4">
+        <v>50</v>
+      </c>
+      <c r="F1095" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1095" s="3"/>
+      <c r="S1095" s="2"/>
+    </row>
+    <row r="1096" spans="1:19" ht="15.75" thickBot="1">
+      <c r="S1096" s="2"/>
+    </row>
+    <row r="1097" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1097" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B1097" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1097" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D1097" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E1097" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1097" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1097" s="3">
+        <v>-0.34</v>
+      </c>
+      <c r="S1097" s="2"/>
+    </row>
+    <row r="1098" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1098" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1098" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1098" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D1098" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E1098" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="F1098" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1098" s="3"/>
+      <c r="S1098" s="2"/>
+    </row>
+    <row r="1099" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="1100" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1100" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B1100" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1100" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D1100" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1100" s="4">
+        <v>36</v>
+      </c>
+      <c r="F1100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1100" s="3">
+        <v>-0.75</v>
+      </c>
+      <c r="L1100" s="1"/>
+      <c r="M1100" s="1"/>
+      <c r="N1100" s="1"/>
+      <c r="O1100" s="1"/>
+      <c r="P1100" s="1"/>
+      <c r="Q1100" s="1"/>
+      <c r="R1100" s="1"/>
+      <c r="S1100" s="1"/>
+    </row>
+    <row r="1101" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1101" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B1101" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1101" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D1101" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1101" s="4">
+        <v>111</v>
+      </c>
+      <c r="F1101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1101" s="11">
+        <v>45049.912499999999</v>
+      </c>
+      <c r="M1101" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1101" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="O1101" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="P1101" s="4">
+        <v>64</v>
+      </c>
+      <c r="Q1101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1101" s="3">
+        <v>-0.47</v>
+      </c>
+      <c r="S1101" s="2"/>
+    </row>
+    <row r="1102" spans="1:19" ht="15.75" thickBot="1">
+      <c r="L1102" s="11">
+        <v>45049.82916666667</v>
+      </c>
+      <c r="M1102" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1102" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="O1102" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="P1102" s="4">
+        <v>111</v>
+      </c>
+      <c r="Q1102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1102" s="3"/>
+      <c r="S1102" s="2"/>
+    </row>
+    <row r="1103" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1103" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1103" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1103" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D1103" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1103" s="4">
+        <v>36</v>
+      </c>
+      <c r="F1103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1103" s="3">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="L1103" s="11">
+        <v>45049.746527777781</v>
+      </c>
+      <c r="M1103" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1103" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="O1103" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="P1103" s="4">
+        <v>60</v>
+      </c>
+      <c r="Q1103" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1103" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="S1103" s="2"/>
+    </row>
+    <row r="1104" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1104" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B1104" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1104" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D1104" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1104" s="4">
+        <v>93</v>
+      </c>
+      <c r="F1104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1104" s="3"/>
+      <c r="L1104" s="11">
+        <v>45049.688888888886</v>
+      </c>
+      <c r="M1104" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1104" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="O1104" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="P1104" s="4">
+        <v>51</v>
+      </c>
+      <c r="Q1104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1104" s="3"/>
+      <c r="S1104" s="2"/>
+    </row>
+    <row r="1105" spans="1:19" ht="15.75" thickBot="1">
+      <c r="L1105" s="11">
+        <v>45049.613888888889</v>
+      </c>
+      <c r="M1105" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1105" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="O1105" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="P1105" s="4">
+        <v>117</v>
+      </c>
+      <c r="Q1105" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1105" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="S1105" s="2"/>
+    </row>
+    <row r="1106" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1106" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B1106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1106" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="D1106" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E1106" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1106" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="L1106" s="11">
+        <v>45049.602777777778</v>
+      </c>
+      <c r="M1106" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1106" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="O1106" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="P1106" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q1106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1106" s="3"/>
+      <c r="S1106" s="2"/>
+    </row>
+    <row r="1107" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1107" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B1107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1107" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="D1107" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E1107" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1107" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1107" s="3"/>
+      <c r="L1107" s="11">
+        <v>45019.904861111114</v>
+      </c>
+      <c r="M1107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1107" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="O1107" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="P1107" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q1107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1107" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="S1107" s="2"/>
+    </row>
+    <row r="1108" spans="1:19" ht="15.75" thickBot="1">
+      <c r="L1108" s="11">
+        <v>45019.840277777781</v>
+      </c>
+      <c r="M1108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1108" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="O1108" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P1108" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q1108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1108" s="3"/>
+      <c r="S1108" s="2"/>
+    </row>
+    <row r="1109" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1109" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B1109" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1109" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D1109" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1109" s="4">
+        <v>20</v>
+      </c>
+      <c r="F1109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1109" s="3">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="L1109" s="11">
+        <v>45019.835416666669</v>
+      </c>
+      <c r="M1109" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1109" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="O1109" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="P1109" s="4">
+        <v>167</v>
+      </c>
+      <c r="Q1109" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1109" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="S1109" s="2"/>
+    </row>
+    <row r="1110" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1110" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B1110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1110" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D1110" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1110" s="4">
+        <v>48</v>
+      </c>
+      <c r="F1110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1110" s="3"/>
+      <c r="L1110" s="11">
+        <v>45019.809027777781</v>
+      </c>
+      <c r="M1110" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1110" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="O1110" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="P1110" s="4">
+        <v>102</v>
+      </c>
+      <c r="Q1110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1110" s="3"/>
+      <c r="S1110" s="2"/>
+    </row>
+    <row r="1111" spans="1:19" ht="15.75" thickBot="1">
+      <c r="L1111" s="11">
+        <v>44988.959027777775</v>
+      </c>
+      <c r="M1111" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1111" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="O1111" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="P1111" s="4">
+        <v>49</v>
+      </c>
+      <c r="Q1111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1111" s="3">
+        <v>-0.76</v>
+      </c>
+      <c r="S1111" s="2"/>
+    </row>
+    <row r="1112" spans="1:19" ht="15.75" thickBot="1">
+      <c r="L1112" s="11">
+        <v>44988.900694444441</v>
+      </c>
+      <c r="M1112" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1112" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="O1112" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="P1112" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q1112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1112" s="3">
+        <v>-0.12</v>
+      </c>
+      <c r="S1112" s="2"/>
+    </row>
+    <row r="1113" spans="1:19" ht="15.75" thickBot="1">
+      <c r="L1113" s="11">
+        <v>44988.893055555556</v>
+      </c>
+      <c r="M1113" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1113" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="O1113" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="P1113" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q1113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1113" s="3">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="S1113" s="2"/>
+    </row>
+    <row r="1114" spans="1:19" ht="15.75" thickBot="1">
+      <c r="L1114" s="11">
+        <v>44988.831944444442</v>
+      </c>
+      <c r="M1114" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1114" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="O1114" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="P1114" s="4">
+        <v>52</v>
+      </c>
+      <c r="Q1114" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1114" s="3"/>
+      <c r="S1114" s="2"/>
+    </row>
+    <row r="1115" spans="1:19" ht="15.75" thickBot="1">
+      <c r="L1115" s="11">
+        <v>44988.813194444447</v>
+      </c>
+      <c r="M1115" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1115" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="O1115" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="P1115" s="4">
+        <v>107</v>
+      </c>
+      <c r="Q1115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1115" s="3"/>
+      <c r="S1115" s="2"/>
+    </row>
+    <row r="1116" spans="1:19" ht="15.75" thickBot="1">
+      <c r="L1116" s="11">
+        <v>44988.79791666667</v>
+      </c>
+      <c r="M1116" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1116" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="O1116" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="P1116" s="4">
+        <v>125</v>
+      </c>
+      <c r="Q1116" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1116" s="3"/>
+      <c r="S1116" s="2"/>
+    </row>
+    <row r="1117" spans="1:19" ht="15.75" thickBot="1">
+      <c r="L1117" s="11">
+        <v>44988.792361111111</v>
+      </c>
+      <c r="M1117" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1117" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="O1117" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="P1117" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="Q1117" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1117" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S1117" s="2"/>
+    </row>
+    <row r="1118" spans="1:19" ht="15.75" thickBot="1">
+      <c r="L1118" s="11">
+        <v>44988.789583333331</v>
+      </c>
+      <c r="M1118" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1118" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="O1118" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="P1118" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q1118" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1118" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S1118" s="2"/>
+    </row>
+    <row r="1119" spans="1:19" ht="15.75" thickBot="1">
+      <c r="L1119" s="11">
+        <v>44988.756944444445</v>
+      </c>
+      <c r="M1119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1119" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="O1119" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="P1119" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="Q1119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1119" s="3"/>
+      <c r="S1119" s="2"/>
+    </row>
+    <row r="1120" spans="1:19" ht="15.75" thickBot="1">
+      <c r="L1120" s="11">
+        <v>44988.753472222219</v>
+      </c>
+      <c r="M1120" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1120" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="O1120" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="P1120" s="4">
+        <v>113</v>
+      </c>
+      <c r="Q1120" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1120" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="S1120" s="2"/>
+    </row>
+    <row r="1121" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1121" s="11">
+        <v>44988.729861111111</v>
+      </c>
+      <c r="M1121" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1121" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="O1121" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="P1121" s="4">
+        <v>112</v>
+      </c>
+      <c r="Q1121" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1121" s="3"/>
+      <c r="S1121" s="2"/>
+    </row>
+    <row r="1122" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1122" s="11">
+        <v>44988.706944444442</v>
+      </c>
+      <c r="M1122" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1122" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="O1122" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="P1122" s="4">
+        <v>109</v>
+      </c>
+      <c r="Q1122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1122" s="3"/>
+      <c r="S1122" s="2"/>
+    </row>
+    <row r="1123" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1123" s="11">
+        <v>44960.9</v>
+      </c>
+      <c r="M1123" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1123" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="O1123" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="P1123" s="4">
+        <v>77</v>
+      </c>
+      <c r="Q1123" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1123" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="S1123" s="2"/>
+    </row>
+    <row r="1124" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1124" s="11">
+        <v>44960.881249999999</v>
+      </c>
+      <c r="M1124" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1124" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="O1124" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="P1124" s="4">
+        <v>132</v>
+      </c>
+      <c r="Q1124" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1124" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S1124" s="2"/>
+    </row>
+    <row r="1125" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1125" s="11">
+        <v>44960.848611111112</v>
+      </c>
+      <c r="M1125" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1125" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="O1125" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="P1125" s="4">
+        <v>55</v>
+      </c>
+      <c r="Q1125" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1125" s="3"/>
+      <c r="S1125" s="2"/>
+    </row>
+    <row r="1126" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1126" s="11">
+        <v>44960.834722222222</v>
+      </c>
+      <c r="M1126" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1126" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="O1126" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="P1126" s="4">
+        <v>104</v>
+      </c>
+      <c r="Q1126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1126" s="3"/>
+      <c r="S1126" s="2"/>
+    </row>
+    <row r="1127" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1127" s="11">
+        <v>44929.884027777778</v>
+      </c>
+      <c r="M1127" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1127" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="O1127" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="P1127" s="4">
+        <v>59</v>
+      </c>
+      <c r="Q1127" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1127" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="S1127" s="2"/>
+    </row>
+    <row r="1128" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1128" s="11">
+        <v>44929.839583333334</v>
+      </c>
+      <c r="M1128" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1128" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="O1128" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="P1128" s="4">
+        <v>35</v>
+      </c>
+      <c r="Q1128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1128" s="3"/>
+      <c r="S1128" s="2"/>
+    </row>
+    <row r="1129" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1129" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="M1129" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1129" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="O1129" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="P1129" s="4">
+        <v>180</v>
+      </c>
+      <c r="Q1129" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1129" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="S1129" s="2"/>
+    </row>
+    <row r="1130" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1130" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="M1130" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1130" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="O1130" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="P1130" s="4">
+        <v>120</v>
+      </c>
+      <c r="Q1130" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1130" s="3"/>
+      <c r="S1130" s="2"/>
+    </row>
+    <row r="1131" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1131" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="M1131" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1131" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="O1131" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="P1131" s="4">
+        <v>78</v>
+      </c>
+      <c r="Q1131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1131" s="3">
+        <v>-0.22</v>
+      </c>
+      <c r="S1131" s="2"/>
+    </row>
+    <row r="1132" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1132" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="M1132" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1132" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="O1132" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="P1132" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q1132" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1132" s="3"/>
+      <c r="S1132" s="2"/>
+    </row>
+    <row r="1133" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1133" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="M1133" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1133" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="O1133" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="P1133" s="4">
+        <v>64</v>
+      </c>
+      <c r="Q1133" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1133" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="S1133" s="2"/>
+    </row>
+    <row r="1134" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1134" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="M1134" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1134" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="O1134" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="P1134" s="4">
+        <v>42</v>
+      </c>
+      <c r="Q1134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1134" s="3"/>
+      <c r="S1134" s="2"/>
+    </row>
+    <row r="1135" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1135" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="M1135" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1135" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="O1135" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="P1135" s="4">
+        <v>110</v>
+      </c>
+      <c r="Q1135" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1135" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="S1135" s="2"/>
+    </row>
+    <row r="1136" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1136" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="M1136" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1136" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="O1136" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="P1136" s="4">
+        <v>109</v>
+      </c>
+      <c r="Q1136" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1136" s="3"/>
+      <c r="S1136" s="2"/>
+    </row>
+    <row r="1137" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1137" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="M1137" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1137" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="O1137" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="P1137" s="4">
+        <v>108</v>
+      </c>
+      <c r="Q1137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1137" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="S1137" s="2"/>
+    </row>
+    <row r="1138" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1138" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="M1138" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1138" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="O1138" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="P1138" s="4">
+        <v>98</v>
+      </c>
+      <c r="Q1138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1138" s="3"/>
+      <c r="S1138" s="2"/>
+    </row>
+    <row r="1139" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1139" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="M1139" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1139" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="O1139" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="P1139" s="4">
+        <v>137</v>
+      </c>
+      <c r="Q1139" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1139" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="S1139" s="2"/>
+    </row>
+    <row r="1140" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1140" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="M1140" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1140" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="O1140" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="P1140" s="4">
+        <v>117</v>
+      </c>
+      <c r="Q1140" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1140" s="3"/>
+      <c r="S1140" s="2"/>
+    </row>
+    <row r="1141" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1141" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="M1141" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1141" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="O1141" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="P1141" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q1141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1141" s="3">
+        <v>-0.11</v>
+      </c>
+      <c r="S1141" s="2"/>
+    </row>
+    <row r="1142" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1142" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="M1142" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1142" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="O1142" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="P1142" s="4">
+        <v>182</v>
+      </c>
+      <c r="Q1142" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1142" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="S1142" s="2"/>
+    </row>
+    <row r="1143" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1143" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="M1143" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1143" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="O1143" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="P1143" s="4">
+        <v>122</v>
+      </c>
+      <c r="Q1143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1143" s="3"/>
+      <c r="S1143" s="2"/>
+    </row>
+    <row r="1144" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1144" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="M1144" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1144" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="O1144" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="P1144" s="4">
+        <v>49</v>
+      </c>
+      <c r="Q1144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1144" s="3">
+        <v>-0.69</v>
+      </c>
+      <c r="S1144" s="2"/>
+    </row>
+    <row r="1145" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1145" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="M1145" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1145" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="O1145" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="P1145" s="4">
+        <v>51</v>
+      </c>
+      <c r="Q1145" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1145" s="3"/>
+      <c r="S1145" s="2"/>
+    </row>
+    <row r="1146" spans="12:19" ht="15.75" thickBot="1">
+      <c r="L1146" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="M1146" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1146" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="O1146" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="P1146" s="4">
+        <v>118</v>
+      </c>
+      <c r="Q1146" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1146" s="3"/>
+      <c r="S1146" s="2"/>
+    </row>
+    <row r="1147" spans="12:19" ht="15.75" thickBot="1">
+      <c r="S1147" s="2"/>
+    </row>
+    <row r="1148" spans="12:19" ht="15.75" thickBot="1">
+      <c r="S1148" s="2"/>
+    </row>
+    <row r="1149" spans="12:19" ht="15.75" thickBot="1">
+      <c r="S1149" s="2"/>
+    </row>
+    <row r="1150" spans="12:19" ht="15.75" thickBot="1">
+      <c r="S1150" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20979,10 +22655,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829BCB3E-ADB5-497C-8636-01F5B5FDB73F}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21043,6 +22719,14 @@
         <v>437</v>
       </c>
       <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="21">
+        <v>45141</v>
+      </c>
+      <c r="B8">
         <v>5</v>
       </c>
     </row>

--- a/spreadex.xlsx
+++ b/spreadex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78735124-B5E0-4EEA-BC53-F09CF2A4DB0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E011ED54-36AD-483D-B331-7B6A39446994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="802" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="802" activeTab="11" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Total Goals" sheetId="4" r:id="rId9"/>
     <sheet name="deposits" sheetId="2" r:id="rId10"/>
     <sheet name="withdrawals" sheetId="3" r:id="rId11"/>
+    <sheet name="Spreads" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$151</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4317" uniqueCount="845">
   <si>
     <t>24/11/2022 20:55</t>
   </si>
@@ -2327,6 +2328,258 @@
   </si>
   <si>
     <t>24/02/2023 20:29</t>
+  </si>
+  <si>
+    <t>13/03/2023 21:57</t>
+  </si>
+  <si>
+    <t>Girona v Atletico Madrid</t>
+  </si>
+  <si>
+    <t>13/03/2023 21:46</t>
+  </si>
+  <si>
+    <t>AC Milan v Salernitana</t>
+  </si>
+  <si>
+    <t>13/03/2023 20:33</t>
+  </si>
+  <si>
+    <t>13/03/2023 20:00</t>
+  </si>
+  <si>
+    <t>13/03/2023 18:46</t>
+  </si>
+  <si>
+    <t>Istanbulspor v Sivasspor</t>
+  </si>
+  <si>
+    <t>13/03/2023 17:12</t>
+  </si>
+  <si>
+    <t>Athletic Bilbao v Barcelona</t>
+  </si>
+  <si>
+    <t>Man Utd v Southampton</t>
+  </si>
+  <si>
+    <t>Valencia v Osasuna</t>
+  </si>
+  <si>
+    <t>Schalke v Dortmund</t>
+  </si>
+  <si>
+    <t>Napoli v Atalanta</t>
+  </si>
+  <si>
+    <t>Everton v Brentford</t>
+  </si>
+  <si>
+    <t>St Pauli v Greuther Furth</t>
+  </si>
+  <si>
+    <t>Magdeburg v Paderborn</t>
+  </si>
+  <si>
+    <t>Spezia v Inter Milan</t>
+  </si>
+  <si>
+    <t>Giresunspor v Fatih Karagumruk</t>
+  </si>
+  <si>
+    <t>Man Utd v Real Betis</t>
+  </si>
+  <si>
+    <t>Penalty Goal Minutes</t>
+  </si>
+  <si>
+    <t>Bayern Munich v Paris Saint-Germain</t>
+  </si>
+  <si>
+    <t>Chelsea v Dortmund</t>
+  </si>
+  <si>
+    <t>Brentford v Fulham</t>
+  </si>
+  <si>
+    <t>Sassuolo v Cremonese</t>
+  </si>
+  <si>
+    <t>Kasimpasa v Antalyaspor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market </t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Spread</t>
+  </si>
+  <si>
+    <t>Supremacy</t>
+  </si>
+  <si>
+    <t>1-45-1.65</t>
+  </si>
+  <si>
+    <t>2.9-3.1</t>
+  </si>
+  <si>
+    <t>47-51</t>
+  </si>
+  <si>
+    <t>40-44</t>
+  </si>
+  <si>
+    <t>9.5-10</t>
+  </si>
+  <si>
+    <t>Multi Corners</t>
+  </si>
+  <si>
+    <t>22-25</t>
+  </si>
+  <si>
+    <t>102-113</t>
+  </si>
+  <si>
+    <t>93-98</t>
+  </si>
+  <si>
+    <t>1st Match Goal</t>
+  </si>
+  <si>
+    <t>32-35</t>
+  </si>
+  <si>
+    <t>1st Home Goal</t>
+  </si>
+  <si>
+    <t>39-42</t>
+  </si>
+  <si>
+    <t>1st Away Goal</t>
+  </si>
+  <si>
+    <t>65-68</t>
+  </si>
+  <si>
+    <t>146-156</t>
+  </si>
+  <si>
+    <t>20-23</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>Cross Bookings</t>
+  </si>
+  <si>
+    <t>405-485</t>
+  </si>
+  <si>
+    <t>Multi Bookings</t>
+  </si>
+  <si>
+    <t>345-425</t>
+  </si>
+  <si>
+    <t>Goals Cubed</t>
+  </si>
+  <si>
+    <t>52-60</t>
+  </si>
+  <si>
+    <t>Player Goal Minutes</t>
+  </si>
+  <si>
+    <t>41-45</t>
+  </si>
+  <si>
+    <t>Player SMM</t>
+  </si>
+  <si>
+    <t>70-82</t>
+  </si>
+  <si>
+    <t>Player Performance</t>
+  </si>
+  <si>
+    <t>45-50</t>
+  </si>
+  <si>
+    <t>TGM Sup</t>
+  </si>
+  <si>
+    <t>68-82</t>
+  </si>
+  <si>
+    <t>Headed SMM</t>
+  </si>
+  <si>
+    <t>28-34</t>
+  </si>
+  <si>
+    <t>Total completed passes</t>
+  </si>
+  <si>
+    <t>920-960</t>
+  </si>
+  <si>
+    <t>GoalsXCornersXBookings</t>
+  </si>
+  <si>
+    <t>1175-1300</t>
+  </si>
+  <si>
+    <t>GoalsXCorners</t>
+  </si>
+  <si>
+    <t>28-31</t>
+  </si>
+  <si>
+    <t>Corners X Bookings</t>
+  </si>
+  <si>
+    <t>380-440</t>
+  </si>
+  <si>
+    <t>GoalsXBookings</t>
+  </si>
+  <si>
+    <t>115-130</t>
+  </si>
+  <si>
+    <t>GoalsXShirts</t>
+  </si>
+  <si>
+    <t>180-204</t>
+  </si>
+  <si>
+    <t>ShirtsXBookings</t>
+  </si>
+  <si>
+    <t>ShirtsXCorners</t>
+  </si>
+  <si>
+    <t>Penalty Performance</t>
+  </si>
+  <si>
+    <t>6.5-8</t>
+  </si>
+  <si>
+    <t>25 points per penalty scored,10 points per penalty saved,0 points per penalty missed</t>
+  </si>
+  <si>
+    <t>Team Mini perf</t>
+  </si>
+  <si>
+    <t>34-37</t>
+  </si>
+  <si>
+    <t>win=15,Draw=5,Goal=10,clean sheet=5,Red card=-15</t>
   </si>
 </sst>
 </file>
@@ -2463,7 +2716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2573,6 +2826,10 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2887,13 +3144,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2ACDE7-BC8B-432A-9773-10E95E9E94B1}">
-  <dimension ref="A1:V1150"/>
+  <dimension ref="A1:V1251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1099" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B1222" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1110" sqref="A1110:G1110"/>
+      <selection pane="bottomRight" activeCell="I1256" sqref="I1256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2906,6 +3163,7 @@
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="15" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" customWidth="1"/>
     <col min="12" max="12" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
@@ -21458,49 +21716,9 @@
       <c r="F1101" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1101" s="11">
-        <v>45049.912499999999</v>
-      </c>
-      <c r="M1101" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1101" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="O1101" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="P1101" s="4">
-        <v>64</v>
-      </c>
-      <c r="Q1101" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1101" s="3">
-        <v>-0.47</v>
-      </c>
       <c r="S1101" s="2"/>
     </row>
     <row r="1102" spans="1:19" ht="15.75" thickBot="1">
-      <c r="L1102" s="11">
-        <v>45049.82916666667</v>
-      </c>
-      <c r="M1102" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1102" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="O1102" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="P1102" s="4">
-        <v>111</v>
-      </c>
-      <c r="Q1102" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1102" s="3"/>
       <c r="S1102" s="2"/>
     </row>
     <row r="1103" spans="1:19" ht="15.75" thickBot="1">
@@ -21525,27 +21743,6 @@
       <c r="G1103" s="3">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="L1103" s="11">
-        <v>45049.746527777781</v>
-      </c>
-      <c r="M1103" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1103" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="O1103" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="P1103" s="4">
-        <v>60</v>
-      </c>
-      <c r="Q1103" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1103" s="5">
-        <v>0.18</v>
-      </c>
       <c r="S1103" s="2"/>
     </row>
     <row r="1104" spans="1:19" ht="15.75" thickBot="1">
@@ -21568,49 +21765,9 @@
         <v>5</v>
       </c>
       <c r="G1104" s="3"/>
-      <c r="L1104" s="11">
-        <v>45049.688888888886</v>
-      </c>
-      <c r="M1104" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1104" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="O1104" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="P1104" s="4">
-        <v>51</v>
-      </c>
-      <c r="Q1104" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1104" s="3"/>
       <c r="S1104" s="2"/>
     </row>
     <row r="1105" spans="1:19" ht="15.75" thickBot="1">
-      <c r="L1105" s="11">
-        <v>45049.613888888889</v>
-      </c>
-      <c r="M1105" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1105" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="O1105" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="P1105" s="4">
-        <v>117</v>
-      </c>
-      <c r="Q1105" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1105" s="5">
-        <v>0.18</v>
-      </c>
       <c r="S1105" s="2"/>
     </row>
     <row r="1106" spans="1:19" ht="15.75" thickBot="1">
@@ -21635,25 +21792,6 @@
       <c r="G1106" s="5">
         <v>0.18</v>
       </c>
-      <c r="L1106" s="11">
-        <v>45049.602777777778</v>
-      </c>
-      <c r="M1106" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1106" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="O1106" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="P1106" s="4">
-        <v>99</v>
-      </c>
-      <c r="Q1106" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1106" s="3"/>
       <c r="S1106" s="2"/>
     </row>
     <row r="1107" spans="1:19" ht="15.75" thickBot="1">
@@ -21676,49 +21814,9 @@
         <v>5</v>
       </c>
       <c r="G1107" s="3"/>
-      <c r="L1107" s="11">
-        <v>45019.904861111114</v>
-      </c>
-      <c r="M1107" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1107" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="O1107" s="3">
-        <v>-0.2</v>
-      </c>
-      <c r="P1107" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q1107" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1107" s="5">
-        <v>0.2</v>
-      </c>
       <c r="S1107" s="2"/>
     </row>
     <row r="1108" spans="1:19" ht="15.75" thickBot="1">
-      <c r="L1108" s="11">
-        <v>45019.840277777781</v>
-      </c>
-      <c r="M1108" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1108" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="O1108" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="P1108" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q1108" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1108" s="3"/>
       <c r="S1108" s="2"/>
     </row>
     <row r="1109" spans="1:19" ht="15.75" thickBot="1">
@@ -21743,27 +21841,6 @@
       <c r="G1109" s="3">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="L1109" s="11">
-        <v>45019.835416666669</v>
-      </c>
-      <c r="M1109" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1109" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="O1109" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="P1109" s="4">
-        <v>167</v>
-      </c>
-      <c r="Q1109" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1109" s="5">
-        <v>1.3</v>
-      </c>
       <c r="S1109" s="2"/>
     </row>
     <row r="1110" spans="1:19" ht="15.75" thickBot="1">
@@ -21786,866 +21863,2247 @@
         <v>5</v>
       </c>
       <c r="G1110" s="3"/>
-      <c r="L1110" s="11">
+      <c r="S1110" s="2"/>
+    </row>
+    <row r="1111" spans="1:19" ht="15.75" thickBot="1">
+      <c r="S1111" s="2"/>
+    </row>
+    <row r="1112" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1112" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B1112" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1112" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D1112" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1112" s="4">
+        <v>49</v>
+      </c>
+      <c r="F1112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1112" s="3">
+        <v>-0.69</v>
+      </c>
+      <c r="S1112" s="2"/>
+    </row>
+    <row r="1113" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1113" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B1113" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1113" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D1113" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1113" s="4">
+        <v>118</v>
+      </c>
+      <c r="F1113" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1113" s="3"/>
+      <c r="S1113" s="2"/>
+    </row>
+    <row r="1114" spans="1:19" ht="15.75" thickBot="1">
+      <c r="S1114" s="2"/>
+    </row>
+    <row r="1115" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1115" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B1115" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1115" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D1115" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1115" s="4">
+        <v>40</v>
+      </c>
+      <c r="F1115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1115" s="3">
+        <v>-0.11</v>
+      </c>
+      <c r="S1115" s="2"/>
+    </row>
+    <row r="1116" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1116" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B1116" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1116" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D1116" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1116" s="4">
+        <v>51</v>
+      </c>
+      <c r="F1116" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1116" s="3"/>
+      <c r="S1116" s="2"/>
+    </row>
+    <row r="1117" spans="1:19" ht="15.75" thickBot="1">
+      <c r="S1117" s="2"/>
+    </row>
+    <row r="1118" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1118" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B1118" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1118" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D1118" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1118" s="4">
+        <v>182</v>
+      </c>
+      <c r="F1118" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1118" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="S1118" s="2"/>
+    </row>
+    <row r="1119" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1119" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B1119" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1119" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D1119" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1119" s="4">
+        <v>122</v>
+      </c>
+      <c r="F1119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1119" s="3"/>
+      <c r="S1119" s="2"/>
+    </row>
+    <row r="1120" spans="1:19" ht="15.75" thickBot="1">
+      <c r="S1120" s="2"/>
+    </row>
+    <row r="1121" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1121" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1121" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1121" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D1121" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1121" s="4">
+        <v>137</v>
+      </c>
+      <c r="F1121" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1121" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="S1121" s="2"/>
+    </row>
+    <row r="1122" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1122" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B1122" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1122" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D1122" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1122" s="4">
+        <v>117</v>
+      </c>
+      <c r="F1122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1122" s="3"/>
+      <c r="S1122" s="2"/>
+    </row>
+    <row r="1123" spans="1:19" ht="15.75" thickBot="1">
+      <c r="S1123" s="2"/>
+    </row>
+    <row r="1124" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1124" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1124" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1124" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1124" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1124" s="4">
+        <v>108</v>
+      </c>
+      <c r="F1124" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1124" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="S1124" s="2"/>
+    </row>
+    <row r="1125" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1125" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B1125" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1125" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1125" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1125" s="4">
+        <v>98</v>
+      </c>
+      <c r="F1125" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1125" s="3"/>
+      <c r="S1125" s="2"/>
+    </row>
+    <row r="1126" spans="1:19" ht="15.75" thickBot="1">
+      <c r="S1126" s="2"/>
+    </row>
+    <row r="1127" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1127" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B1127" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1127" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D1127" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1127" s="4">
+        <v>110</v>
+      </c>
+      <c r="F1127" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1127" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="S1127" s="2"/>
+    </row>
+    <row r="1128" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1128" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B1128" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1128" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D1128" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1128" s="4">
+        <v>109</v>
+      </c>
+      <c r="F1128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1128" s="3"/>
+      <c r="S1128" s="2"/>
+    </row>
+    <row r="1129" spans="1:19" ht="15.75" thickBot="1">
+      <c r="S1129" s="2"/>
+    </row>
+    <row r="1130" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1130" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B1130" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1130" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D1130" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1130" s="4">
+        <v>64</v>
+      </c>
+      <c r="F1130" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1130" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="S1130" s="2"/>
+    </row>
+    <row r="1131" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1131" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B1131" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1131" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D1131" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1131" s="4">
+        <v>42</v>
+      </c>
+      <c r="F1131" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1131" s="3"/>
+    </row>
+    <row r="1132" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="1133" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1133" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B1133" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1133" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D1133" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1133" s="4">
+        <v>78</v>
+      </c>
+      <c r="F1133" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1133" s="3">
+        <v>-0.22</v>
+      </c>
+      <c r="H1133" s="2"/>
+      <c r="S1133" s="2"/>
+    </row>
+    <row r="1134" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1134" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B1134" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1134" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D1134" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1134" s="4">
+        <v>100</v>
+      </c>
+      <c r="F1134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1134" s="3"/>
+      <c r="H1134" s="2"/>
+      <c r="S1134" s="2"/>
+    </row>
+    <row r="1135" spans="1:19" ht="15.75" thickBot="1">
+      <c r="S1135" s="2"/>
+    </row>
+    <row r="1136" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1136" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B1136" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1136" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1136" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1136" s="4">
+        <v>180</v>
+      </c>
+      <c r="F1136" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1136" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="S1136" s="2"/>
+    </row>
+    <row r="1137" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1137" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B1137" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1137" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1137" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1137" s="4">
+        <v>120</v>
+      </c>
+      <c r="F1137" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1137" s="3"/>
+      <c r="S1137" s="2"/>
+    </row>
+    <row r="1138" spans="1:19" ht="15.75" thickBot="1">
+      <c r="S1138" s="2"/>
+    </row>
+    <row r="1139" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1139" s="11">
+        <v>44929.884027777778</v>
+      </c>
+      <c r="B1139" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1139" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1139" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1139" s="4">
+        <v>59</v>
+      </c>
+      <c r="F1139" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1139" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="S1139" s="2"/>
+    </row>
+    <row r="1140" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1140" s="11">
+        <v>44929.839583333334</v>
+      </c>
+      <c r="B1140" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1140" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1140" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1140" s="4">
+        <v>35</v>
+      </c>
+      <c r="F1140" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1140" s="3"/>
+      <c r="S1140" s="2"/>
+    </row>
+    <row r="1141" spans="1:19" ht="15.75" thickBot="1">
+      <c r="S1141" s="2"/>
+    </row>
+    <row r="1142" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1142" s="11">
+        <v>44960.9</v>
+      </c>
+      <c r="B1142" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1142" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D1142" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E1142" s="4">
+        <v>77</v>
+      </c>
+      <c r="F1142" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1142" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="S1142" s="2"/>
+    </row>
+    <row r="1143" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1143" s="11">
+        <v>44960.848611111112</v>
+      </c>
+      <c r="B1143" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1143" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D1143" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E1143" s="4">
+        <v>55</v>
+      </c>
+      <c r="F1143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1143" s="3"/>
+      <c r="S1143" s="2"/>
+    </row>
+    <row r="1144" spans="1:19" ht="15.75" thickBot="1">
+      <c r="S1144" s="2"/>
+    </row>
+    <row r="1145" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1145" s="11">
+        <v>44960.881249999999</v>
+      </c>
+      <c r="B1145" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1145" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D1145" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1145" s="4">
+        <v>132</v>
+      </c>
+      <c r="F1145" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1145" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S1145" s="2"/>
+    </row>
+    <row r="1146" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1146" s="11">
+        <v>44960.834722222222</v>
+      </c>
+      <c r="B1146" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1146" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D1146" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1146" s="4">
+        <v>104</v>
+      </c>
+      <c r="F1146" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1146" s="3"/>
+      <c r="S1146" s="2"/>
+    </row>
+    <row r="1147" spans="1:19" ht="15.75" thickBot="1">
+      <c r="S1147" s="2"/>
+    </row>
+    <row r="1148" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1148" s="11">
+        <v>44988.753472222219</v>
+      </c>
+      <c r="B1148" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1148" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="D1148" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1148" s="4">
+        <v>113</v>
+      </c>
+      <c r="F1148" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1148" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="S1148" s="2"/>
+    </row>
+    <row r="1149" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1149" s="11">
+        <v>44988.729861111111</v>
+      </c>
+      <c r="B1149" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1149" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="D1149" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1149" s="4">
+        <v>112</v>
+      </c>
+      <c r="F1149" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1149" s="3"/>
+      <c r="S1149" s="2"/>
+    </row>
+    <row r="1150" spans="1:19" ht="15.75" thickBot="1">
+      <c r="S1150" s="2"/>
+    </row>
+    <row r="1151" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1151" s="11">
+        <v>44988.789583333331</v>
+      </c>
+      <c r="B1151" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1151" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1151" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1151" s="4">
+        <v>123</v>
+      </c>
+      <c r="F1151" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1151" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1152" s="11">
+        <v>44988.706944444442</v>
+      </c>
+      <c r="B1152" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1152" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1152" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1152" s="4">
+        <v>109</v>
+      </c>
+      <c r="F1152" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1154" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1154" s="11">
+        <v>44988.792361111111</v>
+      </c>
+      <c r="B1154" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1154" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="D1154" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E1154" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="F1154" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1154" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1155" s="11">
+        <v>44988.756944444445</v>
+      </c>
+      <c r="B1155" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1155" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="D1155" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E1155" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="F1155" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1157" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1157" s="11">
+        <v>44988.893055555556</v>
+      </c>
+      <c r="B1157" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1157" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="D1157" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1157" s="4">
+        <v>100</v>
+      </c>
+      <c r="F1157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1157" s="3">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1158" s="11">
+        <v>44988.813194444447</v>
+      </c>
+      <c r="B1158" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1158" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="D1158" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1158" s="4">
+        <v>107</v>
+      </c>
+      <c r="F1158" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1160" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1160" s="11">
+        <v>44988.900694444441</v>
+      </c>
+      <c r="B1160" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1160" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D1160" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1160" s="4">
+        <v>40</v>
+      </c>
+      <c r="F1160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1160" s="3">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1161" s="11">
+        <v>44988.831944444442</v>
+      </c>
+      <c r="B1161" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1161" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D1161" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1161" s="4">
+        <v>52</v>
+      </c>
+      <c r="F1161" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1162" s="3"/>
+    </row>
+    <row r="1163" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1163" s="11">
+        <v>44988.959027777775</v>
+      </c>
+      <c r="B1163" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1163" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1163" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1163" s="4">
+        <v>49</v>
+      </c>
+      <c r="F1163" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1163" s="3">
+        <v>-0.76</v>
+      </c>
+      <c r="Q1163" s="3"/>
+    </row>
+    <row r="1164" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1164" s="11">
+        <v>44988.79791666667</v>
+      </c>
+      <c r="B1164" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1164" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1164" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1164" s="4">
+        <v>125</v>
+      </c>
+      <c r="F1164" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1164" s="3"/>
+    </row>
+    <row r="1165" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1166" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1166" s="11">
+        <v>45019.835416666669</v>
+      </c>
+      <c r="B1166" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1166" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="D1166" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E1166" s="4">
+        <v>167</v>
+      </c>
+      <c r="F1166" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1166" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1167" s="11">
         <v>45019.809027777781</v>
       </c>
-      <c r="M1110" s="2" t="s">
+      <c r="B1167" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="N1110" s="2" t="s">
+      <c r="C1167" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="O1110" s="5">
+      <c r="D1167" s="5">
         <v>0.02</v>
       </c>
-      <c r="P1110" s="4">
+      <c r="E1167" s="4">
         <v>102</v>
       </c>
-      <c r="Q1110" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1110" s="3"/>
-      <c r="S1110" s="2"/>
-    </row>
-    <row r="1111" spans="1:19" ht="15.75" thickBot="1">
-      <c r="L1111" s="11">
-        <v>44988.959027777775</v>
-      </c>
-      <c r="M1111" s="2" t="s">
+      <c r="F1167" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1167" s="3"/>
+      <c r="Q1167" s="3"/>
+    </row>
+    <row r="1168" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1169" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1169" s="11">
+        <v>45019.904861111114</v>
+      </c>
+      <c r="B1169" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1169" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="D1169" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E1169" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1169" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1169" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1170" s="11">
+        <v>45019.840277777781</v>
+      </c>
+      <c r="B1170" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1170" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="D1170" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E1170" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1170" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1170" s="3"/>
+      <c r="Q1170" s="3"/>
+    </row>
+    <row r="1171" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1172" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1172" s="11">
+        <v>45049.613888888889</v>
+      </c>
+      <c r="B1172" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="N1111" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="O1111" s="3">
+      <c r="C1172" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D1172" s="3">
         <v>-0.01</v>
       </c>
-      <c r="P1111" s="4">
+      <c r="E1172" s="4">
+        <v>117</v>
+      </c>
+      <c r="F1172" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1172" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1173" s="11">
+        <v>45049.602777777778</v>
+      </c>
+      <c r="B1173" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1173" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D1173" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1173" s="4">
+        <v>99</v>
+      </c>
+      <c r="F1173" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1173" s="3"/>
+    </row>
+    <row r="1174" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1175" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1175" s="11">
+        <v>45049.746527777781</v>
+      </c>
+      <c r="B1175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1175" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="D1175" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E1175" s="4">
+        <v>60</v>
+      </c>
+      <c r="F1175" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1175" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1176" s="11">
+        <v>45049.688888888886</v>
+      </c>
+      <c r="B1176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1176" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="D1176" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E1176" s="4">
+        <v>51</v>
+      </c>
+      <c r="F1176" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1176" s="3"/>
+    </row>
+    <row r="1177" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1178" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1178" s="11">
+        <v>45049.912499999999</v>
+      </c>
+      <c r="B1178" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1178" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="D1178" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1178" s="4">
+        <v>64</v>
+      </c>
+      <c r="F1178" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1178" s="3">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1179" s="11">
+        <v>45049.82916666667</v>
+      </c>
+      <c r="B1179" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1179" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="D1179" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1179" s="4">
+        <v>111</v>
+      </c>
+      <c r="F1179" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1179" s="3"/>
+    </row>
+    <row r="1180" spans="1:17" ht="15.75" thickBot="1">
+      <c r="J1180" s="1"/>
+      <c r="K1180" s="1"/>
+      <c r="L1180" s="1"/>
+      <c r="M1180" s="1"/>
+      <c r="N1180" s="1"/>
+      <c r="O1180" s="1"/>
+      <c r="P1180" s="1"/>
+      <c r="Q1180" s="1"/>
+    </row>
+    <row r="1181" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1181" s="11">
+        <v>45080.793749999997</v>
+      </c>
+      <c r="B1181" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1181" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1181" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1181" s="4">
+        <v>100</v>
+      </c>
+      <c r="F1181" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1181" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="Q1181" s="2"/>
+    </row>
+    <row r="1182" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1182" s="11">
+        <v>45080.717361111114</v>
+      </c>
+      <c r="B1182" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1182" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1182" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1182" s="4">
+        <v>82</v>
+      </c>
+      <c r="F1182" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1182" s="2"/>
+    </row>
+    <row r="1183" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1183" s="2"/>
+    </row>
+    <row r="1184" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1184" s="11">
+        <v>45080.811805555553</v>
+      </c>
+      <c r="B1184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1184" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D1184" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1184" s="4">
+        <v>30</v>
+      </c>
+      <c r="F1184" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1184" s="3">
+        <v>-0.15</v>
+      </c>
+      <c r="Q1184" s="2"/>
+    </row>
+    <row r="1185" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1185" s="11">
+        <v>45080.750694444447</v>
+      </c>
+      <c r="B1185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1185" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D1185" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1185" s="4">
+        <v>45</v>
+      </c>
+      <c r="F1185" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1185" s="2"/>
+    </row>
+    <row r="1186" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1186" s="2"/>
+    </row>
+    <row r="1187" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1187" s="11">
+        <v>45080.918055555558</v>
+      </c>
+      <c r="B1187" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1187" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D1187" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1187" s="4">
+        <v>25</v>
+      </c>
+      <c r="F1187" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1187" s="3">
+        <v>-0.83</v>
+      </c>
+      <c r="Q1187" s="2"/>
+    </row>
+    <row r="1188" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1188" s="11">
+        <v>45080.835416666669</v>
+      </c>
+      <c r="B1188" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1188" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D1188" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1188" s="4">
+        <v>108</v>
+      </c>
+      <c r="F1188" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1188" s="3"/>
+      <c r="Q1188" s="2"/>
+    </row>
+    <row r="1189" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1189" s="2"/>
+    </row>
+    <row r="1190" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1190" s="11">
+        <v>45080.811805555553</v>
+      </c>
+      <c r="B1190" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1190" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D1190" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1190" s="4">
         <v>49</v>
       </c>
-      <c r="Q1111" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1111" s="3">
-        <v>-0.76</v>
-      </c>
-      <c r="S1111" s="2"/>
-    </row>
-    <row r="1112" spans="1:19" ht="15.75" thickBot="1">
-      <c r="L1112" s="11">
-        <v>44988.900694444441</v>
-      </c>
-      <c r="M1112" s="2" t="s">
+      <c r="F1190" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1190" s="3">
+        <v>-0.64</v>
+      </c>
+      <c r="Q1190" s="2"/>
+    </row>
+    <row r="1191" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1191" s="11">
+        <v>45080.73333333333</v>
+      </c>
+      <c r="B1191" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1191" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D1191" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1191" s="4">
+        <v>113</v>
+      </c>
+      <c r="F1191" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1191" s="2"/>
+    </row>
+    <row r="1192" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1192" s="2"/>
+    </row>
+    <row r="1193" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1193" s="11">
+        <v>45110.920138888891</v>
+      </c>
+      <c r="B1193" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1112" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="O1112" s="3">
+      <c r="C1193" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D1193" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E1193" s="4">
+        <v>51</v>
+      </c>
+      <c r="F1193" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1193" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="Q1193" s="2"/>
+    </row>
+    <row r="1194" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1194" s="11">
+        <v>45110.857638888891</v>
+      </c>
+      <c r="B1194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1194" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D1194" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E1194" s="4">
+        <v>50</v>
+      </c>
+      <c r="F1194" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1194" s="3"/>
+      <c r="Q1194" s="2"/>
+    </row>
+    <row r="1195" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1195" s="2"/>
+    </row>
+    <row r="1196" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1196" s="11">
+        <v>45110.922222222223</v>
+      </c>
+      <c r="B1196" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1196" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D1196" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E1196" s="4">
+        <v>64</v>
+      </c>
+      <c r="F1196" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1196" s="3">
+        <v>-1.04</v>
+      </c>
+      <c r="Q1196" s="2"/>
+    </row>
+    <row r="1197" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1197" s="11">
+        <v>45110.830555555556</v>
+      </c>
+      <c r="B1197" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1197" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D1197" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E1197" s="4">
+        <v>116</v>
+      </c>
+      <c r="F1197" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1197" s="2"/>
+    </row>
+    <row r="1198" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1198" s="2"/>
+    </row>
+    <row r="1199" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1199" s="11">
+        <v>45141.868055555555</v>
+      </c>
+      <c r="B1199" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C1199" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D1199" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1199" s="4">
+        <v>14</v>
+      </c>
+      <c r="F1199" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1199" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="P1199" s="3"/>
+      <c r="Q1199" s="2"/>
+    </row>
+    <row r="1200" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1200" s="11">
+        <v>45141.715277777781</v>
+      </c>
+      <c r="B1200" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C1200" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D1200" s="3">
         <v>-0.01</v>
       </c>
-      <c r="P1112" s="4">
-        <v>40</v>
-      </c>
-      <c r="Q1112" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1112" s="3">
-        <v>-0.12</v>
-      </c>
-      <c r="S1112" s="2"/>
-    </row>
-    <row r="1113" spans="1:19" ht="15.75" thickBot="1">
-      <c r="L1113" s="11">
-        <v>44988.893055555556</v>
-      </c>
-      <c r="M1113" s="2" t="s">
+      <c r="E1200" s="4">
+        <v>17</v>
+      </c>
+      <c r="F1200" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1200" s="3"/>
+      <c r="P1200" s="3"/>
+      <c r="Q1200" s="2"/>
+    </row>
+    <row r="1201" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1201" s="2"/>
+    </row>
+    <row r="1202" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1202" s="11">
+        <v>45172.913194444445</v>
+      </c>
+      <c r="B1202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1202" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="D1202" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E1202" s="4">
+        <v>20</v>
+      </c>
+      <c r="F1202" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1202" s="3">
+        <v>-0.38</v>
+      </c>
+      <c r="Q1202" s="2"/>
+    </row>
+    <row r="1203" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1203" s="11">
+        <v>45172.85833333333</v>
+      </c>
+      <c r="B1203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1203" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="D1203" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E1203" s="4">
+        <v>39</v>
+      </c>
+      <c r="F1203" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1203" s="3"/>
+      <c r="Q1203" s="2"/>
+    </row>
+    <row r="1204" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1204" s="2"/>
+    </row>
+    <row r="1205" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1205" s="11">
+        <v>45202.791666666664</v>
+      </c>
+      <c r="B1205" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="N1113" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="O1113" s="3">
+      <c r="C1205" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D1205" s="3">
+        <v>-0.03</v>
+      </c>
+      <c r="E1205" s="4">
+        <v>16</v>
+      </c>
+      <c r="F1205" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1205" s="3">
+        <v>-3.06</v>
+      </c>
+      <c r="P1205" s="3"/>
+      <c r="Q1205" s="2"/>
+    </row>
+    <row r="1206" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1206" s="11">
+        <v>45202.706250000003</v>
+      </c>
+      <c r="B1206" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1206" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D1206" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="E1206" s="4">
+        <v>118</v>
+      </c>
+      <c r="F1206" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1206" s="3"/>
+      <c r="P1206" s="3"/>
+      <c r="Q1206" s="2"/>
+    </row>
+    <row r="1207" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1207" s="2"/>
+    </row>
+    <row r="1208" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1208" s="11">
+        <v>45202.872916666667</v>
+      </c>
+      <c r="B1208" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1208" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D1208" s="3">
         <v>-0.01</v>
       </c>
-      <c r="P1113" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q1113" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1113" s="3">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="S1113" s="2"/>
-    </row>
-    <row r="1114" spans="1:19" ht="15.75" thickBot="1">
-      <c r="L1114" s="11">
-        <v>44988.831944444442</v>
-      </c>
-      <c r="M1114" s="2" t="s">
+      <c r="E1208" s="4">
+        <v>161</v>
+      </c>
+      <c r="F1208" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1208" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="Q1208" s="2"/>
+    </row>
+    <row r="1209" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1209" s="11">
+        <v>45202.826388888891</v>
+      </c>
+      <c r="B1209" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1209" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D1209" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1209" s="4">
+        <v>109</v>
+      </c>
+      <c r="F1209" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1209" s="3"/>
+      <c r="Q1209" s="2"/>
+    </row>
+    <row r="1210" spans="1:17" ht="15.75" thickBot="1">
+      <c r="P1210" s="3"/>
+      <c r="Q1210" s="2"/>
+    </row>
+    <row r="1211" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1211" s="11">
+        <v>45202.905555555553</v>
+      </c>
+      <c r="B1211" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1211" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D1211" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E1211" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1211" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1211" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q1211" s="2"/>
+    </row>
+    <row r="1212" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1212" s="11">
+        <v>45202.806250000001</v>
+      </c>
+      <c r="B1212" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1212" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D1212" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E1212" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1212" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1212" s="2"/>
+    </row>
+    <row r="1213" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1213" s="2"/>
+    </row>
+    <row r="1214" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1214" s="11">
+        <v>45233.549305555556</v>
+      </c>
+      <c r="B1214" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1214" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="D1214" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="E1214" s="4">
+        <v>109</v>
+      </c>
+      <c r="F1214" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1214" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Q1214" s="2"/>
+    </row>
+    <row r="1215" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1215" s="11">
+        <v>45233.503472222219</v>
+      </c>
+      <c r="B1215" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1215" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="D1215" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E1215" s="4">
+        <v>106</v>
+      </c>
+      <c r="F1215" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1215" s="2"/>
+    </row>
+    <row r="1216" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1216" s="2"/>
+    </row>
+    <row r="1217" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1217" s="11">
+        <v>45233.582638888889</v>
+      </c>
+      <c r="B1217" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1217" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D1217" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1217" s="4">
+        <v>49</v>
+      </c>
+      <c r="F1217" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1217" s="3">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="Q1217" s="2"/>
+    </row>
+    <row r="1218" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1218" s="11">
+        <v>45233.498611111114</v>
+      </c>
+      <c r="B1218" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1218" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D1218" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1218" s="4">
+        <v>107</v>
+      </c>
+      <c r="F1218" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1218" s="2"/>
+    </row>
+    <row r="1219" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1219" s="2"/>
+    </row>
+    <row r="1220" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1220" s="11">
+        <v>45233.649305555555</v>
+      </c>
+      <c r="B1220" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1220" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D1220" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1220" s="4">
+        <v>133</v>
+      </c>
+      <c r="F1220" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1220" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="P1220" s="3"/>
+      <c r="Q1220" s="2"/>
+    </row>
+    <row r="1221" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1221" s="11">
+        <v>45233.625</v>
+      </c>
+      <c r="B1221" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1221" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D1221" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1221" s="4">
+        <v>112</v>
+      </c>
+      <c r="F1221" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1221" s="3"/>
+      <c r="Q1221" s="2"/>
+    </row>
+    <row r="1222" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1222" s="2"/>
+    </row>
+    <row r="1223" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1223" s="11">
+        <v>45233.720833333333</v>
+      </c>
+      <c r="B1223" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1223" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D1223" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1223" s="4">
+        <v>132</v>
+      </c>
+      <c r="F1223" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1223" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="Q1223" s="2"/>
+    </row>
+    <row r="1224" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1224" s="11">
+        <v>45233.712500000001</v>
+      </c>
+      <c r="B1224" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1224" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D1224" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1224" s="4">
+        <v>107</v>
+      </c>
+      <c r="F1224" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1224" s="2"/>
+    </row>
+    <row r="1225" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1225" s="2"/>
+    </row>
+    <row r="1226" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1226" s="11">
+        <v>45233.800694444442</v>
+      </c>
+      <c r="B1226" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1226" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D1226" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E1226" s="4">
+        <v>104</v>
+      </c>
+      <c r="F1226" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1226" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="P1226" s="3"/>
+      <c r="Q1226" s="2"/>
+    </row>
+    <row r="1227" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1227" s="11">
+        <v>45233.679861111108</v>
+      </c>
+      <c r="B1227" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1227" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D1227" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E1227" s="4">
+        <v>98</v>
+      </c>
+      <c r="F1227" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1227" s="2"/>
+    </row>
+    <row r="1228" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1228" s="2"/>
+    </row>
+    <row r="1229" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1229" s="11">
+        <v>45233.751388888886</v>
+      </c>
+      <c r="B1229" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1229" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D1229" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1229" s="4">
+        <v>150</v>
+      </c>
+      <c r="F1229" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1229" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="P1229" s="3"/>
+    </row>
+    <row r="1230" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1230" s="11">
+        <v>45233.731944444444</v>
+      </c>
+      <c r="B1230" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1230" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D1230" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1230" s="4">
+        <v>119</v>
+      </c>
+      <c r="F1230" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1230" s="3"/>
+      <c r="P1230" s="3"/>
+    </row>
+    <row r="1231" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1232" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1232" s="11">
+        <v>45233.856249999997</v>
+      </c>
+      <c r="B1232" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1232" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D1232" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1232" s="4">
+        <v>116</v>
+      </c>
+      <c r="F1232" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1232" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1233" s="11">
+        <v>45233.836111111108</v>
+      </c>
+      <c r="B1233" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1233" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D1233" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1233" s="4">
+        <v>104</v>
+      </c>
+      <c r="F1233" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1233" s="3"/>
+    </row>
+    <row r="1234" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="1235" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1235" s="11">
+        <v>45263.661805555559</v>
+      </c>
+      <c r="B1235" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1235" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D1235" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E1235" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1235" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1235" s="3">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1236" s="11">
+        <v>45263.602777777778</v>
+      </c>
+      <c r="B1236" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1236" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D1236" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E1236" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="F1236" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1236" s="3"/>
+      <c r="P1236" s="3"/>
+    </row>
+    <row r="1237" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="1238" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1238" s="11">
+        <v>45263.915277777778</v>
+      </c>
+      <c r="B1238" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1114" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="O1114" s="5">
+      <c r="C1238" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1238" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1238" s="4">
+        <v>30</v>
+      </c>
+      <c r="F1238" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1238" s="3">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1239" s="11">
+        <v>45263.843055555553</v>
+      </c>
+      <c r="B1239" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1239" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1239" s="5">
         <v>0.01</v>
       </c>
-      <c r="P1114" s="4">
-        <v>52</v>
-      </c>
-      <c r="Q1114" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1114" s="3"/>
-      <c r="S1114" s="2"/>
-    </row>
-    <row r="1115" spans="1:19" ht="15.75" thickBot="1">
-      <c r="L1115" s="11">
-        <v>44988.813194444447</v>
-      </c>
-      <c r="M1115" s="2" t="s">
+      <c r="E1239" s="4">
+        <v>57</v>
+      </c>
+      <c r="F1239" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1239" s="3"/>
+    </row>
+    <row r="1240" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="1241" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1241" s="11">
+        <v>45263.915277777778</v>
+      </c>
+      <c r="B1241" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="N1115" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="O1115" s="5">
+      <c r="C1241" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1241" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1241" s="4">
+        <v>64</v>
+      </c>
+      <c r="F1241" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1241" s="3">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1242" s="11">
+        <v>45263.838888888888</v>
+      </c>
+      <c r="B1242" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1242" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1242" s="5">
         <v>0.01</v>
       </c>
-      <c r="P1115" s="4">
-        <v>107</v>
-      </c>
-      <c r="Q1115" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1115" s="3"/>
-      <c r="S1115" s="2"/>
-    </row>
-    <row r="1116" spans="1:19" ht="15.75" thickBot="1">
-      <c r="L1116" s="11">
-        <v>44988.79791666667</v>
-      </c>
-      <c r="M1116" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1116" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="O1116" s="5">
+      <c r="E1242" s="4">
+        <v>89</v>
+      </c>
+      <c r="F1242" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="1244" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1244" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B1244" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1244" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="D1244" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1244" s="4">
+        <v>85</v>
+      </c>
+      <c r="F1244" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1244" s="5">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1245" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B1245" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1245" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="D1245" s="5">
         <v>0.01</v>
       </c>
-      <c r="P1116" s="4">
-        <v>125</v>
-      </c>
-      <c r="Q1116" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1116" s="3"/>
-      <c r="S1116" s="2"/>
-    </row>
-    <row r="1117" spans="1:19" ht="15.75" thickBot="1">
-      <c r="L1117" s="11">
-        <v>44988.792361111111</v>
-      </c>
-      <c r="M1117" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1117" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="O1117" s="3">
+      <c r="E1245" s="4">
+        <v>48</v>
+      </c>
+      <c r="F1245" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1245" s="3"/>
+    </row>
+    <row r="1246" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="1247" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1247" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B1247" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1247" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1247" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E1247" s="4">
+        <v>50</v>
+      </c>
+      <c r="F1247" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1247" s="3">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1248" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B1248" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1248" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1248" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E1248" s="4">
+        <v>53</v>
+      </c>
+      <c r="F1248" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="1250" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1250" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B1250" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1250" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D1250" s="3">
         <v>-0.18</v>
       </c>
-      <c r="P1117" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="Q1117" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1117" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="S1117" s="2"/>
-    </row>
-    <row r="1118" spans="1:19" ht="15.75" thickBot="1">
-      <c r="L1118" s="11">
-        <v>44988.789583333331</v>
-      </c>
-      <c r="M1118" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1118" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="O1118" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="P1118" s="4">
-        <v>123</v>
-      </c>
-      <c r="Q1118" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1118" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="S1118" s="2"/>
-    </row>
-    <row r="1119" spans="1:19" ht="15.75" thickBot="1">
-      <c r="L1119" s="11">
-        <v>44988.756944444445</v>
-      </c>
-      <c r="M1119" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1119" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="O1119" s="5">
+      <c r="E1250" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1250" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1250" s="3">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1251" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B1251" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1251" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D1251" s="5">
         <v>0.18</v>
       </c>
-      <c r="P1119" s="4">
-        <v>1.95</v>
-      </c>
-      <c r="Q1119" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1119" s="3"/>
-      <c r="S1119" s="2"/>
-    </row>
-    <row r="1120" spans="1:19" ht="15.75" thickBot="1">
-      <c r="L1120" s="11">
-        <v>44988.753472222219</v>
-      </c>
-      <c r="M1120" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1120" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="O1120" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="P1120" s="4">
-        <v>113</v>
-      </c>
-      <c r="Q1120" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1120" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="S1120" s="2"/>
-    </row>
-    <row r="1121" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1121" s="11">
-        <v>44988.729861111111</v>
-      </c>
-      <c r="M1121" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1121" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="O1121" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="P1121" s="4">
-        <v>112</v>
-      </c>
-      <c r="Q1121" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1121" s="3"/>
-      <c r="S1121" s="2"/>
-    </row>
-    <row r="1122" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1122" s="11">
-        <v>44988.706944444442</v>
-      </c>
-      <c r="M1122" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1122" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="O1122" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="P1122" s="4">
-        <v>109</v>
-      </c>
-      <c r="Q1122" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1122" s="3"/>
-      <c r="S1122" s="2"/>
-    </row>
-    <row r="1123" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1123" s="11">
-        <v>44960.9</v>
-      </c>
-      <c r="M1123" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1123" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="O1123" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="P1123" s="4">
-        <v>77</v>
-      </c>
-      <c r="Q1123" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1123" s="5">
-        <v>0.44</v>
-      </c>
-      <c r="S1123" s="2"/>
-    </row>
-    <row r="1124" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1124" s="11">
-        <v>44960.881249999999</v>
-      </c>
-      <c r="M1124" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1124" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="O1124" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="P1124" s="4">
-        <v>132</v>
-      </c>
-      <c r="Q1124" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1124" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="S1124" s="2"/>
-    </row>
-    <row r="1125" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1125" s="11">
-        <v>44960.848611111112</v>
-      </c>
-      <c r="M1125" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1125" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="O1125" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="P1125" s="4">
-        <v>55</v>
-      </c>
-      <c r="Q1125" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1125" s="3"/>
-      <c r="S1125" s="2"/>
-    </row>
-    <row r="1126" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1126" s="11">
-        <v>44960.834722222222</v>
-      </c>
-      <c r="M1126" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1126" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="O1126" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="P1126" s="4">
-        <v>104</v>
-      </c>
-      <c r="Q1126" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1126" s="3"/>
-      <c r="S1126" s="2"/>
-    </row>
-    <row r="1127" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1127" s="11">
-        <v>44929.884027777778</v>
-      </c>
-      <c r="M1127" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1127" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="O1127" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="P1127" s="4">
-        <v>59</v>
-      </c>
-      <c r="Q1127" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1127" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="S1127" s="2"/>
-    </row>
-    <row r="1128" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1128" s="11">
-        <v>44929.839583333334</v>
-      </c>
-      <c r="M1128" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1128" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="O1128" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="P1128" s="4">
-        <v>35</v>
-      </c>
-      <c r="Q1128" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1128" s="3"/>
-      <c r="S1128" s="2"/>
-    </row>
-    <row r="1129" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1129" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="M1129" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1129" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="O1129" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="P1129" s="4">
-        <v>180</v>
-      </c>
-      <c r="Q1129" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1129" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="S1129" s="2"/>
-    </row>
-    <row r="1130" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1130" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="M1130" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1130" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="O1130" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="P1130" s="4">
-        <v>120</v>
-      </c>
-      <c r="Q1130" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1130" s="3"/>
-      <c r="S1130" s="2"/>
-    </row>
-    <row r="1131" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1131" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="M1131" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="N1131" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="O1131" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="P1131" s="4">
-        <v>78</v>
-      </c>
-      <c r="Q1131" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1131" s="3">
-        <v>-0.22</v>
-      </c>
-      <c r="S1131" s="2"/>
-    </row>
-    <row r="1132" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1132" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="M1132" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="N1132" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="O1132" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="P1132" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q1132" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1132" s="3"/>
-      <c r="S1132" s="2"/>
-    </row>
-    <row r="1133" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1133" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="M1133" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1133" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="O1133" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="P1133" s="4">
-        <v>64</v>
-      </c>
-      <c r="Q1133" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1133" s="5">
-        <v>0.22</v>
-      </c>
-      <c r="S1133" s="2"/>
-    </row>
-    <row r="1134" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1134" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="M1134" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1134" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="O1134" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="P1134" s="4">
-        <v>42</v>
-      </c>
-      <c r="Q1134" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1134" s="3"/>
-      <c r="S1134" s="2"/>
-    </row>
-    <row r="1135" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1135" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="M1135" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1135" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="O1135" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="P1135" s="4">
-        <v>110</v>
-      </c>
-      <c r="Q1135" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1135" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="S1135" s="2"/>
-    </row>
-    <row r="1136" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1136" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="M1136" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1136" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="O1136" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="P1136" s="4">
-        <v>109</v>
-      </c>
-      <c r="Q1136" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1136" s="3"/>
-      <c r="S1136" s="2"/>
-    </row>
-    <row r="1137" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1137" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="M1137" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="N1137" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="O1137" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="P1137" s="4">
-        <v>108</v>
-      </c>
-      <c r="Q1137" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1137" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="S1137" s="2"/>
-    </row>
-    <row r="1138" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1138" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="M1138" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="N1138" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="O1138" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="P1138" s="4">
-        <v>98</v>
-      </c>
-      <c r="Q1138" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1138" s="3"/>
-      <c r="S1138" s="2"/>
-    </row>
-    <row r="1139" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1139" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="M1139" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1139" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="O1139" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="P1139" s="4">
-        <v>137</v>
-      </c>
-      <c r="Q1139" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1139" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="S1139" s="2"/>
-    </row>
-    <row r="1140" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1140" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="M1140" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1140" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="O1140" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="P1140" s="4">
-        <v>117</v>
-      </c>
-      <c r="Q1140" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1140" s="3"/>
-      <c r="S1140" s="2"/>
-    </row>
-    <row r="1141" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1141" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="M1141" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1141" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="O1141" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="P1141" s="4">
-        <v>40</v>
-      </c>
-      <c r="Q1141" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1141" s="3">
-        <v>-0.11</v>
-      </c>
-      <c r="S1141" s="2"/>
-    </row>
-    <row r="1142" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1142" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="M1142" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1142" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="O1142" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="P1142" s="4">
-        <v>182</v>
-      </c>
-      <c r="Q1142" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1142" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="S1142" s="2"/>
-    </row>
-    <row r="1143" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1143" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="M1143" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1143" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="O1143" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="P1143" s="4">
-        <v>122</v>
-      </c>
-      <c r="Q1143" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1143" s="3"/>
-      <c r="S1143" s="2"/>
-    </row>
-    <row r="1144" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1144" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="M1144" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1144" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="O1144" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="P1144" s="4">
-        <v>49</v>
-      </c>
-      <c r="Q1144" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1144" s="3">
-        <v>-0.69</v>
-      </c>
-      <c r="S1144" s="2"/>
-    </row>
-    <row r="1145" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1145" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="M1145" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1145" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="O1145" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="P1145" s="4">
-        <v>51</v>
-      </c>
-      <c r="Q1145" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1145" s="3"/>
-      <c r="S1145" s="2"/>
-    </row>
-    <row r="1146" spans="12:19" ht="15.75" thickBot="1">
-      <c r="L1146" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="M1146" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1146" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="O1146" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="P1146" s="4">
-        <v>118</v>
-      </c>
-      <c r="Q1146" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1146" s="3"/>
-      <c r="S1146" s="2"/>
-    </row>
-    <row r="1147" spans="12:19" ht="15.75" thickBot="1">
-      <c r="S1147" s="2"/>
-    </row>
-    <row r="1148" spans="12:19" ht="15.75" thickBot="1">
-      <c r="S1148" s="2"/>
-    </row>
-    <row r="1149" spans="12:19" ht="15.75" thickBot="1">
-      <c r="S1149" s="2"/>
-    </row>
-    <row r="1150" spans="12:19" ht="15.75" thickBot="1">
-      <c r="S1150" s="2"/>
+      <c r="E1251" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="F1251" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22658,7 +24116,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22765,6 +24223,397 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A182E3-C93B-4DB5-AEB9-9967F8A10B1A}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>793</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>794</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>795</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>796</v>
+      </c>
+      <c r="B7" t="s">
+        <v>797</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" t="s">
+        <v>798</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" t="s">
+        <v>799</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>800</v>
+      </c>
+      <c r="B10" t="s">
+        <v>801</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>802</v>
+      </c>
+      <c r="B11" t="s">
+        <v>803</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>804</v>
+      </c>
+      <c r="B12" t="s">
+        <v>805</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>806</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>781</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>808</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>809</v>
+      </c>
+      <c r="B16" t="s">
+        <v>810</v>
+      </c>
+      <c r="C16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>811</v>
+      </c>
+      <c r="B17" t="s">
+        <v>812</v>
+      </c>
+      <c r="C17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>813</v>
+      </c>
+      <c r="B18" t="s">
+        <v>814</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>815</v>
+      </c>
+      <c r="B19" t="s">
+        <v>816</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>817</v>
+      </c>
+      <c r="B20" t="s">
+        <v>818</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>819</v>
+      </c>
+      <c r="B21" t="s">
+        <v>820</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>821</v>
+      </c>
+      <c r="B22" t="s">
+        <v>822</v>
+      </c>
+      <c r="C22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>823</v>
+      </c>
+      <c r="B23" t="s">
+        <v>824</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>825</v>
+      </c>
+      <c r="B24" t="s">
+        <v>826</v>
+      </c>
+      <c r="C24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>827</v>
+      </c>
+      <c r="B25" t="s">
+        <v>828</v>
+      </c>
+      <c r="C25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>829</v>
+      </c>
+      <c r="B26" t="s">
+        <v>830</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>831</v>
+      </c>
+      <c r="B27" t="s">
+        <v>832</v>
+      </c>
+      <c r="C27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>833</v>
+      </c>
+      <c r="B28" t="s">
+        <v>834</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>835</v>
+      </c>
+      <c r="B29" t="s">
+        <v>836</v>
+      </c>
+      <c r="C29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>839</v>
+      </c>
+      <c r="B32" t="s">
+        <v>840</v>
+      </c>
+      <c r="C32">
+        <v>1.5</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>841</v>
+      </c>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>842</v>
+      </c>
+      <c r="B33" t="s">
+        <v>843</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>844</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D32:L32"/>
+    <mergeCell ref="C33:H33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/spreadex.xlsx
+++ b/spreadex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E011ED54-36AD-483D-B331-7B6A39446994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C8AE65-E143-4DBE-852F-977B695F5B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="802" activeTab="11" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="802" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4317" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4549" uniqueCount="921">
   <si>
     <t>24/11/2022 20:55</t>
   </si>
@@ -2580,6 +2580,234 @@
   </si>
   <si>
     <t>win=15,Draw=5,Goal=10,clean sheet=5,Red card=-15</t>
+  </si>
+  <si>
+    <t>27/03/2023 21:37</t>
+  </si>
+  <si>
+    <t>Rep. Ireland v France</t>
+  </si>
+  <si>
+    <t>27/03/2023 20:12</t>
+  </si>
+  <si>
+    <t>25/03/2023 21:37</t>
+  </si>
+  <si>
+    <t>Spain v Norway</t>
+  </si>
+  <si>
+    <t>25/03/2023 19:41</t>
+  </si>
+  <si>
+    <t>25/03/2023 15:56</t>
+  </si>
+  <si>
+    <t>Scotland v Cyprus</t>
+  </si>
+  <si>
+    <t>25/03/2023 14:05</t>
+  </si>
+  <si>
+    <t>24/03/2023 21:40</t>
+  </si>
+  <si>
+    <t>France v Netherlands</t>
+  </si>
+  <si>
+    <t>24/03/2023 19:45</t>
+  </si>
+  <si>
+    <t>23/03/2023 21:44</t>
+  </si>
+  <si>
+    <t>Italy v England</t>
+  </si>
+  <si>
+    <t>23/03/2023 20:05</t>
+  </si>
+  <si>
+    <t>19/03/2023 21:58</t>
+  </si>
+  <si>
+    <t>Barcelona v Real Madrid</t>
+  </si>
+  <si>
+    <t>19/03/2023 19:29</t>
+  </si>
+  <si>
+    <t>19/03/2023 18:27</t>
+  </si>
+  <si>
+    <t>Leverkusen v Bayern Munich</t>
+  </si>
+  <si>
+    <t>19/03/2023 16:25</t>
+  </si>
+  <si>
+    <t>19/03/2023 13:27</t>
+  </si>
+  <si>
+    <t>Sampdoria v Verona</t>
+  </si>
+  <si>
+    <t>19/03/2023 11:42</t>
+  </si>
+  <si>
+    <t>18/03/2023 17:00</t>
+  </si>
+  <si>
+    <t>Southampton v Tottenham</t>
+  </si>
+  <si>
+    <t>18/03/2023 15:43</t>
+  </si>
+  <si>
+    <t>18/03/2023 12:32</t>
+  </si>
+  <si>
+    <t>Kasimpasa v Umraniyespor</t>
+  </si>
+  <si>
+    <t>18/03/2023 10:20</t>
+  </si>
+  <si>
+    <t>17/03/2023 20:57</t>
+  </si>
+  <si>
+    <t>M'Gladbach v Werder Bremen</t>
+  </si>
+  <si>
+    <t>17/03/2023 20:01</t>
+  </si>
+  <si>
+    <t>17/03/2023 19:03</t>
+  </si>
+  <si>
+    <t>Konyaspor v Galatasaray</t>
+  </si>
+  <si>
+    <t>17/03/2023 17:05</t>
+  </si>
+  <si>
+    <t>16/03/2023 21:46</t>
+  </si>
+  <si>
+    <t>Arsenal v Sporting Lisbon</t>
+  </si>
+  <si>
+    <t>16/03/2023 20:10</t>
+  </si>
+  <si>
+    <t>16/03/2023 19:47</t>
+  </si>
+  <si>
+    <t>Fenerbahce v Sevilla</t>
+  </si>
+  <si>
+    <t>16/03/2023 17:35</t>
+  </si>
+  <si>
+    <t>15/03/2023 21:55</t>
+  </si>
+  <si>
+    <t>Real Madrid v Liverpool</t>
+  </si>
+  <si>
+    <t>15/03/2023 21:28</t>
+  </si>
+  <si>
+    <t>Southampton v Brentford</t>
+  </si>
+  <si>
+    <t>15/03/2023 20:34</t>
+  </si>
+  <si>
+    <t>15/03/2023 19:37</t>
+  </si>
+  <si>
+    <t>14/03/2023 21:54</t>
+  </si>
+  <si>
+    <t>Middlesbrough v Stoke</t>
+  </si>
+  <si>
+    <t>14/03/2023 21:42</t>
+  </si>
+  <si>
+    <t>Rotherham v Preston</t>
+  </si>
+  <si>
+    <t>14/03/2023 20:50</t>
+  </si>
+  <si>
+    <t>Man City v RB Leipzig</t>
+  </si>
+  <si>
+    <t>14/03/2023 20:17</t>
+  </si>
+  <si>
+    <t>14/03/2023 20:05</t>
+  </si>
+  <si>
+    <t>14/03/2023 19:48</t>
+  </si>
+  <si>
+    <t>13/04/2023 20:19</t>
+  </si>
+  <si>
+    <t>Man Utd v Sevilla</t>
+  </si>
+  <si>
+    <t>13/04/2023 20:03</t>
+  </si>
+  <si>
+    <t>Real Madrid v Chelsea</t>
+  </si>
+  <si>
+    <t>Barcelona v Girona</t>
+  </si>
+  <si>
+    <t>Fatih Karagumruk v Fenerbahce</t>
+  </si>
+  <si>
+    <t>Istanbulspor v Fatih Karagumruk</t>
+  </si>
+  <si>
+    <t>Newcastle v Man Utd</t>
+  </si>
+  <si>
+    <t>Bologna v Udinese</t>
+  </si>
+  <si>
+    <t>Bayern Munich v Dortmund</t>
+  </si>
+  <si>
+    <t>Karlsruhe v Braunschweig</t>
+  </si>
+  <si>
+    <t>31/03/2023 21:44</t>
+  </si>
+  <si>
+    <t>Burnley v Sunderland</t>
+  </si>
+  <si>
+    <t>31/03/2023 21:24</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt v Bochum</t>
+  </si>
+  <si>
+    <t>31/03/2023 20:10</t>
+  </si>
+  <si>
+    <t>31/03/2023 19:23</t>
+  </si>
+  <si>
+    <t>Nurnberg v Darmstadt</t>
+  </si>
+  <si>
+    <t>31/03/2023 17:58</t>
   </si>
 </sst>
 </file>
@@ -2716,7 +2944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2827,6 +3055,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3144,13 +3375,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2ACDE7-BC8B-432A-9773-10E95E9E94B1}">
-  <dimension ref="A1:V1251"/>
+  <dimension ref="A1:V1344"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1222" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B1324" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I1256" sqref="I1256"/>
+      <selection pane="bottomRight" activeCell="A1343" sqref="A1343:G1344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3163,6 +3394,7 @@
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" customWidth="1"/>
     <col min="12" max="12" width="14.140625" customWidth="1"/>
@@ -24061,8 +24293,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1249" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="1250" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1249" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1250" spans="1:17" ht="15.75" thickBot="1">
       <c r="A1250" s="2" t="s">
         <v>761</v>
       </c>
@@ -24085,7 +24317,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="1251" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1251" spans="1:17" ht="15.75" thickBot="1">
       <c r="A1251" s="2" t="s">
         <v>765</v>
       </c>
@@ -24104,6 +24336,1543 @@
       <c r="F1251" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="J1251" s="1"/>
+      <c r="K1251" s="1"/>
+      <c r="L1251" s="1"/>
+      <c r="M1251" s="1"/>
+      <c r="N1251" s="1"/>
+      <c r="O1251" s="1"/>
+      <c r="P1251" s="1"/>
+      <c r="Q1251" s="1"/>
+    </row>
+    <row r="1252" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1252" s="2"/>
+    </row>
+    <row r="1253" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1253" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B1253" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1253" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="D1253" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1253" s="4">
+        <v>64</v>
+      </c>
+      <c r="F1253" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1253" s="3">
+        <v>-0.37</v>
+      </c>
+      <c r="Q1253" s="2"/>
+    </row>
+    <row r="1254" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1254" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B1254" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1254" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="D1254" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1254" s="4">
+        <v>101</v>
+      </c>
+      <c r="F1254" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1254" s="2"/>
+    </row>
+    <row r="1255" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1255" s="2"/>
+    </row>
+    <row r="1256" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1256" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="B1256" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1256" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="D1256" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E1256" s="4">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F1256" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1256" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="Q1256" s="2"/>
+    </row>
+    <row r="1257" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1257" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B1257" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1257" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="D1257" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E1257" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="F1257" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1257" s="3"/>
+      <c r="Q1257" s="2"/>
+    </row>
+    <row r="1258" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1258" s="2"/>
+    </row>
+    <row r="1259" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1259" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B1259" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1259" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="D1259" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1259" s="4">
+        <v>100</v>
+      </c>
+      <c r="F1259" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1259" s="3">
+        <v>-0.13</v>
+      </c>
+      <c r="Q1259" s="2"/>
+    </row>
+    <row r="1260" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1260" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1260" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1260" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="D1260" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1260" s="4">
+        <v>113</v>
+      </c>
+      <c r="F1260" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1260" s="2"/>
+    </row>
+    <row r="1261" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1261" s="2"/>
+    </row>
+    <row r="1262" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1262" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B1262" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1262" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="D1262" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1262" s="4">
+        <v>36</v>
+      </c>
+      <c r="F1262" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1262" s="3">
+        <v>-0.64</v>
+      </c>
+      <c r="Q1262" s="2"/>
+    </row>
+    <row r="1263" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1263" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B1263" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1263" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="D1263" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1263" s="4">
+        <v>100</v>
+      </c>
+      <c r="F1263" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1263" s="2"/>
+    </row>
+    <row r="1264" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1264" s="2"/>
+    </row>
+    <row r="1265" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1265" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1265" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1265" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1265" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E1265" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1265" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1265" s="3">
+        <v>-1.65</v>
+      </c>
+      <c r="Q1265" s="2"/>
+    </row>
+    <row r="1266" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1266" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1266" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1266" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1266" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1266" s="4">
+        <v>2.65</v>
+      </c>
+      <c r="F1266" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1266" s="2"/>
+    </row>
+    <row r="1267" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1267" s="2"/>
+    </row>
+    <row r="1268" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1268" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B1268" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1268" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="D1268" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E1268" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1268" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1268" s="3">
+        <v>-0.31</v>
+      </c>
+      <c r="Q1268" s="2"/>
+    </row>
+    <row r="1269" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1269" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B1269" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1269" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="D1269" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E1269" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="F1269" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1269" s="3"/>
+      <c r="Q1269" s="2"/>
+    </row>
+    <row r="1270" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1270" s="2"/>
+    </row>
+    <row r="1271" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1271" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B1271" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1271" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="D1271" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1271" s="4">
+        <v>103</v>
+      </c>
+      <c r="F1271" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1271" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="Q1271" s="2"/>
+    </row>
+    <row r="1272" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1272" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B1272" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1272" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="D1272" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1272" s="4">
+        <v>100</v>
+      </c>
+      <c r="F1272" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1272" s="3"/>
+      <c r="Q1272" s="2"/>
+    </row>
+    <row r="1273" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1273" s="2"/>
+    </row>
+    <row r="1274" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1274" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B1274" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1274" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D1274" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1274" s="4">
+        <v>100</v>
+      </c>
+      <c r="F1274" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1274" s="3">
+        <v>-0.12</v>
+      </c>
+      <c r="Q1274" s="2"/>
+    </row>
+    <row r="1275" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1275" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B1275" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1275" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D1275" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1275" s="4">
+        <v>112</v>
+      </c>
+      <c r="F1275" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1275" s="3"/>
+      <c r="Q1275" s="2"/>
+    </row>
+    <row r="1276" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1276" s="2"/>
+    </row>
+    <row r="1277" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1277" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B1277" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1277" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1277" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E1277" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1277" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1277" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Q1277" s="2"/>
+    </row>
+    <row r="1278" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1278" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B1278" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1278" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1278" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E1278" s="4">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F1278" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1278" s="3"/>
+      <c r="Q1278" s="2"/>
+    </row>
+    <row r="1279" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1279" s="2"/>
+    </row>
+    <row r="1280" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1280" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B1280" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1280" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="D1280" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1280" s="4">
+        <v>92</v>
+      </c>
+      <c r="F1280" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1280" s="3">
+        <v>-0.15</v>
+      </c>
+      <c r="Q1280" s="2"/>
+    </row>
+    <row r="1281" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1281" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B1281" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1281" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="D1281" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1281" s="4">
+        <v>107</v>
+      </c>
+      <c r="F1281" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1281" s="3"/>
+      <c r="Q1281" s="2"/>
+    </row>
+    <row r="1282" spans="1:17" ht="15.75" thickBot="1">
+      <c r="P1282" s="3"/>
+      <c r="Q1282" s="2"/>
+    </row>
+    <row r="1283" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1283" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1283" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1283" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="D1283" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1283" s="4">
+        <v>20</v>
+      </c>
+      <c r="F1283" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1283" s="3">
+        <v>-0.08</v>
+      </c>
+      <c r="P1283" s="3"/>
+      <c r="Q1283" s="2"/>
+    </row>
+    <row r="1284" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1284" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B1284" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1284" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="D1284" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1284" s="4">
+        <v>28</v>
+      </c>
+      <c r="F1284" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1284" s="3"/>
+      <c r="Q1284" s="2"/>
+    </row>
+    <row r="1285" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1285" s="2"/>
+    </row>
+    <row r="1286" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1286" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B1286" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1286" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="D1286" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1286" s="4">
+        <v>50</v>
+      </c>
+      <c r="F1286" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1286" s="3">
+        <v>-0.04</v>
+      </c>
+      <c r="Q1286" s="2"/>
+    </row>
+    <row r="1287" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1287" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B1287" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1287" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="D1287" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1287" s="4">
+        <v>54</v>
+      </c>
+      <c r="F1287" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1287" s="3"/>
+      <c r="Q1287" s="2"/>
+    </row>
+    <row r="1288" spans="1:17" ht="15.75" thickBot="1">
+      <c r="P1288" s="3"/>
+      <c r="Q1288" s="2"/>
+    </row>
+    <row r="1289" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1289" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B1289" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1289" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D1289" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E1289" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1289" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1289" s="3">
+        <v>-0.08</v>
+      </c>
+      <c r="P1289" s="3"/>
+      <c r="Q1289" s="2"/>
+    </row>
+    <row r="1290" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1290" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B1290" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1290" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D1290" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E1290" s="4">
+        <v>3.45</v>
+      </c>
+      <c r="F1290" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1290" s="3"/>
+    </row>
+    <row r="1291" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1292" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1292" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B1292" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1292" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D1292" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1292" s="4">
+        <v>107</v>
+      </c>
+      <c r="F1292" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1292" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J1292" s="1"/>
+      <c r="K1292" s="1"/>
+      <c r="L1292" s="1"/>
+      <c r="M1292" s="1"/>
+      <c r="N1292" s="1"/>
+      <c r="O1292" s="1"/>
+      <c r="P1292" s="1"/>
+      <c r="Q1292" s="1"/>
+    </row>
+    <row r="1293" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1293" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B1293" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1293" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D1293" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1293" s="4">
+        <v>100</v>
+      </c>
+      <c r="F1293" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1293" s="3"/>
+      <c r="Q1293" s="2"/>
+    </row>
+    <row r="1294" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1294" s="2"/>
+    </row>
+    <row r="1295" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1295" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="B1295" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1295" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="D1295" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E1295" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1295" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1295" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q1295" s="2"/>
+    </row>
+    <row r="1296" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1296" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B1296" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1296" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="D1296" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E1296" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1296" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1296" s="3"/>
+      <c r="Q1296" s="2"/>
+    </row>
+    <row r="1297" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1297" s="2"/>
+    </row>
+    <row r="1298" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1298" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B1298" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1298" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1298" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E1298" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1298" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1298" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="Q1298" s="2"/>
+    </row>
+    <row r="1299" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1299" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1299" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1299" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1299" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E1299" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1299" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1299" s="3"/>
+      <c r="Q1299" s="2"/>
+    </row>
+    <row r="1300" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1300" s="2"/>
+      <c r="B1300" s="2"/>
+      <c r="C1300" s="2"/>
+      <c r="D1300" s="5"/>
+      <c r="E1300" s="4"/>
+      <c r="F1300" s="2"/>
+      <c r="G1300" s="3"/>
+      <c r="H1300" s="40"/>
+      <c r="Q1300" s="2"/>
+    </row>
+    <row r="1301" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1301" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B1301" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1301" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D1301" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E1301" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1301" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1301" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="Q1301" s="2"/>
+    </row>
+    <row r="1302" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1302" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B1302" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1302" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D1302" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E1302" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="F1302" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1302" s="3"/>
+      <c r="Q1302" s="2"/>
+    </row>
+    <row r="1303" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1303" s="2"/>
+      <c r="B1303" s="2"/>
+      <c r="C1303" s="2"/>
+      <c r="D1303" s="5"/>
+      <c r="E1303" s="4"/>
+      <c r="F1303" s="2"/>
+      <c r="G1303" s="3"/>
+      <c r="H1303" s="40"/>
+      <c r="Q1303" s="2"/>
+    </row>
+    <row r="1304" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1304" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B1304" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1304" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1304" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E1304" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1304" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1304" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q1304" s="2"/>
+    </row>
+    <row r="1305" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1305" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B1305" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1305" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1305" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E1305" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1305" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1305" s="3"/>
+      <c r="Q1305" s="2"/>
+    </row>
+    <row r="1306" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1306" s="2"/>
+      <c r="B1306" s="2"/>
+      <c r="C1306" s="2"/>
+      <c r="D1306" s="5"/>
+      <c r="E1306" s="4"/>
+      <c r="F1306" s="2"/>
+      <c r="G1306" s="3"/>
+      <c r="H1306" s="40"/>
+      <c r="J1306" s="11"/>
+      <c r="K1306" s="2"/>
+      <c r="L1306" s="2"/>
+      <c r="M1306" s="3"/>
+      <c r="N1306" s="4"/>
+      <c r="O1306" s="2"/>
+      <c r="P1306" s="3"/>
+      <c r="Q1306" s="2"/>
+    </row>
+    <row r="1307" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1307" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B1307" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1307" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="D1307" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E1307" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1307" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1307" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="P1307" s="3"/>
+      <c r="Q1307" s="2"/>
+    </row>
+    <row r="1308" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1308" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B1308" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1308" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="D1308" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E1308" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="F1308" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1308" s="3"/>
+      <c r="Q1308" s="2"/>
+    </row>
+    <row r="1309" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1309" s="2"/>
+    </row>
+    <row r="1310" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1310" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B1310" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1310" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="D1310" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E1310" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1310" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="Q1310" s="2"/>
+    </row>
+    <row r="1311" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1311" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B1311" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1311" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="D1311" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E1311" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="F1311" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1311" s="3"/>
+      <c r="Q1311" s="2"/>
+    </row>
+    <row r="1312" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1312" s="2"/>
+    </row>
+    <row r="1313" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1313" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1313" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1313" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="D1313" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E1313" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1313" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1313" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="Q1313" s="2"/>
+    </row>
+    <row r="1314" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1314" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B1314" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1314" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="D1314" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E1314" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1314" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1314" s="2"/>
+    </row>
+    <row r="1315" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1315" s="2"/>
+    </row>
+    <row r="1316" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1316" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B1316" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1316" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="D1316" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1316" s="4">
+        <v>103</v>
+      </c>
+      <c r="F1316" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1316" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="P1316" s="3"/>
+      <c r="Q1316" s="2"/>
+    </row>
+    <row r="1317" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1317" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B1317" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1317" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="D1317" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1317" s="4">
+        <v>100</v>
+      </c>
+      <c r="F1317" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1317" s="3"/>
+      <c r="Q1317" s="2"/>
+    </row>
+    <row r="1318" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1318" s="2"/>
+    </row>
+    <row r="1319" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1319" s="11">
+        <v>44930.579861111109</v>
+      </c>
+      <c r="B1319" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1319" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1319" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E1319" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1319" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1319" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="Q1319" s="2"/>
+    </row>
+    <row r="1320" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1320" s="11">
+        <v>44930.502083333333</v>
+      </c>
+      <c r="B1320" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1320" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1320" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E1320" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1320" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1320" s="3"/>
+    </row>
+    <row r="1321" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1322" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1322" s="11">
+        <v>44930.743055555555</v>
+      </c>
+      <c r="B1322" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1322" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D1322" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1322" s="4">
+        <v>125</v>
+      </c>
+      <c r="F1322" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1322" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1323" s="11">
+        <v>44930.722222222219</v>
+      </c>
+      <c r="B1323" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1323" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D1323" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1323" s="4">
+        <v>107</v>
+      </c>
+      <c r="F1323" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1323" s="3"/>
+    </row>
+    <row r="1324" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1325" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1325" s="11">
+        <v>44961.497916666667</v>
+      </c>
+      <c r="B1325" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1325" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="D1325" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1325" s="4">
+        <v>152</v>
+      </c>
+      <c r="F1325" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1325" s="5">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1326" s="11">
+        <v>44961.481944444444</v>
+      </c>
+      <c r="B1326" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1326" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="D1326" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1326" s="4">
+        <v>103</v>
+      </c>
+      <c r="F1326" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1326" s="3"/>
+    </row>
+    <row r="1327" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1328" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1328" s="11">
+        <v>44961.76666666667</v>
+      </c>
+      <c r="B1328" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1328" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="D1328" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1328" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1328" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1328" s="3">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1329" s="11">
+        <v>44961.700694444444</v>
+      </c>
+      <c r="B1329" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1329" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="D1329" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1329" s="4">
+        <v>50</v>
+      </c>
+      <c r="F1329" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="1331" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1331" s="11">
+        <v>44989.852777777778</v>
+      </c>
+      <c r="B1331" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1331" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="D1331" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E1331" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1331" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1331" s="3">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1332" s="11">
+        <v>44989.768750000003</v>
+      </c>
+      <c r="B1332" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1332" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="D1332" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E1332" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1332" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1332" s="3"/>
+    </row>
+    <row r="1333" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="1334" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1334" s="11">
+        <v>45203.824305555558</v>
+      </c>
+      <c r="B1334" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1334" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="D1334" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E1334" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F1334" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1334" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1335" s="11">
+        <v>45203.784722222219</v>
+      </c>
+      <c r="B1335" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1335" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="D1335" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E1335" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1335" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="1337" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1337" s="11">
+        <v>45203.848611111112</v>
+      </c>
+      <c r="B1337" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1337" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="D1337" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1337" s="4">
+        <v>134</v>
+      </c>
+      <c r="F1337" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1337" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1338" s="11">
+        <v>45203.838194444441</v>
+      </c>
+      <c r="B1338" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1338" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="D1338" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1338" s="4">
+        <v>94</v>
+      </c>
+      <c r="F1338" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1338" s="3"/>
+    </row>
+    <row r="1339" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="1340" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1340" s="11">
+        <v>45264.898611111108</v>
+      </c>
+      <c r="B1340" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1340" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="D1340" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E1340" s="4">
+        <v>2.65</v>
+      </c>
+      <c r="F1340" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1340" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1341" s="11">
+        <v>45264.822916666664</v>
+      </c>
+      <c r="B1341" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1341" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="D1341" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E1341" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F1341" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1341" s="3"/>
+      <c r="I1341" s="11"/>
+      <c r="J1341" s="2"/>
+      <c r="K1341" s="2"/>
+      <c r="L1341" s="3"/>
+      <c r="M1341" s="4"/>
+      <c r="N1341" s="2"/>
+      <c r="O1341" s="5"/>
+    </row>
+    <row r="1342" spans="1:15" ht="15.75" thickBot="1">
+      <c r="O1342" s="3"/>
+    </row>
+    <row r="1343" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1343" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B1343" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1343" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="D1343" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1343" s="4">
+        <v>146</v>
+      </c>
+      <c r="F1343" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1343" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1344" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B1344" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1344" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="D1344" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1344" s="4">
+        <v>108</v>
+      </c>
+      <c r="F1344" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1344" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24113,10 +25882,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829BCB3E-ADB5-497C-8636-01F5B5FDB73F}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24185,6 +25954,14 @@
         <v>45141</v>
       </c>
       <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="21">
+        <v>45203</v>
+      </c>
+      <c r="B9">
         <v>5</v>
       </c>
     </row>
@@ -24231,7 +26008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A182E3-C93B-4DB5-AEB9-9967F8A10B1A}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
@@ -24581,17 +26358,17 @@
       <c r="C32">
         <v>1.5</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="41" t="s">
         <v>841</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
@@ -24600,14 +26377,14 @@
       <c r="B33" t="s">
         <v>843</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="41" t="s">
         <v>844</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/spreadex.xlsx
+++ b/spreadex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C8AE65-E143-4DBE-852F-977B695F5B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E14E8B7-4BA8-453B-94DD-452C98565461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="802" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4549" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="990">
   <si>
     <t>24/11/2022 20:55</t>
   </si>
@@ -2808,6 +2808,213 @@
   </si>
   <si>
     <t>31/03/2023 17:58</t>
+  </si>
+  <si>
+    <t>25/04/2023 22:52</t>
+  </si>
+  <si>
+    <t>Real Betis v Sociedad</t>
+  </si>
+  <si>
+    <t>25/04/2023 21:35</t>
+  </si>
+  <si>
+    <t>25/04/2023 20:25</t>
+  </si>
+  <si>
+    <t>Cadiz v Osasuna</t>
+  </si>
+  <si>
+    <t>25/04/2023 18:42</t>
+  </si>
+  <si>
+    <t>25/04/2023 07:55</t>
+  </si>
+  <si>
+    <t>Atalanta v Roma</t>
+  </si>
+  <si>
+    <t>24/04/2023 19:47</t>
+  </si>
+  <si>
+    <t>24/04/2023 19:24</t>
+  </si>
+  <si>
+    <t>Fenerbahce v Istanbulspor</t>
+  </si>
+  <si>
+    <t>24/04/2023 18:42</t>
+  </si>
+  <si>
+    <t>Antalyaspor v Sivasspor</t>
+  </si>
+  <si>
+    <t>24/04/2023 18:13</t>
+  </si>
+  <si>
+    <t>24/04/2023 18:02</t>
+  </si>
+  <si>
+    <t>23/04/2023 13:07</t>
+  </si>
+  <si>
+    <t>Empoli v Inter Milan</t>
+  </si>
+  <si>
+    <t>23/04/2023 12:06</t>
+  </si>
+  <si>
+    <t>22/04/2023 21:16</t>
+  </si>
+  <si>
+    <t>Real Madrid v Celta Vigo</t>
+  </si>
+  <si>
+    <t>22/04/2023 20:11</t>
+  </si>
+  <si>
+    <t>22/04/2023 18:38</t>
+  </si>
+  <si>
+    <t>Man City v Sheff Utd</t>
+  </si>
+  <si>
+    <t>22/04/2023 17:04</t>
+  </si>
+  <si>
+    <t>22/04/2023 14:49</t>
+  </si>
+  <si>
+    <t>Osasuna v Real Betis</t>
+  </si>
+  <si>
+    <t>22/04/2023 13:55</t>
+  </si>
+  <si>
+    <t>Hansa Rostock v Greuther Furth</t>
+  </si>
+  <si>
+    <t>22/04/2023 13:02</t>
+  </si>
+  <si>
+    <t>22/04/2023 12:38</t>
+  </si>
+  <si>
+    <t>21/04/2023 22:04</t>
+  </si>
+  <si>
+    <t>Arsenal v Southampton</t>
+  </si>
+  <si>
+    <t>21/04/2023 20:05</t>
+  </si>
+  <si>
+    <t>21/04/2023 19:28</t>
+  </si>
+  <si>
+    <t>Darmstadt v Karlsruhe</t>
+  </si>
+  <si>
+    <t>21/04/2023 17:34</t>
+  </si>
+  <si>
+    <t>20/04/2023 21:54</t>
+  </si>
+  <si>
+    <t>Sevilla v Man Utd</t>
+  </si>
+  <si>
+    <t>20/04/2023 21:35</t>
+  </si>
+  <si>
+    <t>20/04/2023 20:28</t>
+  </si>
+  <si>
+    <t>20/04/2023 19:58</t>
+  </si>
+  <si>
+    <t>19/04/2023 21:59</t>
+  </si>
+  <si>
+    <t>Bayern Munich v Man City</t>
+  </si>
+  <si>
+    <t>19/04/2023 21:58</t>
+  </si>
+  <si>
+    <t>19/04/2023 20:30</t>
+  </si>
+  <si>
+    <t>19/04/2023 20:11</t>
+  </si>
+  <si>
+    <t>18/04/2023 21:53</t>
+  </si>
+  <si>
+    <t>Chelsea v Real Madrid</t>
+  </si>
+  <si>
+    <t>18/04/2023 19:48</t>
+  </si>
+  <si>
+    <t>16/04/2023 22:00</t>
+  </si>
+  <si>
+    <t>Valencia v Sevilla</t>
+  </si>
+  <si>
+    <t>16/04/2023 20:12</t>
+  </si>
+  <si>
+    <t>15/04/2023 20:41</t>
+  </si>
+  <si>
+    <t>Paris Saint-Germain v Lens</t>
+  </si>
+  <si>
+    <t>15/04/2023 20:06</t>
+  </si>
+  <si>
+    <t>15/04/2023 16:08</t>
+  </si>
+  <si>
+    <t>Stuttgart v Dortmund</t>
+  </si>
+  <si>
+    <t>15/04/2023 15:21</t>
+  </si>
+  <si>
+    <t>15/04/2023 14:52</t>
+  </si>
+  <si>
+    <t>15/04/2023 14:33</t>
+  </si>
+  <si>
+    <t>15/04/2023 13:49</t>
+  </si>
+  <si>
+    <t>Aston Villa v Newcastle</t>
+  </si>
+  <si>
+    <t>15/04/2023 12:29</t>
+  </si>
+  <si>
+    <t>14/04/2023 21:56</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano v Osasuna</t>
+  </si>
+  <si>
+    <t>14/04/2023 20:25</t>
+  </si>
+  <si>
+    <t>Antalyaspor v Alanyaspor</t>
+  </si>
+  <si>
+    <t>14/04/2023 19:59</t>
+  </si>
+  <si>
+    <t>14/04/2023 18:36</t>
   </si>
 </sst>
 </file>
@@ -3375,13 +3582,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2ACDE7-BC8B-432A-9773-10E95E9E94B1}">
-  <dimension ref="A1:V1344"/>
+  <dimension ref="A1:V1393"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1324" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1354" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1343" sqref="A1343:G1344"/>
+      <selection pane="bottomRight" activeCell="G1351" sqref="G1351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25873,6 +26080,1120 @@
         <v>5</v>
       </c>
       <c r="G1344" s="3"/>
+    </row>
+    <row r="1345" spans="1:16" ht="15.75" thickBot="1">
+      <c r="I1345" s="1"/>
+      <c r="J1345" s="1"/>
+      <c r="K1345" s="1"/>
+      <c r="L1345" s="1"/>
+      <c r="M1345" s="1"/>
+      <c r="N1345" s="1"/>
+      <c r="O1345" s="1"/>
+      <c r="P1345" s="1"/>
+    </row>
+    <row r="1346" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1346" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="B1346" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1346" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="D1346" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1346" s="4">
+        <v>25</v>
+      </c>
+      <c r="F1346" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1346" s="3">
+        <v>-0.64</v>
+      </c>
+      <c r="I1346" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="J1346" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1346" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="L1346" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="M1346" s="4">
+        <v>47</v>
+      </c>
+      <c r="N1346" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1346" s="3">
+        <v>-0.06</v>
+      </c>
+      <c r="P1346" s="2"/>
+    </row>
+    <row r="1347" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1347" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="B1347" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1347" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="D1347" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1347" s="4">
+        <v>89</v>
+      </c>
+      <c r="F1347" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1347" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="J1347" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1347" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="L1347" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="M1347" s="4">
+        <v>53</v>
+      </c>
+      <c r="N1347" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1347" s="3"/>
+      <c r="P1347" s="2"/>
+    </row>
+    <row r="1348" spans="1:16" ht="15.75" thickBot="1">
+      <c r="I1348" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J1348" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1348" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="L1348" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="M1348" s="4">
+        <v>44</v>
+      </c>
+      <c r="N1348" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1348" s="3">
+        <v>-0.16</v>
+      </c>
+      <c r="P1348" s="2"/>
+    </row>
+    <row r="1349" spans="1:16" ht="15.75" thickBot="1">
+      <c r="I1349" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="J1349" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1349" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="L1349" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="M1349" s="4">
+        <v>60</v>
+      </c>
+      <c r="N1349" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1349" s="3"/>
+      <c r="P1349" s="2"/>
+    </row>
+    <row r="1350" spans="1:16" ht="15.75" thickBot="1">
+      <c r="I1350" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="J1350" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1350" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="L1350" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="M1350" s="4">
+        <v>49</v>
+      </c>
+      <c r="N1350" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1350" s="3">
+        <v>-0.49</v>
+      </c>
+      <c r="P1350" s="2"/>
+    </row>
+    <row r="1351" spans="1:16" ht="15.75" thickBot="1">
+      <c r="I1351" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="J1351" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1351" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="L1351" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="M1351" s="4">
+        <v>98</v>
+      </c>
+      <c r="N1351" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1351" s="3"/>
+      <c r="P1351" s="2"/>
+    </row>
+    <row r="1352" spans="1:16" ht="15.75" thickBot="1">
+      <c r="I1352" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="J1352" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1352" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="L1352" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="M1352" s="4">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="N1352" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1352" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="P1352" s="2"/>
+    </row>
+    <row r="1353" spans="1:16" ht="15.75" thickBot="1">
+      <c r="I1353" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="J1353" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1353" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="L1353" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="M1353" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="N1353" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1353" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P1353" s="2"/>
+    </row>
+    <row r="1354" spans="1:16" ht="15.75" thickBot="1">
+      <c r="I1354" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="J1354" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1354" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="L1354" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M1354" s="4">
+        <v>3.45</v>
+      </c>
+      <c r="N1354" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1354" s="3"/>
+      <c r="P1354" s="2"/>
+    </row>
+    <row r="1355" spans="1:16" ht="15.75" thickBot="1">
+      <c r="I1355" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="J1355" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1355" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="L1355" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="M1355" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="N1355" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1355" s="3"/>
+      <c r="P1355" s="2"/>
+    </row>
+    <row r="1356" spans="1:16" ht="15.75" thickBot="1">
+      <c r="I1356" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="J1356" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1356" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="L1356" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="M1356" s="4">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="N1356" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1356" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="P1356" s="2"/>
+    </row>
+    <row r="1357" spans="1:16" ht="15.75" thickBot="1">
+      <c r="I1357" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="J1357" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1357" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="L1357" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="M1357" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="N1357" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1357" s="3"/>
+      <c r="P1357" s="2"/>
+    </row>
+    <row r="1358" spans="1:16" ht="15.75" thickBot="1">
+      <c r="I1358" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="J1358" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1358" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="L1358" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="M1358" s="4">
+        <v>123</v>
+      </c>
+      <c r="N1358" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1358" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="P1358" s="2"/>
+    </row>
+    <row r="1359" spans="1:16" ht="15.75" thickBot="1">
+      <c r="I1359" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="J1359" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1359" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="L1359" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="M1359" s="4">
+        <v>99</v>
+      </c>
+      <c r="N1359" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1359" s="3"/>
+      <c r="P1359" s="2"/>
+    </row>
+    <row r="1360" spans="1:16" ht="15.75" thickBot="1">
+      <c r="I1360" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="J1360" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1360" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="L1360" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="M1360" s="4">
+        <v>3</v>
+      </c>
+      <c r="N1360" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1360" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="P1360" s="2"/>
+    </row>
+    <row r="1361" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1361" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="J1361" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1361" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="L1361" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="M1361" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="N1361" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1361" s="3"/>
+      <c r="P1361" s="2"/>
+    </row>
+    <row r="1362" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1362" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="J1362" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1362" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="L1362" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="M1362" s="4">
+        <v>20</v>
+      </c>
+      <c r="N1362" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1362" s="3">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="P1362" s="2"/>
+    </row>
+    <row r="1363" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1363" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="J1363" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1363" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="L1363" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="M1363" s="4">
+        <v>2</v>
+      </c>
+      <c r="N1363" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1363" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="P1363" s="2"/>
+    </row>
+    <row r="1364" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1364" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="J1364" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1364" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="L1364" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="M1364" s="4">
+        <v>48</v>
+      </c>
+      <c r="N1364" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1364" s="3"/>
+      <c r="P1364" s="2"/>
+    </row>
+    <row r="1365" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1365" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="J1365" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1365" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="L1365" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="M1365" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="N1365" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1365" s="3"/>
+      <c r="P1365" s="2"/>
+    </row>
+    <row r="1366" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1366" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="J1366" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1366" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="L1366" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="M1366" s="4">
+        <v>81</v>
+      </c>
+      <c r="N1366" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1366" s="3">
+        <v>-0.4</v>
+      </c>
+      <c r="P1366" s="2"/>
+    </row>
+    <row r="1367" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1367" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="J1367" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1367" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="L1367" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="M1367" s="4">
+        <v>121</v>
+      </c>
+      <c r="N1367" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1367" s="3"/>
+      <c r="P1367" s="2"/>
+    </row>
+    <row r="1368" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1368" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="J1368" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1368" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="L1368" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="M1368" s="4">
+        <v>36</v>
+      </c>
+      <c r="N1368" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1368" s="3">
+        <v>-0.77</v>
+      </c>
+      <c r="P1368" s="2"/>
+    </row>
+    <row r="1369" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1369" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="J1369" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1369" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="L1369" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="M1369" s="4">
+        <v>113</v>
+      </c>
+      <c r="N1369" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1369" s="3"/>
+      <c r="P1369" s="2"/>
+    </row>
+    <row r="1370" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1370" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="J1370" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1370" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="L1370" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="M1370" s="4">
+        <v>40</v>
+      </c>
+      <c r="N1370" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1370" s="3">
+        <v>-0.15</v>
+      </c>
+      <c r="P1370" s="2"/>
+    </row>
+    <row r="1371" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1371" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="J1371" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1371" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="L1371" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="M1371" s="4">
+        <v>126</v>
+      </c>
+      <c r="N1371" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1371" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="P1371" s="2"/>
+    </row>
+    <row r="1372" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1372" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="J1372" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1372" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="L1372" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="M1372" s="4">
+        <v>55</v>
+      </c>
+      <c r="N1372" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1372" s="3"/>
+      <c r="P1372" s="2"/>
+    </row>
+    <row r="1373" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1373" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="J1373" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1373" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="L1373" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="M1373" s="4">
+        <v>111</v>
+      </c>
+      <c r="N1373" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1373" s="3"/>
+      <c r="P1373" s="2"/>
+    </row>
+    <row r="1374" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1374" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="J1374" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1374" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="L1374" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="M1374" s="4">
+        <v>49</v>
+      </c>
+      <c r="N1374" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1374" s="3">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="P1374" s="2"/>
+    </row>
+    <row r="1375" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1375" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="J1375" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1375" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="L1375" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="M1375" s="4">
+        <v>90</v>
+      </c>
+      <c r="N1375" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1375" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="P1375" s="2"/>
+    </row>
+    <row r="1376" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1376" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="J1376" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1376" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="L1376" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="M1376" s="4">
+        <v>49</v>
+      </c>
+      <c r="N1376" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1376" s="3"/>
+      <c r="P1376" s="2"/>
+    </row>
+    <row r="1377" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1377" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="J1377" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1377" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="L1377" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="M1377" s="4">
+        <v>104</v>
+      </c>
+      <c r="N1377" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1377" s="3"/>
+      <c r="P1377" s="2"/>
+    </row>
+    <row r="1378" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1378" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="J1378" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1378" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="L1378" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="M1378" s="4">
+        <v>2</v>
+      </c>
+      <c r="N1378" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1378" s="3">
+        <v>-0.15</v>
+      </c>
+      <c r="P1378" s="2"/>
+    </row>
+    <row r="1379" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1379" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="J1379" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1379" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="L1379" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="M1379" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="N1379" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1379" s="3"/>
+      <c r="P1379" s="2"/>
+    </row>
+    <row r="1380" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1380" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="J1380" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1380" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="L1380" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="M1380" s="4">
+        <v>75</v>
+      </c>
+      <c r="N1380" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1380" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P1380" s="2"/>
+    </row>
+    <row r="1381" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1381" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="J1381" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1381" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="L1381" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="M1381" s="4">
+        <v>68</v>
+      </c>
+      <c r="N1381" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1381" s="3"/>
+      <c r="P1381" s="2"/>
+    </row>
+    <row r="1382" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1382" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="J1382" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1382" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="L1382" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="M1382" s="4">
+        <v>5</v>
+      </c>
+      <c r="N1382" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1382" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="P1382" s="2"/>
+    </row>
+    <row r="1383" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1383" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="J1383" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1383" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="L1383" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="M1383" s="4">
+        <v>3.05</v>
+      </c>
+      <c r="N1383" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1383" s="3"/>
+      <c r="P1383" s="2"/>
+    </row>
+    <row r="1384" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1384" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="J1384" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1384" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="L1384" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="M1384" s="4">
+        <v>116</v>
+      </c>
+      <c r="N1384" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1384" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="P1384" s="2"/>
+    </row>
+    <row r="1385" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1385" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="J1385" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1385" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="L1385" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="M1385" s="4">
+        <v>4</v>
+      </c>
+      <c r="N1385" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1385" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="P1385" s="2"/>
+    </row>
+    <row r="1386" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1386" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="J1386" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1386" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="L1386" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="M1386" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="N1386" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1386" s="3"/>
+      <c r="P1386" s="2"/>
+    </row>
+    <row r="1387" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1387" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="J1387" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1387" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="L1387" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="M1387" s="4">
+        <v>106</v>
+      </c>
+      <c r="N1387" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1387" s="3"/>
+      <c r="P1387" s="2"/>
+    </row>
+    <row r="1388" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1388" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="J1388" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1388" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="L1388" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="M1388" s="4">
+        <v>142</v>
+      </c>
+      <c r="N1388" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1388" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="P1388" s="2"/>
+    </row>
+    <row r="1389" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1389" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="J1389" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1389" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="L1389" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="M1389" s="4">
+        <v>123</v>
+      </c>
+      <c r="N1389" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1389" s="3"/>
+      <c r="P1389" s="2"/>
+    </row>
+    <row r="1390" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1390" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="J1390" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1390" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="L1390" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="M1390" s="4">
+        <v>25</v>
+      </c>
+      <c r="N1390" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1390" s="3">
+        <v>-0.88</v>
+      </c>
+      <c r="P1390" s="2"/>
+    </row>
+    <row r="1391" spans="9:16" ht="15.75" thickBot="1">
+      <c r="P1391" s="2"/>
+    </row>
+    <row r="1392" spans="9:16" ht="15.75" thickBot="1">
+      <c r="I1392" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="J1392" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1392" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="L1392" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="M1392" s="4">
+        <v>113</v>
+      </c>
+      <c r="N1392" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1392" s="3"/>
+      <c r="P1392" s="2"/>
+    </row>
+    <row r="1393" spans="15:16" ht="15.75" thickBot="1">
+      <c r="O1393" s="3"/>
+      <c r="P1393" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spreadex.xlsx
+++ b/spreadex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E14E8B7-4BA8-453B-94DD-452C98565461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD8E5E6-6886-40E6-811A-F264F0960016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="802" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4861" uniqueCount="1024">
   <si>
     <t>24/11/2022 20:55</t>
   </si>
@@ -3015,6 +3015,108 @@
   </si>
   <si>
     <t>14/04/2023 18:36</t>
+  </si>
+  <si>
+    <t>Nottingham Forest v Southampton</t>
+  </si>
+  <si>
+    <t>West Ham v Man Utd</t>
+  </si>
+  <si>
+    <t>Dortmund v Wolfsburg</t>
+  </si>
+  <si>
+    <t>Atalanta v Juventus</t>
+  </si>
+  <si>
+    <t>M'Gladbach v Bochum</t>
+  </si>
+  <si>
+    <t>Karlsruhe v Hannover</t>
+  </si>
+  <si>
+    <t>Blackburn v Luton</t>
+  </si>
+  <si>
+    <t>Rotherham v Middlesbrough</t>
+  </si>
+  <si>
+    <t>30/04/2023 16:11</t>
+  </si>
+  <si>
+    <t>Bayern Munich v Hertha BSC</t>
+  </si>
+  <si>
+    <t>30/04/2023 15:01</t>
+  </si>
+  <si>
+    <t>30/04/2023 13:34</t>
+  </si>
+  <si>
+    <t>Monaco v Montpellier</t>
+  </si>
+  <si>
+    <t>30/04/2023 13:27</t>
+  </si>
+  <si>
+    <t>Inter Milan v Lazio</t>
+  </si>
+  <si>
+    <t>30/04/2023 12:11</t>
+  </si>
+  <si>
+    <t>30/04/2023 11:32</t>
+  </si>
+  <si>
+    <t>29/04/2023 16:27</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt v Augsburg</t>
+  </si>
+  <si>
+    <t>29/04/2023 14:41</t>
+  </si>
+  <si>
+    <t>28/04/2023 19:42</t>
+  </si>
+  <si>
+    <t>28/04/2023 19:36</t>
+  </si>
+  <si>
+    <t>28/04/2023 19:19</t>
+  </si>
+  <si>
+    <t>Lecce v Udinese</t>
+  </si>
+  <si>
+    <t>28/04/2023 17:41</t>
+  </si>
+  <si>
+    <t>27/04/2023 21:45</t>
+  </si>
+  <si>
+    <t>Tottenham v Man Utd</t>
+  </si>
+  <si>
+    <t>27/04/2023 20:35</t>
+  </si>
+  <si>
+    <t>27/04/2023 20:28</t>
+  </si>
+  <si>
+    <t>Valencia v Valladolid</t>
+  </si>
+  <si>
+    <t>27/04/2023 18:30</t>
+  </si>
+  <si>
+    <t>26/04/2023 21:58</t>
+  </si>
+  <si>
+    <t>Man City v Arsenal</t>
+  </si>
+  <si>
+    <t>26/04/2023 19:47</t>
   </si>
 </sst>
 </file>
@@ -3151,7 +3253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3268,6 +3370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3582,13 +3685,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2ACDE7-BC8B-432A-9773-10E95E9E94B1}">
-  <dimension ref="A1:V1393"/>
+  <dimension ref="A1:V1467"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1354" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1435" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G1351" sqref="G1351"/>
+      <selection pane="bottomRight" activeCell="K1464" sqref="K1464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26113,27 +26216,6 @@
       <c r="G1346" s="3">
         <v>-0.64</v>
       </c>
-      <c r="I1346" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="J1346" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1346" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="L1346" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="M1346" s="4">
-        <v>47</v>
-      </c>
-      <c r="N1346" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1346" s="3">
-        <v>-0.06</v>
-      </c>
       <c r="P1346" s="2"/>
     </row>
     <row r="1347" spans="1:16" ht="15.75" thickBot="1">
@@ -26155,1045 +26237,1953 @@
       <c r="F1347" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1347" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="J1347" s="2" t="s">
+      <c r="P1347" s="2"/>
+    </row>
+    <row r="1348" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1348" s="2"/>
+    </row>
+    <row r="1349" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1349" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B1349" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1349" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="D1349" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1349" s="4">
+        <v>25</v>
+      </c>
+      <c r="F1349" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1349" s="3">
+        <v>-0.88</v>
+      </c>
+      <c r="P1349" s="2"/>
+    </row>
+    <row r="1350" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1350" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B1350" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1350" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="D1350" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1350" s="4">
+        <v>113</v>
+      </c>
+      <c r="F1350" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1350" s="3"/>
+      <c r="P1350" s="2"/>
+    </row>
+    <row r="1351" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1351" s="2"/>
+    </row>
+    <row r="1352" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1352" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B1352" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1352" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="D1352" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1352" s="4">
+        <v>142</v>
+      </c>
+      <c r="F1352" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1352" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="P1352" s="2"/>
+    </row>
+    <row r="1353" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1353" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B1353" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1353" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="D1353" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1353" s="4">
+        <v>123</v>
+      </c>
+      <c r="F1353" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1353" s="3"/>
+      <c r="P1353" s="2"/>
+    </row>
+    <row r="1354" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1354" s="2"/>
+    </row>
+    <row r="1355" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1355" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B1355" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1355" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1355" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E1355" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1355" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1355" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="P1355" s="2"/>
+    </row>
+    <row r="1356" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1356" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B1356" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1356" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1356" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E1356" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="F1356" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1356" s="3"/>
+      <c r="P1356" s="2"/>
+    </row>
+    <row r="1357" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1357" s="2"/>
+    </row>
+    <row r="1358" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1358" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B1358" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1358" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1358" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1358" s="4">
+        <v>116</v>
+      </c>
+      <c r="F1358" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1358" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="P1358" s="2"/>
+    </row>
+    <row r="1359" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1359" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="B1359" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1359" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1359" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1359" s="4">
+        <v>106</v>
+      </c>
+      <c r="F1359" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1359" s="2"/>
+    </row>
+    <row r="1360" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1360" s="2"/>
+    </row>
+    <row r="1361" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1361" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="B1361" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1361" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="D1361" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="E1361" s="4">
+        <v>5</v>
+      </c>
+      <c r="F1361" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1361" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="P1361" s="2"/>
+    </row>
+    <row r="1362" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1362" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="B1362" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1362" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="D1362" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E1362" s="4">
+        <v>3.05</v>
+      </c>
+      <c r="F1362" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1362" s="3"/>
+      <c r="P1362" s="2"/>
+    </row>
+    <row r="1363" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1363" s="2"/>
+    </row>
+    <row r="1364" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1364" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="B1364" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1347" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="L1347" s="5">
+      <c r="C1364" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="D1364" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1364" s="4">
+        <v>75</v>
+      </c>
+      <c r="F1364" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1364" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P1364" s="2"/>
+    </row>
+    <row r="1365" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1365" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B1365" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1365" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="D1365" s="5">
         <v>0.01</v>
       </c>
-      <c r="M1347" s="4">
-        <v>53</v>
-      </c>
-      <c r="N1347" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1347" s="3"/>
-      <c r="P1347" s="2"/>
-    </row>
-    <row r="1348" spans="1:16" ht="15.75" thickBot="1">
-      <c r="I1348" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="J1348" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1348" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="L1348" s="3">
+      <c r="E1365" s="4">
+        <v>68</v>
+      </c>
+      <c r="F1365" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1365" s="3"/>
+      <c r="P1365" s="2"/>
+    </row>
+    <row r="1366" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1366" s="2"/>
+    </row>
+    <row r="1367" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1367" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B1367" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1367" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="D1367" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E1367" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1367" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1367" s="3">
+        <v>-0.15</v>
+      </c>
+      <c r="P1367" s="2"/>
+    </row>
+    <row r="1368" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1368" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="B1368" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1368" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="D1368" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E1368" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="F1368" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1368" s="3"/>
+      <c r="P1368" s="2"/>
+    </row>
+    <row r="1369" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1369" s="2"/>
+    </row>
+    <row r="1370" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1370" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="B1370" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1370" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="D1370" s="3">
         <v>-0.01</v>
       </c>
-      <c r="M1348" s="4">
-        <v>44</v>
-      </c>
-      <c r="N1348" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1348" s="3">
-        <v>-0.16</v>
-      </c>
-      <c r="P1348" s="2"/>
-    </row>
-    <row r="1349" spans="1:16" ht="15.75" thickBot="1">
-      <c r="I1349" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="J1349" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1349" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="L1349" s="5">
+      <c r="E1370" s="4">
+        <v>49</v>
+      </c>
+      <c r="F1370" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1370" s="3">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="P1370" s="2"/>
+    </row>
+    <row r="1371" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1371" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1371" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1371" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="D1371" s="5">
         <v>0.01</v>
       </c>
-      <c r="M1349" s="4">
-        <v>60</v>
-      </c>
-      <c r="N1349" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1349" s="3"/>
-      <c r="P1349" s="2"/>
-    </row>
-    <row r="1350" spans="1:16" ht="15.75" thickBot="1">
-      <c r="I1350" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="J1350" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1350" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="L1350" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="M1350" s="4">
-        <v>49</v>
-      </c>
-      <c r="N1350" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1350" s="3">
-        <v>-0.49</v>
-      </c>
-      <c r="P1350" s="2"/>
-    </row>
-    <row r="1351" spans="1:16" ht="15.75" thickBot="1">
-      <c r="I1351" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="J1351" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1351" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="L1351" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="M1351" s="4">
-        <v>98</v>
-      </c>
-      <c r="N1351" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1351" s="3"/>
-      <c r="P1351" s="2"/>
-    </row>
-    <row r="1352" spans="1:16" ht="15.75" thickBot="1">
-      <c r="I1352" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="J1352" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1352" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="L1352" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="M1352" s="4">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="N1352" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1352" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="P1352" s="2"/>
-    </row>
-    <row r="1353" spans="1:16" ht="15.75" thickBot="1">
-      <c r="I1353" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="J1353" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1353" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="L1353" s="3">
-        <v>-0.19</v>
-      </c>
-      <c r="M1353" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="N1353" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1353" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="P1353" s="2"/>
-    </row>
-    <row r="1354" spans="1:16" ht="15.75" thickBot="1">
-      <c r="I1354" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="J1354" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1354" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="L1354" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="M1354" s="4">
-        <v>3.45</v>
-      </c>
-      <c r="N1354" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1354" s="3"/>
-      <c r="P1354" s="2"/>
-    </row>
-    <row r="1355" spans="1:16" ht="15.75" thickBot="1">
-      <c r="I1355" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="J1355" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1355" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="L1355" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="M1355" s="4">
-        <v>2.75</v>
-      </c>
-      <c r="N1355" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1355" s="3"/>
-      <c r="P1355" s="2"/>
-    </row>
-    <row r="1356" spans="1:16" ht="15.75" thickBot="1">
-      <c r="I1356" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="J1356" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1356" s="2" t="s">
-        <v>937</v>
-      </c>
-      <c r="L1356" s="3">
-        <v>-0.2</v>
-      </c>
-      <c r="M1356" s="4">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="N1356" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1356" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="P1356" s="2"/>
-    </row>
-    <row r="1357" spans="1:16" ht="15.75" thickBot="1">
-      <c r="I1357" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="J1357" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1357" s="2" t="s">
-        <v>937</v>
-      </c>
-      <c r="L1357" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="M1357" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="N1357" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1357" s="3"/>
-      <c r="P1357" s="2"/>
-    </row>
-    <row r="1358" spans="1:16" ht="15.75" thickBot="1">
-      <c r="I1358" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="J1358" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1358" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="L1358" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="M1358" s="4">
-        <v>123</v>
-      </c>
-      <c r="N1358" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1358" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="P1358" s="2"/>
-    </row>
-    <row r="1359" spans="1:16" ht="15.75" thickBot="1">
-      <c r="I1359" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="J1359" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1359" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="L1359" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="M1359" s="4">
-        <v>99</v>
-      </c>
-      <c r="N1359" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1359" s="3"/>
-      <c r="P1359" s="2"/>
-    </row>
-    <row r="1360" spans="1:16" ht="15.75" thickBot="1">
-      <c r="I1360" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="J1360" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1360" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="L1360" s="3">
-        <v>-0.19</v>
-      </c>
-      <c r="M1360" s="4">
-        <v>3</v>
-      </c>
-      <c r="N1360" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1360" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="P1360" s="2"/>
-    </row>
-    <row r="1361" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1361" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="J1361" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1361" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="L1361" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="M1361" s="4">
-        <v>2.95</v>
-      </c>
-      <c r="N1361" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1361" s="3"/>
-      <c r="P1361" s="2"/>
-    </row>
-    <row r="1362" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1362" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="J1362" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1362" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="L1362" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="M1362" s="4">
-        <v>20</v>
-      </c>
-      <c r="N1362" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1362" s="3">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="P1362" s="2"/>
-    </row>
-    <row r="1363" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1363" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="J1363" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1363" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="L1363" s="3">
-        <v>-0.19</v>
-      </c>
-      <c r="M1363" s="4">
-        <v>2</v>
-      </c>
-      <c r="N1363" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1363" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="P1363" s="2"/>
-    </row>
-    <row r="1364" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1364" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="J1364" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1364" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="L1364" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="M1364" s="4">
-        <v>48</v>
-      </c>
-      <c r="N1364" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1364" s="3"/>
-      <c r="P1364" s="2"/>
-    </row>
-    <row r="1365" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1365" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="J1365" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1365" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="L1365" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="M1365" s="4">
-        <v>1.85</v>
-      </c>
-      <c r="N1365" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1365" s="3"/>
-      <c r="P1365" s="2"/>
-    </row>
-    <row r="1366" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1366" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="J1366" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1366" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="L1366" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="M1366" s="4">
-        <v>81</v>
-      </c>
-      <c r="N1366" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1366" s="3">
-        <v>-0.4</v>
-      </c>
-      <c r="P1366" s="2"/>
-    </row>
-    <row r="1367" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1367" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="J1367" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1367" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="L1367" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="M1367" s="4">
-        <v>121</v>
-      </c>
-      <c r="N1367" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1367" s="3"/>
-      <c r="P1367" s="2"/>
-    </row>
-    <row r="1368" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1368" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="J1368" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1368" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="L1368" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="M1368" s="4">
-        <v>36</v>
-      </c>
-      <c r="N1368" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1368" s="3">
-        <v>-0.77</v>
-      </c>
-      <c r="P1368" s="2"/>
-    </row>
-    <row r="1369" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1369" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="J1369" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1369" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="L1369" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="M1369" s="4">
-        <v>113</v>
-      </c>
-      <c r="N1369" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1369" s="3"/>
-      <c r="P1369" s="2"/>
-    </row>
-    <row r="1370" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1370" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="J1370" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1370" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="L1370" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="M1370" s="4">
-        <v>40</v>
-      </c>
-      <c r="N1370" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1370" s="3">
-        <v>-0.15</v>
-      </c>
-      <c r="P1370" s="2"/>
-    </row>
-    <row r="1371" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1371" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="J1371" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1371" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="L1371" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="M1371" s="4">
-        <v>126</v>
-      </c>
-      <c r="N1371" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1371" s="5">
-        <v>0.15</v>
-      </c>
+      <c r="E1371" s="4">
+        <v>104</v>
+      </c>
+      <c r="F1371" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1371" s="3"/>
       <c r="P1371" s="2"/>
     </row>
-    <row r="1372" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1372" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="J1372" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1372" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="L1372" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="M1372" s="4">
-        <v>55</v>
-      </c>
-      <c r="N1372" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="1372" spans="1:16" ht="15.75" thickBot="1">
       <c r="O1372" s="3"/>
       <c r="P1372" s="2"/>
     </row>
-    <row r="1373" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1373" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="J1373" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1373" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="L1373" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="M1373" s="4">
-        <v>111</v>
-      </c>
-      <c r="N1373" s="2" t="s">
-        <v>5</v>
+    <row r="1373" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1373" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1373" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1373" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="D1373" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1373" s="4">
+        <v>90</v>
+      </c>
+      <c r="F1373" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1373" s="5">
+        <v>0.41</v>
       </c>
       <c r="O1373" s="3"/>
       <c r="P1373" s="2"/>
     </row>
-    <row r="1374" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1374" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="J1374" s="2" t="s">
+    <row r="1374" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1374" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="B1374" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1374" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="D1374" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1374" s="4">
+        <v>49</v>
+      </c>
+      <c r="F1374" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1374" s="3"/>
+      <c r="P1374" s="2"/>
+    </row>
+    <row r="1375" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1375" s="2"/>
+    </row>
+    <row r="1376" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1376" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="B1376" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="K1374" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="L1374" s="3">
+      <c r="C1376" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="D1376" s="3">
         <v>-0.01</v>
       </c>
-      <c r="M1374" s="4">
+      <c r="E1376" s="4">
+        <v>126</v>
+      </c>
+      <c r="F1376" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1376" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="P1376" s="2"/>
+    </row>
+    <row r="1377" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1377" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B1377" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1377" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="D1377" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1377" s="4">
+        <v>111</v>
+      </c>
+      <c r="F1377" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1377" s="2"/>
+    </row>
+    <row r="1378" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1378" s="2"/>
+    </row>
+    <row r="1379" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1379" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B1379" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1379" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="D1379" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1379" s="4">
+        <v>40</v>
+      </c>
+      <c r="F1379" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1379" s="3">
+        <v>-0.15</v>
+      </c>
+      <c r="P1379" s="2"/>
+    </row>
+    <row r="1380" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1380" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="B1380" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1380" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="D1380" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1380" s="4">
+        <v>55</v>
+      </c>
+      <c r="F1380" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1380" s="2"/>
+    </row>
+    <row r="1381" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1381" s="2"/>
+    </row>
+    <row r="1382" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1382" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B1382" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1382" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="D1382" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1382" s="4">
+        <v>36</v>
+      </c>
+      <c r="F1382" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1382" s="3">
+        <v>-0.77</v>
+      </c>
+      <c r="P1382" s="2"/>
+    </row>
+    <row r="1383" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1383" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1383" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1383" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="D1383" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1383" s="4">
+        <v>113</v>
+      </c>
+      <c r="F1383" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1383" s="3"/>
+      <c r="P1383" s="2"/>
+    </row>
+    <row r="1384" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1384" s="2"/>
+    </row>
+    <row r="1385" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1385" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B1385" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1385" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1385" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1385" s="4">
+        <v>81</v>
+      </c>
+      <c r="F1385" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1385" s="3">
+        <v>-0.4</v>
+      </c>
+      <c r="P1385" s="2"/>
+    </row>
+    <row r="1386" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1386" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B1386" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1386" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1386" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1386" s="4">
+        <v>121</v>
+      </c>
+      <c r="F1386" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1386" s="3"/>
+      <c r="P1386" s="2"/>
+    </row>
+    <row r="1387" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1387" s="2"/>
+    </row>
+    <row r="1388" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1388" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B1388" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1388" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="D1388" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E1388" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1388" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1388" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="P1388" s="2"/>
+    </row>
+    <row r="1389" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1389" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B1389" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1389" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="D1389" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E1389" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="F1389" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1389" s="2"/>
+    </row>
+    <row r="1390" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1390" s="2"/>
+    </row>
+    <row r="1391" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1391" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B1391" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1391" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="D1391" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1391" s="4">
+        <v>20</v>
+      </c>
+      <c r="F1391" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1391" s="3">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="P1391" s="2"/>
+    </row>
+    <row r="1392" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1392" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B1392" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1392" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="D1392" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1392" s="4">
+        <v>48</v>
+      </c>
+      <c r="F1392" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1392" s="2"/>
+    </row>
+    <row r="1393" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1393" s="2"/>
+    </row>
+    <row r="1394" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1394" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B1394" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1394" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="D1394" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E1394" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1394" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1394" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1395" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B1395" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1395" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="D1395" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E1395" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="F1395" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1395" s="3"/>
+      <c r="O1395" s="3"/>
+    </row>
+    <row r="1396" spans="1:16" ht="15.75" thickBot="1">
+      <c r="O1396" s="3"/>
+    </row>
+    <row r="1397" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1397" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B1397" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1397" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="D1397" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1397" s="4">
+        <v>123</v>
+      </c>
+      <c r="F1397" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1397" s="5">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1398" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B1398" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1398" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="D1398" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1398" s="4">
+        <v>99</v>
+      </c>
+      <c r="F1398" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1398" s="3"/>
+    </row>
+    <row r="1399" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="1400" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1400" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B1400" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1400" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="D1400" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E1400" s="4">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F1400" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1400" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1401" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B1401" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1401" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="D1401" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E1401" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="F1401" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1401" s="3"/>
+    </row>
+    <row r="1402" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="1403" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1403" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1403" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1403" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="D1403" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E1403" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="F1403" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1403" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1404" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B1404" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1404" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="D1404" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E1404" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="F1404" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:16" ht="15.75" thickBot="1">
+      <c r="O1405" s="3"/>
+    </row>
+    <row r="1406" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1406" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1406" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1406" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="D1406" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="E1406" s="4">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F1406" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1406" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="O1406" s="3"/>
+    </row>
+    <row r="1407" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1407" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B1407" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1407" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="D1407" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E1407" s="4">
+        <v>3.45</v>
+      </c>
+      <c r="F1407" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="1409" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1409" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B1409" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1409" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="D1409" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1409" s="4">
         <v>49</v>
       </c>
-      <c r="N1374" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1374" s="3">
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="P1374" s="2"/>
-    </row>
-    <row r="1375" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1375" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="J1375" s="2" t="s">
+      <c r="F1409" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1409" s="3">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1410" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1410" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1410" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="D1410" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1410" s="4">
+        <v>98</v>
+      </c>
+      <c r="F1410" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1410" s="3"/>
+    </row>
+    <row r="1411" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="1412" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1412" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B1412" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1375" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="L1375" s="3">
+      <c r="C1412" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="D1412" s="3">
         <v>-0.01</v>
       </c>
-      <c r="M1375" s="4">
-        <v>90</v>
-      </c>
-      <c r="N1375" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1375" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="P1375" s="2"/>
-    </row>
-    <row r="1376" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1376" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="J1376" s="2" t="s">
+      <c r="E1412" s="4">
+        <v>44</v>
+      </c>
+      <c r="F1412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1412" s="3">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1413" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B1413" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1376" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="L1376" s="5">
+      <c r="C1413" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="D1413" s="5">
         <v>0.01</v>
       </c>
-      <c r="M1376" s="4">
-        <v>49</v>
-      </c>
-      <c r="N1376" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1376" s="3"/>
-      <c r="P1376" s="2"/>
-    </row>
-    <row r="1377" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1377" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="J1377" s="2" t="s">
+      <c r="E1413" s="4">
+        <v>60</v>
+      </c>
+      <c r="F1413" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1413" s="3"/>
+    </row>
+    <row r="1414" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="1415" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1415" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B1415" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1415" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="D1415" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1415" s="4">
+        <v>47</v>
+      </c>
+      <c r="F1415" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1415" s="3">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1416" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="B1416" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1416" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="D1416" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1416" s="4">
+        <v>53</v>
+      </c>
+      <c r="F1416" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1416" s="3"/>
+    </row>
+    <row r="1417" spans="1:16" ht="15.75" thickBot="1">
+      <c r="I1417" s="42"/>
+      <c r="J1417" s="42"/>
+      <c r="K1417" s="42"/>
+      <c r="L1417" s="42"/>
+      <c r="M1417" s="42"/>
+      <c r="N1417" s="42"/>
+      <c r="O1417" s="42"/>
+      <c r="P1417" s="42"/>
+    </row>
+    <row r="1418" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1418" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1418" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1418" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1418" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E1418" s="4">
+        <v>5</v>
+      </c>
+      <c r="F1418" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1418" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="P1418" s="2"/>
+    </row>
+    <row r="1419" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1419" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B1419" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1419" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1419" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E1419" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1419" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1419" s="3"/>
+      <c r="P1419" s="2"/>
+    </row>
+    <row r="1420" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1420" s="2"/>
+    </row>
+    <row r="1421" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1421" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B1421" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="K1377" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="L1377" s="5">
+      <c r="C1421" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1421" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E1421" s="4">
+        <v>64</v>
+      </c>
+      <c r="F1421" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1421" s="3">
+        <v>-1.18</v>
+      </c>
+      <c r="P1421" s="2"/>
+    </row>
+    <row r="1422" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1422" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B1422" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1422" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1422" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E1422" s="4">
+        <v>123</v>
+      </c>
+      <c r="F1422" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1422" s="3"/>
+      <c r="P1422" s="2"/>
+    </row>
+    <row r="1423" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1423" s="2"/>
+    </row>
+    <row r="1424" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1424" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1424" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1424" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D1424" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1424" s="4">
+        <v>45</v>
+      </c>
+      <c r="F1424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1424" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="P1424" s="2"/>
+    </row>
+    <row r="1425" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1425" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1425" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1425" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D1425" s="5">
         <v>0.01</v>
       </c>
-      <c r="M1377" s="4">
-        <v>104</v>
-      </c>
-      <c r="N1377" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1377" s="3"/>
-      <c r="P1377" s="2"/>
-    </row>
-    <row r="1378" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1378" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="J1378" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1378" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="L1378" s="3">
+      <c r="E1425" s="4">
+        <v>43</v>
+      </c>
+      <c r="F1425" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1425" s="3"/>
+      <c r="P1425" s="2"/>
+    </row>
+    <row r="1426" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1426" s="2"/>
+    </row>
+    <row r="1427" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1427" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1427" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1427" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D1427" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1427" s="4">
+        <v>75</v>
+      </c>
+      <c r="F1427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1427" s="3">
         <v>-0.19</v>
       </c>
-      <c r="M1378" s="4">
-        <v>2</v>
-      </c>
-      <c r="N1378" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1378" s="3">
-        <v>-0.15</v>
-      </c>
-      <c r="P1378" s="2"/>
-    </row>
-    <row r="1379" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1379" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="J1379" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1379" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="L1379" s="5">
+      <c r="P1427" s="2"/>
+    </row>
+    <row r="1428" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1428" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1428" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1428" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D1428" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1428" s="4">
+        <v>94</v>
+      </c>
+      <c r="F1428" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1428" s="3"/>
+      <c r="P1428" s="2"/>
+    </row>
+    <row r="1429" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1429" s="2"/>
+    </row>
+    <row r="1430" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1430" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1430" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1430" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1430" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1430" s="4">
+        <v>128</v>
+      </c>
+      <c r="F1430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1430" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="P1430" s="2"/>
+    </row>
+    <row r="1431" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1431" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1431" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1431" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1431" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1431" s="4">
+        <v>105</v>
+      </c>
+      <c r="F1431" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1431" s="3"/>
+      <c r="P1431" s="2"/>
+    </row>
+    <row r="1432" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1432" s="2"/>
+    </row>
+    <row r="1433" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1433" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1433" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1433" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D1433" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1433" s="4">
+        <v>144</v>
+      </c>
+      <c r="F1433" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1433" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P1433" s="2"/>
+    </row>
+    <row r="1434" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1434" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1434" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1434" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D1434" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1434" s="4">
+        <v>86</v>
+      </c>
+      <c r="F1434" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1434" s="3"/>
+      <c r="P1434" s="2"/>
+    </row>
+    <row r="1435" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1435" s="2"/>
+    </row>
+    <row r="1436" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1436" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B1436" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1436" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D1436" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1436" s="4">
+        <v>25</v>
+      </c>
+      <c r="F1436" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1436" s="3">
+        <v>-0.76</v>
+      </c>
+      <c r="P1436" s="2"/>
+    </row>
+    <row r="1437" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1437" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B1437" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1437" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D1437" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1437" s="4">
+        <v>101</v>
+      </c>
+      <c r="F1437" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1437" s="2"/>
+    </row>
+    <row r="1438" spans="1:16" ht="15.75" thickBot="1">
+      <c r="O1438" s="3"/>
+      <c r="P1438" s="2"/>
+    </row>
+    <row r="1439" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1439" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B1439" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1439" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D1439" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1439" s="4">
+        <v>59</v>
+      </c>
+      <c r="F1439" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1439" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="O1439" s="3"/>
+      <c r="P1439" s="2"/>
+    </row>
+    <row r="1440" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1440" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1440" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1440" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D1440" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1440" s="4">
+        <v>57</v>
+      </c>
+      <c r="F1440" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1440" s="2"/>
+    </row>
+    <row r="1441" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1441" s="2"/>
+    </row>
+    <row r="1442" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1442" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1442" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1442" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="D1442" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E1442" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="F1442" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1442" s="3">
+        <v>-0.13</v>
+      </c>
+      <c r="P1442" s="2"/>
+    </row>
+    <row r="1443" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1443" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1443" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1443" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="D1443" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E1443" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="F1443" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1443" s="3"/>
+      <c r="P1443" s="2"/>
+    </row>
+    <row r="1444" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1444" s="2"/>
+    </row>
+    <row r="1445" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1445" s="11">
+        <v>44931.624305555553</v>
+      </c>
+      <c r="B1445" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1445" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="D1445" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E1445" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1445" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1445" s="3">
+        <v>-0.26</v>
+      </c>
+      <c r="P1445" s="2"/>
+    </row>
+    <row r="1446" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1446" s="11">
+        <v>44931.558333333334</v>
+      </c>
+      <c r="B1446" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1446" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="D1446" s="5">
         <v>0.19</v>
       </c>
-      <c r="M1379" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="N1379" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1379" s="3"/>
-      <c r="P1379" s="2"/>
-    </row>
-    <row r="1380" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1380" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="J1380" s="2" t="s">
+      <c r="E1446" s="4">
+        <v>2.35</v>
+      </c>
+      <c r="F1446" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1446" s="3"/>
+      <c r="P1446" s="2"/>
+    </row>
+    <row r="1447" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1447" s="2"/>
+    </row>
+    <row r="1448" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1448" s="11">
+        <v>44931.752083333333</v>
+      </c>
+      <c r="B1448" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1448" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="D1448" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1448" s="4">
+        <v>139</v>
+      </c>
+      <c r="F1448" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1448" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="I1448" s="2"/>
+      <c r="J1448" s="2"/>
+      <c r="K1448" s="2"/>
+      <c r="L1448" s="3"/>
+      <c r="M1448" s="4"/>
+      <c r="N1448" s="2"/>
+      <c r="O1448" s="3"/>
+      <c r="P1448" s="2"/>
+    </row>
+    <row r="1449" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1449" s="11">
+        <v>44931.730555555558</v>
+      </c>
+      <c r="B1449" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1449" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="D1449" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1449" s="4">
+        <v>113</v>
+      </c>
+      <c r="F1449" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1449" s="3"/>
+      <c r="I1449" s="2"/>
+      <c r="J1449" s="2"/>
+      <c r="K1449" s="2"/>
+      <c r="L1449" s="5"/>
+      <c r="M1449" s="4"/>
+      <c r="N1449" s="2"/>
+      <c r="O1449" s="3"/>
+      <c r="P1449" s="2"/>
+    </row>
+    <row r="1450" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P1450" s="2"/>
+    </row>
+    <row r="1451" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1451" s="11">
+        <v>45082.577777777777</v>
+      </c>
+      <c r="B1451" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1451" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="D1451" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1451" s="4">
+        <v>107</v>
+      </c>
+      <c r="F1451" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1451" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="P1451" s="2"/>
+    </row>
+    <row r="1452" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1452" s="11">
+        <v>45082.504166666666</v>
+      </c>
+      <c r="B1452" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1452" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="D1452" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1452" s="4">
+        <v>108</v>
+      </c>
+      <c r="F1452" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1452" s="3"/>
+    </row>
+    <row r="1453" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="1454" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1454" s="11">
+        <v>45082.628472222219</v>
+      </c>
+      <c r="B1454" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1454" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="D1454" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1454" s="4">
+        <v>107</v>
+      </c>
+      <c r="F1454" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1454" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1455" s="11">
+        <v>45082.605555555558</v>
+      </c>
+      <c r="B1455" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1455" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="D1455" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1455" s="4">
+        <v>102</v>
+      </c>
+      <c r="F1455" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1455" s="3"/>
+    </row>
+    <row r="1456" spans="1:16" ht="15.75" thickBot="1">
+      <c r="I1456" s="11"/>
+      <c r="J1456" s="2"/>
+      <c r="K1456" s="2"/>
+      <c r="L1456" s="3"/>
+      <c r="M1456" s="4"/>
+      <c r="N1456" s="2"/>
+      <c r="O1456" s="3"/>
+    </row>
+    <row r="1457" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1457" s="11">
+        <v>45112.560416666667</v>
+      </c>
+      <c r="B1457" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1380" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="L1380" s="3">
+      <c r="C1457" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="D1457" s="3">
         <v>-0.01</v>
       </c>
-      <c r="M1380" s="4">
-        <v>75</v>
-      </c>
-      <c r="N1380" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1380" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P1380" s="2"/>
-    </row>
-    <row r="1381" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1381" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="J1381" s="2" t="s">
+      <c r="E1457" s="4">
+        <v>30</v>
+      </c>
+      <c r="F1457" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1457" s="3">
+        <v>-0.22</v>
+      </c>
+      <c r="I1457" s="11"/>
+      <c r="J1457" s="2"/>
+      <c r="K1457" s="2"/>
+      <c r="L1457" s="5"/>
+      <c r="M1457" s="4"/>
+      <c r="N1457" s="2"/>
+      <c r="O1457" s="3"/>
+    </row>
+    <row r="1458" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1458" s="11">
+        <v>45112.487500000003</v>
+      </c>
+      <c r="B1458" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1381" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="L1381" s="5">
+      <c r="C1458" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="D1458" s="5">
         <v>0.01</v>
       </c>
-      <c r="M1381" s="4">
-        <v>68</v>
-      </c>
-      <c r="N1381" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1381" s="3"/>
-      <c r="P1381" s="2"/>
-    </row>
-    <row r="1382" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1382" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="J1382" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1382" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="L1382" s="3">
-        <v>-0.18</v>
-      </c>
-      <c r="M1382" s="4">
-        <v>5</v>
-      </c>
-      <c r="N1382" s="2" t="s">
+      <c r="E1458" s="4">
+        <v>52</v>
+      </c>
+      <c r="F1458" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1458" s="3"/>
+    </row>
+    <row r="1459" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="1460" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1460" s="11">
+        <v>45112.693055555559</v>
+      </c>
+      <c r="B1460" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1460" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="D1460" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E1460" s="4">
+        <v>155</v>
+      </c>
+      <c r="F1460" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O1382" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="P1382" s="2"/>
-    </row>
-    <row r="1383" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1383" s="2" t="s">
-        <v>975</v>
-      </c>
-      <c r="J1383" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1383" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="L1383" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="M1383" s="4">
-        <v>3.05</v>
-      </c>
-      <c r="N1383" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1383" s="3"/>
-      <c r="P1383" s="2"/>
-    </row>
-    <row r="1384" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1384" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="J1384" s="2" t="s">
+      <c r="G1460" s="5">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1461" s="11">
+        <v>45112.684027777781</v>
+      </c>
+      <c r="B1461" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="K1384" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="L1384" s="3">
+      <c r="C1461" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="D1461" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E1461" s="4">
+        <v>117</v>
+      </c>
+      <c r="F1461" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1461" s="3"/>
+    </row>
+    <row r="1462" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="1463" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1463" s="11">
+        <v>45112.872916666667</v>
+      </c>
+      <c r="B1463" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1463" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="D1463" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E1463" s="4">
+        <v>121</v>
+      </c>
+      <c r="F1463" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1463" s="5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1464" s="11">
+        <v>45112.794444444444</v>
+      </c>
+      <c r="B1464" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1464" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="D1464" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E1464" s="4">
+        <v>117</v>
+      </c>
+      <c r="F1464" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1464" s="3"/>
+    </row>
+    <row r="1465" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="1466" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1466" s="11">
+        <v>45143.856944444444</v>
+      </c>
+      <c r="B1466" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1466" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="D1466" s="3">
         <v>-0.01</v>
       </c>
-      <c r="M1384" s="4">
-        <v>116</v>
-      </c>
-      <c r="N1384" s="2" t="s">
+      <c r="E1466" s="4">
+        <v>150</v>
+      </c>
+      <c r="F1466" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O1384" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="P1384" s="2"/>
-    </row>
-    <row r="1385" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1385" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="J1385" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1385" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="L1385" s="3">
-        <v>-0.2</v>
-      </c>
-      <c r="M1385" s="4">
-        <v>4</v>
-      </c>
-      <c r="N1385" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1385" s="5">
-        <v>0.26</v>
-      </c>
-      <c r="P1385" s="2"/>
-    </row>
-    <row r="1386" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1386" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="J1386" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1386" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="L1386" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="M1386" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="N1386" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1386" s="3"/>
-      <c r="P1386" s="2"/>
-    </row>
-    <row r="1387" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1387" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="J1387" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1387" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="L1387" s="5">
+      <c r="G1466" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1467" s="11">
+        <v>45143.84097222222</v>
+      </c>
+      <c r="B1467" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1467" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="D1467" s="5">
         <v>0.01</v>
       </c>
-      <c r="M1387" s="4">
-        <v>106</v>
-      </c>
-      <c r="N1387" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1387" s="3"/>
-      <c r="P1387" s="2"/>
-    </row>
-    <row r="1388" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1388" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="J1388" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1388" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="L1388" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="M1388" s="4">
-        <v>142</v>
-      </c>
-      <c r="N1388" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1388" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="P1388" s="2"/>
-    </row>
-    <row r="1389" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1389" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="J1389" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1389" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="L1389" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="M1389" s="4">
-        <v>123</v>
-      </c>
-      <c r="N1389" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1389" s="3"/>
-      <c r="P1389" s="2"/>
-    </row>
-    <row r="1390" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1390" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="J1390" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1390" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="L1390" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="M1390" s="4">
-        <v>25</v>
-      </c>
-      <c r="N1390" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1390" s="3">
-        <v>-0.88</v>
-      </c>
-      <c r="P1390" s="2"/>
-    </row>
-    <row r="1391" spans="9:16" ht="15.75" thickBot="1">
-      <c r="P1391" s="2"/>
-    </row>
-    <row r="1392" spans="9:16" ht="15.75" thickBot="1">
-      <c r="I1392" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="J1392" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1392" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="L1392" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="M1392" s="4">
-        <v>113</v>
-      </c>
-      <c r="N1392" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1392" s="3"/>
-      <c r="P1392" s="2"/>
-    </row>
-    <row r="1393" spans="15:16" ht="15.75" thickBot="1">
-      <c r="O1393" s="3"/>
-      <c r="P1393" s="2"/>
+      <c r="E1467" s="4">
+        <v>36</v>
+      </c>
+      <c r="F1467" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1467" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spreadex.xlsx
+++ b/spreadex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD8E5E6-6886-40E6-811A-F264F0960016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E90A2E-9583-4F12-8252-429327807227}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="802" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4861" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5015" uniqueCount="1079">
   <si>
     <t>24/11/2022 20:55</t>
   </si>
@@ -3117,6 +3117,171 @@
   </si>
   <si>
     <t>26/04/2023 19:47</t>
+  </si>
+  <si>
+    <t>Galatasaray v Fenerbahce</t>
+  </si>
+  <si>
+    <t>Sassuolo v Fiorentina</t>
+  </si>
+  <si>
+    <t>31/05/2023 22:00</t>
+  </si>
+  <si>
+    <t>Sevilla v Roma</t>
+  </si>
+  <si>
+    <t>31/05/2023 19:32</t>
+  </si>
+  <si>
+    <t>30/05/2023 19:59</t>
+  </si>
+  <si>
+    <t>Istanbulspor v Adana Demirspor</t>
+  </si>
+  <si>
+    <t>30/05/2023 18:23</t>
+  </si>
+  <si>
+    <t>22/05/2023 21:56</t>
+  </si>
+  <si>
+    <t>Newcastle v Leicester</t>
+  </si>
+  <si>
+    <t>22/05/2023 20:03</t>
+  </si>
+  <si>
+    <t>21/05/2023 17:16</t>
+  </si>
+  <si>
+    <t>Augsburg v Dortmund</t>
+  </si>
+  <si>
+    <t>21/05/2023 16:31</t>
+  </si>
+  <si>
+    <t>20/05/2023 19:26</t>
+  </si>
+  <si>
+    <t>Bayern Munich v RB Leipzig</t>
+  </si>
+  <si>
+    <t>20/05/2023 17:44</t>
+  </si>
+  <si>
+    <t>20/05/2023 14:31</t>
+  </si>
+  <si>
+    <t>Corners x Bookings</t>
+  </si>
+  <si>
+    <t>Tottenham v Brentford</t>
+  </si>
+  <si>
+    <t>20/05/2023 12:37</t>
+  </si>
+  <si>
+    <t>18/05/2023 20:06</t>
+  </si>
+  <si>
+    <t>Newcastle v Brighton</t>
+  </si>
+  <si>
+    <t>18/05/2023 19:34</t>
+  </si>
+  <si>
+    <t>17/05/2023 18:45</t>
+  </si>
+  <si>
+    <t>Fatih Karagumruk v Adana Demirspor</t>
+  </si>
+  <si>
+    <t>17/05/2023 18:35</t>
+  </si>
+  <si>
+    <t>16/05/2023 20:14</t>
+  </si>
+  <si>
+    <t>Istanbulspor v Galatasaray</t>
+  </si>
+  <si>
+    <t>16/05/2023 18:30</t>
+  </si>
+  <si>
+    <t>16/05/2023 16:51</t>
+  </si>
+  <si>
+    <t>Sivasspor v Kasimpasa</t>
+  </si>
+  <si>
+    <t>16/05/2023 15:39</t>
+  </si>
+  <si>
+    <t>15/05/2023 21:53</t>
+  </si>
+  <si>
+    <t>Leicester v Liverpool</t>
+  </si>
+  <si>
+    <t>15/05/2023 20:03</t>
+  </si>
+  <si>
+    <t>14/05/2023 20:42</t>
+  </si>
+  <si>
+    <t>Espanyol v Barcelona</t>
+  </si>
+  <si>
+    <t>14/05/2023 20:01</t>
+  </si>
+  <si>
+    <t>14/05/2023 14:14</t>
+  </si>
+  <si>
+    <t>Celta Vigo v Valencia</t>
+  </si>
+  <si>
+    <t>14/05/2023 13:01</t>
+  </si>
+  <si>
+    <t>13/05/2023 18:44</t>
+  </si>
+  <si>
+    <t>Dortmund v M'Gladbach</t>
+  </si>
+  <si>
+    <t>13/05/2023 18:43</t>
+  </si>
+  <si>
+    <t>Spezia v AC Milan</t>
+  </si>
+  <si>
+    <t>13/05/2023 17:31</t>
+  </si>
+  <si>
+    <t>13/05/2023 17:24</t>
+  </si>
+  <si>
+    <t>13/05/2023 16:40</t>
+  </si>
+  <si>
+    <t>Chelsea v Nottingham Forest</t>
+  </si>
+  <si>
+    <t>13/05/2023 15:22</t>
+  </si>
+  <si>
+    <t>13/05/2023 14:27</t>
+  </si>
+  <si>
+    <t>Leeds v Newcastle</t>
+  </si>
+  <si>
+    <t>13/05/2023 12:44</t>
+  </si>
+  <si>
+    <t>Juventus v Sevilla</t>
   </si>
 </sst>
 </file>
@@ -3367,10 +3532,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3685,13 +3850,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2ACDE7-BC8B-432A-9773-10E95E9E94B1}">
-  <dimension ref="A1:V1467"/>
+  <dimension ref="A1:V1507"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1435" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1465" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K1464" sqref="K1464"/>
+      <selection pane="bottomRight" activeCell="B1482" sqref="B1482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27338,14 +27503,14 @@
       <c r="G1416" s="3"/>
     </row>
     <row r="1417" spans="1:16" ht="15.75" thickBot="1">
-      <c r="I1417" s="42"/>
-      <c r="J1417" s="42"/>
-      <c r="K1417" s="42"/>
-      <c r="L1417" s="42"/>
-      <c r="M1417" s="42"/>
-      <c r="N1417" s="42"/>
-      <c r="O1417" s="42"/>
-      <c r="P1417" s="42"/>
+      <c r="I1417" s="41"/>
+      <c r="J1417" s="41"/>
+      <c r="K1417" s="41"/>
+      <c r="L1417" s="41"/>
+      <c r="M1417" s="41"/>
+      <c r="N1417" s="41"/>
+      <c r="O1417" s="41"/>
+      <c r="P1417" s="41"/>
     </row>
     <row r="1418" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1418" s="2" t="s">
@@ -27999,7 +28164,7 @@
       <c r="N1456" s="2"/>
       <c r="O1456" s="3"/>
     </row>
-    <row r="1457" spans="1:15" ht="15.75" thickBot="1">
+    <row r="1457" spans="1:17" ht="15.75" thickBot="1">
       <c r="A1457" s="11">
         <v>45112.560416666667</v>
       </c>
@@ -28029,7 +28194,7 @@
       <c r="N1457" s="2"/>
       <c r="O1457" s="3"/>
     </row>
-    <row r="1458" spans="1:15" ht="15.75" thickBot="1">
+    <row r="1458" spans="1:17" ht="15.75" thickBot="1">
       <c r="A1458" s="11">
         <v>45112.487500000003</v>
       </c>
@@ -28050,8 +28215,8 @@
       </c>
       <c r="G1458" s="3"/>
     </row>
-    <row r="1459" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="1460" spans="1:15" ht="15.75" thickBot="1">
+    <row r="1459" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1460" spans="1:17" ht="15.75" thickBot="1">
       <c r="A1460" s="11">
         <v>45112.693055555559</v>
       </c>
@@ -28074,7 +28239,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="1461" spans="1:15" ht="15.75" thickBot="1">
+    <row r="1461" spans="1:17" ht="15.75" thickBot="1">
       <c r="A1461" s="11">
         <v>45112.684027777781</v>
       </c>
@@ -28095,8 +28260,8 @@
       </c>
       <c r="G1461" s="3"/>
     </row>
-    <row r="1462" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="1463" spans="1:15" ht="15.75" thickBot="1">
+    <row r="1462" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1463" spans="1:17" ht="15.75" thickBot="1">
       <c r="A1463" s="11">
         <v>45112.872916666667</v>
       </c>
@@ -28119,7 +28284,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="1464" spans="1:15" ht="15.75" thickBot="1">
+    <row r="1464" spans="1:17" ht="15.75" thickBot="1">
       <c r="A1464" s="11">
         <v>45112.794444444444</v>
       </c>
@@ -28140,8 +28305,8 @@
       </c>
       <c r="G1464" s="3"/>
     </row>
-    <row r="1465" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="1466" spans="1:15" ht="15.75" thickBot="1">
+    <row r="1465" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1466" spans="1:17" ht="15.75" thickBot="1">
       <c r="A1466" s="11">
         <v>45143.856944444444</v>
       </c>
@@ -28164,7 +28329,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="1467" spans="1:15" ht="15.75" thickBot="1">
+    <row r="1467" spans="1:17" ht="15.75" thickBot="1">
       <c r="A1467" s="11">
         <v>45143.84097222222</v>
       </c>
@@ -28184,6 +28349,934 @@
         <v>5</v>
       </c>
       <c r="G1467" s="3"/>
+      <c r="J1467" s="1"/>
+      <c r="K1467" s="1"/>
+      <c r="L1467" s="1"/>
+      <c r="M1467" s="1"/>
+      <c r="N1467" s="1"/>
+      <c r="O1467" s="1"/>
+      <c r="P1467" s="1"/>
+      <c r="Q1467" s="1"/>
+    </row>
+    <row r="1468" spans="1:17" ht="15.75" thickBot="1">
+      <c r="J1468" s="11">
+        <v>45022.779861111114</v>
+      </c>
+      <c r="K1468" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1468" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M1468" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="N1468" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="O1468" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1468" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="Q1468" s="2"/>
+    </row>
+    <row r="1469" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1469" s="11">
+        <v>45235.915972222225</v>
+      </c>
+      <c r="B1469" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1469" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1469" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="E1469" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1469" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1469" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1469" s="11">
+        <v>45022.720138888886</v>
+      </c>
+      <c r="K1469" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1469" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M1469" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="N1469" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="O1469" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1469" s="3"/>
+      <c r="Q1469" s="2"/>
+    </row>
+    <row r="1470" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1470" s="11">
+        <v>45235.85</v>
+      </c>
+      <c r="B1470" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1470" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1470" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E1470" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1470" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1470" s="1"/>
+      <c r="J1470" s="11">
+        <v>44963.875</v>
+      </c>
+      <c r="K1470" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1470" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="M1470" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="N1470" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="O1470" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1470" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Q1470" s="2"/>
+    </row>
+    <row r="1471" spans="1:17" ht="15.75" thickBot="1">
+      <c r="J1471" s="11">
+        <v>44963.838888888888</v>
+      </c>
+      <c r="K1471" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1471" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="M1471" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="N1471" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="O1471" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1471" s="3"/>
+      <c r="Q1471" s="2"/>
+    </row>
+    <row r="1472" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1472" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1472" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1472" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D1472" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1472" s="4">
+        <v>64</v>
+      </c>
+      <c r="F1472" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1472" s="3">
+        <v>-0.45</v>
+      </c>
+      <c r="J1472" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K1472" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1472" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M1472" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="N1472" s="4">
+        <v>25</v>
+      </c>
+      <c r="O1472" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1472" s="3">
+        <v>-0.82</v>
+      </c>
+      <c r="Q1472" s="2"/>
+    </row>
+    <row r="1473" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1473" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B1473" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1473" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D1473" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1473" s="4">
+        <v>109</v>
+      </c>
+      <c r="F1473" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1473" s="3"/>
+      <c r="J1473" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K1473" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1473" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M1473" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N1473" s="4">
+        <v>107</v>
+      </c>
+      <c r="O1473" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1473" s="3"/>
+      <c r="Q1473" s="2"/>
+    </row>
+    <row r="1474" spans="1:17" ht="15.75" thickBot="1">
+      <c r="J1474" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K1474" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1474" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M1474" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="N1474" s="4">
+        <v>2</v>
+      </c>
+      <c r="O1474" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1474" s="3">
+        <v>-0.23</v>
+      </c>
+      <c r="Q1474" s="2"/>
+    </row>
+    <row r="1475" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1475" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1475" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1475" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D1475" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="E1475" s="4">
+        <v>39</v>
+      </c>
+      <c r="F1475" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1475" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J1475" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="K1475" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1475" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M1475" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="N1475" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="O1475" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1475" s="3"/>
+      <c r="Q1475" s="2"/>
+    </row>
+    <row r="1476" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1476" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B1476" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1476" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D1476" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E1476" s="4">
+        <v>38</v>
+      </c>
+      <c r="F1476" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1476" s="3"/>
+      <c r="J1476" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K1476" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="L1476" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M1476" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="N1476" s="4">
+        <v>0</v>
+      </c>
+      <c r="O1476" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1476" s="3">
+        <v>-3.65</v>
+      </c>
+      <c r="Q1476" s="2"/>
+    </row>
+    <row r="1477" spans="1:17" ht="15.75" thickBot="1">
+      <c r="J1477" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K1477" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="L1477" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M1477" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="N1477" s="4">
+        <v>73</v>
+      </c>
+      <c r="O1477" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1477" s="3"/>
+      <c r="Q1477" s="2"/>
+    </row>
+    <row r="1478" spans="1:17" ht="15.75" thickBot="1">
+      <c r="J1478" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K1478" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1478" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="M1478" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="N1478" s="4">
+        <v>165</v>
+      </c>
+      <c r="O1478" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1478" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="Q1478" s="2"/>
+    </row>
+    <row r="1479" spans="1:17" ht="15.75" thickBot="1">
+      <c r="J1479" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1479" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1479" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="M1479" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="N1479" s="4">
+        <v>117</v>
+      </c>
+      <c r="O1479" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1479" s="3"/>
+      <c r="Q1479" s="2"/>
+    </row>
+    <row r="1480" spans="1:17" ht="15.75" thickBot="1">
+      <c r="J1480" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K1480" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1480" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M1480" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="N1480" s="4">
+        <v>20</v>
+      </c>
+      <c r="O1480" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1480" s="3">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="Q1480" s="2"/>
+    </row>
+    <row r="1481" spans="1:17" ht="15.75" thickBot="1">
+      <c r="J1481" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="K1481" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1481" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M1481" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="N1481" s="4">
+        <v>43</v>
+      </c>
+      <c r="O1481" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1481" s="3"/>
+      <c r="Q1481" s="2"/>
+    </row>
+    <row r="1482" spans="1:17" ht="15.75" thickBot="1">
+      <c r="J1482" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K1482" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L1482" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M1482" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="N1482" s="4">
+        <v>200</v>
+      </c>
+      <c r="O1482" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1482" s="3">
+        <v>-1.9</v>
+      </c>
+      <c r="Q1482" s="2"/>
+    </row>
+    <row r="1483" spans="1:17" ht="15.75" thickBot="1">
+      <c r="J1483" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K1483" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L1483" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M1483" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N1483" s="4">
+        <v>390</v>
+      </c>
+      <c r="O1483" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1483" s="3"/>
+      <c r="Q1483" s="2"/>
+    </row>
+    <row r="1484" spans="1:17" ht="15.75" thickBot="1">
+      <c r="J1484" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K1484" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1484" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M1484" s="3">
+        <v>-0.03</v>
+      </c>
+      <c r="N1484" s="4">
+        <v>163</v>
+      </c>
+      <c r="O1484" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1484" s="5">
+        <v>1.35</v>
+      </c>
+      <c r="Q1484" s="2"/>
+    </row>
+    <row r="1485" spans="1:17" ht="15.75" thickBot="1">
+      <c r="J1485" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K1485" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1485" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M1485" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="N1485" s="4">
+        <v>118</v>
+      </c>
+      <c r="O1485" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1485" s="3"/>
+      <c r="Q1485" s="2"/>
+    </row>
+    <row r="1486" spans="1:17" ht="15.75" thickBot="1">
+      <c r="J1486" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K1486" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1486" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M1486" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="N1486" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="O1486" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1486" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Q1486" s="2"/>
+    </row>
+    <row r="1487" spans="1:17" ht="15.75" thickBot="1">
+      <c r="J1487" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K1487" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1487" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M1487" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="N1487" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="O1487" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1487" s="3"/>
+      <c r="Q1487" s="2"/>
+    </row>
+    <row r="1488" spans="1:17" ht="15.75" thickBot="1">
+      <c r="J1488" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K1488" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1488" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M1488" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="N1488" s="4">
+        <v>2</v>
+      </c>
+      <c r="O1488" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1488" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="Q1488" s="2"/>
+    </row>
+    <row r="1489" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1489" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K1489" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1489" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M1489" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="N1489" s="4">
+        <v>3</v>
+      </c>
+      <c r="O1489" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1489" s="3"/>
+      <c r="Q1489" s="2"/>
+    </row>
+    <row r="1490" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1490" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K1490" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1490" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M1490" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="N1490" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="O1490" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1490" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="Q1490" s="2"/>
+    </row>
+    <row r="1491" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1491" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K1491" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1491" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M1491" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="N1491" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="O1491" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1491" s="3"/>
+      <c r="Q1491" s="2"/>
+    </row>
+    <row r="1492" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1492" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K1492" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="L1492" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M1492" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="N1492" s="4">
+        <v>27</v>
+      </c>
+      <c r="O1492" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1492" s="3">
+        <v>-0.84</v>
+      </c>
+      <c r="Q1492" s="2"/>
+    </row>
+    <row r="1493" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1493" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K1493" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="L1493" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M1493" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="N1493" s="4">
+        <v>69</v>
+      </c>
+      <c r="O1493" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1493" s="3"/>
+      <c r="Q1493" s="2"/>
+    </row>
+    <row r="1494" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1494" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K1494" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1494" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M1494" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="N1494" s="4">
+        <v>131</v>
+      </c>
+      <c r="O1494" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1494" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="Q1494" s="2"/>
+    </row>
+    <row r="1495" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1495" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K1495" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1495" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M1495" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N1495" s="4">
+        <v>108</v>
+      </c>
+      <c r="O1495" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1495" s="3"/>
+      <c r="Q1495" s="2"/>
+    </row>
+    <row r="1496" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1496" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="K1496" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1496" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="M1496" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="N1496" s="4">
+        <v>147</v>
+      </c>
+      <c r="O1496" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1496" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="Q1496" s="2"/>
+    </row>
+    <row r="1497" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1497" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K1497" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1497" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="M1497" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N1497" s="4">
+        <v>112</v>
+      </c>
+      <c r="O1497" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1497" s="3"/>
+      <c r="Q1497" s="2"/>
+    </row>
+    <row r="1498" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1498" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1498" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1498" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M1498" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="N1498" s="4">
+        <v>139</v>
+      </c>
+      <c r="O1498" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1498" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q1498" s="2"/>
+    </row>
+    <row r="1499" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1499" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K1499" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1499" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M1499" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="N1499" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="O1499" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1499" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="Q1499" s="2"/>
+    </row>
+    <row r="1500" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1500" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K1500" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1500" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M1500" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="N1500" s="4">
+        <v>117</v>
+      </c>
+      <c r="O1500" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1500" s="3"/>
+      <c r="Q1500" s="2"/>
+    </row>
+    <row r="1501" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1501" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K1501" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1501" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M1501" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="N1501" s="4">
+        <v>2</v>
+      </c>
+      <c r="O1501" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1501" s="3"/>
+      <c r="Q1501" s="2"/>
+    </row>
+    <row r="1502" spans="10:17" ht="15.75" thickBot="1">
+      <c r="Q1502" s="2"/>
+    </row>
+    <row r="1503" spans="10:17" ht="15.75" thickBot="1">
+      <c r="Q1503" s="2"/>
+    </row>
+    <row r="1504" spans="10:17" ht="15.75" thickBot="1">
+      <c r="Q1504" s="2"/>
+    </row>
+    <row r="1505" spans="17:17" ht="15.75" thickBot="1">
+      <c r="Q1505" s="2"/>
+    </row>
+    <row r="1506" spans="17:17" ht="15.75" thickBot="1">
+      <c r="Q1506" s="2"/>
+    </row>
+    <row r="1507" spans="17:17">
+      <c r="Q1507" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28669,17 +29762,17 @@
       <c r="C32">
         <v>1.5</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="42" t="s">
         <v>841</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
@@ -28688,14 +29781,14 @@
       <c r="B33" t="s">
         <v>843</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="42" t="s">
         <v>844</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/spreadex.xlsx
+++ b/spreadex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E90A2E-9583-4F12-8252-429327807227}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097EFEAA-9A9A-49D0-BD7F-3E1322439FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="802" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5015" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5111" uniqueCount="1103">
   <si>
     <t>24/11/2022 20:55</t>
   </si>
@@ -3282,6 +3282,78 @@
   </si>
   <si>
     <t>Juventus v Sevilla</t>
+  </si>
+  <si>
+    <t>19/06/2023 21:49</t>
+  </si>
+  <si>
+    <t>France v Greece</t>
+  </si>
+  <si>
+    <t>19/06/2023 19:49</t>
+  </si>
+  <si>
+    <t>Spezia v Verona</t>
+  </si>
+  <si>
+    <t>14/08/2023 20:14</t>
+  </si>
+  <si>
+    <t>Man Utd v Wolves</t>
+  </si>
+  <si>
+    <t>14/08/2023 20:06</t>
+  </si>
+  <si>
+    <t>Newcastle v Aston Villa</t>
+  </si>
+  <si>
+    <t>Arsenal v Nottingham Forest</t>
+  </si>
+  <si>
+    <t>Burnley v Man City</t>
+  </si>
+  <si>
+    <t>Leicester v Coventry</t>
+  </si>
+  <si>
+    <t>Celtic v Ross County</t>
+  </si>
+  <si>
+    <t>Paderborn v Osnabruck</t>
+  </si>
+  <si>
+    <t>30/07/2023 14:27</t>
+  </si>
+  <si>
+    <t>30/07/2023 13:03</t>
+  </si>
+  <si>
+    <t>29/07/2023 21:24</t>
+  </si>
+  <si>
+    <t>Dusseldorf v Hertha BSC</t>
+  </si>
+  <si>
+    <t>29/07/2023 19:35</t>
+  </si>
+  <si>
+    <t>28/07/2023 19:52</t>
+  </si>
+  <si>
+    <t>Hamburg v Schalke</t>
+  </si>
+  <si>
+    <t>28/07/2023 19:42</t>
+  </si>
+  <si>
+    <t>15/07/2023 16:51</t>
+  </si>
+  <si>
+    <t>Chesterfield v Sheff Utd</t>
+  </si>
+  <si>
+    <t>15/07/2023 16:35</t>
   </si>
 </sst>
 </file>
@@ -3850,13 +3922,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2ACDE7-BC8B-432A-9773-10E95E9E94B1}">
-  <dimension ref="A1:V1507"/>
+  <dimension ref="A1:V1556"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1465" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1522" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1482" sqref="B1482"/>
+      <selection pane="bottomRight" activeCell="O1561" sqref="O1561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28359,27 +28431,6 @@
       <c r="Q1467" s="1"/>
     </row>
     <row r="1468" spans="1:17" ht="15.75" thickBot="1">
-      <c r="J1468" s="11">
-        <v>45022.779861111114</v>
-      </c>
-      <c r="K1468" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1468" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="M1468" s="3">
-        <v>-0.19</v>
-      </c>
-      <c r="N1468" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="O1468" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1468" s="3">
-        <v>-0.05</v>
-      </c>
       <c r="Q1468" s="2"/>
     </row>
     <row r="1469" spans="1:17" ht="15.75" thickBot="1">
@@ -28404,25 +28455,6 @@
       <c r="G1469" s="5">
         <v>0</v>
       </c>
-      <c r="J1469" s="11">
-        <v>45022.720138888886</v>
-      </c>
-      <c r="K1469" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1469" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="M1469" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="N1469" s="4">
-        <v>2.95</v>
-      </c>
-      <c r="O1469" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1469" s="3"/>
       <c r="Q1469" s="2"/>
     </row>
     <row r="1470" spans="1:17" ht="15.75" thickBot="1">
@@ -28445,49 +28477,9 @@
         <v>5</v>
       </c>
       <c r="G1470" s="1"/>
-      <c r="J1470" s="11">
-        <v>44963.875</v>
-      </c>
-      <c r="K1470" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1470" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="M1470" s="3">
-        <v>-0.19</v>
-      </c>
-      <c r="N1470" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="O1470" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1470" s="5">
-        <v>0.1</v>
-      </c>
       <c r="Q1470" s="2"/>
     </row>
     <row r="1471" spans="1:17" ht="15.75" thickBot="1">
-      <c r="J1471" s="11">
-        <v>44963.838888888888</v>
-      </c>
-      <c r="K1471" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1471" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="M1471" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="N1471" s="4">
-        <v>2.25</v>
-      </c>
-      <c r="O1471" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1471" s="3"/>
       <c r="Q1471" s="2"/>
     </row>
     <row r="1472" spans="1:17" ht="15.75" thickBot="1">
@@ -28512,27 +28504,6 @@
       <c r="G1472" s="3">
         <v>-0.45</v>
       </c>
-      <c r="J1472" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1472" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="L1472" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="M1472" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="N1472" s="4">
-        <v>25</v>
-      </c>
-      <c r="O1472" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1472" s="3">
-        <v>-0.82</v>
-      </c>
       <c r="Q1472" s="2"/>
     </row>
     <row r="1473" spans="1:17" ht="15.75" thickBot="1">
@@ -28555,49 +28526,9 @@
         <v>5</v>
       </c>
       <c r="G1473" s="3"/>
-      <c r="J1473" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="K1473" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="L1473" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="M1473" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N1473" s="4">
-        <v>107</v>
-      </c>
-      <c r="O1473" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1473" s="3"/>
       <c r="Q1473" s="2"/>
     </row>
     <row r="1474" spans="1:17" ht="15.75" thickBot="1">
-      <c r="J1474" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="K1474" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1474" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M1474" s="3">
-        <v>-0.19</v>
-      </c>
-      <c r="N1474" s="4">
-        <v>2</v>
-      </c>
-      <c r="O1474" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1474" s="3">
-        <v>-0.23</v>
-      </c>
       <c r="Q1474" s="2"/>
     </row>
     <row r="1475" spans="1:17" ht="15.75" thickBot="1">
@@ -28622,25 +28553,6 @@
       <c r="G1475" s="5">
         <v>0.05</v>
       </c>
-      <c r="J1475" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="K1475" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1475" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M1475" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="N1475" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="O1475" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1475" s="3"/>
       <c r="Q1475" s="2"/>
     </row>
     <row r="1476" spans="1:17" ht="15.75" thickBot="1">
@@ -28663,620 +28575,1469 @@
         <v>5</v>
       </c>
       <c r="G1476" s="3"/>
-      <c r="J1476" s="2" t="s">
+      <c r="Q1476" s="2"/>
+    </row>
+    <row r="1477" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1477" s="2"/>
+    </row>
+    <row r="1478" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1478" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1478" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1478" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D1478" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="E1478" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="F1478" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1478" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="Q1478" s="2"/>
+    </row>
+    <row r="1479" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1479" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1479" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1479" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D1479" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E1479" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1479" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1479" s="3"/>
+      <c r="Q1479" s="2"/>
+    </row>
+    <row r="1480" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1480" s="2"/>
+    </row>
+    <row r="1481" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1481" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1481" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1481" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D1481" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="E1481" s="4">
+        <v>139</v>
+      </c>
+      <c r="F1481" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1481" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J1481" s="1"/>
+      <c r="K1481" s="1"/>
+      <c r="L1481" s="1"/>
+      <c r="M1481" s="1"/>
+      <c r="N1481" s="1"/>
+      <c r="O1481" s="1"/>
+      <c r="P1481" s="1"/>
+      <c r="Q1481" s="1"/>
+    </row>
+    <row r="1482" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1482" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1482" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1482" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D1482" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E1482" s="4">
+        <v>117</v>
+      </c>
+      <c r="F1482" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1482" s="3"/>
+      <c r="Q1482" s="2"/>
+    </row>
+    <row r="1483" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1483" s="2"/>
+    </row>
+    <row r="1484" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1484" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B1484" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1484" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D1484" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1484" s="4">
+        <v>147</v>
+      </c>
+      <c r="F1484" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1484" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="Q1484" s="2"/>
+    </row>
+    <row r="1485" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1485" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B1485" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1485" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D1485" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1485" s="4">
+        <v>112</v>
+      </c>
+      <c r="F1485" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1485" s="3"/>
+      <c r="Q1485" s="2"/>
+    </row>
+    <row r="1486" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1486" s="2"/>
+    </row>
+    <row r="1487" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1487" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B1487" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1487" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D1487" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1487" s="4">
+        <v>131</v>
+      </c>
+      <c r="F1487" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1487" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="Q1487" s="2"/>
+    </row>
+    <row r="1488" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1488" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B1488" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1488" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D1488" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1488" s="4">
+        <v>108</v>
+      </c>
+      <c r="F1488" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1488" s="3"/>
+      <c r="Q1488" s="2"/>
+    </row>
+    <row r="1489" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1489" s="2"/>
+    </row>
+    <row r="1490" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1490" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B1490" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1490" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1490" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E1490" s="4">
+        <v>27</v>
+      </c>
+      <c r="F1490" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1490" s="3">
+        <v>-0.84</v>
+      </c>
+      <c r="Q1490" s="2"/>
+    </row>
+    <row r="1491" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1491" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B1491" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1491" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1491" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E1491" s="4">
+        <v>69</v>
+      </c>
+      <c r="F1491" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1491" s="3"/>
+      <c r="Q1491" s="2"/>
+    </row>
+    <row r="1492" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1492" s="2"/>
+    </row>
+    <row r="1493" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1493" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B1493" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1493" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D1493" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E1493" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="F1493" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1493" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="Q1493" s="2"/>
+    </row>
+    <row r="1494" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1494" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B1494" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1494" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D1494" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E1494" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="F1494" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1494" s="3"/>
+      <c r="Q1494" s="2"/>
+    </row>
+    <row r="1495" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1495" s="2"/>
+    </row>
+    <row r="1496" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1496" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B1496" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1496" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D1496" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="E1496" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1496" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1496" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="Q1496" s="2"/>
+    </row>
+    <row r="1497" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1497" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B1497" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1497" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D1497" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E1497" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1497" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1497" s="3"/>
+      <c r="Q1497" s="2"/>
+    </row>
+    <row r="1498" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1498" s="2"/>
+    </row>
+    <row r="1499" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1499" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B1499" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1499" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D1499" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E1499" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="F1499" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1499" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Q1499" s="2"/>
+    </row>
+    <row r="1500" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1500" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1500" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1500" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D1500" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E1500" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="F1500" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1500" s="3"/>
+      <c r="Q1500" s="2"/>
+    </row>
+    <row r="1501" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1501" s="2"/>
+    </row>
+    <row r="1502" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1502" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1502" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1502" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D1502" s="3">
+        <v>-0.03</v>
+      </c>
+      <c r="E1502" s="4">
+        <v>163</v>
+      </c>
+      <c r="F1502" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1502" s="5">
+        <v>1.35</v>
+      </c>
+      <c r="Q1502" s="2"/>
+    </row>
+    <row r="1503" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1503" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B1503" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1503" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D1503" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="E1503" s="4">
+        <v>118</v>
+      </c>
+      <c r="F1503" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1503" s="3"/>
+      <c r="Q1503" s="2"/>
+    </row>
+    <row r="1504" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1504" s="2"/>
+    </row>
+    <row r="1505" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1505" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B1505" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C1505" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D1505" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1505" s="4">
+        <v>200</v>
+      </c>
+      <c r="F1505" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1505" s="3">
+        <v>-1.9</v>
+      </c>
+      <c r="Q1505" s="2"/>
+    </row>
+    <row r="1506" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1506" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B1506" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C1506" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D1506" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1506" s="4">
+        <v>390</v>
+      </c>
+      <c r="F1506" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1506" s="3"/>
+      <c r="Q1506" s="2"/>
+    </row>
+    <row r="1507" spans="1:17" ht="15.75" thickBot="1">
+      <c r="Q1507" s="1"/>
+    </row>
+    <row r="1508" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1508" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B1508" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1508" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D1508" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="E1508" s="4">
+        <v>20</v>
+      </c>
+      <c r="F1508" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1508" s="3">
+        <v>-1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1509" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B1509" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1509" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D1509" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E1509" s="4">
+        <v>43</v>
+      </c>
+      <c r="F1509" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1509" s="3"/>
+    </row>
+    <row r="1510" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1511" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1511" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B1511" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1511" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D1511" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="E1511" s="4">
+        <v>165</v>
+      </c>
+      <c r="F1511" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1511" s="5">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1512" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B1512" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1512" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D1512" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E1512" s="4">
+        <v>117</v>
+      </c>
+      <c r="F1512" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1512" s="3"/>
+    </row>
+    <row r="1513" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1514" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1514" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="K1476" s="2" t="s">
+      <c r="B1514" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="L1476" s="2" t="s">
+      <c r="C1514" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="M1476" s="3">
+      <c r="D1514" s="3">
         <v>-0.05</v>
       </c>
-      <c r="N1476" s="4">
+      <c r="E1514" s="4">
         <v>0</v>
       </c>
-      <c r="O1476" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1476" s="3">
+      <c r="F1514" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1514" s="3">
         <v>-3.65</v>
       </c>
-      <c r="Q1476" s="2"/>
-    </row>
-    <row r="1477" spans="1:17" ht="15.75" thickBot="1">
-      <c r="J1477" s="2" t="s">
+    </row>
+    <row r="1515" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1515" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="K1477" s="2" t="s">
+      <c r="B1515" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="L1477" s="2" t="s">
+      <c r="C1515" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="M1477" s="5">
+      <c r="D1515" s="5">
         <v>0.05</v>
       </c>
-      <c r="N1477" s="4">
+      <c r="E1515" s="4">
         <v>73</v>
       </c>
-      <c r="O1477" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1477" s="3"/>
-      <c r="Q1477" s="2"/>
-    </row>
-    <row r="1478" spans="1:17" ht="15.75" thickBot="1">
-      <c r="J1478" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="K1478" s="2" t="s">
+      <c r="F1515" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1515" s="3"/>
+    </row>
+    <row r="1516" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1517" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1517" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B1517" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1517" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D1517" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E1517" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1517" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1517" s="3">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1518" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B1518" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1518" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D1518" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E1518" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="F1518" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1518" s="3"/>
+    </row>
+    <row r="1519" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1520" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1520" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B1520" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="L1478" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="M1478" s="3">
+      <c r="C1520" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D1520" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1520" s="4">
+        <v>25</v>
+      </c>
+      <c r="F1520" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1520" s="3">
+        <v>-0.82</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1521" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B1521" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1521" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D1521" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1521" s="4">
+        <v>107</v>
+      </c>
+      <c r="F1521" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1521" s="3"/>
+    </row>
+    <row r="1522" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1523" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1523" s="11">
+        <v>44963.875</v>
+      </c>
+      <c r="B1523" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1523" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D1523" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E1523" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="F1523" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1523" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1524" s="11">
+        <v>44963.838888888888</v>
+      </c>
+      <c r="B1524" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1524" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D1524" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E1524" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="F1524" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1524" s="3"/>
+    </row>
+    <row r="1525" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1526" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1526" s="11">
+        <v>45022.779861111114</v>
+      </c>
+      <c r="B1526" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1526" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D1526" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E1526" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="F1526" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1526" s="3">
         <v>-0.05</v>
       </c>
-      <c r="N1478" s="4">
-        <v>165</v>
-      </c>
-      <c r="O1478" s="2" t="s">
+    </row>
+    <row r="1527" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1527" s="11">
+        <v>45022.720138888886</v>
+      </c>
+      <c r="B1527" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1527" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D1527" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E1527" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="F1527" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1527" s="3"/>
+    </row>
+    <row r="1528" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1529" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1529" s="11">
+        <v>45236.885416666664</v>
+      </c>
+      <c r="B1529" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1529" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D1529" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E1529" s="4">
+        <v>119</v>
+      </c>
+      <c r="F1529" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P1478" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="Q1478" s="2"/>
-    </row>
-    <row r="1479" spans="1:17" ht="15.75" thickBot="1">
-      <c r="J1479" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="K1479" s="2" t="s">
+      <c r="G1529" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1530" s="11">
+        <v>45236.824999999997</v>
+      </c>
+      <c r="B1530" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="L1479" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="M1479" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="N1479" s="4">
-        <v>117</v>
-      </c>
-      <c r="O1479" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1479" s="3"/>
-      <c r="Q1479" s="2"/>
-    </row>
-    <row r="1480" spans="1:17" ht="15.75" thickBot="1">
-      <c r="J1480" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="K1480" s="2" t="s">
+      <c r="C1530" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D1530" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E1530" s="4">
+        <v>101</v>
+      </c>
+      <c r="F1530" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1530" s="3"/>
+    </row>
+    <row r="1531" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="1532" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1532" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B1532" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1532" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D1532" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E1532" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1532" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1532" s="3">
+        <v>-0.35</v>
+      </c>
+      <c r="J1532" s="1"/>
+      <c r="K1532" s="1"/>
+      <c r="L1532" s="1"/>
+      <c r="M1532" s="1"/>
+      <c r="N1532" s="1"/>
+      <c r="O1532" s="1"/>
+      <c r="P1532" s="1"/>
+      <c r="Q1532" s="1"/>
+    </row>
+    <row r="1533" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1533" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B1533" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1533" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D1533" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E1533" s="4">
+        <v>2.85</v>
+      </c>
+      <c r="F1533" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1533" s="3"/>
+      <c r="J1533" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K1533" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1533" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="M1533" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="N1533" s="4">
+        <v>159</v>
+      </c>
+      <c r="O1533" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1533" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="Q1533" s="2"/>
+    </row>
+    <row r="1534" spans="1:17" ht="15.75" thickBot="1">
+      <c r="J1534" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K1534" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1534" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="M1534" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N1534" s="4">
+        <v>122</v>
+      </c>
+      <c r="O1534" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1534" s="3"/>
+      <c r="Q1534" s="2"/>
+    </row>
+    <row r="1535" spans="1:17" ht="15.75" thickBot="1">
+      <c r="J1535" s="11">
+        <v>45268.81527777778</v>
+      </c>
+      <c r="K1535" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1535" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="M1535" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="N1535" s="4">
+        <v>121</v>
+      </c>
+      <c r="O1535" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1535" s="3">
+        <v>-0.11</v>
+      </c>
+      <c r="Q1535" s="2"/>
+    </row>
+    <row r="1536" spans="1:17" ht="15.75" thickBot="1">
+      <c r="J1536" s="11">
+        <v>45268.730555555558</v>
+      </c>
+      <c r="K1536" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1536" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="M1536" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N1536" s="4">
+        <v>132</v>
+      </c>
+      <c r="O1536" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1536" s="3"/>
+      <c r="Q1536" s="2"/>
+    </row>
+    <row r="1537" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1537" s="11">
+        <v>45268.56527777778</v>
+      </c>
+      <c r="K1537" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="L1537" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="M1537" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="N1537" s="4">
+        <v>88</v>
+      </c>
+      <c r="O1537" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1537" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="Q1537" s="2"/>
+    </row>
+    <row r="1538" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1538" s="11">
+        <v>45268.552083333336</v>
+      </c>
+      <c r="K1538" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="L1538" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="M1538" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N1538" s="4">
+        <v>51</v>
+      </c>
+      <c r="O1538" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1538" s="3"/>
+      <c r="Q1538" s="2"/>
+    </row>
+    <row r="1539" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1539" s="11">
+        <v>45238.917361111111</v>
+      </c>
+      <c r="K1539" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L1480" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="M1480" s="3">
-        <v>-0.05</v>
-      </c>
-      <c r="N1480" s="4">
+      <c r="L1539" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="M1539" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="N1539" s="4">
+        <v>25</v>
+      </c>
+      <c r="O1539" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1539" s="3">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="Q1539" s="2"/>
+    </row>
+    <row r="1540" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1540" s="11">
+        <v>45238.84097222222</v>
+      </c>
+      <c r="K1540" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O1480" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1480" s="3">
-        <v>-1.1499999999999999</v>
-      </c>
-      <c r="Q1480" s="2"/>
-    </row>
-    <row r="1481" spans="1:17" ht="15.75" thickBot="1">
-      <c r="J1481" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="K1481" s="2" t="s">
+      <c r="L1540" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="M1540" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N1540" s="4">
+        <v>39</v>
+      </c>
+      <c r="O1540" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1540" s="3"/>
+      <c r="Q1540" s="2"/>
+    </row>
+    <row r="1541" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1541" s="11">
+        <v>45085.754166666666</v>
+      </c>
+      <c r="K1541" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="L1541" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M1541" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="N1541" s="4">
+        <v>0</v>
+      </c>
+      <c r="O1541" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1541" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="Q1541" s="2"/>
+    </row>
+    <row r="1542" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1542" s="11">
+        <v>45085.686805555553</v>
+      </c>
+      <c r="K1542" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="L1542" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M1542" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N1542" s="4">
         <v>20</v>
       </c>
-      <c r="L1481" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="M1481" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="N1481" s="4">
-        <v>43</v>
-      </c>
-      <c r="O1481" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1481" s="3"/>
-      <c r="Q1481" s="2"/>
-    </row>
-    <row r="1482" spans="1:17" ht="15.75" thickBot="1">
-      <c r="J1482" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="K1482" s="2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L1482" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="M1482" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="N1482" s="4">
-        <v>200</v>
-      </c>
-      <c r="O1482" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1482" s="3">
-        <v>-1.9</v>
-      </c>
-      <c r="Q1482" s="2"/>
-    </row>
-    <row r="1483" spans="1:17" ht="15.75" thickBot="1">
-      <c r="J1483" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="K1483" s="2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L1483" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="M1483" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N1483" s="4">
-        <v>390</v>
-      </c>
-      <c r="O1483" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1483" s="3"/>
-      <c r="Q1483" s="2"/>
-    </row>
-    <row r="1484" spans="1:17" ht="15.75" thickBot="1">
-      <c r="J1484" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="K1484" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="L1484" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="M1484" s="3">
-        <v>-0.03</v>
-      </c>
-      <c r="N1484" s="4">
-        <v>163</v>
-      </c>
-      <c r="O1484" s="2" t="s">
+      <c r="O1542" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1542" s="3"/>
+      <c r="Q1542" s="2"/>
+    </row>
+    <row r="1543" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1543" s="11">
+        <v>45085.575694444444</v>
+      </c>
+      <c r="K1543" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1543" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="M1543" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="N1543" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="O1543" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P1484" s="5">
-        <v>1.35</v>
-      </c>
-      <c r="Q1484" s="2"/>
-    </row>
-    <row r="1485" spans="1:17" ht="15.75" thickBot="1">
-      <c r="J1485" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="K1485" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="L1485" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="M1485" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="N1485" s="4">
-        <v>118</v>
-      </c>
-      <c r="O1485" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1485" s="3"/>
-      <c r="Q1485" s="2"/>
-    </row>
-    <row r="1486" spans="1:17" ht="15.75" thickBot="1">
-      <c r="J1486" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="K1486" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1486" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M1486" s="3">
+      <c r="P1543" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="Q1543" s="2"/>
+    </row>
+    <row r="1544" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1544" s="11">
+        <v>45085.525694444441</v>
+      </c>
+      <c r="K1544" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1544" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="M1544" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="N1544" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="O1544" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1544" s="3"/>
+      <c r="Q1544" s="2"/>
+    </row>
+    <row r="1545" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1545" s="11">
+        <v>45054.603472222225</v>
+      </c>
+      <c r="K1545" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1545" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M1545" s="3">
+        <v>-0.4</v>
+      </c>
+      <c r="N1545" s="4">
+        <v>6</v>
+      </c>
+      <c r="O1545" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1545" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="Q1545" s="2"/>
+    </row>
+    <row r="1546" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1546" s="11">
+        <v>45054.529166666667</v>
+      </c>
+      <c r="K1546" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1546" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M1546" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="N1546" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="O1546" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1546" s="3"/>
+      <c r="Q1546" s="2"/>
+    </row>
+    <row r="1547" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1547" s="11">
+        <v>45024.808333333334</v>
+      </c>
+      <c r="K1547" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1547" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="M1547" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="N1547" s="4">
+        <v>2</v>
+      </c>
+      <c r="O1547" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1547" s="3">
+        <v>-0.27</v>
+      </c>
+      <c r="Q1547" s="2"/>
+    </row>
+    <row r="1548" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1548" s="11">
+        <v>45024.732638888891</v>
+      </c>
+      <c r="K1548" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1548" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="M1548" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="N1548" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="O1548" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1548" s="3"/>
+      <c r="Q1548" s="2"/>
+    </row>
+    <row r="1549" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1549" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K1549" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1549" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="M1549" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="N1549" s="4">
+        <v>1</v>
+      </c>
+      <c r="O1549" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1549" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="Q1549" s="2"/>
+    </row>
+    <row r="1550" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1550" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K1550" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1550" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="M1550" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="N1550" s="4">
+        <v>2</v>
+      </c>
+      <c r="O1550" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1550" s="3"/>
+      <c r="Q1550" s="2"/>
+    </row>
+    <row r="1551" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1551" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="K1551" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1551" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="M1551" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="N1551" s="4">
+        <v>1</v>
+      </c>
+      <c r="O1551" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1551" s="3">
+        <v>-0.35</v>
+      </c>
+      <c r="Q1551" s="2"/>
+    </row>
+    <row r="1552" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1552" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K1552" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1552" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="M1552" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="N1552" s="4">
+        <v>2.85</v>
+      </c>
+      <c r="O1552" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1552" s="3"/>
+      <c r="Q1552" s="2"/>
+    </row>
+    <row r="1553" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1553" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K1553" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1553" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="M1553" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="N1553" s="4">
+        <v>4.55</v>
+      </c>
+      <c r="O1553" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1553" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q1553" s="2"/>
+    </row>
+    <row r="1554" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1554" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K1554" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1554" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="M1554" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="N1554" s="4">
+        <v>3.05</v>
+      </c>
+      <c r="O1554" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1554" s="3"/>
+      <c r="Q1554" s="2"/>
+    </row>
+    <row r="1555" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1555" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="K1555" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1555" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="M1555" s="3">
         <v>-0.2</v>
       </c>
-      <c r="N1486" s="4">
-        <v>3.25</v>
-      </c>
-      <c r="O1486" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1486" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="Q1486" s="2"/>
-    </row>
-    <row r="1487" spans="1:17" ht="15.75" thickBot="1">
-      <c r="J1487" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="K1487" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1487" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M1487" s="5">
+      <c r="N1555" s="4">
+        <v>2</v>
+      </c>
+      <c r="O1555" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1555" s="3">
+        <v>-0.16</v>
+      </c>
+      <c r="Q1555" s="2"/>
+    </row>
+    <row r="1556" spans="10:17" ht="15.75" thickBot="1">
+      <c r="J1556" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="K1556" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1556" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="M1556" s="5">
         <v>0.2</v>
       </c>
-      <c r="N1487" s="4">
-        <v>2.75</v>
-      </c>
-      <c r="O1487" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1487" s="3"/>
-      <c r="Q1487" s="2"/>
-    </row>
-    <row r="1488" spans="1:17" ht="15.75" thickBot="1">
-      <c r="J1488" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="K1488" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1488" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M1488" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="N1488" s="4">
-        <v>2</v>
-      </c>
-      <c r="O1488" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1488" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="Q1488" s="2"/>
-    </row>
-    <row r="1489" spans="10:17" ht="15.75" thickBot="1">
-      <c r="J1489" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="K1489" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1489" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M1489" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="N1489" s="4">
-        <v>3</v>
-      </c>
-      <c r="O1489" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1489" s="3"/>
-      <c r="Q1489" s="2"/>
-    </row>
-    <row r="1490" spans="10:17" ht="15.75" thickBot="1">
-      <c r="J1490" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="K1490" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1490" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="M1490" s="3">
-        <v>-0.19</v>
-      </c>
-      <c r="N1490" s="4">
-        <v>2.25</v>
-      </c>
-      <c r="O1490" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1490" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="Q1490" s="2"/>
-    </row>
-    <row r="1491" spans="10:17" ht="15.75" thickBot="1">
-      <c r="J1491" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K1491" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1491" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="M1491" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="N1491" s="4">
-        <v>1.95</v>
-      </c>
-      <c r="O1491" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1491" s="3"/>
-      <c r="Q1491" s="2"/>
-    </row>
-    <row r="1492" spans="10:17" ht="15.75" thickBot="1">
-      <c r="J1492" s="2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K1492" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="L1492" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="M1492" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="N1492" s="4">
-        <v>27</v>
-      </c>
-      <c r="O1492" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1492" s="3">
-        <v>-0.84</v>
-      </c>
-      <c r="Q1492" s="2"/>
-    </row>
-    <row r="1493" spans="10:17" ht="15.75" thickBot="1">
-      <c r="J1493" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="K1493" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="L1493" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="M1493" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="N1493" s="4">
-        <v>69</v>
-      </c>
-      <c r="O1493" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1493" s="3"/>
-      <c r="Q1493" s="2"/>
-    </row>
-    <row r="1494" spans="10:17" ht="15.75" thickBot="1">
-      <c r="J1494" s="2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="K1494" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="L1494" s="2" t="s">
-        <v>1061</v>
-      </c>
-      <c r="M1494" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="N1494" s="4">
-        <v>131</v>
-      </c>
-      <c r="O1494" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1494" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="Q1494" s="2"/>
-    </row>
-    <row r="1495" spans="10:17" ht="15.75" thickBot="1">
-      <c r="J1495" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="K1495" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="L1495" s="2" t="s">
-        <v>1061</v>
-      </c>
-      <c r="M1495" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N1495" s="4">
-        <v>108</v>
-      </c>
-      <c r="O1495" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1495" s="3"/>
-      <c r="Q1495" s="2"/>
-    </row>
-    <row r="1496" spans="10:17" ht="15.75" thickBot="1">
-      <c r="J1496" s="2" t="s">
-        <v>1063</v>
-      </c>
-      <c r="K1496" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="L1496" s="2" t="s">
-        <v>1064</v>
-      </c>
-      <c r="M1496" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="N1496" s="4">
-        <v>147</v>
-      </c>
-      <c r="O1496" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1496" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="Q1496" s="2"/>
-    </row>
-    <row r="1497" spans="10:17" ht="15.75" thickBot="1">
-      <c r="J1497" s="2" t="s">
-        <v>1065</v>
-      </c>
-      <c r="K1497" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="L1497" s="2" t="s">
-        <v>1064</v>
-      </c>
-      <c r="M1497" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N1497" s="4">
-        <v>112</v>
-      </c>
-      <c r="O1497" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1497" s="3"/>
-      <c r="Q1497" s="2"/>
-    </row>
-    <row r="1498" spans="10:17" ht="15.75" thickBot="1">
-      <c r="J1498" s="2" t="s">
-        <v>1066</v>
-      </c>
-      <c r="K1498" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="L1498" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="M1498" s="3">
-        <v>-0.05</v>
-      </c>
-      <c r="N1498" s="4">
-        <v>139</v>
-      </c>
-      <c r="O1498" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1498" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q1498" s="2"/>
-    </row>
-    <row r="1499" spans="10:17" ht="15.75" thickBot="1">
-      <c r="J1499" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="K1499" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1499" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="M1499" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="N1499" s="4">
-        <v>2.25</v>
-      </c>
-      <c r="O1499" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1499" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="Q1499" s="2"/>
-    </row>
-    <row r="1500" spans="10:17" ht="15.75" thickBot="1">
-      <c r="J1500" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K1500" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="L1500" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="M1500" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="N1500" s="4">
-        <v>117</v>
-      </c>
-      <c r="O1500" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1500" s="3"/>
-      <c r="Q1500" s="2"/>
-    </row>
-    <row r="1501" spans="10:17" ht="15.75" thickBot="1">
-      <c r="J1501" s="2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="K1501" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1501" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="M1501" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="N1501" s="4">
-        <v>2</v>
-      </c>
-      <c r="O1501" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1501" s="3"/>
-      <c r="Q1501" s="2"/>
-    </row>
-    <row r="1502" spans="10:17" ht="15.75" thickBot="1">
-      <c r="Q1502" s="2"/>
-    </row>
-    <row r="1503" spans="10:17" ht="15.75" thickBot="1">
-      <c r="Q1503" s="2"/>
-    </row>
-    <row r="1504" spans="10:17" ht="15.75" thickBot="1">
-      <c r="Q1504" s="2"/>
-    </row>
-    <row r="1505" spans="17:17" ht="15.75" thickBot="1">
-      <c r="Q1505" s="2"/>
-    </row>
-    <row r="1506" spans="17:17" ht="15.75" thickBot="1">
-      <c r="Q1506" s="2"/>
-    </row>
-    <row r="1507" spans="17:17">
-      <c r="Q1507" s="1"/>
+      <c r="N1556" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="O1556" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1556" s="3"/>
+      <c r="Q1556" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spreadex.xlsx
+++ b/spreadex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73E1145-047B-4FA1-A9CD-C121C13C01D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD8161F-EEF4-48B7-BCE9-54E6806BE853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="913" firstSheet="4" activeTab="17" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="913" firstSheet="4" activeTab="15" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11715" uniqueCount="1538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11717" uniqueCount="1540">
   <si>
     <t>24/11/2022 20:55</t>
   </si>
@@ -4667,6 +4667,12 @@
   </si>
   <si>
     <t>Bayern Munich v Lazio</t>
+  </si>
+  <si>
+    <t>13/04/2024</t>
+  </si>
+  <si>
+    <t>(first actual cash on hand)</t>
   </si>
 </sst>
 </file>
@@ -5099,11 +5105,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -42163,7 +42169,7 @@
     </row>
     <row r="2133" spans="1:17" s="28" customFormat="1" ht="15.75" thickBot="1">
       <c r="H2133" s="29"/>
-      <c r="Q2133" s="83"/>
+      <c r="Q2133" s="82"/>
     </row>
     <row r="2134" spans="1:17" ht="15.75" thickBot="1">
       <c r="A2134" s="11">
@@ -71695,10 +71701,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153E1AFE-D8C7-424B-A39A-BC84A93EB678}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -71706,7 +71712,7 @@
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>149</v>
       </c>
@@ -71714,7 +71720,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -71722,7 +71728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1307</v>
       </c>
@@ -71730,12 +71736,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>1444</v>
       </c>
       <c r="B4">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1539</v>
       </c>
     </row>
   </sheetData>
@@ -72120,17 +72137,17 @@
       <c r="C33">
         <v>1.5</v>
       </c>
-      <c r="D33" s="82" t="s">
+      <c r="D33" s="83" t="s">
         <v>841</v>
       </c>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="83"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
@@ -72139,14 +72156,14 @@
       <c r="B34" t="s">
         <v>843</v>
       </c>
-      <c r="C34" s="82" t="s">
+      <c r="C34" s="83" t="s">
         <v>844</v>
       </c>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -72161,7 +72178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7563E75-E71B-4C88-B0E8-935A93E741C9}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>

--- a/spreadex.xlsx
+++ b/spreadex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD8161F-EEF4-48B7-BCE9-54E6806BE853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A244E92-0E52-4DCF-A112-6E354C88CC46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="913" firstSheet="4" activeTab="15" xr2:uid="{8365F371-5EDF-4C19-B0B3-71E11A5B2E12}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11717" uniqueCount="1540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12170" uniqueCount="1611">
   <si>
     <t>24/11/2022 20:55</t>
   </si>
@@ -4673,6 +4673,219 @@
   </si>
   <si>
     <t>(first actual cash on hand)</t>
+  </si>
+  <si>
+    <t>21/04/2024 22:04</t>
+  </si>
+  <si>
+    <t>21/04/2024 19:05</t>
+  </si>
+  <si>
+    <t>21/04/2024 17:28</t>
+  </si>
+  <si>
+    <t>Coventry v Man Utd</t>
+  </si>
+  <si>
+    <t>21/04/2024 15:28</t>
+  </si>
+  <si>
+    <t>21/04/2024 15:10</t>
+  </si>
+  <si>
+    <t>Everton v Nottingham Forest</t>
+  </si>
+  <si>
+    <t>21/04/2024 14:06</t>
+  </si>
+  <si>
+    <t>20/04/2024 21:25</t>
+  </si>
+  <si>
+    <t>Wolves v Arsenal</t>
+  </si>
+  <si>
+    <t>20/04/2024 19:14</t>
+  </si>
+  <si>
+    <t>20/04/2024 17:08</t>
+  </si>
+  <si>
+    <t>20/04/2024 16:37</t>
+  </si>
+  <si>
+    <t>Luton v Brentford</t>
+  </si>
+  <si>
+    <t>20/04/2024 15:35</t>
+  </si>
+  <si>
+    <t>20/04/2024 14:54</t>
+  </si>
+  <si>
+    <t>Celta Vigo v Las Palmas</t>
+  </si>
+  <si>
+    <t>20/04/2024 14:50</t>
+  </si>
+  <si>
+    <t>20/04/2024 13:24</t>
+  </si>
+  <si>
+    <t>19/04/2024 21:26</t>
+  </si>
+  <si>
+    <t>Ein. Frankfurt v Augsburg</t>
+  </si>
+  <si>
+    <t>19/04/2024 20:10</t>
+  </si>
+  <si>
+    <t>18/04/2024 21:54</t>
+  </si>
+  <si>
+    <t>Atalanta v Liverpool</t>
+  </si>
+  <si>
+    <t>18/04/2024 20:31</t>
+  </si>
+  <si>
+    <t>17/04/2024 21:55</t>
+  </si>
+  <si>
+    <t>Man City v Real Madrid</t>
+  </si>
+  <si>
+    <t>17/04/2024 21:54</t>
+  </si>
+  <si>
+    <t>Bayern Munich v Arsenal</t>
+  </si>
+  <si>
+    <t>17/04/2024 19:42</t>
+  </si>
+  <si>
+    <t>17/04/2024 16:33</t>
+  </si>
+  <si>
+    <t>15/04/2024 21:20</t>
+  </si>
+  <si>
+    <t>Custom Index Bet (100-50-25-0) - Over 7.5 Corners in the Match for Both Teams Combined, Over 1.5 Goals in the Match for Both Teams Combined, Over 29.5 Booking Points in the Match for Both Teams Combined</t>
+  </si>
+  <si>
+    <t>Chelsea v Everton</t>
+  </si>
+  <si>
+    <t>15/04/2024 19:44</t>
+  </si>
+  <si>
+    <t>15/04/2024 19:33</t>
+  </si>
+  <si>
+    <t>Fiorentina v Genoa</t>
+  </si>
+  <si>
+    <t>15/04/2024 18:09</t>
+  </si>
+  <si>
+    <t>13/04/2024 21:54</t>
+  </si>
+  <si>
+    <t>Rennes v Toulouse</t>
+  </si>
+  <si>
+    <t>13/04/2024 20:18</t>
+  </si>
+  <si>
+    <t>13/04/2024 19:35</t>
+  </si>
+  <si>
+    <t>Bournemouth v Man Utd</t>
+  </si>
+  <si>
+    <t>13/04/2024 17:32</t>
+  </si>
+  <si>
+    <t>13/04/2024 16:24</t>
+  </si>
+  <si>
+    <t>13/04/2024 15:29</t>
+  </si>
+  <si>
+    <t>Burnley v Brighton</t>
+  </si>
+  <si>
+    <t>13/04/2024 15:22</t>
+  </si>
+  <si>
+    <t>13/04/2024 15:06</t>
+  </si>
+  <si>
+    <t>Atletico Madrid v Girona</t>
+  </si>
+  <si>
+    <t>13/04/2024 14:38</t>
+  </si>
+  <si>
+    <t>13/04/2024 13:08</t>
+  </si>
+  <si>
+    <t>13/04/2024 12:40</t>
+  </si>
+  <si>
+    <t>Newcastle v Tottenham</t>
+  </si>
+  <si>
+    <t>13/04/2024 12:32</t>
+  </si>
+  <si>
+    <t>Liverpool v Atalanta</t>
+  </si>
+  <si>
+    <t>PSG v Barcelona</t>
+  </si>
+  <si>
+    <t>Sheff Utd v Chelsea</t>
+  </si>
+  <si>
+    <t>Union Berlin v Leverkusen</t>
+  </si>
+  <si>
+    <t>31/03/2024 18:24</t>
+  </si>
+  <si>
+    <t>31/03/2024 16:27</t>
+  </si>
+  <si>
+    <t>31/03/2024 15:57</t>
+  </si>
+  <si>
+    <t>Liverpool v Brighton</t>
+  </si>
+  <si>
+    <t>31/03/2024 14:01</t>
+  </si>
+  <si>
+    <t>30/03/2024 20:50</t>
+  </si>
+  <si>
+    <t>Brentford v Man Utd</t>
+  </si>
+  <si>
+    <t>30/03/2024 19:42</t>
+  </si>
+  <si>
+    <t>30/03/2024 19:01</t>
+  </si>
+  <si>
+    <t>30/03/2024 17:23</t>
+  </si>
+  <si>
+    <t>30/03/2024 12:19</t>
+  </si>
+  <si>
+    <t>30/03/2024 11:51</t>
   </si>
 </sst>
 </file>
@@ -4680,7 +4893,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -4890,7 +5103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4938,10 +5151,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5111,6 +5324,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5425,13 +5642,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2ACDE7-BC8B-432A-9773-10E95E9E94B1}">
-  <dimension ref="A1:V2174"/>
+  <dimension ref="A1:V2264"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2228" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2158" activeCellId="1" sqref="A2155:H2156 A2158:H2159"/>
+      <selection pane="bottomRight" activeCell="A2245" sqref="A2245:H2246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42616,7 +42833,7 @@
       <c r="G2159" s="3"/>
     </row>
     <row r="2160" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="2161" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2161" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2161" s="11">
         <v>45568.799305555556</v>
       </c>
@@ -42642,7 +42859,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="2162" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2162" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2162" s="11">
         <v>45568.75</v>
       </c>
@@ -42663,8 +42880,8 @@
       </c>
       <c r="G2162" s="3"/>
     </row>
-    <row r="2163" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="2164" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2163" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="2164" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2164" s="11">
         <v>45629.915972222225</v>
       </c>
@@ -42690,7 +42907,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="2165" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2165" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2165" s="11">
         <v>45629.819444444445</v>
       </c>
@@ -42711,8 +42928,8 @@
       </c>
       <c r="G2165" s="3"/>
     </row>
-    <row r="2166" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="2167" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2166" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="2167" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2167" s="2" t="s">
         <v>1523</v>
       </c>
@@ -42738,7 +42955,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2168" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2168" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2168" s="2" t="s">
         <v>1525</v>
       </c>
@@ -42759,8 +42976,8 @@
       </c>
       <c r="G2168" s="3"/>
     </row>
-    <row r="2169" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="2170" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2169" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="2170" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2170" s="2" t="s">
         <v>1519</v>
       </c>
@@ -42786,7 +43003,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2171" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2171" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2171" s="2" t="s">
         <v>1522</v>
       </c>
@@ -42807,8 +43024,8 @@
       </c>
       <c r="G2171" s="3"/>
     </row>
-    <row r="2172" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="2173" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2172" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="2173" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2173" s="2" t="s">
         <v>1517</v>
       </c>
@@ -42834,7 +43051,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2174" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2174" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2174" s="2" t="s">
         <v>1518</v>
       </c>
@@ -42854,6 +43071,1537 @@
         <v>5</v>
       </c>
       <c r="G2174" s="3"/>
+    </row>
+    <row r="2175" spans="1:16" s="28" customFormat="1" ht="15.75" thickBot="1">
+      <c r="H2175" s="29"/>
+    </row>
+    <row r="2176" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2176" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B2176" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2176" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D2176" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E2176" s="4">
+        <v>3.55</v>
+      </c>
+      <c r="F2176" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2176" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="H2176" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="P2176" s="2"/>
+    </row>
+    <row r="2177" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2177" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B2177" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2177" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D2177" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E2177" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F2177" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2177" s="1"/>
+      <c r="P2177" s="2"/>
+    </row>
+    <row r="2178" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P2178" s="2"/>
+    </row>
+    <row r="2179" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2179" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B2179" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2179" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2179" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2179" s="4">
+        <v>75</v>
+      </c>
+      <c r="F2179" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2179" s="3">
+        <v>-0.46</v>
+      </c>
+      <c r="H2179" s="60" t="s">
+        <v>435</v>
+      </c>
+      <c r="P2179" s="2"/>
+    </row>
+    <row r="2180" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2180" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B2180" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2180" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2180" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2180" s="4">
+        <v>121</v>
+      </c>
+      <c r="F2180" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2180" s="3"/>
+      <c r="P2180" s="2"/>
+    </row>
+    <row r="2181" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P2181" s="2"/>
+    </row>
+    <row r="2182" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2182" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B2182" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2182" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D2182" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2182" s="4">
+        <v>99</v>
+      </c>
+      <c r="F2182" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2182" s="3">
+        <v>-0.17</v>
+      </c>
+      <c r="H2182" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2182" s="2"/>
+    </row>
+    <row r="2183" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2183" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B2183" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2183" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D2183" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2183" s="4">
+        <v>116</v>
+      </c>
+      <c r="F2183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2183" s="3"/>
+      <c r="P2183" s="2"/>
+    </row>
+    <row r="2184" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P2184" s="2"/>
+    </row>
+    <row r="2185" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2185" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B2185" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2185" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D2185" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E2185" s="4">
+        <v>3</v>
+      </c>
+      <c r="F2185" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2185" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="H2185" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2185" s="2"/>
+    </row>
+    <row r="2186" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2186" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B2186" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2186" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D2186" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E2186" s="4">
+        <v>4</v>
+      </c>
+      <c r="F2186" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2186" s="3"/>
+      <c r="P2186" s="2"/>
+    </row>
+    <row r="2187" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P2187" s="2"/>
+    </row>
+    <row r="2188" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2188" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B2188" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2188" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D2188" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E2188" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2188" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2188" s="3">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="H2188" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2188" s="2"/>
+    </row>
+    <row r="2189" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2189" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B2189" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2189" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D2189" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E2189" s="4">
+        <v>3</v>
+      </c>
+      <c r="F2189" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2189" s="3"/>
+      <c r="P2189" s="2"/>
+    </row>
+    <row r="2190" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P2190" s="2"/>
+    </row>
+    <row r="2191" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2191" s="11">
+        <v>45447.690972222219</v>
+      </c>
+      <c r="B2191" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2191" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D2191" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E2191" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2191" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2191" s="19">
+        <v>0</v>
+      </c>
+      <c r="H2191" s="60" t="s">
+        <v>435</v>
+      </c>
+      <c r="P2191" s="2"/>
+    </row>
+    <row r="2192" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2192" s="11">
+        <v>45447.628472222219</v>
+      </c>
+      <c r="B2192" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2192" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D2192" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E2192" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2192" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2192" s="1"/>
+      <c r="P2192" s="2"/>
+    </row>
+    <row r="2193" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P2193" s="2"/>
+    </row>
+    <row r="2194" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2194" s="11">
+        <v>45447.800694444442</v>
+      </c>
+      <c r="B2194" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C2194" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2194" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E2194" s="4">
+        <v>100</v>
+      </c>
+      <c r="F2194" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2194" s="5">
+        <v>21</v>
+      </c>
+      <c r="H2194" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2194" s="2"/>
+    </row>
+    <row r="2195" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2195" s="11">
+        <v>45447.677777777775</v>
+      </c>
+      <c r="B2195" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C2195" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2195" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2195" s="4">
+        <v>79</v>
+      </c>
+      <c r="F2195" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2195" s="2"/>
+    </row>
+    <row r="2196" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P2196" s="2"/>
+    </row>
+    <row r="2197" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2197" s="11">
+        <v>45477.711111111108</v>
+      </c>
+      <c r="B2197" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2197" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D2197" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2197" s="4">
+        <v>139</v>
+      </c>
+      <c r="F2197" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2197" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="H2197" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2197" s="3"/>
+      <c r="P2197" s="2"/>
+    </row>
+    <row r="2198" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2198" s="11">
+        <v>45477.638888888891</v>
+      </c>
+      <c r="B2198" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2198" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D2198" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2198" s="4">
+        <v>127</v>
+      </c>
+      <c r="F2198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2198" s="3"/>
+      <c r="P2198" s="2"/>
+    </row>
+    <row r="2199" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P2199" s="2"/>
+    </row>
+    <row r="2200" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2200" s="11">
+        <v>45477.759722222225</v>
+      </c>
+      <c r="B2200" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2200" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D2200" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2200" s="4">
+        <v>470</v>
+      </c>
+      <c r="F2200" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2200" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="H2200" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2200" s="2"/>
+    </row>
+    <row r="2201" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2201" s="11">
+        <v>45477.754166666666</v>
+      </c>
+      <c r="B2201" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2201" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D2201" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2201" s="4">
+        <v>390</v>
+      </c>
+      <c r="F2201" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2201" s="3"/>
+      <c r="P2201" s="2"/>
+    </row>
+    <row r="2202" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P2202" s="2"/>
+    </row>
+    <row r="2203" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2203" s="11">
+        <v>45569.882638888892</v>
+      </c>
+      <c r="B2203" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C2203" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D2203" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2203" s="4">
+        <v>100</v>
+      </c>
+      <c r="F2203" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2203" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="H2203" s="60" t="s">
+        <v>1150</v>
+      </c>
+      <c r="P2203" s="2"/>
+    </row>
+    <row r="2204" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2204" s="11">
+        <v>45569.818749999999</v>
+      </c>
+      <c r="B2204" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C2204" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D2204" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2204" s="4">
+        <v>74</v>
+      </c>
+      <c r="F2204" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2204" s="3"/>
+      <c r="P2204" s="2"/>
+    </row>
+    <row r="2205" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P2205" s="2"/>
+    </row>
+    <row r="2206" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2206" s="11">
+        <v>45600.909722222219</v>
+      </c>
+      <c r="B2206" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2206" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D2206" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E2206" s="4">
+        <v>3</v>
+      </c>
+      <c r="F2206" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2206" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2206" s="60" t="s">
+        <v>1150</v>
+      </c>
+      <c r="P2206" s="2"/>
+    </row>
+    <row r="2207" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2207" s="11">
+        <v>45600.847222222219</v>
+      </c>
+      <c r="B2207" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2207" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D2207" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E2207" s="4">
+        <v>3</v>
+      </c>
+      <c r="F2207" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2207" s="3"/>
+      <c r="P2207" s="2"/>
+    </row>
+    <row r="2208" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P2208" s="2"/>
+    </row>
+    <row r="2209" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2209" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B2209" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2209" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D2209" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="E2209" s="4">
+        <v>222</v>
+      </c>
+      <c r="F2209" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2209" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="H2209" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2209" s="2"/>
+    </row>
+    <row r="2210" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2210" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B2210" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2210" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D2210" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E2210" s="4">
+        <v>148</v>
+      </c>
+      <c r="F2210" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2210" s="3"/>
+      <c r="O2210" s="3"/>
+      <c r="P2210" s="2"/>
+    </row>
+    <row r="2211" spans="1:16" ht="15.75" thickBot="1">
+      <c r="O2211" s="3"/>
+      <c r="P2211" s="2"/>
+    </row>
+    <row r="2212" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2212" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B2212" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2212" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D2212" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2212" s="4">
+        <v>4</v>
+      </c>
+      <c r="F2212" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2212" s="3">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="H2212" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="P2212" s="2"/>
+    </row>
+    <row r="2213" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2213" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B2213" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2213" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D2213" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2213" s="4">
+        <v>116</v>
+      </c>
+      <c r="F2213" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2213" s="2"/>
+    </row>
+    <row r="2214" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P2214" s="2"/>
+    </row>
+    <row r="2215" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2215" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B2215" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2215" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D2215" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2215" s="4">
+        <v>100</v>
+      </c>
+      <c r="F2215" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2215" s="3">
+        <v>-0.21</v>
+      </c>
+      <c r="H2215" s="60" t="s">
+        <v>435</v>
+      </c>
+      <c r="P2215" s="2"/>
+    </row>
+    <row r="2216" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2216" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B2216" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2216" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D2216" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2216" s="4">
+        <v>121</v>
+      </c>
+      <c r="F2216" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2216" s="2"/>
+    </row>
+    <row r="2217" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P2217" s="2"/>
+    </row>
+    <row r="2218" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2218" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B2218" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2218" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D2218" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2218" s="4">
+        <v>605</v>
+      </c>
+      <c r="F2218" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2218" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H2218" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2218" s="2"/>
+    </row>
+    <row r="2219" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2219" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B2219" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2219" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D2219" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2219" s="4">
+        <v>545</v>
+      </c>
+      <c r="F2219" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2219" s="3"/>
+      <c r="P2219" s="2"/>
+    </row>
+    <row r="2220" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P2220" s="2"/>
+    </row>
+    <row r="2221" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2221" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B2221" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2221" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D2221" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2221" s="4">
+        <v>81</v>
+      </c>
+      <c r="F2221" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2221" s="3">
+        <v>-0.89</v>
+      </c>
+      <c r="H2221" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2221" s="2"/>
+    </row>
+    <row r="2222" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2222" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B2222" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2222" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D2222" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2222" s="4">
+        <v>170</v>
+      </c>
+      <c r="F2222" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2222" s="3"/>
+      <c r="P2222" s="2"/>
+    </row>
+    <row r="2223" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P2223" s="2"/>
+    </row>
+    <row r="2224" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2224" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B2224" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2224" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D2224" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2224" s="4">
+        <v>900</v>
+      </c>
+      <c r="F2224" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2224" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H2224" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="O2224" s="3"/>
+      <c r="P2224" s="2"/>
+    </row>
+    <row r="2225" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2225" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B2225" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2225" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D2225" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2225" s="4">
+        <v>390</v>
+      </c>
+      <c r="F2225" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2225" s="3"/>
+      <c r="P2225" s="1"/>
+    </row>
+    <row r="2226" spans="1:16" ht="15.75" thickBot="1">
+      <c r="I2226" s="1"/>
+      <c r="J2226" s="1"/>
+      <c r="K2226" s="1"/>
+      <c r="L2226" s="1"/>
+      <c r="M2226" s="1"/>
+      <c r="N2226" s="1"/>
+      <c r="O2226" s="1"/>
+      <c r="P2226" s="1"/>
+    </row>
+    <row r="2227" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2227" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B2227" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2227" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D2227" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2227" s="4">
+        <v>200</v>
+      </c>
+      <c r="F2227" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2227" s="3">
+        <v>-1.35</v>
+      </c>
+      <c r="H2227" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="P2227" s="2"/>
+    </row>
+    <row r="2228" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2228" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B2228" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2228" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D2228" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2228" s="4">
+        <v>335</v>
+      </c>
+      <c r="F2228" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2228" s="3"/>
+      <c r="P2228" s="2"/>
+    </row>
+    <row r="2229" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P2229" s="2"/>
+    </row>
+    <row r="2230" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2230" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B2230" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C2230" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D2230" s="3">
+        <v>-0.12</v>
+      </c>
+      <c r="E2230" s="4">
+        <v>100</v>
+      </c>
+      <c r="F2230" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2230" s="5">
+        <v>2.64</v>
+      </c>
+      <c r="H2230" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2230" s="2"/>
+    </row>
+    <row r="2231" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2231" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B2231" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C2231" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D2231" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="E2231" s="4">
+        <v>78</v>
+      </c>
+      <c r="F2231" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2231" s="3"/>
+      <c r="P2231" s="2"/>
+    </row>
+    <row r="2232" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P2232" s="2"/>
+    </row>
+    <row r="2233" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2233" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B2233" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2233" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D2233" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2233" s="4">
+        <v>100</v>
+      </c>
+      <c r="F2233" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2233" s="3">
+        <v>-0.13</v>
+      </c>
+      <c r="H2233" s="60" t="s">
+        <v>1150</v>
+      </c>
+      <c r="P2233" s="2"/>
+    </row>
+    <row r="2234" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2234" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2234" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2234" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D2234" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2234" s="4">
+        <v>113</v>
+      </c>
+      <c r="F2234" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2234" s="3"/>
+      <c r="P2234" s="2"/>
+    </row>
+    <row r="2235" spans="1:16" ht="15.75" thickBot="1">
+      <c r="P2235" s="2"/>
+    </row>
+    <row r="2236" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2236" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B2236" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2236" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D2236" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2236" s="4">
+        <v>68</v>
+      </c>
+      <c r="F2236" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2236" s="3">
+        <v>-0.35</v>
+      </c>
+      <c r="H2236" s="60" t="s">
+        <v>1150</v>
+      </c>
+      <c r="P2236" s="1"/>
+    </row>
+    <row r="2237" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2237" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B2237" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2237" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D2237" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2237" s="4">
+        <v>103</v>
+      </c>
+      <c r="F2237" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="2239" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2239" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B2239" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2239" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D2239" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2239" s="4">
+        <v>300</v>
+      </c>
+      <c r="F2239" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2239" s="3">
+        <v>-0.8</v>
+      </c>
+      <c r="H2239" s="60" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2240" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B2240" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2240" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D2240" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2240" s="4">
+        <v>380</v>
+      </c>
+      <c r="F2240" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2240" s="3"/>
+    </row>
+    <row r="2241" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="2242" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A2242" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B2242" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2242" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D2242" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2242" s="4">
+        <v>900</v>
+      </c>
+      <c r="F2242" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2242" s="5">
+        <v>5.35</v>
+      </c>
+      <c r="H2242" s="60" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A2243" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B2243" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2243" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D2243" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2243" s="4">
+        <v>365</v>
+      </c>
+      <c r="F2243" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2243" s="3"/>
+    </row>
+    <row r="2244" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="2245" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A2245" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B2245" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2245" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D2245" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="E2245" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2245" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2245" s="3">
+        <v>-2</v>
+      </c>
+      <c r="H2245" s="60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A2246" s="2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B2246" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2246" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D2246" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E2246" s="4">
+        <v>50</v>
+      </c>
+      <c r="F2246" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="2248" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A2248" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B2248" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2248" s="2" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D2248" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2248" s="4">
+        <v>199</v>
+      </c>
+      <c r="F2248" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2248" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H2248" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2248" s="3"/>
+    </row>
+    <row r="2249" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A2249" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B2249" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2249" s="2" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D2249" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2249" s="4">
+        <v>141</v>
+      </c>
+      <c r="F2249" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:15" ht="15.75" thickBot="1">
+      <c r="O2250" s="3"/>
+    </row>
+    <row r="2251" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A2251" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B2251" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2251" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="D2251" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2251" s="4">
+        <v>300</v>
+      </c>
+      <c r="F2251" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2251" s="3">
+        <v>-1.55</v>
+      </c>
+      <c r="H2251" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2251" s="3"/>
+    </row>
+    <row r="2252" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A2252" s="2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B2252" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2252" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="D2252" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2252" s="4">
+        <v>455</v>
+      </c>
+      <c r="F2252" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="2254" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A2254" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B2254" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2254" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D2254" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2254" s="4">
+        <v>9</v>
+      </c>
+      <c r="F2254" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2254" s="3">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="H2254" s="60" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A2255" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B2255" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2255" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D2255" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2255" s="4">
+        <v>119</v>
+      </c>
+      <c r="F2255" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2255" s="3"/>
+    </row>
+    <row r="2256" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="2257" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2257" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B2257" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2257" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D2257" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2257" s="4">
+        <v>385</v>
+      </c>
+      <c r="F2257" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2257" s="3">
+        <v>-0.15</v>
+      </c>
+      <c r="H2257" s="60" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2258" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B2258" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2258" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D2258" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2258" s="4">
+        <v>400</v>
+      </c>
+      <c r="F2258" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2258" s="3"/>
+    </row>
+    <row r="2259" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="2260" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2260" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B2260" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2260" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D2260" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2260" s="4">
+        <v>100</v>
+      </c>
+      <c r="F2260" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2260" s="3">
+        <v>-3.55</v>
+      </c>
+      <c r="H2260" s="60" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2261" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B2261" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2261" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D2261" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2261" s="4">
+        <v>455</v>
+      </c>
+      <c r="F2261" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2261" s="3"/>
+    </row>
+    <row r="2262" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="2263" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2263" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B2263" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2263" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2263" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E2263" s="4">
+        <v>140</v>
+      </c>
+      <c r="F2263" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2263" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="H2263" s="60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2264" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B2264" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2264" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2264" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E2264" s="4">
+        <v>119</v>
+      </c>
+      <c r="F2264" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2264" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42863,10 +44611,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69ADCCE-6045-4E48-9EC0-147CFF2E287E}">
-  <dimension ref="A1:J637"/>
+  <dimension ref="A1:J652"/>
   <sheetViews>
-    <sheetView topLeftCell="A616" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="J637" sqref="J637"/>
+    <sheetView topLeftCell="A622" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="J646" sqref="J646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -55333,6 +57081,302 @@
       </c>
       <c r="G637" s="3"/>
       <c r="H637" s="81"/>
+    </row>
+    <row r="638" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="639" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A639" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C639" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D639" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E639" s="4">
+        <v>3.55</v>
+      </c>
+      <c r="F639" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G639" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="H639" s="83" t="s">
+        <v>245</v>
+      </c>
+      <c r="J639">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="640" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A640" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C640" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D640" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E640" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F640" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G640" s="1"/>
+      <c r="H640" s="83"/>
+    </row>
+    <row r="641" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A641" s="2"/>
+      <c r="B641" s="2"/>
+      <c r="C641" s="2"/>
+      <c r="D641" s="5"/>
+      <c r="E641" s="4"/>
+      <c r="F641" s="2"/>
+      <c r="G641" s="1"/>
+      <c r="H641" s="83"/>
+    </row>
+    <row r="642" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A642" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D642" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E642" s="4">
+        <v>3</v>
+      </c>
+      <c r="F642" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G642" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="H642" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="J642">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A643" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D643" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E643" s="4">
+        <v>4</v>
+      </c>
+      <c r="F643" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G643" s="3"/>
+      <c r="H643" s="83"/>
+    </row>
+    <row r="644" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A644" s="2"/>
+      <c r="B644" s="2"/>
+      <c r="C644" s="2"/>
+      <c r="D644" s="5"/>
+      <c r="E644" s="4"/>
+      <c r="F644" s="2"/>
+      <c r="G644" s="3"/>
+      <c r="H644" s="83"/>
+    </row>
+    <row r="645" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A645" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C645" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D645" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E645" s="4">
+        <v>0</v>
+      </c>
+      <c r="F645" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G645" s="3">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="H645" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="J645">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="646" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A646" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C646" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D646" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E646" s="4">
+        <v>3</v>
+      </c>
+      <c r="F646" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G646" s="3"/>
+      <c r="H646" s="83"/>
+    </row>
+    <row r="647" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A647" s="2"/>
+      <c r="B647" s="2"/>
+      <c r="C647" s="2"/>
+      <c r="D647" s="5"/>
+      <c r="E647" s="4"/>
+      <c r="F647" s="2"/>
+      <c r="G647" s="3"/>
+      <c r="H647" s="83"/>
+    </row>
+    <row r="648" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A648" s="11">
+        <v>45447.690972222219</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D648" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E648" s="4">
+        <v>1</v>
+      </c>
+      <c r="F648" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G648" s="19">
+        <v>0</v>
+      </c>
+      <c r="H648" s="83" t="s">
+        <v>435</v>
+      </c>
+      <c r="J648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A649" s="11">
+        <v>45447.628472222219</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C649" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D649" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E649" s="4">
+        <v>2</v>
+      </c>
+      <c r="F649" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G649" s="1"/>
+      <c r="H649" s="83"/>
+    </row>
+    <row r="650" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A650" s="11"/>
+      <c r="B650" s="2"/>
+      <c r="C650" s="2"/>
+      <c r="D650" s="5"/>
+      <c r="E650" s="4"/>
+      <c r="F650" s="2"/>
+      <c r="G650" s="1"/>
+      <c r="H650" s="83"/>
+    </row>
+    <row r="651" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A651" s="11">
+        <v>45600.909722222219</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C651" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D651" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E651" s="4">
+        <v>3</v>
+      </c>
+      <c r="F651" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G651" s="5">
+        <v>0</v>
+      </c>
+      <c r="H651" s="83" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A652" s="11">
+        <v>45600.847222222219</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C652" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D652" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E652" s="4">
+        <v>3</v>
+      </c>
+      <c r="F652" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G652" s="3"/>
+      <c r="H652" s="83"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J614" xr:uid="{3282B270-2D9E-4F76-9007-F3FE25633B41}"/>
@@ -70255,10 +72299,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D06B20-CCF1-4036-B3BD-37B7A628EE5D}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -70858,6 +72902,58 @@
       <c r="G29" s="3"/>
       <c r="H29" s="81"/>
     </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A31" s="11">
+        <v>45569.882638888892</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D31" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E31" s="4">
+        <v>100</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="H31" s="83" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A32" s="11">
+        <v>45569.818749999999</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E32" s="4">
+        <v>74</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="83"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -70865,10 +72961,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0DE6D1-ACC8-46A2-BD3B-CDF8A5FBA1B5}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="A16" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -71595,6 +73691,117 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="78"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A38" s="11">
+        <v>45447.800694444442</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>100</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="5">
+        <v>21</v>
+      </c>
+      <c r="H38" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="J38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A39" s="11">
+        <v>45447.677777777775</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>79</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="83"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A40" s="11"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="2"/>
+      <c r="H40" s="83"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A41" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-0.12</v>
+      </c>
+      <c r="E41" s="4">
+        <v>100</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="5">
+        <v>2.64</v>
+      </c>
+      <c r="H41" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="J41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="E42" s="4">
+        <v>78</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -71701,10 +73908,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153E1AFE-D8C7-424B-A39A-BC84A93EB678}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -71753,6 +73960,14 @@
       </c>
       <c r="C5" t="s">
         <v>1539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="85">
+        <v>45416</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -72137,17 +74352,17 @@
       <c r="C33">
         <v>1.5</v>
       </c>
-      <c r="D33" s="83" t="s">
+      <c r="D33" s="84" t="s">
         <v>841</v>
       </c>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
@@ -72156,14 +74371,14 @@
       <c r="B34" t="s">
         <v>843</v>
       </c>
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="84" t="s">
         <v>844</v>
       </c>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -72179,7 +74394,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -72261,11 +74476,11 @@
         <v>143</v>
       </c>
       <c r="B3">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A3)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A3)</f>
         <v>7</v>
       </c>
       <c r="C3">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A3,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A3,'Total Goals'!$J$2:$J$1000017)</f>
         <v>-8.0500000000000007</v>
       </c>
       <c r="E3">
@@ -72285,11 +74500,11 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A3)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A3)</f>
         <v>0</v>
       </c>
       <c r="L3">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A3,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A3,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N3">
@@ -72309,19 +74524,19 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A3)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A3)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A3,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A3,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A3)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A3)</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A3,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A3,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -72330,11 +74545,11 @@
         <v>435</v>
       </c>
       <c r="B4">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A4)</f>
-        <v>24</v>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A4)</f>
+        <v>25</v>
       </c>
       <c r="C4">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A4,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A4,'Total Goals'!$J$2:$J$1000017)</f>
         <v>-2.5</v>
       </c>
       <c r="E4" s="79">
@@ -72354,12 +74569,12 @@
         <v>-88</v>
       </c>
       <c r="K4">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A4)</f>
-        <v>5</v>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A4)</f>
+        <v>6</v>
       </c>
       <c r="L4">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A4,MatchP!$J$2:$J$1000006)</f>
-        <v>-15</v>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A4,MatchP!$J$2:$J$1000011)</f>
+        <v>-61</v>
       </c>
       <c r="N4">
         <f>COUNTIF(Goals100Indices!$H$2:$H$1000009,"=" &amp;A4)</f>
@@ -72378,20 +74593,20 @@
         <v>-3</v>
       </c>
       <c r="T4">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A4)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A4)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A4,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A4,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A4)</f>
-        <v>2</v>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A4)</f>
+        <v>3</v>
       </c>
       <c r="X4">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A4,CrossBookings!$J$2:$J$1000020)</f>
-        <v>-245</v>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A4,CrossBookings!$J$2:$J$1000027)</f>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -72399,11 +74614,11 @@
         <v>436</v>
       </c>
       <c r="B5">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A5)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A5)</f>
         <v>17</v>
       </c>
       <c r="C5">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A5,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A5,'Total Goals'!$J$2:$J$1000017)</f>
         <v>-3.9</v>
       </c>
       <c r="E5">
@@ -72423,11 +74638,11 @@
         <v>30</v>
       </c>
       <c r="K5">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A5)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A5)</f>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A5,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A5,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N5">
@@ -72447,19 +74662,19 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A5)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A5)</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A5,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A5,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W5">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A5)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A5)</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A5,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A5,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -72468,12 +74683,12 @@
         <v>144</v>
       </c>
       <c r="B6" s="79">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A6)</f>
-        <v>33</v>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A6)</f>
+        <v>35</v>
       </c>
       <c r="C6" s="79">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A6,'Total Goals'!$J$2:$J$1000013)</f>
-        <v>1.5000000000000007</v>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A6,'Total Goals'!$J$2:$J$1000017)</f>
+        <v>-2.4999999999999991</v>
       </c>
       <c r="E6">
         <f>COUNTIF(CornersSQ!$H$2:$H$1000044,"=" &amp;A6)</f>
@@ -72492,12 +74707,12 @@
         <v>-9</v>
       </c>
       <c r="K6" s="79">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A6)</f>
-        <v>11</v>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A6)</f>
+        <v>13</v>
       </c>
       <c r="L6" s="79">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A6,MatchP!$J$2:$J$1000006)</f>
-        <v>59</v>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A6,MatchP!$J$2:$J$1000011)</f>
+        <v>54</v>
       </c>
       <c r="N6">
         <f>COUNTIF(Goals100Indices!$H$2:$H$1000009,"=" &amp;A6)</f>
@@ -72516,20 +74731,20 @@
         <v>-59</v>
       </c>
       <c r="T6">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A6)</f>
-        <v>6</v>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A6)</f>
+        <v>8</v>
       </c>
       <c r="U6">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A6,CustomBet!$J$2:$J$1000009)</f>
-        <v>-50</v>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A6,CustomBet!$J$2:$J$1000010)</f>
+        <v>-7</v>
       </c>
       <c r="W6">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A6)</f>
-        <v>1</v>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A6)</f>
+        <v>4</v>
       </c>
       <c r="X6">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A6,CrossBookings!$J$2:$J$1000020)</f>
-        <v>275</v>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A6,CrossBookings!$J$2:$J$1000027)</f>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -72537,11 +74752,11 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A7)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A7)</f>
         <v>3</v>
       </c>
       <c r="C7">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A7,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A7,'Total Goals'!$J$2:$J$1000017)</f>
         <v>-0.85000000000000031</v>
       </c>
       <c r="E7">
@@ -72561,11 +74776,11 @@
         <v>-48</v>
       </c>
       <c r="K7">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A7)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A7)</f>
         <v>1</v>
       </c>
       <c r="L7">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A7,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A7,MatchP!$J$2:$J$1000011)</f>
         <v>-3</v>
       </c>
       <c r="N7">
@@ -72585,19 +74800,19 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A7)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A7)</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A7,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A7,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A7)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A7)</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A7,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A7,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -72606,11 +74821,11 @@
         <v>1154</v>
       </c>
       <c r="B8">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A8)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A8)</f>
         <v>0</v>
       </c>
       <c r="C8">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A8,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A8,'Total Goals'!$J$2:$J$1000017)</f>
         <v>0</v>
       </c>
       <c r="E8">
@@ -72630,11 +74845,11 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A8)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A8)</f>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A8,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A8,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N8">
@@ -72654,19 +74869,19 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A8)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A8)</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A8,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A8,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A8)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A8)</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A8,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A8,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -72675,11 +74890,11 @@
         <v>329</v>
       </c>
       <c r="B9">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A9)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A9)</f>
         <v>0</v>
       </c>
       <c r="C9">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A9,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A9,'Total Goals'!$J$2:$J$1000017)</f>
         <v>0</v>
       </c>
       <c r="E9">
@@ -72699,11 +74914,11 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A9)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A9)</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A9,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A9,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N9">
@@ -72723,19 +74938,19 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A9)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A9)</f>
         <v>0</v>
       </c>
       <c r="U9">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A9,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A9,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W9">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A9)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A9)</f>
         <v>0</v>
       </c>
       <c r="X9">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A9,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A9,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -72744,11 +74959,11 @@
         <v>330</v>
       </c>
       <c r="B10">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A10)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A10)</f>
         <v>1</v>
       </c>
       <c r="C10">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A10,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A10,'Total Goals'!$J$2:$J$1000017)</f>
         <v>-0.45</v>
       </c>
       <c r="E10">
@@ -72768,11 +74983,11 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A10)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A10)</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A10,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A10,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N10">
@@ -72792,19 +75007,19 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A10)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A10)</f>
         <v>0</v>
       </c>
       <c r="U10">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A10,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A10,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A10)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A10)</f>
         <v>0</v>
       </c>
       <c r="X10">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A10,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A10,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -72813,11 +75028,11 @@
         <v>210</v>
       </c>
       <c r="B11">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A11)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A11)</f>
         <v>6</v>
       </c>
       <c r="C11">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A11,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A11,'Total Goals'!$J$2:$J$1000017)</f>
         <v>-6.5999999999999988</v>
       </c>
       <c r="E11">
@@ -72837,11 +75052,11 @@
         <v>-25</v>
       </c>
       <c r="K11">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A11)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A11)</f>
         <v>3</v>
       </c>
       <c r="L11">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A11,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A11,MatchP!$J$2:$J$1000011)</f>
         <v>-88</v>
       </c>
       <c r="N11">
@@ -72861,20 +75076,20 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A11)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A11)</f>
         <v>1</v>
       </c>
       <c r="U11">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A11,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A11,CustomBet!$J$2:$J$1000010)</f>
         <v>18</v>
       </c>
       <c r="W11">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A11)</f>
-        <v>5</v>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A11)</f>
+        <v>6</v>
       </c>
       <c r="X11">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A11,CrossBookings!$J$2:$J$1000020)</f>
-        <v>985</v>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A11,CrossBookings!$J$2:$J$1000027)</f>
+        <v>1495</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -72882,11 +75097,11 @@
         <v>331</v>
       </c>
       <c r="B12">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A12)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A12)</f>
         <v>1</v>
       </c>
       <c r="C12">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A12,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A12,'Total Goals'!$J$2:$J$1000017)</f>
         <v>-0.2</v>
       </c>
       <c r="E12">
@@ -72906,11 +75121,11 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A12)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A12)</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A12,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A12,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N12">
@@ -72930,19 +75145,19 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A12)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A12)</f>
         <v>0</v>
       </c>
       <c r="U12">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A12,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A12,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A12)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A12)</f>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A12,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A12,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -72951,11 +75166,11 @@
         <v>1155</v>
       </c>
       <c r="B13">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A13)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A13)</f>
         <v>0</v>
       </c>
       <c r="C13">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A13,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A13,'Total Goals'!$J$2:$J$1000017)</f>
         <v>0</v>
       </c>
       <c r="E13">
@@ -72975,11 +75190,11 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A13)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A13)</f>
         <v>0</v>
       </c>
       <c r="L13">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A13,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A13,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N13">
@@ -72999,19 +75214,19 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A13)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A13)</f>
         <v>0</v>
       </c>
       <c r="U13">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A13,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A13,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W13">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A13)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A13)</f>
         <v>0</v>
       </c>
       <c r="X13">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A13,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A13,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -73020,12 +75235,12 @@
         <v>245</v>
       </c>
       <c r="B14">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A14)</f>
-        <v>30</v>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A14)</f>
+        <v>31</v>
       </c>
       <c r="C14">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A14,'Total Goals'!$J$2:$J$1000013)</f>
-        <v>0.80000000000000027</v>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A14,'Total Goals'!$J$2:$J$1000017)</f>
+        <v>2.1500000000000004</v>
       </c>
       <c r="E14">
         <f>COUNTIF(CornersSQ!$H$2:$H$1000044,"=" &amp;A14)</f>
@@ -73044,11 +75259,11 @@
         <v>-22</v>
       </c>
       <c r="K14">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A14)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A14)</f>
         <v>7</v>
       </c>
       <c r="L14">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A14,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A14,MatchP!$J$2:$J$1000011)</f>
         <v>-82</v>
       </c>
       <c r="N14">
@@ -73068,20 +75283,20 @@
         <v>0</v>
       </c>
       <c r="T14" s="79">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A14)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A14)</f>
         <v>3</v>
       </c>
       <c r="U14" s="79">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A14,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A14,CustomBet!$J$2:$J$1000010)</f>
         <v>60</v>
       </c>
       <c r="W14">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A14)</f>
-        <v>4</v>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A14)</f>
+        <v>5</v>
       </c>
       <c r="X14">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A14,CrossBookings!$J$2:$J$1000020)</f>
-        <v>-1280</v>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A14,CrossBookings!$J$2:$J$1000027)</f>
+        <v>-1415</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -73089,11 +75304,11 @@
         <v>30</v>
       </c>
       <c r="B15">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A15)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A15)</f>
         <v>2</v>
       </c>
       <c r="C15">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A15,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A15,'Total Goals'!$J$2:$J$1000017)</f>
         <v>-1.9</v>
       </c>
       <c r="E15">
@@ -73113,11 +75328,11 @@
         <v>-17</v>
       </c>
       <c r="K15">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A15)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A15)</f>
         <v>0</v>
       </c>
       <c r="L15">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A15,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A15,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N15">
@@ -73137,19 +75352,19 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A15)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A15)</f>
         <v>0</v>
       </c>
       <c r="U15">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A15,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A15,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W15">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A15)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A15)</f>
         <v>0</v>
       </c>
       <c r="X15">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A15,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A15,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -73158,11 +75373,11 @@
         <v>246</v>
       </c>
       <c r="B16">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A16)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A16)</f>
         <v>6</v>
       </c>
       <c r="C16">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A16,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A16,'Total Goals'!$J$2:$J$1000017)</f>
         <v>-5.3</v>
       </c>
       <c r="E16">
@@ -73182,11 +75397,11 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A16)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A16)</f>
         <v>0</v>
       </c>
       <c r="L16">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A16,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A16,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N16">
@@ -73206,19 +75421,19 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A16)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A16)</f>
         <v>0</v>
       </c>
       <c r="U16">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A16,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A16,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W16">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A16)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A16)</f>
         <v>0</v>
       </c>
       <c r="X16">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A16,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A16,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -73227,11 +75442,11 @@
         <v>247</v>
       </c>
       <c r="B17">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A17)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A17)</f>
         <v>2</v>
       </c>
       <c r="C17">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A17,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A17,'Total Goals'!$J$2:$J$1000017)</f>
         <v>-2.4</v>
       </c>
       <c r="E17">
@@ -73251,11 +75466,11 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A17)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A17)</f>
         <v>0</v>
       </c>
       <c r="L17">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A17,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A17,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N17">
@@ -73275,19 +75490,19 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A17)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A17)</f>
         <v>1</v>
       </c>
       <c r="U17">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A17,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A17,CustomBet!$J$2:$J$1000010)</f>
         <v>14</v>
       </c>
       <c r="W17">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A17)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A17)</f>
         <v>0</v>
       </c>
       <c r="X17">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A17,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A17,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -73296,11 +75511,11 @@
         <v>211</v>
       </c>
       <c r="B18">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A18)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A18)</f>
         <v>14</v>
       </c>
       <c r="C18">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A18,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A18,'Total Goals'!$J$2:$J$1000017)</f>
         <v>-6.6000000000000014</v>
       </c>
       <c r="E18">
@@ -73313,19 +75528,19 @@
       </c>
       <c r="H18">
         <f>COUNTIF(Bookings!$H$2:$H$1000008,"=" &amp;A18)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I18">
         <f>SUMIF(Bookings!$H$2:$H$1000008,"=" &amp;A18,Bookings!$J$2:$J$1000008)</f>
-        <v>-104</v>
+        <v>-144</v>
       </c>
       <c r="K18">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A18)</f>
-        <v>12</v>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A18)</f>
+        <v>13</v>
       </c>
       <c r="L18">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A18,MatchP!$J$2:$J$1000006)</f>
-        <v>-48</v>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A18,MatchP!$J$2:$J$1000011)</f>
+        <v>-27</v>
       </c>
       <c r="N18">
         <f>COUNTIF(Goals100Indices!$H$2:$H$1000009,"=" &amp;A18)</f>
@@ -73344,19 +75559,19 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A18)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A18)</f>
         <v>0</v>
       </c>
       <c r="U18">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A18,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A18,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W18" s="79">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A18)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A18)</f>
         <v>7</v>
       </c>
       <c r="X18" s="79">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A18,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A18,CrossBookings!$J$2:$J$1000027)</f>
         <v>1825</v>
       </c>
     </row>
@@ -73365,11 +75580,11 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A19)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A19)</f>
         <v>1</v>
       </c>
       <c r="C19">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A19,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A19,'Total Goals'!$J$2:$J$1000017)</f>
         <v>0</v>
       </c>
       <c r="E19">
@@ -73389,11 +75604,11 @@
         <v>-47</v>
       </c>
       <c r="K19">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A19)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A19)</f>
         <v>0</v>
       </c>
       <c r="L19">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A19,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A19,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N19">
@@ -73413,19 +75628,19 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A19)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A19)</f>
         <v>0</v>
       </c>
       <c r="U19">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A19,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A19,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W19">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A19)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A19)</f>
         <v>0</v>
       </c>
       <c r="X19">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A19,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A19,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -73434,11 +75649,11 @@
         <v>63</v>
       </c>
       <c r="B20">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A20)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A20)</f>
         <v>8</v>
       </c>
       <c r="C20">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A20,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A20,'Total Goals'!$J$2:$J$1000017)</f>
         <v>8.0499999999999989</v>
       </c>
       <c r="E20">
@@ -73458,11 +75673,11 @@
         <v>-53</v>
       </c>
       <c r="K20">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A20)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A20)</f>
         <v>0</v>
       </c>
       <c r="L20">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A20,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A20,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N20">
@@ -73482,19 +75697,19 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A20)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A20)</f>
         <v>0</v>
       </c>
       <c r="U20">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A20,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A20,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W20">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A20)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A20)</f>
         <v>0</v>
       </c>
       <c r="X20">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A20,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A20,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -73503,11 +75718,11 @@
         <v>1147</v>
       </c>
       <c r="B21">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A21)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A21)</f>
         <v>0</v>
       </c>
       <c r="C21">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A21,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A21,'Total Goals'!$J$2:$J$1000017)</f>
         <v>0</v>
       </c>
       <c r="E21">
@@ -73527,11 +75742,11 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A21)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A21)</f>
         <v>0</v>
       </c>
       <c r="L21">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A21,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A21,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N21">
@@ -73551,19 +75766,19 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A21)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A21)</f>
         <v>0</v>
       </c>
       <c r="U21">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A21,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A21,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W21">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A21)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A21)</f>
         <v>0</v>
       </c>
       <c r="X21">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A21,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A21,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -73572,11 +75787,11 @@
         <v>1148</v>
       </c>
       <c r="B22">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A22)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A22)</f>
         <v>0</v>
       </c>
       <c r="C22">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A22,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A22,'Total Goals'!$J$2:$J$1000017)</f>
         <v>0</v>
       </c>
       <c r="E22">
@@ -73596,11 +75811,11 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A22)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A22)</f>
         <v>0</v>
       </c>
       <c r="L22">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A22,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A22,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N22">
@@ -73620,19 +75835,19 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A22)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A22)</f>
         <v>0</v>
       </c>
       <c r="U22">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A22,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A22,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W22">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A22)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A22)</f>
         <v>0</v>
       </c>
       <c r="X22">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A22,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A22,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -73641,11 +75856,11 @@
         <v>1156</v>
       </c>
       <c r="B23">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A23)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A23)</f>
         <v>0</v>
       </c>
       <c r="C23">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A23,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A23,'Total Goals'!$J$2:$J$1000017)</f>
         <v>0</v>
       </c>
       <c r="E23">
@@ -73665,11 +75880,11 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A23)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A23)</f>
         <v>0</v>
       </c>
       <c r="L23">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A23,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A23,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N23">
@@ -73689,19 +75904,19 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A23)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A23)</f>
         <v>0</v>
       </c>
       <c r="U23">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A23,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A23,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W23">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A23)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A23)</f>
         <v>0</v>
       </c>
       <c r="X23">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A23,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A23,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -73710,11 +75925,11 @@
         <v>142</v>
       </c>
       <c r="B24">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A24)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A24)</f>
         <v>25</v>
       </c>
       <c r="C24">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A24,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A24,'Total Goals'!$J$2:$J$1000017)</f>
         <v>-1.4500000000000002</v>
       </c>
       <c r="E24">
@@ -73734,11 +75949,11 @@
         <v>12</v>
       </c>
       <c r="K24">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A24)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A24)</f>
         <v>1</v>
       </c>
       <c r="L24">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A24,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A24,MatchP!$J$2:$J$1000011)</f>
         <v>-15</v>
       </c>
       <c r="N24">
@@ -73758,19 +75973,19 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A24)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A24)</f>
         <v>0</v>
       </c>
       <c r="U24">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A24,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A24,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W24">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A24)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A24)</f>
         <v>2</v>
       </c>
       <c r="X24">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A24,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A24,CrossBookings!$J$2:$J$1000027)</f>
         <v>735</v>
       </c>
     </row>
@@ -73779,11 +75994,11 @@
         <v>1150</v>
       </c>
       <c r="B25">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A25)</f>
-        <v>13</v>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A25)</f>
+        <v>14</v>
       </c>
       <c r="C25">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A25,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A25,'Total Goals'!$J$2:$J$1000017)</f>
         <v>-5.55</v>
       </c>
       <c r="E25">
@@ -73803,20 +76018,20 @@
         <v>15</v>
       </c>
       <c r="K25">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A25)</f>
-        <v>0</v>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A25)</f>
+        <v>2</v>
       </c>
       <c r="L25">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A25,MatchP!$J$2:$J$1000006)</f>
-        <v>0</v>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A25,MatchP!$J$2:$J$1000011)</f>
+        <v>-48</v>
       </c>
       <c r="N25">
         <f>COUNTIF(Goals100Indices!$H$2:$H$1000009,"=" &amp;A25)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O25">
         <f>SUMIF(Goals100Indices!$H$2:$H$1000009,"=" &amp;A25,Goals100Indices!$J$2:$J$1000009)</f>
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <f>COUNTIF(Corner100Indices!$H$2:$H$1000004,"=" &amp;A25)</f>
@@ -73827,20 +76042,20 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A25)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A25)</f>
         <v>1</v>
       </c>
       <c r="U25">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A25,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A25,CustomBet!$J$2:$J$1000010)</f>
         <v>-25</v>
       </c>
       <c r="W25">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A25)</f>
-        <v>1</v>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A25)</f>
+        <v>2</v>
       </c>
       <c r="X25">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A25,CrossBookings!$J$2:$J$1000020)</f>
-        <v>-35</v>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A25,CrossBookings!$J$2:$J$1000027)</f>
+        <v>-115</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -73848,11 +76063,11 @@
         <v>1151</v>
       </c>
       <c r="B26">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A26)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A26)</f>
         <v>6</v>
       </c>
       <c r="C26">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A26,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A26,'Total Goals'!$J$2:$J$1000017)</f>
         <v>-1.5500000000000003</v>
       </c>
       <c r="E26">
@@ -73872,11 +76087,11 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A26)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A26)</f>
         <v>0</v>
       </c>
       <c r="L26">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A26,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A26,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N26">
@@ -73896,19 +76111,19 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A26)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A26)</f>
         <v>0</v>
       </c>
       <c r="U26">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A26,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A26,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W26">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A26)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A26)</f>
         <v>0</v>
       </c>
       <c r="X26">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A26,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A26,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -73917,11 +76132,11 @@
         <v>328</v>
       </c>
       <c r="B27">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A27)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A27)</f>
         <v>3</v>
       </c>
       <c r="C27">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A27,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A27,'Total Goals'!$J$2:$J$1000017)</f>
         <v>-2.6</v>
       </c>
       <c r="E27">
@@ -73941,11 +76156,11 @@
         <v>-14</v>
       </c>
       <c r="K27">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A27)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A27)</f>
         <v>0</v>
       </c>
       <c r="L27">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A27,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A27,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N27">
@@ -73965,20 +76180,20 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A27)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A27)</f>
         <v>0</v>
       </c>
       <c r="U27">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A27,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A27,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W27">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A27)</f>
-        <v>0</v>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A27)</f>
+        <v>1</v>
       </c>
       <c r="X27">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A27,CrossBookings!$J$2:$J$1000020)</f>
-        <v>0</v>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A27,CrossBookings!$J$2:$J$1000027)</f>
+        <v>-355</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -73986,11 +76201,11 @@
         <v>16</v>
       </c>
       <c r="B28">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A28)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A28)</f>
         <v>4</v>
       </c>
       <c r="C28">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A28,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A28,'Total Goals'!$J$2:$J$1000017)</f>
         <v>3</v>
       </c>
       <c r="E28">
@@ -74010,11 +76225,11 @@
         <v>-3</v>
       </c>
       <c r="K28">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A28)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A28)</f>
         <v>0</v>
       </c>
       <c r="L28">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A28,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A28,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N28">
@@ -74034,19 +76249,19 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A28)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A28)</f>
         <v>0</v>
       </c>
       <c r="U28">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A28,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A28,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W28">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A28)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A28)</f>
         <v>0</v>
       </c>
       <c r="X28">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A28,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A28,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -74055,11 +76270,11 @@
         <v>92</v>
       </c>
       <c r="B29">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A29)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A29)</f>
         <v>2</v>
       </c>
       <c r="C29">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A29,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A29,'Total Goals'!$J$2:$J$1000017)</f>
         <v>1.95</v>
       </c>
       <c r="E29">
@@ -74079,11 +76294,11 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A29)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A29)</f>
         <v>0</v>
       </c>
       <c r="L29">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A29,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A29,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N29">
@@ -74103,19 +76318,19 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A29)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A29)</f>
         <v>0</v>
       </c>
       <c r="U29">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A29,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A29,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W29">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A29)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A29)</f>
         <v>0</v>
       </c>
       <c r="X29">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A29,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A29,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -74124,11 +76339,11 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A30)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A30)</f>
         <v>2</v>
       </c>
       <c r="C30">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A30,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A30,'Total Goals'!$J$2:$J$1000017)</f>
         <v>-1.3</v>
       </c>
       <c r="E30">
@@ -74148,11 +76363,11 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A30)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A30)</f>
         <v>0</v>
       </c>
       <c r="L30">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A30,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A30,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N30">
@@ -74172,19 +76387,19 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A30)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A30)</f>
         <v>0</v>
       </c>
       <c r="U30">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A30,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A30,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W30">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A30)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A30)</f>
         <v>0</v>
       </c>
       <c r="X30">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A30,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A30,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -74193,11 +76408,11 @@
         <v>91</v>
       </c>
       <c r="B31">
-        <f>COUNTIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A31)</f>
+        <f>COUNTIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A31)</f>
         <v>1</v>
       </c>
       <c r="C31">
-        <f>SUMIF('Total Goals'!$H$2:$H$1000013,"=" &amp;A31,'Total Goals'!$J$2:$J$1000013)</f>
+        <f>SUMIF('Total Goals'!$H$2:$H$1000017,"=" &amp;A31,'Total Goals'!$J$2:$J$1000017)</f>
         <v>-2.0499999999999998</v>
       </c>
       <c r="E31">
@@ -74217,11 +76432,11 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <f>COUNTIF(MatchP!$H$2:$H$1000006,"=" &amp;A31)</f>
+        <f>COUNTIF(MatchP!$H$2:$H$1000011,"=" &amp;A31)</f>
         <v>0</v>
       </c>
       <c r="L31">
-        <f>SUMIF(MatchP!$H$2:$H$1000006,"=" &amp;A31,MatchP!$J$2:$J$1000006)</f>
+        <f>SUMIF(MatchP!$H$2:$H$1000011,"=" &amp;A31,MatchP!$J$2:$J$1000011)</f>
         <v>0</v>
       </c>
       <c r="N31">
@@ -74241,25 +76456,25 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <f>COUNTIF(CustomBet!$H$2:$H$1000009,"=" &amp;A31)</f>
+        <f>COUNTIF(CustomBet!$H$2:$H$1000010,"=" &amp;A31)</f>
         <v>0</v>
       </c>
       <c r="U31">
-        <f>SUMIF(CustomBet!$H$2:$H$1000009,"=" &amp;A31,CustomBet!$J$2:$J$1000009)</f>
+        <f>SUMIF(CustomBet!$H$2:$H$1000010,"=" &amp;A31,CustomBet!$J$2:$J$1000010)</f>
         <v>0</v>
       </c>
       <c r="W31">
-        <f>COUNTIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A31)</f>
+        <f>COUNTIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A31)</f>
         <v>0</v>
       </c>
       <c r="X31">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A31,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A31,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="X32">
-        <f>SUMIF(CrossBookings!$H$2:$H$1000020,"=" &amp;A32,CrossBookings!$J$2:$J$1000020)</f>
+        <f>SUMIF(CrossBookings!$H$2:$H$1000027,"=" &amp;A32,CrossBookings!$J$2:$J$1000027)</f>
         <v>0</v>
       </c>
     </row>
@@ -74269,11 +76484,11 @@
       </c>
       <c r="B33">
         <f>SUM(B3:B31)</f>
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C33">
         <f>SUM(C3:C31)</f>
-        <v>-37.949999999999989</v>
+        <v>-40.599999999999994</v>
       </c>
       <c r="E33">
         <f t="shared" ref="E33:X33" si="0">SUM(E3:E31)</f>
@@ -74289,27 +76504,27 @@
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>-372</v>
+        <v>-412</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>-192</v>
+        <v>-270</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O33">
         <f t="shared" si="0"/>
-        <v>-76</v>
+        <v>-50</v>
       </c>
       <c r="Q33">
         <f t="shared" si="0"/>
@@ -74321,19 +76536,19 @@
       </c>
       <c r="T33">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U33">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="W33">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="X33">
         <f t="shared" si="0"/>
-        <v>2260</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -74344,7 +76559,7 @@
     <row r="41" spans="1:24" ht="18.75">
       <c r="K41" s="74">
         <f>SUM(C33,F33,I33,L33,O33,R33,U33,X33)</f>
-        <v>104.05000000000018</v>
+        <v>652.40000000000009</v>
       </c>
     </row>
   </sheetData>
@@ -74627,13 +76842,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5020844B-F5E2-4FC1-8356-265A42B6FDD8}">
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J120" sqref="J120"/>
+      <selection pane="bottomRight" activeCell="J138" sqref="J138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -76973,8 +79188,360 @@
       <c r="G120" s="3"/>
       <c r="H120" s="81"/>
     </row>
-    <row r="122" spans="1:10">
-      <c r="H122" s="80"/>
+    <row r="121" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="122" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A122" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D122" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E122" s="4">
+        <v>75</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G122" s="3">
+        <v>-0.46</v>
+      </c>
+      <c r="H122" s="83" t="s">
+        <v>435</v>
+      </c>
+      <c r="J122">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A123" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D123" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E123" s="4">
+        <v>121</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" s="3"/>
+      <c r="H123" s="83"/>
+    </row>
+    <row r="124" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="83"/>
+    </row>
+    <row r="125" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A125" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D125" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E125" s="4">
+        <v>99</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G125" s="3">
+        <v>-0.17</v>
+      </c>
+      <c r="H125" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="J125">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A126" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D126" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E126" s="4">
+        <v>116</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G126" s="3"/>
+      <c r="H126" s="83"/>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="83"/>
+    </row>
+    <row r="128" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A128" s="11">
+        <v>45477.711111111108</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D128" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E128" s="4">
+        <v>139</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G128" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="H128" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="J128">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A129" s="11">
+        <v>45477.638888888891</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D129" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E129" s="4">
+        <v>127</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" s="3"/>
+      <c r="H129" s="83"/>
+    </row>
+    <row r="130" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A130" s="11"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="83"/>
+    </row>
+    <row r="131" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A131" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D131" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E131" s="4">
+        <v>100</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G131" s="3">
+        <v>-0.13</v>
+      </c>
+      <c r="H131" s="83" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J131">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A132" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D132" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E132" s="4">
+        <v>113</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" s="3"/>
+      <c r="H132" s="83"/>
+    </row>
+    <row r="133" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="83"/>
+    </row>
+    <row r="134" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A134" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D134" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E134" s="4">
+        <v>68</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G134" s="3">
+        <v>-0.35</v>
+      </c>
+      <c r="H134" s="83" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J134">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A135" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D135" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E135" s="4">
+        <v>103</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H135" s="83"/>
+    </row>
+    <row r="136" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="2"/>
+      <c r="H136" s="83"/>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A137" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D137" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E137" s="4">
+        <v>140</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G137" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="H137" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="J137">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A138" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D138" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E138" s="4">
+        <v>119</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138" s="3"/>
+      <c r="H138" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -78625,10 +81192,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6365FC-63F9-434E-B25C-F91F641388D3}">
-  <dimension ref="A1:J327"/>
+  <dimension ref="A1:J330"/>
   <sheetViews>
     <sheetView topLeftCell="A301" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="J327" sqref="J327"/>
+      <selection activeCell="J330" sqref="J330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -85124,6 +87691,57 @@
       <c r="G327" s="3"/>
       <c r="H327" s="80"/>
     </row>
+    <row r="328" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="329" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A329" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D329" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="E329" s="4">
+        <v>10</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G329" s="3">
+        <v>-2</v>
+      </c>
+      <c r="H329" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="J329">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A330" s="2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D330" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E330" s="4">
+        <v>50</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H330" s="83"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -85131,10 +87749,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCEF816-ED95-4D4F-A204-64370156BABD}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="A52" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -86525,6 +89143,485 @@
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="78"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="71" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A71" s="11">
+        <v>45477.759722222225</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D71" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E71" s="4">
+        <v>470</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="H71" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="J71">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A72" s="11">
+        <v>45477.754166666666</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E72" s="4">
+        <v>390</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="83"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A73" s="11"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="83"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A74" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D74" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E74" s="4">
+        <v>605</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H74" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="J74">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A75" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E75" s="4">
+        <v>545</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="83"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="83"/>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A77" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D77" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E77" s="4">
+        <v>900</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H77" s="83" t="s">
+        <v>210</v>
+      </c>
+      <c r="J77">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A78" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D78" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E78" s="4">
+        <v>390</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="83"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="83"/>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A80" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D80" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E80" s="4">
+        <v>200</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="3">
+        <v>-1.35</v>
+      </c>
+      <c r="H80" s="83" t="s">
+        <v>245</v>
+      </c>
+      <c r="J80">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A81" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E81" s="4">
+        <v>335</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="83"/>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="83"/>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A83" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D83" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E83" s="4">
+        <v>300</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3">
+        <v>-0.8</v>
+      </c>
+      <c r="H83" s="83" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J83">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A84" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D84" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E84" s="4">
+        <v>380</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="83"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="83"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A86" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D86" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E86" s="4">
+        <v>900</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="5">
+        <v>5.35</v>
+      </c>
+      <c r="H86" s="83" t="s">
+        <v>435</v>
+      </c>
+      <c r="J86">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A87" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E87" s="4">
+        <v>365</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="3"/>
+      <c r="H87" s="83"/>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="83"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A89" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D89" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E89" s="4">
+        <v>385</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-0.15</v>
+      </c>
+      <c r="H89" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="J89">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A90" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D90" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E90" s="4">
+        <v>400</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="3"/>
+      <c r="H90" s="83"/>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="83"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A92" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D92" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E92" s="4">
+        <v>100</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" s="3">
+        <v>-3.55</v>
+      </c>
+      <c r="H92" s="83" t="s">
+        <v>328</v>
+      </c>
+      <c r="J92">
+        <v>-355</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A93" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D93" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E93" s="4">
+        <v>455</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
